--- a/Outputs/1. Budget/Grid Search/Output Files/750000/Output_0_10.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/750000/Output_0_10.xlsx
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>354377.1110702141</v>
+        <v>376800.6061809955</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +511,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>2740177.930556146</v>
+        <v>2629876.587221766</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>20105680.36839638</v>
+        <v>19997574.02179436</v>
       </c>
     </row>
     <row r="9">
@@ -541,7 +541,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>4846652.650336144</v>
+        <v>4901378.24669789</v>
       </c>
     </row>
     <row r="11">
@@ -704,16 +704,16 @@
         <v>9.990699214544804</v>
       </c>
       <c r="R2" t="n">
-        <v>27.59002526031614</v>
+        <v>39.58387696184059</v>
       </c>
       <c r="S2" t="n">
-        <v>27.59002526031614</v>
+        <v>39.58387696184059</v>
       </c>
       <c r="T2" t="n">
-        <v>27.59002526031614</v>
+        <v>39.58387696184059</v>
       </c>
       <c r="U2" t="n">
-        <v>14.31059503474164</v>
+        <v>24.87477961344436</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
@@ -747,16 +747,16 @@
         <v>0</v>
       </c>
       <c r="F3" t="n">
-        <v>23.55470292302859</v>
+        <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>27.59002526031614</v>
+        <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>27.59002526031614</v>
+        <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>27.59002526031614</v>
+        <v>0</v>
       </c>
       <c r="J3" t="n">
         <v>0.7465913262578567</v>
@@ -783,16 +783,16 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>0</v>
+        <v>39.58387696184059</v>
       </c>
       <c r="S3" t="n">
-        <v>0</v>
+        <v>39.58387696184059</v>
       </c>
       <c r="T3" t="n">
-        <v>0</v>
+        <v>39.58387696184059</v>
       </c>
       <c r="U3" t="n">
-        <v>0</v>
+        <v>34.11888750173132</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -859,31 +859,31 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>0</v>
+        <v>39.58387696184059</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>39.58387696184059</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>39.58387696184059</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>9.977552361264268</v>
       </c>
       <c r="U4" t="n">
         <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>22.4487593605094</v>
+        <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>27.59002526031614</v>
+        <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>27.59002526031614</v>
+        <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>27.59002526031614</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -905,19 +905,19 @@
         <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>2.361305680129117</v>
+        <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>27.59002526031614</v>
+        <v>0</v>
       </c>
       <c r="H5" t="n">
-        <v>27.59002526031614</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>27.59002526031614</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>11.94928935461252</v>
+        <v>0</v>
       </c>
       <c r="K5" t="n">
         <v>0</v>
@@ -938,19 +938,19 @@
         <v>0</v>
       </c>
       <c r="Q5" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>0</v>
+        <v>39.58387696184059</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>39.58387696184059</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>39.58387696184059</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>34.86547882798917</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
@@ -975,13 +975,13 @@
         <v>0</v>
       </c>
       <c r="C6" t="n">
-        <v>0</v>
+        <v>39.58387696184059</v>
       </c>
       <c r="D6" t="n">
-        <v>0</v>
+        <v>39.58387696184059</v>
       </c>
       <c r="E6" t="n">
-        <v>0</v>
+        <v>34.86547882798917</v>
       </c>
       <c r="F6" t="n">
         <v>0</v>
@@ -993,10 +993,10 @@
         <v>0</v>
       </c>
       <c r="I6" t="n">
-        <v>0</v>
+        <v>39.58387696184059</v>
       </c>
       <c r="J6" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K6" t="n">
         <v>0</v>
@@ -1020,16 +1020,16 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>27.59002526031614</v>
+        <v>0</v>
       </c>
       <c r="S6" t="n">
-        <v>27.59002526031614</v>
+        <v>0</v>
       </c>
       <c r="T6" t="n">
-        <v>27.59002526031614</v>
+        <v>0</v>
       </c>
       <c r="U6" t="n">
-        <v>23.55470292302859</v>
+        <v>0</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -1069,16 +1069,16 @@
         <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>39.58387696184059</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>39.58387696184059</v>
       </c>
       <c r="J7" t="n">
-        <v>0</v>
+        <v>39.58387696184059</v>
       </c>
       <c r="K7" t="n">
-        <v>0</v>
+        <v>9.977552361264268</v>
       </c>
       <c r="L7" t="n">
         <v>0</v>
@@ -1093,19 +1093,19 @@
         <v>0</v>
       </c>
       <c r="P7" t="n">
-        <v>2.721440735106512</v>
+        <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>27.59002526031614</v>
+        <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>27.59002526031614</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>27.59002526031614</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>19.72731862540289</v>
+        <v>0</v>
       </c>
       <c r="U7" t="n">
         <v>0</v>
@@ -1175,19 +1175,19 @@
         <v>0</v>
       </c>
       <c r="Q8" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>27.59002526031614</v>
+        <v>39.58387696184059</v>
       </c>
       <c r="S8" t="n">
-        <v>27.59002526031614</v>
+        <v>39.58387696184059</v>
       </c>
       <c r="T8" t="n">
-        <v>27.59002526031614</v>
+        <v>39.58387696184059</v>
       </c>
       <c r="U8" t="n">
-        <v>14.31059503474164</v>
+        <v>34.86547882798917</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -1218,19 +1218,19 @@
         <v>0</v>
       </c>
       <c r="E9" t="n">
-        <v>23.55470292302859</v>
+        <v>0</v>
       </c>
       <c r="F9" t="n">
-        <v>27.59002526031614</v>
+        <v>39.58387696184059</v>
       </c>
       <c r="G9" t="n">
-        <v>27.59002526031614</v>
+        <v>39.58387696184059</v>
       </c>
       <c r="H9" t="n">
-        <v>0</v>
+        <v>39.58387696184059</v>
       </c>
       <c r="I9" t="n">
-        <v>27.59002526031614</v>
+        <v>34.11888750173132</v>
       </c>
       <c r="J9" t="n">
         <v>0.7465913262578567</v>
@@ -1303,19 +1303,19 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0.1792675346265591</v>
+        <v>9.977552361264268</v>
       </c>
       <c r="H10" t="n">
-        <v>27.59002526031614</v>
+        <v>39.58387696184059</v>
       </c>
       <c r="I10" t="n">
-        <v>27.59002526031614</v>
+        <v>39.58387696184059</v>
       </c>
       <c r="J10" t="n">
-        <v>27.59002526031614</v>
+        <v>39.58387696184059</v>
       </c>
       <c r="K10" t="n">
-        <v>22.26949182588285</v>
+        <v>0</v>
       </c>
       <c r="L10" t="n">
         <v>0</v>
@@ -1370,10 +1370,10 @@
         <v>0</v>
       </c>
       <c r="C11" t="n">
-        <v>27.59002526031614</v>
+        <v>0</v>
       </c>
       <c r="D11" t="n">
-        <v>27.59002526031614</v>
+        <v>0</v>
       </c>
       <c r="E11" t="n">
         <v>0</v>
@@ -1418,7 +1418,7 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>0</v>
+        <v>34.86547882798917</v>
       </c>
       <c r="T11" t="n">
         <v>0</v>
@@ -1427,16 +1427,16 @@
         <v>0</v>
       </c>
       <c r="V11" t="n">
-        <v>0</v>
+        <v>39.58387696184059</v>
       </c>
       <c r="W11" t="n">
-        <v>27.59002526031614</v>
+        <v>39.58387696184059</v>
       </c>
       <c r="X11" t="n">
-        <v>0</v>
+        <v>39.58387696184059</v>
       </c>
       <c r="Y11" t="n">
-        <v>24.30129424928645</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12">
@@ -1494,19 +1494,19 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>27.59002526031614</v>
+        <v>0</v>
       </c>
       <c r="S12" t="n">
-        <v>27.59002526031614</v>
+        <v>34.86547882798917</v>
       </c>
       <c r="T12" t="n">
-        <v>27.59002526031614</v>
+        <v>39.58387696184059</v>
       </c>
       <c r="U12" t="n">
-        <v>24.30129424928645</v>
+        <v>39.58387696184059</v>
       </c>
       <c r="V12" t="n">
-        <v>0</v>
+        <v>39.58387696184059</v>
       </c>
       <c r="W12" t="n">
         <v>0</v>
@@ -1543,16 +1543,16 @@
         <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>24.5704967621155</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>39.58387696184059</v>
       </c>
       <c r="J13" t="n">
-        <v>0</v>
+        <v>39.58387696184059</v>
       </c>
       <c r="K13" t="n">
-        <v>0</v>
+        <v>22.26949182588285</v>
       </c>
       <c r="L13" t="n">
         <v>0</v>
@@ -1567,19 +1567,19 @@
         <v>0</v>
       </c>
       <c r="P13" t="n">
-        <v>0</v>
+        <v>2.721440735106512</v>
       </c>
       <c r="Q13" t="n">
-        <v>27.59002526031614</v>
+        <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>27.59002526031614</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>27.59002526031614</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>22.44875936050941</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
         <v>0</v>
@@ -1649,22 +1649,22 @@
         <v>0</v>
       </c>
       <c r="Q14" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R14" t="n">
-        <v>27.59002526031614</v>
+        <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>27.59002526031614</v>
+        <v>34.86547882798917</v>
       </c>
       <c r="T14" t="n">
-        <v>27.59002526031614</v>
+        <v>39.58387696184059</v>
       </c>
       <c r="U14" t="n">
-        <v>14.31059503474164</v>
+        <v>39.58387696184059</v>
       </c>
       <c r="V14" t="n">
-        <v>0</v>
+        <v>39.58387696184059</v>
       </c>
       <c r="W14" t="n">
         <v>0</v>
@@ -1698,10 +1698,10 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>0</v>
+        <v>34.86547882798917</v>
       </c>
       <c r="H15" t="n">
-        <v>0</v>
+        <v>39.58387696184059</v>
       </c>
       <c r="I15" t="n">
         <v>0</v>
@@ -1731,16 +1731,16 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>27.59002526031614</v>
+        <v>39.58387696184059</v>
       </c>
       <c r="S15" t="n">
-        <v>27.59002526031614</v>
+        <v>39.58387696184059</v>
       </c>
       <c r="T15" t="n">
-        <v>27.59002526031614</v>
+        <v>0</v>
       </c>
       <c r="U15" t="n">
-        <v>24.30129424928645</v>
+        <v>0</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -1780,16 +1780,16 @@
         <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>25.04785205983618</v>
+        <v>39.58387696184059</v>
       </c>
       <c r="I16" t="n">
-        <v>27.59002526031614</v>
+        <v>39.58387696184059</v>
       </c>
       <c r="J16" t="n">
-        <v>27.59002526031614</v>
+        <v>39.58387696184059</v>
       </c>
       <c r="K16" t="n">
-        <v>22.26949182588285</v>
+        <v>7.256111626157765</v>
       </c>
       <c r="L16" t="n">
         <v>0</v>
@@ -1889,16 +1889,16 @@
         <v>9.990699214544804</v>
       </c>
       <c r="R17" t="n">
-        <v>39.58387696184059</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="S17" t="n">
-        <v>39.58387696184059</v>
+        <v>28.88091821707974</v>
       </c>
       <c r="T17" t="n">
-        <v>39.58387696184059</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="U17" t="n">
-        <v>24.87477961344436</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
@@ -1929,16 +1929,16 @@
         <v>0</v>
       </c>
       <c r="E18" t="n">
-        <v>39.58387696184059</v>
+        <v>38.87161743162455</v>
       </c>
       <c r="F18" t="n">
-        <v>0</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="G18" t="n">
-        <v>39.58387696184059</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="H18" t="n">
-        <v>39.58387696184059</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="I18" t="n">
         <v>0</v>
@@ -1968,7 +1968,7 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>34.86547882798917</v>
+        <v>0</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -1999,10 +1999,10 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="C19" t="n">
-        <v>39.58387696184059</v>
+        <v>0</v>
       </c>
       <c r="D19" t="n">
         <v>0</v>
@@ -2014,10 +2014,10 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>0.790450447682262</v>
       </c>
       <c r="I19" t="n">
         <v>0</v>
@@ -2044,10 +2044,10 @@
         <v>0</v>
       </c>
       <c r="Q19" t="n">
-        <v>9.977552361264268</v>
+        <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>39.58387696184059</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="S19" t="n">
         <v>0</v>
@@ -2059,7 +2059,7 @@
         <v>0</v>
       </c>
       <c r="V19" t="n">
-        <v>39.58387696184059</v>
+        <v>0</v>
       </c>
       <c r="W19" t="n">
         <v>0</v>
@@ -2090,61 +2090,61 @@
         <v>0</v>
       </c>
       <c r="F20" t="n">
-        <v>33.80371536444976</v>
+        <v>0</v>
       </c>
       <c r="G20" t="n">
+        <v>0</v>
+      </c>
+      <c r="H20" t="n">
+        <v>0</v>
+      </c>
+      <c r="I20" t="n">
+        <v>0</v>
+      </c>
+      <c r="J20" t="n">
+        <v>0</v>
+      </c>
+      <c r="K20" t="n">
+        <v>0</v>
+      </c>
+      <c r="L20" t="n">
+        <v>0</v>
+      </c>
+      <c r="M20" t="n">
+        <v>0</v>
+      </c>
+      <c r="N20" t="n">
+        <v>0</v>
+      </c>
+      <c r="O20" t="n">
+        <v>0</v>
+      </c>
+      <c r="P20" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q20" t="n">
+        <v>9.990699214544804</v>
+      </c>
+      <c r="R20" t="n">
+        <v>149.8691179411497</v>
+      </c>
+      <c r="S20" t="n">
+        <v>0</v>
+      </c>
+      <c r="T20" t="n">
+        <v>223.0958495641314</v>
+      </c>
+      <c r="U20" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="H20" t="n">
+      <c r="V20" t="n">
+        <v>0</v>
+      </c>
+      <c r="W20" t="n">
+        <v>70.34400780127524</v>
+      </c>
+      <c r="X20" t="n">
         <v>241.0142888776591</v>
-      </c>
-      <c r="I20" t="n">
-        <v>210.4758895704059</v>
-      </c>
-      <c r="J20" t="n">
-        <v>0</v>
-      </c>
-      <c r="K20" t="n">
-        <v>0</v>
-      </c>
-      <c r="L20" t="n">
-        <v>0</v>
-      </c>
-      <c r="M20" t="n">
-        <v>0</v>
-      </c>
-      <c r="N20" t="n">
-        <v>0</v>
-      </c>
-      <c r="O20" t="n">
-        <v>0</v>
-      </c>
-      <c r="P20" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q20" t="n">
-        <v>0</v>
-      </c>
-      <c r="R20" t="n">
-        <v>0</v>
-      </c>
-      <c r="S20" t="n">
-        <v>209.0200695862453</v>
-      </c>
-      <c r="T20" t="n">
-        <v>0</v>
-      </c>
-      <c r="U20" t="n">
-        <v>0</v>
-      </c>
-      <c r="V20" t="n">
-        <v>0</v>
-      </c>
-      <c r="W20" t="n">
-        <v>0</v>
-      </c>
-      <c r="X20" t="n">
-        <v>0</v>
       </c>
       <c r="Y20" t="n">
         <v>0</v>
@@ -2157,10 +2157,10 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C21" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D21" t="n">
         <v>0</v>
@@ -2175,7 +2175,7 @@
         <v>0</v>
       </c>
       <c r="H21" t="n">
-        <v>0</v>
+        <v>64.67263725582607</v>
       </c>
       <c r="I21" t="n">
         <v>0</v>
@@ -2205,25 +2205,25 @@
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S21" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T21" t="n">
-        <v>0</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U21" t="n">
         <v>225.9413820809748</v>
       </c>
       <c r="V21" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W21" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="X21" t="n">
-        <v>69.03881051849277</v>
+        <v>0</v>
       </c>
       <c r="Y21" t="n">
         <v>0</v>
@@ -2242,7 +2242,7 @@
         <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>133.186967585368</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
         <v>0</v>
@@ -2278,16 +2278,16 @@
         <v>0</v>
       </c>
       <c r="P22" t="n">
-        <v>0</v>
+        <v>2.721440735106512</v>
       </c>
       <c r="Q22" t="n">
-        <v>0</v>
+        <v>86.16204325169439</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>44.30348359856715</v>
       </c>
       <c r="T22" t="n">
         <v>0</v>
@@ -2321,19 +2321,19 @@
         <v>0</v>
       </c>
       <c r="D23" t="n">
-        <v>80.33470701582003</v>
+        <v>0</v>
       </c>
       <c r="E23" t="n">
-        <v>0</v>
+        <v>212.2853856434421</v>
       </c>
       <c r="F23" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="G23" t="n">
         <v>0</v>
       </c>
       <c r="H23" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="I23" t="n">
         <v>0</v>
@@ -2363,25 +2363,25 @@
         <v>0</v>
       </c>
       <c r="R23" t="n">
-        <v>149.8691179411497</v>
+        <v>0</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
       </c>
       <c r="T23" t="n">
-        <v>223.0958495641314</v>
+        <v>0</v>
       </c>
       <c r="U23" t="n">
         <v>0</v>
       </c>
       <c r="V23" t="n">
+        <v>0</v>
+      </c>
+      <c r="W23" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="W23" t="n">
-        <v>0</v>
-      </c>
       <c r="X23" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="Y23" t="n">
         <v>0</v>
@@ -2394,13 +2394,13 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C24" t="n">
         <v>0</v>
       </c>
       <c r="D24" t="n">
-        <v>0</v>
+        <v>63.88882306452232</v>
       </c>
       <c r="E24" t="n">
         <v>0</v>
@@ -2409,7 +2409,7 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>137.0062620734511</v>
+        <v>0</v>
       </c>
       <c r="H24" t="n">
         <v>0</v>
@@ -2445,25 +2445,25 @@
         <v>0</v>
       </c>
       <c r="S24" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T24" t="n">
-        <v>200.1647286948216</v>
+        <v>0</v>
       </c>
       <c r="U24" t="n">
         <v>225.9413820809748</v>
       </c>
       <c r="V24" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W24" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="X24" t="n">
         <v>0</v>
       </c>
       <c r="Y24" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="25">
@@ -2485,7 +2485,7 @@
         <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="G25" t="n">
         <v>0</v>
@@ -2527,7 +2527,7 @@
         <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>133.186967585368</v>
+        <v>0</v>
       </c>
       <c r="U25" t="n">
         <v>0</v>
@@ -2552,14 +2552,14 @@
         </is>
       </c>
       <c r="B26" t="n">
+        <v>0</v>
+      </c>
+      <c r="C26" t="n">
+        <v>0</v>
+      </c>
+      <c r="D26" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="C26" t="n">
-        <v>0</v>
-      </c>
-      <c r="D26" t="n">
-        <v>0</v>
-      </c>
       <c r="E26" t="n">
         <v>0</v>
       </c>
@@ -2567,13 +2567,13 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>0</v>
+        <v>1.809496073036188</v>
       </c>
       <c r="H26" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="I26" t="n">
-        <v>0</v>
+        <v>210.4758895704059</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -2606,10 +2606,10 @@
         <v>0</v>
       </c>
       <c r="T26" t="n">
-        <v>223.0958495641314</v>
+        <v>0</v>
       </c>
       <c r="U26" t="n">
-        <v>230.2038249569697</v>
+        <v>0</v>
       </c>
       <c r="V26" t="n">
         <v>0</v>
@@ -2631,7 +2631,7 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C27" t="n">
         <v>0</v>
@@ -2646,7 +2646,7 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>137.3435171632106</v>
+        <v>50.05769526855308</v>
       </c>
       <c r="H27" t="n">
         <v>0</v>
@@ -2655,7 +2655,7 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K27" t="n">
         <v>0</v>
@@ -2682,22 +2682,22 @@
         <v>0</v>
       </c>
       <c r="S27" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T27" t="n">
-        <v>200.1647286948216</v>
+        <v>0</v>
       </c>
       <c r="U27" t="n">
         <v>0</v>
       </c>
       <c r="V27" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W27" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="X27" t="n">
-        <v>53.17436456111949</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y27" t="n">
         <v>205.6826957773044</v>
@@ -2752,13 +2752,13 @@
         <v>0</v>
       </c>
       <c r="P28" t="n">
-        <v>2.721440735106512</v>
+        <v>0</v>
       </c>
       <c r="Q28" t="n">
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>130.4655268502615</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
         <v>0</v>
@@ -2776,7 +2776,7 @@
         <v>0</v>
       </c>
       <c r="X28" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="Y28" t="n">
         <v>0</v>
@@ -2789,22 +2789,22 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="C29" t="n">
         <v>0</v>
       </c>
       <c r="D29" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="E29" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="F29" t="n">
-        <v>0</v>
+        <v>212.2853856434421</v>
       </c>
       <c r="G29" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="H29" t="n">
         <v>0</v>
@@ -2843,7 +2843,7 @@
         <v>0</v>
       </c>
       <c r="T29" t="n">
-        <v>212.285385643442</v>
+        <v>0</v>
       </c>
       <c r="U29" t="n">
         <v>0</v>
@@ -2852,13 +2852,13 @@
         <v>0</v>
       </c>
       <c r="W29" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="X29" t="n">
         <v>0</v>
       </c>
       <c r="Y29" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
     </row>
     <row r="30">
@@ -2871,13 +2871,13 @@
         <v>0</v>
       </c>
       <c r="C30" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D30" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E30" t="n">
-        <v>157.6450804554009</v>
+        <v>98.22847700514947</v>
       </c>
       <c r="F30" t="n">
         <v>0</v>
@@ -2886,13 +2886,13 @@
         <v>137.3435171632106</v>
       </c>
       <c r="H30" t="n">
-        <v>112.2354442364965</v>
+        <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>1.521358764794549</v>
+        <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K30" t="n">
         <v>0</v>
@@ -2925,19 +2925,19 @@
         <v>0</v>
       </c>
       <c r="U30" t="n">
-        <v>0</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V30" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W30" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="X30" t="n">
         <v>0</v>
       </c>
       <c r="Y30" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="31">
@@ -3007,13 +3007,13 @@
         <v>0</v>
       </c>
       <c r="V31" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="W31" t="n">
         <v>0</v>
       </c>
       <c r="X31" t="n">
-        <v>133.186967585368</v>
+        <v>0</v>
       </c>
       <c r="Y31" t="n">
         <v>0</v>
@@ -3032,19 +3032,19 @@
         <v>0</v>
       </c>
       <c r="D32" t="n">
-        <v>230.2038249569697</v>
+        <v>0</v>
       </c>
       <c r="E32" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="F32" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="G32" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="H32" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="I32" t="n">
         <v>0</v>
@@ -3071,16 +3071,16 @@
         <v>0</v>
       </c>
       <c r="Q32" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R32" t="n">
-        <v>0</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S32" t="n">
-        <v>0</v>
+        <v>209.0200695862453</v>
       </c>
       <c r="T32" t="n">
-        <v>223.0958495641314</v>
+        <v>84.41978777916125</v>
       </c>
       <c r="U32" t="n">
         <v>0</v>
@@ -3108,19 +3108,19 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C33" t="n">
-        <v>172.6667052444214</v>
+        <v>0</v>
       </c>
       <c r="D33" t="n">
         <v>0</v>
       </c>
       <c r="E33" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F33" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G33" t="n">
-        <v>0</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H33" t="n">
         <v>0</v>
@@ -3153,7 +3153,7 @@
         <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>0</v>
+        <v>39.59506498882089</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -3165,16 +3165,16 @@
         <v>0</v>
       </c>
       <c r="V33" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W33" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="X33" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y33" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="34">
@@ -3187,7 +3187,7 @@
         <v>0</v>
       </c>
       <c r="C34" t="n">
-        <v>0</v>
+        <v>47.02492433367365</v>
       </c>
       <c r="D34" t="n">
         <v>0</v>
@@ -3229,7 +3229,7 @@
         <v>0</v>
       </c>
       <c r="Q34" t="n">
-        <v>0</v>
+        <v>86.16204325169439</v>
       </c>
       <c r="R34" t="n">
         <v>0</v>
@@ -3247,7 +3247,7 @@
         <v>0</v>
       </c>
       <c r="W34" t="n">
-        <v>133.186967585368</v>
+        <v>0</v>
       </c>
       <c r="X34" t="n">
         <v>0</v>
@@ -3263,25 +3263,25 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="C35" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="D35" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="E35" t="n">
-        <v>0</v>
+        <v>212.2853856434421</v>
       </c>
       <c r="F35" t="n">
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="H35" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="I35" t="n">
         <v>0</v>
@@ -3314,10 +3314,10 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>209.0200695862453</v>
+        <v>0</v>
       </c>
       <c r="T35" t="n">
-        <v>3.265316057196634</v>
+        <v>0</v>
       </c>
       <c r="U35" t="n">
         <v>0</v>
@@ -3342,28 +3342,28 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>166.5331836498673</v>
+        <v>117.8074216906837</v>
       </c>
       <c r="C36" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D36" t="n">
         <v>147.4450655646388</v>
       </c>
       <c r="E36" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F36" t="n">
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>0</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H36" t="n">
-        <v>17.29616277353833</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I36" t="n">
-        <v>0</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J36" t="n">
         <v>0.7465913262578567</v>
@@ -3393,13 +3393,13 @@
         <v>0</v>
       </c>
       <c r="S36" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T36" t="n">
         <v>0</v>
       </c>
       <c r="U36" t="n">
-        <v>225.9413820809748</v>
+        <v>0</v>
       </c>
       <c r="V36" t="n">
         <v>0</v>
@@ -3411,7 +3411,7 @@
         <v>0</v>
       </c>
       <c r="Y36" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="37">
@@ -3463,13 +3463,13 @@
         <v>0</v>
       </c>
       <c r="P37" t="n">
-        <v>2.721440735106512</v>
+        <v>0</v>
       </c>
       <c r="Q37" t="n">
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>130.4655268502615</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
         <v>0</v>
@@ -3478,7 +3478,7 @@
         <v>0</v>
       </c>
       <c r="U37" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -3500,7 +3500,7 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="C38" t="n">
         <v>0</v>
@@ -3512,19 +3512,19 @@
         <v>0</v>
       </c>
       <c r="F38" t="n">
-        <v>0</v>
+        <v>1.809496073036132</v>
       </c>
       <c r="G38" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="H38" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="I38" t="n">
-        <v>0</v>
+        <v>210.4758895704059</v>
       </c>
       <c r="J38" t="n">
-        <v>11.94928935461252</v>
+        <v>0</v>
       </c>
       <c r="K38" t="n">
         <v>0</v>
@@ -3560,16 +3560,16 @@
         <v>0</v>
       </c>
       <c r="V38" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="W38" t="n">
-        <v>200.3360962888297</v>
+        <v>0</v>
       </c>
       <c r="X38" t="n">
         <v>0</v>
       </c>
       <c r="Y38" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
     </row>
     <row r="39">
@@ -3582,7 +3582,7 @@
         <v>0</v>
       </c>
       <c r="C39" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D39" t="n">
         <v>0</v>
@@ -3591,10 +3591,10 @@
         <v>0</v>
       </c>
       <c r="F39" t="n">
-        <v>0</v>
+        <v>103.7130553628818</v>
       </c>
       <c r="G39" t="n">
-        <v>82.69355372315668</v>
+        <v>0</v>
       </c>
       <c r="H39" t="n">
         <v>0</v>
@@ -3636,19 +3636,19 @@
         <v>200.1647286948216</v>
       </c>
       <c r="U39" t="n">
-        <v>0</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V39" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W39" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="X39" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y39" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="40">
@@ -3712,7 +3712,7 @@
         <v>0</v>
       </c>
       <c r="T40" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="U40" t="n">
         <v>0</v>
@@ -3727,7 +3727,7 @@
         <v>0</v>
       </c>
       <c r="Y40" t="n">
-        <v>133.186967585368</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41">
@@ -3737,7 +3737,7 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>41.86138390904486</v>
+        <v>0</v>
       </c>
       <c r="C41" t="n">
         <v>0</v>
@@ -3749,10 +3749,10 @@
         <v>0</v>
       </c>
       <c r="F41" t="n">
-        <v>229.0204371761346</v>
+        <v>236.4659934602711</v>
       </c>
       <c r="G41" t="n">
-        <v>229.0204371761346</v>
+        <v>0</v>
       </c>
       <c r="H41" t="n">
         <v>0</v>
@@ -3782,16 +3782,16 @@
         <v>0</v>
       </c>
       <c r="Q41" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R41" t="n">
-        <v>149.8691179411497</v>
+        <v>0</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
       </c>
       <c r="T41" t="n">
-        <v>0</v>
+        <v>208.2792470398066</v>
       </c>
       <c r="U41" t="n">
         <v>0</v>
@@ -3800,13 +3800,13 @@
         <v>0</v>
       </c>
       <c r="W41" t="n">
-        <v>0</v>
+        <v>236.4659934602711</v>
       </c>
       <c r="X41" t="n">
-        <v>0</v>
+        <v>236.4659934602711</v>
       </c>
       <c r="Y41" t="n">
-        <v>229.0204371761346</v>
+        <v>0</v>
       </c>
     </row>
     <row r="42">
@@ -3816,7 +3816,7 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>0</v>
+        <v>135.8063526056644</v>
       </c>
       <c r="C42" t="n">
         <v>0</v>
@@ -3831,10 +3831,10 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>0</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H42" t="n">
-        <v>0</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I42" t="n">
         <v>89.39663285141508</v>
@@ -3870,22 +3870,22 @@
         <v>0</v>
       </c>
       <c r="T42" t="n">
-        <v>137.9044839548833</v>
+        <v>0</v>
       </c>
       <c r="U42" t="n">
-        <v>225.9413820809748</v>
+        <v>0</v>
       </c>
       <c r="V42" t="n">
-        <v>229.0204371761346</v>
+        <v>0</v>
       </c>
       <c r="W42" t="n">
-        <v>0</v>
+        <v>236.4659934602711</v>
       </c>
       <c r="X42" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y42" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="43">
@@ -3943,7 +3943,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="S43" t="n">
         <v>0</v>
@@ -3955,7 +3955,7 @@
         <v>0</v>
       </c>
       <c r="V43" t="n">
-        <v>133.186967585368</v>
+        <v>0</v>
       </c>
       <c r="W43" t="n">
         <v>0</v>
@@ -3974,7 +3974,7 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>0</v>
+        <v>39.58387696184059</v>
       </c>
       <c r="C44" t="n">
         <v>0</v>
@@ -3983,13 +3983,13 @@
         <v>0</v>
       </c>
       <c r="E44" t="n">
-        <v>27.59002526031614</v>
+        <v>0</v>
       </c>
       <c r="F44" t="n">
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>27.59002526031614</v>
+        <v>0</v>
       </c>
       <c r="H44" t="n">
         <v>0</v>
@@ -4019,10 +4019,10 @@
         <v>0</v>
       </c>
       <c r="Q44" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R44" t="n">
-        <v>0</v>
+        <v>34.86547882798917</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -4031,19 +4031,19 @@
         <v>0</v>
       </c>
       <c r="U44" t="n">
-        <v>0</v>
+        <v>39.58387696184059</v>
       </c>
       <c r="V44" t="n">
         <v>0</v>
       </c>
       <c r="W44" t="n">
-        <v>14.31059503474164</v>
+        <v>0</v>
       </c>
       <c r="X44" t="n">
         <v>0</v>
       </c>
       <c r="Y44" t="n">
-        <v>27.59002526031614</v>
+        <v>39.58387696184059</v>
       </c>
     </row>
     <row r="45">
@@ -4053,10 +4053,10 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>0</v>
+        <v>34.86547882798917</v>
       </c>
       <c r="C45" t="n">
-        <v>0</v>
+        <v>39.58387696184059</v>
       </c>
       <c r="D45" t="n">
         <v>0</v>
@@ -4101,13 +4101,13 @@
         <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>27.59002526031614</v>
+        <v>0</v>
       </c>
       <c r="S45" t="n">
-        <v>27.59002526031614</v>
+        <v>0</v>
       </c>
       <c r="T45" t="n">
-        <v>24.30129424928645</v>
+        <v>0</v>
       </c>
       <c r="U45" t="n">
         <v>0</v>
@@ -4116,13 +4116,13 @@
         <v>0</v>
       </c>
       <c r="W45" t="n">
-        <v>0</v>
+        <v>39.58387696184059</v>
       </c>
       <c r="X45" t="n">
         <v>0</v>
       </c>
       <c r="Y45" t="n">
-        <v>27.59002526031614</v>
+        <v>39.58387696184059</v>
       </c>
     </row>
     <row r="46">
@@ -4132,10 +4132,10 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>0</v>
+        <v>7.256111626157765</v>
       </c>
       <c r="C46" t="n">
-        <v>0</v>
+        <v>39.58387696184059</v>
       </c>
       <c r="D46" t="n">
         <v>0</v>
@@ -4147,16 +4147,16 @@
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>22.44875936050941</v>
+        <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>27.59002526031614</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>27.59002526031614</v>
+        <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>27.59002526031614</v>
+        <v>0</v>
       </c>
       <c r="K46" t="n">
         <v>0</v>
@@ -4174,7 +4174,7 @@
         <v>0</v>
       </c>
       <c r="P46" t="n">
-        <v>0</v>
+        <v>2.721440735106512</v>
       </c>
       <c r="Q46" t="n">
         <v>0</v>
@@ -4198,10 +4198,10 @@
         <v>0</v>
       </c>
       <c r="X46" t="n">
-        <v>0</v>
+        <v>39.58387696184059</v>
       </c>
       <c r="Y46" t="n">
-        <v>0</v>
+        <v>39.58387696184059</v>
       </c>
     </row>
   </sheetData>
@@ -4304,76 +4304,76 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>2.207202020825291</v>
+        <v>3.166710156947247</v>
       </c>
       <c r="C2" t="n">
-        <v>2.207202020825291</v>
+        <v>3.166710156947247</v>
       </c>
       <c r="D2" t="n">
-        <v>2.207202020825291</v>
+        <v>3.166710156947247</v>
       </c>
       <c r="E2" t="n">
-        <v>2.207202020825291</v>
+        <v>3.166710156947247</v>
       </c>
       <c r="F2" t="n">
-        <v>2.207202020825291</v>
+        <v>3.166710156947247</v>
       </c>
       <c r="G2" t="n">
-        <v>2.207202020825291</v>
+        <v>3.166710156947247</v>
       </c>
       <c r="H2" t="n">
-        <v>2.207202020825291</v>
+        <v>3.166710156947247</v>
       </c>
       <c r="I2" t="n">
-        <v>2.207202020825291</v>
+        <v>3.166710156947247</v>
       </c>
       <c r="J2" t="n">
-        <v>2.207202020825291</v>
+        <v>3.166710156947247</v>
       </c>
       <c r="K2" t="n">
-        <v>29.52132702853827</v>
+        <v>42.35474834916943</v>
       </c>
       <c r="L2" t="n">
-        <v>56.83545203625125</v>
+        <v>79.95943146291799</v>
       </c>
       <c r="M2" t="n">
-        <v>83.04597603355158</v>
+        <v>79.95943146291799</v>
       </c>
       <c r="N2" t="n">
-        <v>83.04597603355158</v>
+        <v>79.95943146291799</v>
       </c>
       <c r="O2" t="n">
-        <v>83.04597603355158</v>
+        <v>119.1474696551402</v>
       </c>
       <c r="P2" t="n">
-        <v>110.3601010412646</v>
+        <v>158.3355078473624</v>
       </c>
       <c r="Q2" t="n">
-        <v>100.2684856730375</v>
+        <v>148.2438924791353</v>
       </c>
       <c r="R2" t="n">
-        <v>72.39977328887976</v>
+        <v>108.260178376266</v>
       </c>
       <c r="S2" t="n">
-        <v>44.53106090472204</v>
+        <v>68.2764642733967</v>
       </c>
       <c r="T2" t="n">
-        <v>16.66234852056432</v>
+        <v>28.29275017052741</v>
       </c>
       <c r="U2" t="n">
-        <v>2.207202020825291</v>
+        <v>3.166710156947247</v>
       </c>
       <c r="V2" t="n">
-        <v>2.207202020825291</v>
+        <v>3.166710156947247</v>
       </c>
       <c r="W2" t="n">
-        <v>2.207202020825291</v>
+        <v>3.166710156947247</v>
       </c>
       <c r="X2" t="n">
-        <v>2.207202020825291</v>
+        <v>3.166710156947247</v>
       </c>
       <c r="Y2" t="n">
-        <v>2.207202020825291</v>
+        <v>3.166710156947247</v>
       </c>
     </row>
     <row r="3">
@@ -4383,76 +4383,76 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>110.3601010412646</v>
+        <v>3.920842809732961</v>
       </c>
       <c r="C3" t="n">
-        <v>110.3601010412646</v>
+        <v>3.920842809732961</v>
       </c>
       <c r="D3" t="n">
-        <v>110.3601010412646</v>
+        <v>3.920842809732961</v>
       </c>
       <c r="E3" t="n">
-        <v>110.3601010412646</v>
+        <v>3.920842809732961</v>
       </c>
       <c r="F3" t="n">
-        <v>86.56747182608416</v>
+        <v>3.920842809732961</v>
       </c>
       <c r="G3" t="n">
-        <v>58.69875944192644</v>
+        <v>3.920842809732961</v>
       </c>
       <c r="H3" t="n">
-        <v>30.83004705776872</v>
+        <v>3.920842809732961</v>
       </c>
       <c r="I3" t="n">
-        <v>2.961334673611005</v>
+        <v>3.920842809732961</v>
       </c>
       <c r="J3" t="n">
-        <v>2.207202020825291</v>
+        <v>3.166710156947247</v>
       </c>
       <c r="K3" t="n">
-        <v>2.207202020825291</v>
+        <v>42.35474834916943</v>
       </c>
       <c r="L3" t="n">
-        <v>2.207202020825291</v>
+        <v>81.54278654139161</v>
       </c>
       <c r="M3" t="n">
-        <v>28.41772601812563</v>
+        <v>120.7308247336138</v>
       </c>
       <c r="N3" t="n">
-        <v>28.41772601812563</v>
+        <v>158.3355078473624</v>
       </c>
       <c r="O3" t="n">
-        <v>55.73185102583861</v>
+        <v>158.3355078473624</v>
       </c>
       <c r="P3" t="n">
-        <v>83.04597603355158</v>
+        <v>158.3355078473624</v>
       </c>
       <c r="Q3" t="n">
-        <v>110.3601010412646</v>
+        <v>158.3355078473624</v>
       </c>
       <c r="R3" t="n">
-        <v>110.3601010412646</v>
+        <v>118.3517937444931</v>
       </c>
       <c r="S3" t="n">
-        <v>110.3601010412646</v>
+        <v>78.36807964162378</v>
       </c>
       <c r="T3" t="n">
-        <v>110.3601010412646</v>
+        <v>38.38436553875449</v>
       </c>
       <c r="U3" t="n">
-        <v>110.3601010412646</v>
+        <v>3.920842809732961</v>
       </c>
       <c r="V3" t="n">
-        <v>110.3601010412646</v>
+        <v>3.920842809732961</v>
       </c>
       <c r="W3" t="n">
-        <v>110.3601010412646</v>
+        <v>3.920842809732961</v>
       </c>
       <c r="X3" t="n">
-        <v>110.3601010412646</v>
+        <v>3.920842809732961</v>
       </c>
       <c r="Y3" t="n">
-        <v>110.3601010412646</v>
+        <v>3.920842809732961</v>
       </c>
     </row>
     <row r="4">
@@ -4462,76 +4462,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>4.078449383226349</v>
+        <v>3.166710156947247</v>
       </c>
       <c r="C4" t="n">
-        <v>4.078449383226349</v>
+        <v>3.166710156947247</v>
       </c>
       <c r="D4" t="n">
-        <v>4.078449383226349</v>
+        <v>3.166710156947247</v>
       </c>
       <c r="E4" t="n">
-        <v>4.078449383226349</v>
+        <v>3.166710156947247</v>
       </c>
       <c r="F4" t="n">
-        <v>4.078449383226349</v>
+        <v>3.166710156947247</v>
       </c>
       <c r="G4" t="n">
-        <v>4.078449383226349</v>
+        <v>3.166710156947247</v>
       </c>
       <c r="H4" t="n">
-        <v>4.078449383226349</v>
+        <v>3.166710156947247</v>
       </c>
       <c r="I4" t="n">
-        <v>4.078449383226349</v>
+        <v>3.166710156947247</v>
       </c>
       <c r="J4" t="n">
-        <v>4.078449383226349</v>
+        <v>3.166710156947247</v>
       </c>
       <c r="K4" t="n">
-        <v>4.078449383226349</v>
+        <v>3.166710156947247</v>
       </c>
       <c r="L4" t="n">
-        <v>31.39257439093933</v>
+        <v>30.48083516466022</v>
       </c>
       <c r="M4" t="n">
-        <v>58.7066993986523</v>
+        <v>69.6688733568824</v>
       </c>
       <c r="N4" t="n">
-        <v>86.02082440636528</v>
+        <v>108.8569115491046</v>
       </c>
       <c r="O4" t="n">
-        <v>110.3601010412646</v>
+        <v>133.1961881840039</v>
       </c>
       <c r="P4" t="n">
-        <v>110.3601010412646</v>
+        <v>133.1961881840039</v>
       </c>
       <c r="Q4" t="n">
-        <v>110.3601010412646</v>
+        <v>93.21247408113457</v>
       </c>
       <c r="R4" t="n">
-        <v>110.3601010412646</v>
+        <v>53.22875997826529</v>
       </c>
       <c r="S4" t="n">
-        <v>110.3601010412646</v>
+        <v>13.245045875396</v>
       </c>
       <c r="T4" t="n">
-        <v>110.3601010412646</v>
+        <v>3.166710156947247</v>
       </c>
       <c r="U4" t="n">
-        <v>110.3601010412646</v>
+        <v>3.166710156947247</v>
       </c>
       <c r="V4" t="n">
-        <v>87.68458653569951</v>
+        <v>3.166710156947247</v>
       </c>
       <c r="W4" t="n">
-        <v>59.81587415154178</v>
+        <v>3.166710156947247</v>
       </c>
       <c r="X4" t="n">
-        <v>31.94716176738407</v>
+        <v>3.166710156947247</v>
       </c>
       <c r="Y4" t="n">
-        <v>4.078449383226349</v>
+        <v>3.166710156947247</v>
       </c>
     </row>
     <row r="5">
@@ -4541,76 +4541,76 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>100.2684856730375</v>
+        <v>3.166710156947247</v>
       </c>
       <c r="C5" t="n">
-        <v>100.2684856730375</v>
+        <v>3.166710156947247</v>
       </c>
       <c r="D5" t="n">
-        <v>100.2684856730375</v>
+        <v>3.166710156947247</v>
       </c>
       <c r="E5" t="n">
-        <v>100.2684856730375</v>
+        <v>3.166710156947247</v>
       </c>
       <c r="F5" t="n">
-        <v>97.8833284203818</v>
+        <v>3.166710156947247</v>
       </c>
       <c r="G5" t="n">
-        <v>70.01461603622408</v>
+        <v>3.166710156947247</v>
       </c>
       <c r="H5" t="n">
-        <v>42.14590365206637</v>
+        <v>3.166710156947247</v>
       </c>
       <c r="I5" t="n">
-        <v>14.27719126790864</v>
+        <v>3.166710156947247</v>
       </c>
       <c r="J5" t="n">
-        <v>2.207202020825291</v>
+        <v>3.166710156947247</v>
       </c>
       <c r="K5" t="n">
-        <v>29.52132702853827</v>
+        <v>42.35474834916943</v>
       </c>
       <c r="L5" t="n">
-        <v>55.73185102583861</v>
+        <v>81.54278654139161</v>
       </c>
       <c r="M5" t="n">
-        <v>55.73185102583861</v>
+        <v>119.1474696551402</v>
       </c>
       <c r="N5" t="n">
-        <v>55.73185102583861</v>
+        <v>119.1474696551402</v>
       </c>
       <c r="O5" t="n">
-        <v>83.04597603355158</v>
+        <v>119.1474696551402</v>
       </c>
       <c r="P5" t="n">
-        <v>110.3601010412646</v>
+        <v>158.3355078473624</v>
       </c>
       <c r="Q5" t="n">
-        <v>100.2684856730375</v>
+        <v>158.3355078473624</v>
       </c>
       <c r="R5" t="n">
-        <v>100.2684856730375</v>
+        <v>118.3517937444931</v>
       </c>
       <c r="S5" t="n">
-        <v>100.2684856730375</v>
+        <v>78.36807964162378</v>
       </c>
       <c r="T5" t="n">
-        <v>100.2684856730375</v>
+        <v>38.38436553875449</v>
       </c>
       <c r="U5" t="n">
-        <v>100.2684856730375</v>
+        <v>3.166710156947247</v>
       </c>
       <c r="V5" t="n">
-        <v>100.2684856730375</v>
+        <v>3.166710156947247</v>
       </c>
       <c r="W5" t="n">
-        <v>100.2684856730375</v>
+        <v>3.166710156947247</v>
       </c>
       <c r="X5" t="n">
-        <v>100.2684856730375</v>
+        <v>3.166710156947247</v>
       </c>
       <c r="Y5" t="n">
-        <v>100.2684856730375</v>
+        <v>3.166710156947247</v>
       </c>
     </row>
     <row r="6">
@@ -4620,76 +4620,76 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>2.961334673611005</v>
+        <v>158.3355078473624</v>
       </c>
       <c r="C6" t="n">
-        <v>2.961334673611005</v>
+        <v>118.3517937444931</v>
       </c>
       <c r="D6" t="n">
-        <v>2.961334673611005</v>
+        <v>78.36807964162378</v>
       </c>
       <c r="E6" t="n">
-        <v>2.961334673611005</v>
+        <v>43.15042425981653</v>
       </c>
       <c r="F6" t="n">
-        <v>2.961334673611005</v>
+        <v>43.15042425981653</v>
       </c>
       <c r="G6" t="n">
-        <v>2.961334673611005</v>
+        <v>43.15042425981653</v>
       </c>
       <c r="H6" t="n">
-        <v>2.961334673611005</v>
+        <v>43.15042425981653</v>
       </c>
       <c r="I6" t="n">
-        <v>2.961334673611005</v>
+        <v>3.166710156947247</v>
       </c>
       <c r="J6" t="n">
-        <v>2.207202020825291</v>
+        <v>3.166710156947247</v>
       </c>
       <c r="K6" t="n">
-        <v>2.207202020825291</v>
+        <v>42.35474834916943</v>
       </c>
       <c r="L6" t="n">
-        <v>2.207202020825291</v>
+        <v>81.54278654139161</v>
       </c>
       <c r="M6" t="n">
-        <v>2.207202020825291</v>
+        <v>120.7308247336138</v>
       </c>
       <c r="N6" t="n">
-        <v>29.52132702853827</v>
+        <v>158.3355078473624</v>
       </c>
       <c r="O6" t="n">
-        <v>56.83545203625125</v>
+        <v>158.3355078473624</v>
       </c>
       <c r="P6" t="n">
-        <v>84.14957704396423</v>
+        <v>158.3355078473624</v>
       </c>
       <c r="Q6" t="n">
-        <v>110.3601010412646</v>
+        <v>158.3355078473624</v>
       </c>
       <c r="R6" t="n">
-        <v>82.49138865710684</v>
+        <v>158.3355078473624</v>
       </c>
       <c r="S6" t="n">
-        <v>54.62267627294912</v>
+        <v>158.3355078473624</v>
       </c>
       <c r="T6" t="n">
-        <v>26.7539638887914</v>
+        <v>158.3355078473624</v>
       </c>
       <c r="U6" t="n">
-        <v>2.961334673611005</v>
+        <v>158.3355078473624</v>
       </c>
       <c r="V6" t="n">
-        <v>2.961334673611005</v>
+        <v>158.3355078473624</v>
       </c>
       <c r="W6" t="n">
-        <v>2.961334673611005</v>
+        <v>158.3355078473624</v>
       </c>
       <c r="X6" t="n">
-        <v>2.961334673611005</v>
+        <v>158.3355078473624</v>
       </c>
       <c r="Y6" t="n">
-        <v>2.961334673611005</v>
+        <v>158.3355078473624</v>
       </c>
     </row>
     <row r="7">
@@ -4699,76 +4699,76 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>2.207202020825291</v>
+        <v>133.1961881840039</v>
       </c>
       <c r="C7" t="n">
-        <v>2.207202020825291</v>
+        <v>133.1961881840039</v>
       </c>
       <c r="D7" t="n">
-        <v>2.207202020825291</v>
+        <v>133.1961881840039</v>
       </c>
       <c r="E7" t="n">
-        <v>2.207202020825291</v>
+        <v>133.1961881840039</v>
       </c>
       <c r="F7" t="n">
-        <v>2.207202020825291</v>
+        <v>133.1961881840039</v>
       </c>
       <c r="G7" t="n">
-        <v>2.207202020825291</v>
+        <v>133.1961881840039</v>
       </c>
       <c r="H7" t="n">
-        <v>2.207202020825291</v>
+        <v>93.21247408113457</v>
       </c>
       <c r="I7" t="n">
-        <v>2.207202020825291</v>
+        <v>53.22875997826529</v>
       </c>
       <c r="J7" t="n">
-        <v>2.207202020825291</v>
+        <v>13.245045875396</v>
       </c>
       <c r="K7" t="n">
-        <v>2.207202020825291</v>
+        <v>3.166710156947247</v>
       </c>
       <c r="L7" t="n">
-        <v>29.52132702853827</v>
+        <v>30.48083516466022</v>
       </c>
       <c r="M7" t="n">
-        <v>56.83545203625125</v>
+        <v>69.6688733568824</v>
       </c>
       <c r="N7" t="n">
-        <v>84.14957704396423</v>
+        <v>108.8569115491046</v>
       </c>
       <c r="O7" t="n">
-        <v>108.4888536788635</v>
+        <v>133.1961881840039</v>
       </c>
       <c r="P7" t="n">
-        <v>105.7399236434024</v>
+        <v>133.1961881840039</v>
       </c>
       <c r="Q7" t="n">
-        <v>77.87121125924466</v>
+        <v>133.1961881840039</v>
       </c>
       <c r="R7" t="n">
-        <v>50.00249887508694</v>
+        <v>133.1961881840039</v>
       </c>
       <c r="S7" t="n">
-        <v>22.13378649092923</v>
+        <v>133.1961881840039</v>
       </c>
       <c r="T7" t="n">
-        <v>2.207202020825291</v>
+        <v>133.1961881840039</v>
       </c>
       <c r="U7" t="n">
-        <v>2.207202020825291</v>
+        <v>133.1961881840039</v>
       </c>
       <c r="V7" t="n">
-        <v>2.207202020825291</v>
+        <v>133.1961881840039</v>
       </c>
       <c r="W7" t="n">
-        <v>2.207202020825291</v>
+        <v>133.1961881840039</v>
       </c>
       <c r="X7" t="n">
-        <v>2.207202020825291</v>
+        <v>133.1961881840039</v>
       </c>
       <c r="Y7" t="n">
-        <v>2.207202020825291</v>
+        <v>133.1961881840039</v>
       </c>
     </row>
     <row r="8">
@@ -4778,76 +4778,76 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>2.207202020825291</v>
+        <v>3.166710156947247</v>
       </c>
       <c r="C8" t="n">
-        <v>2.207202020825291</v>
+        <v>3.166710156947247</v>
       </c>
       <c r="D8" t="n">
-        <v>2.207202020825291</v>
+        <v>3.166710156947247</v>
       </c>
       <c r="E8" t="n">
-        <v>2.207202020825291</v>
+        <v>3.166710156947247</v>
       </c>
       <c r="F8" t="n">
-        <v>2.207202020825291</v>
+        <v>3.166710156947247</v>
       </c>
       <c r="G8" t="n">
-        <v>2.207202020825291</v>
+        <v>3.166710156947247</v>
       </c>
       <c r="H8" t="n">
-        <v>2.207202020825291</v>
+        <v>3.166710156947247</v>
       </c>
       <c r="I8" t="n">
-        <v>2.207202020825291</v>
+        <v>3.166710156947247</v>
       </c>
       <c r="J8" t="n">
-        <v>2.207202020825291</v>
+        <v>3.166710156947247</v>
       </c>
       <c r="K8" t="n">
-        <v>28.41772601812563</v>
+        <v>42.35474834916943</v>
       </c>
       <c r="L8" t="n">
-        <v>28.41772601812563</v>
+        <v>81.54278654139161</v>
       </c>
       <c r="M8" t="n">
-        <v>55.73185102583861</v>
+        <v>119.1474696551402</v>
       </c>
       <c r="N8" t="n">
-        <v>83.04597603355158</v>
+        <v>119.1474696551402</v>
       </c>
       <c r="O8" t="n">
-        <v>83.04597603355158</v>
+        <v>119.1474696551402</v>
       </c>
       <c r="P8" t="n">
-        <v>110.3601010412646</v>
+        <v>158.3355078473624</v>
       </c>
       <c r="Q8" t="n">
-        <v>100.2684856730375</v>
+        <v>158.3355078473624</v>
       </c>
       <c r="R8" t="n">
-        <v>72.39977328887976</v>
+        <v>118.3517937444931</v>
       </c>
       <c r="S8" t="n">
-        <v>44.53106090472204</v>
+        <v>78.36807964162378</v>
       </c>
       <c r="T8" t="n">
-        <v>16.66234852056432</v>
+        <v>38.38436553875449</v>
       </c>
       <c r="U8" t="n">
-        <v>2.207202020825291</v>
+        <v>3.166710156947247</v>
       </c>
       <c r="V8" t="n">
-        <v>2.207202020825291</v>
+        <v>3.166710156947247</v>
       </c>
       <c r="W8" t="n">
-        <v>2.207202020825291</v>
+        <v>3.166710156947247</v>
       </c>
       <c r="X8" t="n">
-        <v>2.207202020825291</v>
+        <v>3.166710156947247</v>
       </c>
       <c r="Y8" t="n">
-        <v>2.207202020825291</v>
+        <v>3.166710156947247</v>
       </c>
     </row>
     <row r="9">
@@ -4857,76 +4857,76 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>110.3601010412646</v>
+        <v>158.3355078473624</v>
       </c>
       <c r="C9" t="n">
-        <v>110.3601010412646</v>
+        <v>158.3355078473624</v>
       </c>
       <c r="D9" t="n">
-        <v>110.3601010412646</v>
+        <v>158.3355078473624</v>
       </c>
       <c r="E9" t="n">
-        <v>86.56747182608416</v>
+        <v>158.3355078473624</v>
       </c>
       <c r="F9" t="n">
-        <v>58.69875944192644</v>
+        <v>118.3517937444931</v>
       </c>
       <c r="G9" t="n">
-        <v>30.83004705776872</v>
+        <v>78.36807964162378</v>
       </c>
       <c r="H9" t="n">
-        <v>30.83004705776872</v>
+        <v>38.38436553875449</v>
       </c>
       <c r="I9" t="n">
-        <v>2.961334673611005</v>
+        <v>3.920842809732961</v>
       </c>
       <c r="J9" t="n">
-        <v>2.207202020825291</v>
+        <v>3.166710156947247</v>
       </c>
       <c r="K9" t="n">
-        <v>2.207202020825291</v>
+        <v>3.166710156947247</v>
       </c>
       <c r="L9" t="n">
-        <v>29.52132702853827</v>
+        <v>3.166710156947247</v>
       </c>
       <c r="M9" t="n">
-        <v>56.83545203625125</v>
+        <v>3.166710156947247</v>
       </c>
       <c r="N9" t="n">
-        <v>83.04597603355158</v>
+        <v>40.77139327069581</v>
       </c>
       <c r="O9" t="n">
-        <v>83.04597603355158</v>
+        <v>79.95943146291799</v>
       </c>
       <c r="P9" t="n">
-        <v>83.04597603355158</v>
+        <v>119.1474696551402</v>
       </c>
       <c r="Q9" t="n">
-        <v>110.3601010412646</v>
+        <v>158.3355078473624</v>
       </c>
       <c r="R9" t="n">
-        <v>110.3601010412646</v>
+        <v>158.3355078473624</v>
       </c>
       <c r="S9" t="n">
-        <v>110.3601010412646</v>
+        <v>158.3355078473624</v>
       </c>
       <c r="T9" t="n">
-        <v>110.3601010412646</v>
+        <v>158.3355078473624</v>
       </c>
       <c r="U9" t="n">
-        <v>110.3601010412646</v>
+        <v>158.3355078473624</v>
       </c>
       <c r="V9" t="n">
-        <v>110.3601010412646</v>
+        <v>158.3355078473624</v>
       </c>
       <c r="W9" t="n">
-        <v>110.3601010412646</v>
+        <v>158.3355078473624</v>
       </c>
       <c r="X9" t="n">
-        <v>110.3601010412646</v>
+        <v>158.3355078473624</v>
       </c>
       <c r="Y9" t="n">
-        <v>110.3601010412646</v>
+        <v>158.3355078473624</v>
       </c>
     </row>
     <row r="10">
@@ -4936,76 +4936,76 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>108.4888536788635</v>
+        <v>133.1961881840039</v>
       </c>
       <c r="C10" t="n">
-        <v>108.4888536788635</v>
+        <v>133.1961881840039</v>
       </c>
       <c r="D10" t="n">
-        <v>108.4888536788635</v>
+        <v>133.1961881840039</v>
       </c>
       <c r="E10" t="n">
-        <v>108.4888536788635</v>
+        <v>133.1961881840039</v>
       </c>
       <c r="F10" t="n">
-        <v>108.4888536788635</v>
+        <v>133.1961881840039</v>
       </c>
       <c r="G10" t="n">
-        <v>108.3077753610589</v>
+        <v>123.1178524655551</v>
       </c>
       <c r="H10" t="n">
-        <v>80.43906297690118</v>
+        <v>83.13413836268582</v>
       </c>
       <c r="I10" t="n">
-        <v>52.57035059274347</v>
+        <v>43.15042425981653</v>
       </c>
       <c r="J10" t="n">
-        <v>24.70163820858575</v>
+        <v>3.166710156947247</v>
       </c>
       <c r="K10" t="n">
-        <v>2.207202020825291</v>
+        <v>3.166710156947247</v>
       </c>
       <c r="L10" t="n">
-        <v>29.52132702853827</v>
+        <v>30.48083516466022</v>
       </c>
       <c r="M10" t="n">
-        <v>56.83545203625125</v>
+        <v>69.6688733568824</v>
       </c>
       <c r="N10" t="n">
-        <v>84.14957704396423</v>
+        <v>108.8569115491046</v>
       </c>
       <c r="O10" t="n">
-        <v>108.4888536788635</v>
+        <v>133.1961881840039</v>
       </c>
       <c r="P10" t="n">
-        <v>108.4888536788635</v>
+        <v>133.1961881840039</v>
       </c>
       <c r="Q10" t="n">
-        <v>108.4888536788635</v>
+        <v>133.1961881840039</v>
       </c>
       <c r="R10" t="n">
-        <v>108.4888536788635</v>
+        <v>133.1961881840039</v>
       </c>
       <c r="S10" t="n">
-        <v>108.4888536788635</v>
+        <v>133.1961881840039</v>
       </c>
       <c r="T10" t="n">
-        <v>108.4888536788635</v>
+        <v>133.1961881840039</v>
       </c>
       <c r="U10" t="n">
-        <v>108.4888536788635</v>
+        <v>133.1961881840039</v>
       </c>
       <c r="V10" t="n">
-        <v>108.4888536788635</v>
+        <v>133.1961881840039</v>
       </c>
       <c r="W10" t="n">
-        <v>108.4888536788635</v>
+        <v>133.1961881840039</v>
       </c>
       <c r="X10" t="n">
-        <v>108.4888536788635</v>
+        <v>133.1961881840039</v>
       </c>
       <c r="Y10" t="n">
-        <v>108.4888536788635</v>
+        <v>133.1961881840039</v>
       </c>
     </row>
     <row r="11">
@@ -5015,76 +5015,76 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>57.94462678914073</v>
+        <v>3.166710156947247</v>
       </c>
       <c r="C11" t="n">
-        <v>30.07591440498301</v>
+        <v>3.166710156947247</v>
       </c>
       <c r="D11" t="n">
-        <v>2.207202020825291</v>
+        <v>3.166710156947247</v>
       </c>
       <c r="E11" t="n">
-        <v>2.207202020825291</v>
+        <v>3.166710156947247</v>
       </c>
       <c r="F11" t="n">
-        <v>2.207202020825291</v>
+        <v>3.166710156947247</v>
       </c>
       <c r="G11" t="n">
-        <v>2.207202020825291</v>
+        <v>3.166710156947247</v>
       </c>
       <c r="H11" t="n">
-        <v>2.207202020825291</v>
+        <v>3.166710156947247</v>
       </c>
       <c r="I11" t="n">
-        <v>2.207202020825291</v>
+        <v>3.166710156947247</v>
       </c>
       <c r="J11" t="n">
-        <v>2.207202020825291</v>
+        <v>3.166710156947247</v>
       </c>
       <c r="K11" t="n">
-        <v>2.207202020825291</v>
+        <v>40.77139327069581</v>
       </c>
       <c r="L11" t="n">
-        <v>2.207202020825291</v>
+        <v>79.95943146291799</v>
       </c>
       <c r="M11" t="n">
-        <v>28.41772601812563</v>
+        <v>119.1474696551402</v>
       </c>
       <c r="N11" t="n">
-        <v>55.73185102583861</v>
+        <v>158.3355078473624</v>
       </c>
       <c r="O11" t="n">
-        <v>83.04597603355158</v>
+        <v>158.3355078473624</v>
       </c>
       <c r="P11" t="n">
-        <v>110.3601010412646</v>
+        <v>158.3355078473624</v>
       </c>
       <c r="Q11" t="n">
-        <v>110.3601010412646</v>
+        <v>158.3355078473624</v>
       </c>
       <c r="R11" t="n">
-        <v>110.3601010412646</v>
+        <v>158.3355078473624</v>
       </c>
       <c r="S11" t="n">
-        <v>110.3601010412646</v>
+        <v>123.1178524655551</v>
       </c>
       <c r="T11" t="n">
-        <v>110.3601010412646</v>
+        <v>123.1178524655551</v>
       </c>
       <c r="U11" t="n">
-        <v>110.3601010412646</v>
+        <v>123.1178524655551</v>
       </c>
       <c r="V11" t="n">
-        <v>110.3601010412646</v>
+        <v>83.13413836268582</v>
       </c>
       <c r="W11" t="n">
-        <v>82.49138865710684</v>
+        <v>43.15042425981653</v>
       </c>
       <c r="X11" t="n">
-        <v>82.49138865710684</v>
+        <v>3.166710156947247</v>
       </c>
       <c r="Y11" t="n">
-        <v>57.94462678914073</v>
+        <v>3.166710156947247</v>
       </c>
     </row>
     <row r="12">
@@ -5094,76 +5094,76 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>2.207202020825291</v>
+        <v>3.166710156947247</v>
       </c>
       <c r="C12" t="n">
-        <v>2.207202020825291</v>
+        <v>3.166710156947247</v>
       </c>
       <c r="D12" t="n">
-        <v>2.207202020825291</v>
+        <v>3.166710156947247</v>
       </c>
       <c r="E12" t="n">
-        <v>2.207202020825291</v>
+        <v>3.166710156947247</v>
       </c>
       <c r="F12" t="n">
-        <v>2.207202020825291</v>
+        <v>3.166710156947247</v>
       </c>
       <c r="G12" t="n">
-        <v>2.207202020825291</v>
+        <v>3.166710156947247</v>
       </c>
       <c r="H12" t="n">
-        <v>2.207202020825291</v>
+        <v>3.166710156947247</v>
       </c>
       <c r="I12" t="n">
-        <v>2.207202020825291</v>
+        <v>3.166710156947247</v>
       </c>
       <c r="J12" t="n">
-        <v>2.207202020825291</v>
+        <v>3.166710156947247</v>
       </c>
       <c r="K12" t="n">
-        <v>29.52132702853827</v>
+        <v>3.166710156947247</v>
       </c>
       <c r="L12" t="n">
-        <v>56.83545203625125</v>
+        <v>42.35474834916943</v>
       </c>
       <c r="M12" t="n">
-        <v>83.04597603355158</v>
+        <v>42.35474834916943</v>
       </c>
       <c r="N12" t="n">
-        <v>83.04597603355158</v>
+        <v>79.95943146291799</v>
       </c>
       <c r="O12" t="n">
-        <v>83.04597603355158</v>
+        <v>119.1474696551402</v>
       </c>
       <c r="P12" t="n">
-        <v>83.04597603355158</v>
+        <v>158.3355078473624</v>
       </c>
       <c r="Q12" t="n">
-        <v>110.3601010412646</v>
+        <v>158.3355078473624</v>
       </c>
       <c r="R12" t="n">
-        <v>82.49138865710684</v>
+        <v>158.3355078473624</v>
       </c>
       <c r="S12" t="n">
-        <v>54.62267627294912</v>
+        <v>123.1178524655551</v>
       </c>
       <c r="T12" t="n">
-        <v>26.7539638887914</v>
+        <v>83.13413836268582</v>
       </c>
       <c r="U12" t="n">
-        <v>2.207202020825291</v>
+        <v>43.15042425981653</v>
       </c>
       <c r="V12" t="n">
-        <v>2.207202020825291</v>
+        <v>3.166710156947247</v>
       </c>
       <c r="W12" t="n">
-        <v>2.207202020825291</v>
+        <v>3.166710156947247</v>
       </c>
       <c r="X12" t="n">
-        <v>2.207202020825291</v>
+        <v>3.166710156947247</v>
       </c>
       <c r="Y12" t="n">
-        <v>2.207202020825291</v>
+        <v>3.166710156947247</v>
       </c>
     </row>
     <row r="13">
@@ -5173,76 +5173,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>2.207202020825291</v>
+        <v>130.4472581485427</v>
       </c>
       <c r="C13" t="n">
-        <v>2.207202020825291</v>
+        <v>130.4472581485427</v>
       </c>
       <c r="D13" t="n">
-        <v>2.207202020825291</v>
+        <v>130.4472581485427</v>
       </c>
       <c r="E13" t="n">
-        <v>2.207202020825291</v>
+        <v>130.4472581485427</v>
       </c>
       <c r="F13" t="n">
-        <v>2.207202020825291</v>
+        <v>130.4472581485427</v>
       </c>
       <c r="G13" t="n">
-        <v>2.207202020825291</v>
+        <v>130.4472581485427</v>
       </c>
       <c r="H13" t="n">
-        <v>2.207202020825291</v>
+        <v>105.6285745504463</v>
       </c>
       <c r="I13" t="n">
-        <v>2.207202020825291</v>
+        <v>65.64486044757699</v>
       </c>
       <c r="J13" t="n">
-        <v>2.207202020825291</v>
+        <v>25.66114634470771</v>
       </c>
       <c r="K13" t="n">
-        <v>2.207202020825291</v>
+        <v>3.166710156947247</v>
       </c>
       <c r="L13" t="n">
-        <v>29.52132702853827</v>
+        <v>30.48083516466022</v>
       </c>
       <c r="M13" t="n">
-        <v>56.83545203625125</v>
+        <v>69.6688733568824</v>
       </c>
       <c r="N13" t="n">
-        <v>84.14957704396423</v>
+        <v>108.8569115491046</v>
       </c>
       <c r="O13" t="n">
-        <v>108.4888536788635</v>
+        <v>133.1961881840039</v>
       </c>
       <c r="P13" t="n">
-        <v>108.4888536788635</v>
+        <v>130.4472581485427</v>
       </c>
       <c r="Q13" t="n">
-        <v>80.62014129470579</v>
+        <v>130.4472581485427</v>
       </c>
       <c r="R13" t="n">
-        <v>52.75142891054807</v>
+        <v>130.4472581485427</v>
       </c>
       <c r="S13" t="n">
-        <v>24.88271652639035</v>
+        <v>130.4472581485427</v>
       </c>
       <c r="T13" t="n">
-        <v>2.207202020825291</v>
+        <v>130.4472581485427</v>
       </c>
       <c r="U13" t="n">
-        <v>2.207202020825291</v>
+        <v>130.4472581485427</v>
       </c>
       <c r="V13" t="n">
-        <v>2.207202020825291</v>
+        <v>130.4472581485427</v>
       </c>
       <c r="W13" t="n">
-        <v>2.207202020825291</v>
+        <v>130.4472581485427</v>
       </c>
       <c r="X13" t="n">
-        <v>2.207202020825291</v>
+        <v>130.4472581485427</v>
       </c>
       <c r="Y13" t="n">
-        <v>2.207202020825291</v>
+        <v>130.4472581485427</v>
       </c>
     </row>
     <row r="14">
@@ -5252,76 +5252,76 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>2.207202020825291</v>
+        <v>3.166710156947247</v>
       </c>
       <c r="C14" t="n">
-        <v>2.207202020825291</v>
+        <v>3.166710156947247</v>
       </c>
       <c r="D14" t="n">
-        <v>2.207202020825291</v>
+        <v>3.166710156947247</v>
       </c>
       <c r="E14" t="n">
-        <v>2.207202020825291</v>
+        <v>3.166710156947247</v>
       </c>
       <c r="F14" t="n">
-        <v>2.207202020825291</v>
+        <v>3.166710156947247</v>
       </c>
       <c r="G14" t="n">
-        <v>2.207202020825291</v>
+        <v>3.166710156947247</v>
       </c>
       <c r="H14" t="n">
-        <v>2.207202020825291</v>
+        <v>3.166710156947247</v>
       </c>
       <c r="I14" t="n">
-        <v>2.207202020825291</v>
+        <v>3.166710156947247</v>
       </c>
       <c r="J14" t="n">
-        <v>2.207202020825291</v>
+        <v>3.166710156947247</v>
       </c>
       <c r="K14" t="n">
-        <v>2.207202020825291</v>
+        <v>42.35474834916943</v>
       </c>
       <c r="L14" t="n">
-        <v>29.52132702853827</v>
+        <v>42.35474834916943</v>
       </c>
       <c r="M14" t="n">
-        <v>56.83545203625125</v>
+        <v>81.54278654139161</v>
       </c>
       <c r="N14" t="n">
-        <v>83.04597603355158</v>
+        <v>120.7308247336138</v>
       </c>
       <c r="O14" t="n">
-        <v>83.04597603355158</v>
+        <v>158.3355078473624</v>
       </c>
       <c r="P14" t="n">
-        <v>110.3601010412646</v>
+        <v>158.3355078473624</v>
       </c>
       <c r="Q14" t="n">
-        <v>100.2684856730375</v>
+        <v>158.3355078473624</v>
       </c>
       <c r="R14" t="n">
-        <v>72.39977328887976</v>
+        <v>158.3355078473624</v>
       </c>
       <c r="S14" t="n">
-        <v>44.53106090472204</v>
+        <v>123.1178524655551</v>
       </c>
       <c r="T14" t="n">
-        <v>16.66234852056432</v>
+        <v>83.13413836268582</v>
       </c>
       <c r="U14" t="n">
-        <v>2.207202020825291</v>
+        <v>43.15042425981653</v>
       </c>
       <c r="V14" t="n">
-        <v>2.207202020825291</v>
+        <v>3.166710156947247</v>
       </c>
       <c r="W14" t="n">
-        <v>2.207202020825291</v>
+        <v>3.166710156947247</v>
       </c>
       <c r="X14" t="n">
-        <v>2.207202020825291</v>
+        <v>3.166710156947247</v>
       </c>
       <c r="Y14" t="n">
-        <v>2.207202020825291</v>
+        <v>3.166710156947247</v>
       </c>
     </row>
     <row r="15">
@@ -5331,76 +5331,76 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>2.207202020825291</v>
+        <v>78.36807964162378</v>
       </c>
       <c r="C15" t="n">
-        <v>2.207202020825291</v>
+        <v>78.36807964162378</v>
       </c>
       <c r="D15" t="n">
-        <v>2.207202020825291</v>
+        <v>78.36807964162378</v>
       </c>
       <c r="E15" t="n">
-        <v>2.207202020825291</v>
+        <v>78.36807964162378</v>
       </c>
       <c r="F15" t="n">
-        <v>2.207202020825291</v>
+        <v>78.36807964162378</v>
       </c>
       <c r="G15" t="n">
-        <v>2.207202020825291</v>
+        <v>43.15042425981653</v>
       </c>
       <c r="H15" t="n">
-        <v>2.207202020825291</v>
+        <v>3.166710156947247</v>
       </c>
       <c r="I15" t="n">
-        <v>2.207202020825291</v>
+        <v>3.166710156947247</v>
       </c>
       <c r="J15" t="n">
-        <v>2.207202020825291</v>
+        <v>3.166710156947247</v>
       </c>
       <c r="K15" t="n">
-        <v>2.207202020825291</v>
+        <v>3.166710156947247</v>
       </c>
       <c r="L15" t="n">
-        <v>29.52132702853827</v>
+        <v>42.35474834916943</v>
       </c>
       <c r="M15" t="n">
-        <v>29.52132702853827</v>
+        <v>79.95943146291799</v>
       </c>
       <c r="N15" t="n">
-        <v>56.83545203625125</v>
+        <v>79.95943146291799</v>
       </c>
       <c r="O15" t="n">
-        <v>84.14957704396423</v>
+        <v>119.1474696551402</v>
       </c>
       <c r="P15" t="n">
-        <v>110.3601010412646</v>
+        <v>158.3355078473624</v>
       </c>
       <c r="Q15" t="n">
-        <v>110.3601010412646</v>
+        <v>158.3355078473624</v>
       </c>
       <c r="R15" t="n">
-        <v>82.49138865710684</v>
+        <v>118.3517937444931</v>
       </c>
       <c r="S15" t="n">
-        <v>54.62267627294912</v>
+        <v>78.36807964162378</v>
       </c>
       <c r="T15" t="n">
-        <v>26.7539638887914</v>
+        <v>78.36807964162378</v>
       </c>
       <c r="U15" t="n">
-        <v>2.207202020825291</v>
+        <v>78.36807964162378</v>
       </c>
       <c r="V15" t="n">
-        <v>2.207202020825291</v>
+        <v>78.36807964162378</v>
       </c>
       <c r="W15" t="n">
-        <v>2.207202020825291</v>
+        <v>78.36807964162378</v>
       </c>
       <c r="X15" t="n">
-        <v>2.207202020825291</v>
+        <v>78.36807964162378</v>
       </c>
       <c r="Y15" t="n">
-        <v>2.207202020825291</v>
+        <v>78.36807964162378</v>
       </c>
     </row>
     <row r="16">
@@ -5410,76 +5410,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>105.7399236434024</v>
+        <v>130.4472581485427</v>
       </c>
       <c r="C16" t="n">
-        <v>105.7399236434024</v>
+        <v>130.4472581485427</v>
       </c>
       <c r="D16" t="n">
-        <v>105.7399236434024</v>
+        <v>130.4472581485427</v>
       </c>
       <c r="E16" t="n">
-        <v>105.7399236434024</v>
+        <v>130.4472581485427</v>
       </c>
       <c r="F16" t="n">
-        <v>105.7399236434024</v>
+        <v>130.4472581485427</v>
       </c>
       <c r="G16" t="n">
-        <v>105.7399236434024</v>
+        <v>130.4472581485427</v>
       </c>
       <c r="H16" t="n">
-        <v>80.43906297690118</v>
+        <v>90.46354404567346</v>
       </c>
       <c r="I16" t="n">
-        <v>52.57035059274347</v>
+        <v>50.47982994280417</v>
       </c>
       <c r="J16" t="n">
-        <v>24.70163820858575</v>
+        <v>10.49611583993489</v>
       </c>
       <c r="K16" t="n">
-        <v>2.207202020825291</v>
+        <v>3.166710156947247</v>
       </c>
       <c r="L16" t="n">
-        <v>29.52132702853827</v>
+        <v>30.48083516466022</v>
       </c>
       <c r="M16" t="n">
-        <v>56.83545203625125</v>
+        <v>69.6688733568824</v>
       </c>
       <c r="N16" t="n">
-        <v>84.14957704396423</v>
+        <v>108.8569115491046</v>
       </c>
       <c r="O16" t="n">
-        <v>108.4888536788635</v>
+        <v>133.1961881840039</v>
       </c>
       <c r="P16" t="n">
-        <v>105.7399236434024</v>
+        <v>130.4472581485427</v>
       </c>
       <c r="Q16" t="n">
-        <v>105.7399236434024</v>
+        <v>130.4472581485427</v>
       </c>
       <c r="R16" t="n">
-        <v>105.7399236434024</v>
+        <v>130.4472581485427</v>
       </c>
       <c r="S16" t="n">
-        <v>105.7399236434024</v>
+        <v>130.4472581485427</v>
       </c>
       <c r="T16" t="n">
-        <v>105.7399236434024</v>
+        <v>130.4472581485427</v>
       </c>
       <c r="U16" t="n">
-        <v>105.7399236434024</v>
+        <v>130.4472581485427</v>
       </c>
       <c r="V16" t="n">
-        <v>105.7399236434024</v>
+        <v>130.4472581485427</v>
       </c>
       <c r="W16" t="n">
-        <v>105.7399236434024</v>
+        <v>130.4472581485427</v>
       </c>
       <c r="X16" t="n">
-        <v>105.7399236434024</v>
+        <v>130.4472581485427</v>
       </c>
       <c r="Y16" t="n">
-        <v>105.7399236434024</v>
+        <v>130.4472581485427</v>
       </c>
     </row>
     <row r="17">
@@ -5489,76 +5489,76 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>3.166710156947247</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="C17" t="n">
-        <v>3.166710156947247</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="D17" t="n">
-        <v>3.166710156947247</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="E17" t="n">
-        <v>3.166710156947247</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="F17" t="n">
-        <v>3.166710156947247</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="G17" t="n">
-        <v>3.166710156947247</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="H17" t="n">
-        <v>3.166710156947247</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="I17" t="n">
-        <v>3.166710156947247</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="J17" t="n">
-        <v>3.166710156947247</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="K17" t="n">
-        <v>3.166710156947247</v>
+        <v>47.22142444577459</v>
       </c>
       <c r="L17" t="n">
-        <v>42.35474834916943</v>
+        <v>47.22142444577459</v>
       </c>
       <c r="M17" t="n">
-        <v>79.95943146291799</v>
+        <v>90.91227510121089</v>
       </c>
       <c r="N17" t="n">
-        <v>119.1474696551402</v>
+        <v>132.8378388614781</v>
       </c>
       <c r="O17" t="n">
-        <v>158.3355078473624</v>
+        <v>176.5286895169144</v>
       </c>
       <c r="P17" t="n">
-        <v>158.3355078473624</v>
+        <v>176.5286895169144</v>
       </c>
       <c r="Q17" t="n">
-        <v>148.2438924791353</v>
+        <v>166.4370741486873</v>
       </c>
       <c r="R17" t="n">
-        <v>108.260178376266</v>
+        <v>121.8591222504766</v>
       </c>
       <c r="S17" t="n">
-        <v>68.2764642733967</v>
+        <v>92.68647758675968</v>
       </c>
       <c r="T17" t="n">
-        <v>28.29275017052741</v>
+        <v>48.10852568854899</v>
       </c>
       <c r="U17" t="n">
-        <v>3.166710156947247</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="V17" t="n">
-        <v>3.166710156947247</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="W17" t="n">
-        <v>3.166710156947247</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="X17" t="n">
-        <v>3.166710156947247</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="Y17" t="n">
-        <v>3.166710156947247</v>
+        <v>3.530573790338288</v>
       </c>
     </row>
     <row r="18">
@@ -5568,76 +5568,76 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>123.1178524655551</v>
+        <v>176.5286895169144</v>
       </c>
       <c r="C18" t="n">
-        <v>123.1178524655551</v>
+        <v>176.5286895169144</v>
       </c>
       <c r="D18" t="n">
-        <v>123.1178524655551</v>
+        <v>176.5286895169144</v>
       </c>
       <c r="E18" t="n">
-        <v>83.13413836268582</v>
+        <v>137.2644294849704</v>
       </c>
       <c r="F18" t="n">
-        <v>83.13413836268582</v>
+        <v>92.68647758675968</v>
       </c>
       <c r="G18" t="n">
-        <v>43.15042425981653</v>
+        <v>48.10852568854899</v>
       </c>
       <c r="H18" t="n">
-        <v>3.166710156947247</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="I18" t="n">
-        <v>3.166710156947247</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="J18" t="n">
-        <v>3.166710156947247</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="K18" t="n">
-        <v>42.35474834916943</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="L18" t="n">
-        <v>81.54278654139161</v>
+        <v>47.22142444577459</v>
       </c>
       <c r="M18" t="n">
-        <v>119.1474696551402</v>
+        <v>47.22142444577459</v>
       </c>
       <c r="N18" t="n">
-        <v>119.1474696551402</v>
+        <v>89.14698820604177</v>
       </c>
       <c r="O18" t="n">
-        <v>119.1474696551402</v>
+        <v>132.8378388614781</v>
       </c>
       <c r="P18" t="n">
-        <v>119.1474696551402</v>
+        <v>132.8378388614781</v>
       </c>
       <c r="Q18" t="n">
-        <v>158.3355078473624</v>
+        <v>176.5286895169144</v>
       </c>
       <c r="R18" t="n">
-        <v>123.1178524655551</v>
+        <v>176.5286895169144</v>
       </c>
       <c r="S18" t="n">
-        <v>123.1178524655551</v>
+        <v>176.5286895169144</v>
       </c>
       <c r="T18" t="n">
-        <v>123.1178524655551</v>
+        <v>176.5286895169144</v>
       </c>
       <c r="U18" t="n">
-        <v>123.1178524655551</v>
+        <v>176.5286895169144</v>
       </c>
       <c r="V18" t="n">
-        <v>123.1178524655551</v>
+        <v>176.5286895169144</v>
       </c>
       <c r="W18" t="n">
-        <v>123.1178524655551</v>
+        <v>176.5286895169144</v>
       </c>
       <c r="X18" t="n">
-        <v>123.1178524655551</v>
+        <v>176.5286895169144</v>
       </c>
       <c r="Y18" t="n">
-        <v>123.1178524655551</v>
+        <v>176.5286895169144</v>
       </c>
     </row>
     <row r="19">
@@ -5647,76 +5647,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>43.15042425981653</v>
+        <v>48.90696048418764</v>
       </c>
       <c r="C19" t="n">
-        <v>3.166710156947247</v>
+        <v>48.90696048418764</v>
       </c>
       <c r="D19" t="n">
-        <v>3.166710156947247</v>
+        <v>48.90696048418764</v>
       </c>
       <c r="E19" t="n">
-        <v>3.166710156947247</v>
+        <v>48.90696048418764</v>
       </c>
       <c r="F19" t="n">
-        <v>3.166710156947247</v>
+        <v>48.90696048418764</v>
       </c>
       <c r="G19" t="n">
-        <v>3.166710156947247</v>
+        <v>4.329008585976936</v>
       </c>
       <c r="H19" t="n">
-        <v>3.166710156947247</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="I19" t="n">
-        <v>3.166710156947247</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="J19" t="n">
-        <v>3.166710156947247</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="K19" t="n">
-        <v>3.166710156947247</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="L19" t="n">
-        <v>30.48083516466022</v>
+        <v>30.84469879805127</v>
       </c>
       <c r="M19" t="n">
-        <v>69.6688733568824</v>
+        <v>70.03273699027345</v>
       </c>
       <c r="N19" t="n">
-        <v>108.8569115491046</v>
+        <v>113.7235876457098</v>
       </c>
       <c r="O19" t="n">
-        <v>133.1961881840039</v>
+        <v>138.062864280609</v>
       </c>
       <c r="P19" t="n">
-        <v>133.1961881840039</v>
+        <v>138.062864280609</v>
       </c>
       <c r="Q19" t="n">
-        <v>123.1178524655551</v>
+        <v>138.062864280609</v>
       </c>
       <c r="R19" t="n">
-        <v>83.13413836268582</v>
+        <v>93.48491238239833</v>
       </c>
       <c r="S19" t="n">
-        <v>83.13413836268582</v>
+        <v>93.48491238239833</v>
       </c>
       <c r="T19" t="n">
-        <v>83.13413836268582</v>
+        <v>93.48491238239833</v>
       </c>
       <c r="U19" t="n">
-        <v>83.13413836268582</v>
+        <v>93.48491238239833</v>
       </c>
       <c r="V19" t="n">
-        <v>43.15042425981653</v>
+        <v>93.48491238239833</v>
       </c>
       <c r="W19" t="n">
-        <v>43.15042425981653</v>
+        <v>93.48491238239833</v>
       </c>
       <c r="X19" t="n">
-        <v>43.15042425981653</v>
+        <v>93.48491238239833</v>
       </c>
       <c r="Y19" t="n">
-        <v>43.15042425981653</v>
+        <v>93.48491238239833</v>
       </c>
     </row>
     <row r="20">
@@ -5726,25 +5726,25 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>752.9257720901863</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C20" t="n">
-        <v>752.9257720901863</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D20" t="n">
-        <v>752.9257720901863</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E20" t="n">
-        <v>752.9257720901863</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F20" t="n">
-        <v>718.7806050553886</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G20" t="n">
-        <v>475.3318284112885</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H20" t="n">
-        <v>231.8830517671884</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I20" t="n">
         <v>19.28114311021272</v>
@@ -5771,31 +5771,31 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Q20" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="R20" t="n">
-        <v>964.0571555106362</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="S20" t="n">
-        <v>752.9257720901863</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="T20" t="n">
-        <v>752.9257720901863</v>
+        <v>577.2332497330343</v>
       </c>
       <c r="U20" t="n">
-        <v>752.9257720901863</v>
+        <v>333.7844730889342</v>
       </c>
       <c r="V20" t="n">
-        <v>752.9257720901863</v>
+        <v>333.7844730889342</v>
       </c>
       <c r="W20" t="n">
-        <v>752.9257720901863</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="X20" t="n">
-        <v>752.9257720901863</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="Y20" t="n">
-        <v>752.9257720901863</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="21">
@@ -5805,22 +5805,22 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>19.28114311021272</v>
+        <v>259.0600686093459</v>
       </c>
       <c r="C21" t="n">
-        <v>19.28114311021272</v>
+        <v>84.60703932821886</v>
       </c>
       <c r="D21" t="n">
-        <v>19.28114311021272</v>
+        <v>84.60703932821886</v>
       </c>
       <c r="E21" t="n">
-        <v>19.28114311021272</v>
+        <v>84.60703932821886</v>
       </c>
       <c r="F21" t="n">
-        <v>19.28114311021272</v>
+        <v>84.60703932821886</v>
       </c>
       <c r="G21" t="n">
-        <v>19.28114311021272</v>
+        <v>84.60703932821886</v>
       </c>
       <c r="H21" t="n">
         <v>19.28114311021272</v>
@@ -5838,43 +5838,43 @@
         <v>374.6018090363993</v>
       </c>
       <c r="M21" t="n">
-        <v>473.4149733950735</v>
+        <v>613.2059550252818</v>
       </c>
       <c r="N21" t="n">
-        <v>712.019119383956</v>
+        <v>851.8101010141643</v>
       </c>
       <c r="O21" t="n">
-        <v>712.019119383956</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="P21" t="n">
-        <v>894.6625969973069</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Q21" t="n">
         <v>964.0571555106362</v>
       </c>
       <c r="R21" t="n">
-        <v>964.0571555106362</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="S21" t="n">
-        <v>964.0571555106362</v>
+        <v>689.4702815141908</v>
       </c>
       <c r="T21" t="n">
-        <v>964.0571555106362</v>
+        <v>487.2836868729568</v>
       </c>
       <c r="U21" t="n">
-        <v>735.8335372470253</v>
+        <v>259.0600686093459</v>
       </c>
       <c r="V21" t="n">
-        <v>500.6814290152826</v>
+        <v>259.0600686093459</v>
       </c>
       <c r="W21" t="n">
-        <v>257.2326523711826</v>
+        <v>259.0600686093459</v>
       </c>
       <c r="X21" t="n">
-        <v>187.4964801302808</v>
+        <v>259.0600686093459</v>
       </c>
       <c r="Y21" t="n">
-        <v>187.4964801302808</v>
+        <v>259.0600686093459</v>
       </c>
     </row>
     <row r="22">
@@ -5884,10 +5884,10 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C22" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D22" t="n">
         <v>19.28114311021272</v>
@@ -5926,34 +5926,34 @@
         <v>153.8134336004835</v>
       </c>
       <c r="P22" t="n">
-        <v>153.8134336004835</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="Q22" t="n">
-        <v>153.8134336004835</v>
+        <v>64.03213664411894</v>
       </c>
       <c r="R22" t="n">
-        <v>153.8134336004835</v>
+        <v>64.03213664411894</v>
       </c>
       <c r="S22" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="T22" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="U22" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="V22" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="W22" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="X22" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="Y22" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="23">
@@ -5963,22 +5963,22 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>100.4273118130612</v>
+        <v>720.6083788665362</v>
       </c>
       <c r="C23" t="n">
-        <v>100.4273118130612</v>
+        <v>720.6083788665362</v>
       </c>
       <c r="D23" t="n">
-        <v>19.28114311021272</v>
+        <v>720.6083788665362</v>
       </c>
       <c r="E23" t="n">
-        <v>19.28114311021272</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="F23" t="n">
-        <v>19.28114311021272</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="G23" t="n">
-        <v>19.28114311021272</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="H23" t="n">
         <v>19.28114311021272</v>
@@ -6011,28 +6011,28 @@
         <v>964.0571555106362</v>
       </c>
       <c r="R23" t="n">
-        <v>812.6742080953335</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S23" t="n">
-        <v>812.6742080953335</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T23" t="n">
-        <v>587.3248651012614</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U23" t="n">
-        <v>587.3248651012614</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="V23" t="n">
-        <v>343.8760884571613</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="W23" t="n">
-        <v>343.8760884571613</v>
+        <v>720.6083788665362</v>
       </c>
       <c r="X23" t="n">
-        <v>100.4273118130612</v>
+        <v>720.6083788665362</v>
       </c>
       <c r="Y23" t="n">
-        <v>100.4273118130612</v>
+        <v>720.6083788665362</v>
       </c>
     </row>
     <row r="24">
@@ -6042,19 +6042,19 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>157.6713068207694</v>
+        <v>83.81530782185143</v>
       </c>
       <c r="C24" t="n">
-        <v>157.6713068207694</v>
+        <v>83.81530782185143</v>
       </c>
       <c r="D24" t="n">
-        <v>157.6713068207694</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E24" t="n">
-        <v>157.6713068207694</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F24" t="n">
-        <v>157.6713068207694</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G24" t="n">
         <v>19.28114311021272</v>
@@ -6072,19 +6072,19 @@
         <v>19.28114311021272</v>
       </c>
       <c r="L24" t="n">
-        <v>249.2442489785619</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="M24" t="n">
-        <v>487.8483949674443</v>
+        <v>257.8852890990952</v>
       </c>
       <c r="N24" t="n">
-        <v>726.4525409563269</v>
+        <v>496.4894350879777</v>
       </c>
       <c r="O24" t="n">
-        <v>781.4136778972854</v>
+        <v>735.0935810768601</v>
       </c>
       <c r="P24" t="n">
-        <v>964.0571555106362</v>
+        <v>917.7370586902109</v>
       </c>
       <c r="Q24" t="n">
         <v>964.0571555106362</v>
@@ -6093,25 +6093,25 @@
         <v>964.0571555106362</v>
       </c>
       <c r="S24" t="n">
-        <v>964.0571555106362</v>
+        <v>790.6398109613051</v>
       </c>
       <c r="T24" t="n">
-        <v>761.8705608694022</v>
+        <v>790.6398109613051</v>
       </c>
       <c r="U24" t="n">
-        <v>533.6469426057913</v>
+        <v>562.4161926976942</v>
       </c>
       <c r="V24" t="n">
-        <v>533.6469426057913</v>
+        <v>327.2640844659515</v>
       </c>
       <c r="W24" t="n">
-        <v>533.6469426057913</v>
+        <v>83.81530782185143</v>
       </c>
       <c r="X24" t="n">
-        <v>533.6469426057913</v>
+        <v>83.81530782185143</v>
       </c>
       <c r="Y24" t="n">
-        <v>325.8866438408374</v>
+        <v>83.81530782185143</v>
       </c>
     </row>
     <row r="25">
@@ -6121,76 +6121,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>829.5248650203655</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="C25" t="n">
-        <v>829.5248650203655</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="D25" t="n">
-        <v>829.5248650203655</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="E25" t="n">
-        <v>829.5248650203655</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="F25" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G25" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H25" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I25" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J25" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="K25" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L25" t="n">
-        <v>856.8389900280785</v>
+        <v>46.5952681179257</v>
       </c>
       <c r="M25" t="n">
-        <v>896.0270282203006</v>
+        <v>85.78330631014788</v>
       </c>
       <c r="N25" t="n">
-        <v>939.7178788757369</v>
+        <v>129.4741569655842</v>
       </c>
       <c r="O25" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="P25" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="Q25" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="R25" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="S25" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="T25" t="n">
-        <v>829.5248650203655</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="U25" t="n">
-        <v>829.5248650203655</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="V25" t="n">
-        <v>829.5248650203655</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="W25" t="n">
-        <v>829.5248650203655</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="X25" t="n">
-        <v>829.5248650203655</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="Y25" t="n">
-        <v>829.5248650203655</v>
+        <v>153.8134336004835</v>
       </c>
     </row>
     <row r="26">
@@ -6200,25 +6200,25 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>19.28114311021272</v>
+        <v>720.6083788665362</v>
       </c>
       <c r="C26" t="n">
-        <v>19.28114311021272</v>
+        <v>720.6083788665362</v>
       </c>
       <c r="D26" t="n">
-        <v>19.28114311021272</v>
+        <v>477.1596022224361</v>
       </c>
       <c r="E26" t="n">
-        <v>19.28114311021272</v>
+        <v>477.1596022224361</v>
       </c>
       <c r="F26" t="n">
-        <v>19.28114311021272</v>
+        <v>477.1596022224361</v>
       </c>
       <c r="G26" t="n">
-        <v>19.28114311021272</v>
+        <v>475.3318284112885</v>
       </c>
       <c r="H26" t="n">
-        <v>19.28114311021272</v>
+        <v>231.8830517671884</v>
       </c>
       <c r="I26" t="n">
         <v>19.28114311021272</v>
@@ -6254,22 +6254,22 @@
         <v>964.0571555106362</v>
       </c>
       <c r="T26" t="n">
-        <v>738.7078125165641</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U26" t="n">
-        <v>506.1786963984129</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="V26" t="n">
-        <v>506.1786963984129</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="W26" t="n">
-        <v>506.1786963984129</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="X26" t="n">
-        <v>506.1786963984129</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Y26" t="n">
-        <v>262.7299197543128</v>
+        <v>720.6083788665362</v>
       </c>
     </row>
     <row r="27">
@@ -6279,28 +6279,28 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>158.7661011803829</v>
+        <v>69.84447166430675</v>
       </c>
       <c r="C27" t="n">
-        <v>158.7661011803829</v>
+        <v>69.84447166430675</v>
       </c>
       <c r="D27" t="n">
-        <v>158.7661011803829</v>
+        <v>69.84447166430675</v>
       </c>
       <c r="E27" t="n">
-        <v>158.7661011803829</v>
+        <v>69.84447166430675</v>
       </c>
       <c r="F27" t="n">
-        <v>158.7661011803829</v>
+        <v>69.84447166430675</v>
       </c>
       <c r="G27" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H27" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I27" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J27" t="n">
         <v>19.28114311021272</v>
@@ -6309,19 +6309,19 @@
         <v>19.28114311021272</v>
       </c>
       <c r="L27" t="n">
-        <v>249.2442489785619</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="M27" t="n">
-        <v>487.8483949674443</v>
+        <v>234.810827406191</v>
       </c>
       <c r="N27" t="n">
-        <v>542.809531908403</v>
+        <v>473.4149733950735</v>
       </c>
       <c r="O27" t="n">
-        <v>781.4136778972854</v>
+        <v>712.019119383956</v>
       </c>
       <c r="P27" t="n">
-        <v>964.0571555106362</v>
+        <v>894.6625969973069</v>
       </c>
       <c r="Q27" t="n">
         <v>964.0571555106362</v>
@@ -6330,25 +6330,25 @@
         <v>964.0571555106362</v>
       </c>
       <c r="S27" t="n">
-        <v>790.6398109613051</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T27" t="n">
-        <v>588.4532163200711</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U27" t="n">
-        <v>588.4532163200711</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="V27" t="n">
-        <v>588.4532163200711</v>
+        <v>728.9050472788936</v>
       </c>
       <c r="W27" t="n">
-        <v>588.4532163200711</v>
+        <v>485.4562706347935</v>
       </c>
       <c r="X27" t="n">
-        <v>534.7417369654049</v>
+        <v>277.6047704292607</v>
       </c>
       <c r="Y27" t="n">
-        <v>326.981438200451</v>
+        <v>69.84447166430675</v>
       </c>
     </row>
     <row r="28">
@@ -6358,76 +6358,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="C28" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="D28" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="E28" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="F28" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="G28" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="H28" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="I28" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="J28" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="K28" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="L28" t="n">
-        <v>46.5952681179257</v>
+        <v>856.8389900280785</v>
       </c>
       <c r="M28" t="n">
-        <v>85.78330631014788</v>
+        <v>896.0270282203006</v>
       </c>
       <c r="N28" t="n">
-        <v>129.4741569655842</v>
+        <v>939.7178788757369</v>
       </c>
       <c r="O28" t="n">
-        <v>153.8134336004835</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="P28" t="n">
-        <v>151.0645035650224</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Q28" t="n">
-        <v>151.0645035650224</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="R28" t="n">
-        <v>19.28114311021272</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S28" t="n">
-        <v>19.28114311021272</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T28" t="n">
-        <v>19.28114311021272</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U28" t="n">
-        <v>19.28114311021272</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="V28" t="n">
-        <v>19.28114311021272</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="W28" t="n">
-        <v>19.28114311021272</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="X28" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="Y28" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
     </row>
     <row r="29">
@@ -6437,19 +6437,19 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>262.7299197543128</v>
+        <v>720.6083788665362</v>
       </c>
       <c r="C29" t="n">
-        <v>262.7299197543128</v>
+        <v>720.6083788665362</v>
       </c>
       <c r="D29" t="n">
-        <v>262.7299197543128</v>
+        <v>477.1596022224361</v>
       </c>
       <c r="E29" t="n">
-        <v>262.7299197543128</v>
+        <v>233.7108255783361</v>
       </c>
       <c r="F29" t="n">
-        <v>262.7299197543128</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G29" t="n">
         <v>19.28114311021272</v>
@@ -6491,22 +6491,22 @@
         <v>964.0571555106362</v>
       </c>
       <c r="T29" t="n">
-        <v>749.627473042513</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U29" t="n">
-        <v>749.627473042513</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="V29" t="n">
-        <v>749.627473042513</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="W29" t="n">
-        <v>506.1786963984129</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="X29" t="n">
-        <v>506.1786963984129</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Y29" t="n">
-        <v>262.7299197543128</v>
+        <v>964.0571555106362</v>
       </c>
     </row>
     <row r="30">
@@ -6516,28 +6516,28 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>756.2968567456824</v>
+        <v>257.2326523711826</v>
       </c>
       <c r="C30" t="n">
-        <v>581.8438274645554</v>
+        <v>257.2326523711826</v>
       </c>
       <c r="D30" t="n">
-        <v>432.9094178033041</v>
+        <v>257.2326523711826</v>
       </c>
       <c r="E30" t="n">
-        <v>273.6719627978486</v>
+        <v>158.0119685275972</v>
       </c>
       <c r="F30" t="n">
-        <v>273.6719627978486</v>
+        <v>158.0119685275972</v>
       </c>
       <c r="G30" t="n">
-        <v>134.9411373804641</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H30" t="n">
-        <v>21.57200178804344</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I30" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J30" t="n">
         <v>19.28114311021272</v>
@@ -6546,19 +6546,19 @@
         <v>144.6387031680501</v>
       </c>
       <c r="L30" t="n">
-        <v>144.6387031680501</v>
+        <v>374.6018090363993</v>
       </c>
       <c r="M30" t="n">
-        <v>304.2053859195205</v>
+        <v>613.2059550252818</v>
       </c>
       <c r="N30" t="n">
-        <v>542.809531908403</v>
+        <v>851.8101010141643</v>
       </c>
       <c r="O30" t="n">
-        <v>781.4136778972854</v>
+        <v>851.8101010141643</v>
       </c>
       <c r="P30" t="n">
-        <v>964.0571555106362</v>
+        <v>894.6625969973069</v>
       </c>
       <c r="Q30" t="n">
         <v>964.0571555106362</v>
@@ -6573,19 +6573,19 @@
         <v>964.0571555106362</v>
       </c>
       <c r="U30" t="n">
-        <v>964.0571555106362</v>
+        <v>735.8335372470253</v>
       </c>
       <c r="V30" t="n">
-        <v>964.0571555106362</v>
+        <v>500.6814290152826</v>
       </c>
       <c r="W30" t="n">
-        <v>964.0571555106362</v>
+        <v>257.2326523711826</v>
       </c>
       <c r="X30" t="n">
-        <v>964.0571555106362</v>
+        <v>257.2326523711826</v>
       </c>
       <c r="Y30" t="n">
-        <v>756.2968567456824</v>
+        <v>257.2326523711826</v>
       </c>
     </row>
     <row r="31">
@@ -6655,10 +6655,10 @@
         <v>153.8134336004835</v>
       </c>
       <c r="V31" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="W31" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="X31" t="n">
         <v>19.28114311021272</v>
@@ -6674,22 +6674,22 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>738.7078125165641</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="C32" t="n">
-        <v>738.7078125165641</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="D32" t="n">
         <v>506.1786963984129</v>
       </c>
       <c r="E32" t="n">
-        <v>506.1786963984129</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="F32" t="n">
-        <v>506.1786963984129</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G32" t="n">
-        <v>262.7299197543128</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H32" t="n">
         <v>19.28114311021272</v>
@@ -6719,31 +6719,31 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Q32" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="R32" t="n">
-        <v>964.0571555106362</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="S32" t="n">
-        <v>964.0571555106362</v>
+        <v>591.4512093066566</v>
       </c>
       <c r="T32" t="n">
-        <v>738.7078125165641</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="U32" t="n">
-        <v>738.7078125165641</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="V32" t="n">
-        <v>738.7078125165641</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="W32" t="n">
-        <v>738.7078125165641</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="X32" t="n">
-        <v>738.7078125165641</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="Y32" t="n">
-        <v>738.7078125165641</v>
+        <v>506.1786963984129</v>
       </c>
     </row>
     <row r="33">
@@ -6753,19 +6753,19 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>352.9294114938717</v>
+        <v>304.5465265007123</v>
       </c>
       <c r="C33" t="n">
-        <v>178.5185981156682</v>
+        <v>304.5465265007123</v>
       </c>
       <c r="D33" t="n">
-        <v>178.5185981156682</v>
+        <v>304.5465265007123</v>
       </c>
       <c r="E33" t="n">
-        <v>19.28114311021272</v>
+        <v>304.5465265007123</v>
       </c>
       <c r="F33" t="n">
-        <v>19.28114311021272</v>
+        <v>158.0119685275972</v>
       </c>
       <c r="G33" t="n">
         <v>19.28114311021272</v>
@@ -6783,46 +6783,46 @@
         <v>144.6387031680501</v>
       </c>
       <c r="L33" t="n">
-        <v>304.2053859195205</v>
+        <v>144.6387031680501</v>
       </c>
       <c r="M33" t="n">
-        <v>304.2053859195205</v>
+        <v>383.2428491569326</v>
       </c>
       <c r="N33" t="n">
-        <v>542.809531908403</v>
+        <v>473.4149733950735</v>
       </c>
       <c r="O33" t="n">
-        <v>781.4136778972854</v>
+        <v>712.019119383956</v>
       </c>
       <c r="P33" t="n">
-        <v>964.0571555106362</v>
+        <v>894.6625969973069</v>
       </c>
       <c r="Q33" t="n">
         <v>964.0571555106362</v>
       </c>
       <c r="R33" t="n">
-        <v>964.0571555106362</v>
+        <v>924.0621403704131</v>
       </c>
       <c r="S33" t="n">
-        <v>964.0571555106362</v>
+        <v>924.0621403704131</v>
       </c>
       <c r="T33" t="n">
-        <v>964.0571555106362</v>
+        <v>924.0621403704131</v>
       </c>
       <c r="U33" t="n">
-        <v>964.0571555106362</v>
+        <v>924.0621403704131</v>
       </c>
       <c r="V33" t="n">
-        <v>728.9050472788936</v>
+        <v>924.0621403704131</v>
       </c>
       <c r="W33" t="n">
-        <v>728.9050472788936</v>
+        <v>680.6133637263131</v>
       </c>
       <c r="X33" t="n">
-        <v>728.9050472788936</v>
+        <v>472.7618635207803</v>
       </c>
       <c r="Y33" t="n">
-        <v>521.1447485139397</v>
+        <v>472.7618635207803</v>
       </c>
     </row>
     <row r="34">
@@ -6832,7 +6832,7 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>19.28114311021272</v>
+        <v>66.78106667958005</v>
       </c>
       <c r="C34" t="n">
         <v>19.28114311021272</v>
@@ -6877,31 +6877,31 @@
         <v>153.8134336004835</v>
       </c>
       <c r="Q34" t="n">
-        <v>153.8134336004835</v>
+        <v>66.78106667958005</v>
       </c>
       <c r="R34" t="n">
-        <v>153.8134336004835</v>
+        <v>66.78106667958005</v>
       </c>
       <c r="S34" t="n">
-        <v>153.8134336004835</v>
+        <v>66.78106667958005</v>
       </c>
       <c r="T34" t="n">
-        <v>153.8134336004835</v>
+        <v>66.78106667958005</v>
       </c>
       <c r="U34" t="n">
-        <v>153.8134336004835</v>
+        <v>66.78106667958005</v>
       </c>
       <c r="V34" t="n">
-        <v>153.8134336004835</v>
+        <v>66.78106667958005</v>
       </c>
       <c r="W34" t="n">
-        <v>19.28114311021272</v>
+        <v>66.78106667958005</v>
       </c>
       <c r="X34" t="n">
-        <v>19.28114311021272</v>
+        <v>66.78106667958005</v>
       </c>
       <c r="Y34" t="n">
-        <v>19.28114311021272</v>
+        <v>66.78106667958005</v>
       </c>
     </row>
     <row r="35">
@@ -6911,22 +6911,22 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>749.627473042513</v>
+        <v>720.6083788665362</v>
       </c>
       <c r="C35" t="n">
-        <v>506.1786963984129</v>
+        <v>477.1596022224361</v>
       </c>
       <c r="D35" t="n">
-        <v>506.1786963984129</v>
+        <v>233.7108255783361</v>
       </c>
       <c r="E35" t="n">
-        <v>506.1786963984129</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F35" t="n">
-        <v>506.1786963984129</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G35" t="n">
-        <v>262.7299197543128</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H35" t="n">
         <v>19.28114311021272</v>
@@ -6962,25 +6962,25 @@
         <v>964.0571555106362</v>
       </c>
       <c r="S35" t="n">
-        <v>752.9257720901863</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T35" t="n">
-        <v>749.627473042513</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U35" t="n">
-        <v>749.627473042513</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="V35" t="n">
-        <v>749.627473042513</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="W35" t="n">
-        <v>749.627473042513</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="X35" t="n">
-        <v>749.627473042513</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Y35" t="n">
-        <v>749.627473042513</v>
+        <v>964.0571555106362</v>
       </c>
     </row>
     <row r="36">
@@ -6990,25 +6990,25 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>186.4405569126723</v>
+        <v>845.059759863481</v>
       </c>
       <c r="C36" t="n">
-        <v>186.4405569126723</v>
+        <v>670.606730582354</v>
       </c>
       <c r="D36" t="n">
-        <v>37.506147251421</v>
+        <v>521.6723209211027</v>
       </c>
       <c r="E36" t="n">
-        <v>37.506147251421</v>
+        <v>362.4348659156472</v>
       </c>
       <c r="F36" t="n">
-        <v>37.506147251421</v>
+        <v>362.4348659156472</v>
       </c>
       <c r="G36" t="n">
-        <v>37.506147251421</v>
+        <v>223.7040404982626</v>
       </c>
       <c r="H36" t="n">
-        <v>20.03527576299844</v>
+        <v>110.334904905842</v>
       </c>
       <c r="I36" t="n">
         <v>20.03527576299844</v>
@@ -7029,10 +7029,10 @@
         <v>613.2059550252818</v>
       </c>
       <c r="O36" t="n">
-        <v>781.4136778972854</v>
+        <v>712.019119383956</v>
       </c>
       <c r="P36" t="n">
-        <v>964.0571555106362</v>
+        <v>894.6625969973069</v>
       </c>
       <c r="Q36" t="n">
         <v>964.0571555106362</v>
@@ -7041,25 +7041,25 @@
         <v>964.0571555106362</v>
       </c>
       <c r="S36" t="n">
-        <v>790.6398109613051</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T36" t="n">
-        <v>790.6398109613051</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U36" t="n">
-        <v>562.4161926976942</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="V36" t="n">
-        <v>562.4161926976942</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="W36" t="n">
-        <v>562.4161926976942</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="X36" t="n">
-        <v>562.4161926976942</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Y36" t="n">
-        <v>354.6558939327403</v>
+        <v>964.0571555106362</v>
       </c>
     </row>
     <row r="37">
@@ -7111,19 +7111,19 @@
         <v>153.8134336004835</v>
       </c>
       <c r="P37" t="n">
-        <v>151.0645035650224</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="Q37" t="n">
-        <v>151.0645035650224</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="R37" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="S37" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="T37" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="U37" t="n">
         <v>19.28114311021272</v>
@@ -7148,28 +7148,28 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>274.7999090013961</v>
+        <v>720.6083788665362</v>
       </c>
       <c r="C38" t="n">
-        <v>274.7999090013961</v>
+        <v>720.6083788665362</v>
       </c>
       <c r="D38" t="n">
-        <v>274.7999090013961</v>
+        <v>720.6083788665362</v>
       </c>
       <c r="E38" t="n">
-        <v>274.7999090013961</v>
+        <v>720.6083788665362</v>
       </c>
       <c r="F38" t="n">
-        <v>274.7999090013961</v>
+        <v>718.7806050553886</v>
       </c>
       <c r="G38" t="n">
-        <v>31.35113235729608</v>
+        <v>475.3318284112885</v>
       </c>
       <c r="H38" t="n">
-        <v>31.35113235729608</v>
+        <v>231.8830517671884</v>
       </c>
       <c r="I38" t="n">
-        <v>31.35113235729608</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J38" t="n">
         <v>19.28114311021272</v>
@@ -7208,16 +7208,16 @@
         <v>964.0571555106362</v>
       </c>
       <c r="V38" t="n">
-        <v>964.0571555106362</v>
+        <v>720.6083788665362</v>
       </c>
       <c r="W38" t="n">
-        <v>761.6974622895962</v>
+        <v>720.6083788665362</v>
       </c>
       <c r="X38" t="n">
-        <v>761.6974622895962</v>
+        <v>720.6083788665362</v>
       </c>
       <c r="Y38" t="n">
-        <v>518.2486856454962</v>
+        <v>720.6083788665362</v>
       </c>
     </row>
     <row r="39">
@@ -7227,19 +7227,19 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>102.8099852548154</v>
+        <v>298.4948343740486</v>
       </c>
       <c r="C39" t="n">
-        <v>102.8099852548154</v>
+        <v>124.0418050929216</v>
       </c>
       <c r="D39" t="n">
-        <v>102.8099852548154</v>
+        <v>124.0418050929216</v>
       </c>
       <c r="E39" t="n">
-        <v>102.8099852548154</v>
+        <v>124.0418050929216</v>
       </c>
       <c r="F39" t="n">
-        <v>102.8099852548154</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G39" t="n">
         <v>19.28114311021272</v>
@@ -7254,22 +7254,22 @@
         <v>19.28114311021272</v>
       </c>
       <c r="K39" t="n">
-        <v>19.28114311021272</v>
+        <v>144.6387031680501</v>
       </c>
       <c r="L39" t="n">
-        <v>19.28114311021272</v>
+        <v>374.6018090363993</v>
       </c>
       <c r="M39" t="n">
-        <v>257.8852890990952</v>
+        <v>613.2059550252818</v>
       </c>
       <c r="N39" t="n">
-        <v>496.4894350879777</v>
+        <v>712.019119383956</v>
       </c>
       <c r="O39" t="n">
-        <v>735.0935810768601</v>
+        <v>712.019119383956</v>
       </c>
       <c r="P39" t="n">
-        <v>917.7370586902109</v>
+        <v>894.6625969973069</v>
       </c>
       <c r="Q39" t="n">
         <v>964.0571555106362</v>
@@ -7284,19 +7284,19 @@
         <v>761.8705608694022</v>
       </c>
       <c r="U39" t="n">
-        <v>761.8705608694022</v>
+        <v>533.6469426057913</v>
       </c>
       <c r="V39" t="n">
-        <v>761.8705608694022</v>
+        <v>298.4948343740486</v>
       </c>
       <c r="W39" t="n">
-        <v>518.4217842253022</v>
+        <v>298.4948343740486</v>
       </c>
       <c r="X39" t="n">
-        <v>310.5702840197694</v>
+        <v>298.4948343740486</v>
       </c>
       <c r="Y39" t="n">
-        <v>102.8099852548154</v>
+        <v>298.4948343740486</v>
       </c>
     </row>
     <row r="40">
@@ -7306,76 +7306,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="C40" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="D40" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="E40" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="F40" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="G40" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="H40" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="I40" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="J40" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="K40" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="L40" t="n">
-        <v>46.5952681179257</v>
+        <v>856.8389900280785</v>
       </c>
       <c r="M40" t="n">
-        <v>85.78330631014788</v>
+        <v>896.0270282203006</v>
       </c>
       <c r="N40" t="n">
-        <v>129.4741569655842</v>
+        <v>939.7178788757369</v>
       </c>
       <c r="O40" t="n">
-        <v>153.8134336004835</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="P40" t="n">
-        <v>153.8134336004835</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Q40" t="n">
-        <v>153.8134336004835</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="R40" t="n">
-        <v>153.8134336004835</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S40" t="n">
-        <v>153.8134336004835</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T40" t="n">
-        <v>153.8134336004835</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="U40" t="n">
-        <v>153.8134336004835</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="V40" t="n">
-        <v>153.8134336004835</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="W40" t="n">
-        <v>153.8134336004835</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="X40" t="n">
-        <v>153.8134336004835</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="Y40" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
     </row>
     <row r="41">
@@ -7385,76 +7385,76 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>480.9891848248677</v>
+        <v>257.7718183255803</v>
       </c>
       <c r="C41" t="n">
-        <v>480.9891848248677</v>
+        <v>257.7718183255803</v>
       </c>
       <c r="D41" t="n">
-        <v>480.9891848248677</v>
+        <v>257.7718183255803</v>
       </c>
       <c r="E41" t="n">
-        <v>480.9891848248677</v>
+        <v>257.7718183255803</v>
       </c>
       <c r="F41" t="n">
-        <v>249.6554098994793</v>
+        <v>18.91727947682168</v>
       </c>
       <c r="G41" t="n">
-        <v>18.32163497409077</v>
+        <v>18.91727947682168</v>
       </c>
       <c r="H41" t="n">
-        <v>18.32163497409077</v>
+        <v>18.91727947682168</v>
       </c>
       <c r="I41" t="n">
-        <v>18.32163497409077</v>
+        <v>18.91727947682168</v>
       </c>
       <c r="J41" t="n">
-        <v>18.32163497409077</v>
+        <v>18.91727947682168</v>
       </c>
       <c r="K41" t="n">
-        <v>74.32074221503734</v>
+        <v>121.932285387744</v>
       </c>
       <c r="L41" t="n">
-        <v>254.3965937996959</v>
+        <v>302.0081369724026</v>
       </c>
       <c r="M41" t="n">
-        <v>471.3722210626001</v>
+        <v>518.9837642353068</v>
       </c>
       <c r="N41" t="n">
-        <v>677.2267432698394</v>
+        <v>724.8382864425462</v>
       </c>
       <c r="O41" t="n">
-        <v>826.4216934124875</v>
+        <v>874.0332365851942</v>
       </c>
       <c r="P41" t="n">
-        <v>916.0817487045384</v>
+        <v>945.8639738410842</v>
       </c>
       <c r="Q41" t="n">
-        <v>905.9901333363114</v>
+        <v>945.8639738410842</v>
       </c>
       <c r="R41" t="n">
-        <v>754.6071859210086</v>
+        <v>945.8639738410842</v>
       </c>
       <c r="S41" t="n">
-        <v>754.6071859210086</v>
+        <v>945.8639738410842</v>
       </c>
       <c r="T41" t="n">
-        <v>754.6071859210086</v>
+        <v>735.4808960230977</v>
       </c>
       <c r="U41" t="n">
-        <v>754.6071859210086</v>
+        <v>735.4808960230977</v>
       </c>
       <c r="V41" t="n">
-        <v>754.6071859210086</v>
+        <v>735.4808960230977</v>
       </c>
       <c r="W41" t="n">
-        <v>754.6071859210086</v>
+        <v>496.626357174339</v>
       </c>
       <c r="X41" t="n">
-        <v>754.6071859210086</v>
+        <v>257.7718183255803</v>
       </c>
       <c r="Y41" t="n">
-        <v>523.2734109956201</v>
+        <v>257.7718183255803</v>
       </c>
     </row>
     <row r="42">
@@ -7464,76 +7464,76 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>109.37539676972</v>
+        <v>362.0710022822561</v>
       </c>
       <c r="C42" t="n">
-        <v>109.37539676972</v>
+        <v>362.0710022822561</v>
       </c>
       <c r="D42" t="n">
-        <v>109.37539676972</v>
+        <v>362.0710022822561</v>
       </c>
       <c r="E42" t="n">
-        <v>109.37539676972</v>
+        <v>362.0710022822561</v>
       </c>
       <c r="F42" t="n">
-        <v>109.37539676972</v>
+        <v>362.0710022822561</v>
       </c>
       <c r="G42" t="n">
-        <v>109.37539676972</v>
+        <v>223.3401768648716</v>
       </c>
       <c r="H42" t="n">
-        <v>109.37539676972</v>
+        <v>109.9710412724509</v>
       </c>
       <c r="I42" t="n">
-        <v>19.07576762687648</v>
+        <v>19.6714121296074</v>
       </c>
       <c r="J42" t="n">
-        <v>18.32163497409077</v>
+        <v>18.91727947682168</v>
       </c>
       <c r="K42" t="n">
-        <v>18.32163497409077</v>
+        <v>144.2748395346591</v>
       </c>
       <c r="L42" t="n">
-        <v>235.8910502914187</v>
+        <v>225.6232706630674</v>
       </c>
       <c r="M42" t="n">
-        <v>462.6212830957919</v>
+        <v>459.7246041887357</v>
       </c>
       <c r="N42" t="n">
-        <v>689.3515159001652</v>
+        <v>459.7246041887357</v>
       </c>
       <c r="O42" t="n">
-        <v>916.0817487045384</v>
+        <v>693.8259377144041</v>
       </c>
       <c r="P42" t="n">
-        <v>916.0817487045384</v>
+        <v>876.4694153277549</v>
       </c>
       <c r="Q42" t="n">
-        <v>916.0817487045384</v>
+        <v>945.8639738410842</v>
       </c>
       <c r="R42" t="n">
-        <v>916.0817487045384</v>
+        <v>945.8639738410842</v>
       </c>
       <c r="S42" t="n">
-        <v>916.0817487045384</v>
+        <v>945.8639738410842</v>
       </c>
       <c r="T42" t="n">
-        <v>776.7842901642523</v>
+        <v>945.8639738410842</v>
       </c>
       <c r="U42" t="n">
-        <v>548.5606719006413</v>
+        <v>945.8639738410842</v>
       </c>
       <c r="V42" t="n">
-        <v>317.2268969752528</v>
+        <v>945.8639738410842</v>
       </c>
       <c r="W42" t="n">
-        <v>317.2268969752528</v>
+        <v>707.0094349923255</v>
       </c>
       <c r="X42" t="n">
-        <v>109.37539676972</v>
+        <v>707.0094349923255</v>
       </c>
       <c r="Y42" t="n">
-        <v>109.37539676972</v>
+        <v>499.2491362273716</v>
       </c>
     </row>
     <row r="43">
@@ -7543,76 +7543,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>18.32163497409077</v>
+        <v>18.91727947682168</v>
       </c>
       <c r="C43" t="n">
-        <v>18.32163497409077</v>
+        <v>18.91727947682168</v>
       </c>
       <c r="D43" t="n">
-        <v>18.32163497409077</v>
+        <v>18.91727947682168</v>
       </c>
       <c r="E43" t="n">
-        <v>18.32163497409077</v>
+        <v>18.91727947682168</v>
       </c>
       <c r="F43" t="n">
-        <v>18.32163497409077</v>
+        <v>18.91727947682168</v>
       </c>
       <c r="G43" t="n">
-        <v>18.32163497409077</v>
+        <v>18.91727947682168</v>
       </c>
       <c r="H43" t="n">
-        <v>18.32163497409077</v>
+        <v>18.91727947682168</v>
       </c>
       <c r="I43" t="n">
-        <v>18.32163497409077</v>
+        <v>18.91727947682168</v>
       </c>
       <c r="J43" t="n">
-        <v>18.32163497409077</v>
+        <v>18.91727947682168</v>
       </c>
       <c r="K43" t="n">
-        <v>18.32163497409077</v>
+        <v>18.91727947682168</v>
       </c>
       <c r="L43" t="n">
-        <v>45.63575998180374</v>
+        <v>46.23140448453466</v>
       </c>
       <c r="M43" t="n">
-        <v>84.82379817402592</v>
+        <v>85.41944267675684</v>
       </c>
       <c r="N43" t="n">
-        <v>128.5146488294622</v>
+        <v>129.1102933321932</v>
       </c>
       <c r="O43" t="n">
-        <v>152.8539254643615</v>
+        <v>153.4495699670924</v>
       </c>
       <c r="P43" t="n">
-        <v>152.8539254643615</v>
+        <v>153.4495699670924</v>
       </c>
       <c r="Q43" t="n">
-        <v>152.8539254643615</v>
+        <v>153.4495699670924</v>
       </c>
       <c r="R43" t="n">
-        <v>152.8539254643615</v>
+        <v>18.91727947682168</v>
       </c>
       <c r="S43" t="n">
-        <v>152.8539254643615</v>
+        <v>18.91727947682168</v>
       </c>
       <c r="T43" t="n">
-        <v>152.8539254643615</v>
+        <v>18.91727947682168</v>
       </c>
       <c r="U43" t="n">
-        <v>152.8539254643615</v>
+        <v>18.91727947682168</v>
       </c>
       <c r="V43" t="n">
-        <v>18.32163497409077</v>
+        <v>18.91727947682168</v>
       </c>
       <c r="W43" t="n">
-        <v>18.32163497409077</v>
+        <v>18.91727947682168</v>
       </c>
       <c r="X43" t="n">
-        <v>18.32163497409077</v>
+        <v>18.91727947682168</v>
       </c>
       <c r="Y43" t="n">
-        <v>18.32163497409077</v>
+        <v>18.91727947682168</v>
       </c>
     </row>
     <row r="44">
@@ -7622,76 +7622,76 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>57.94462678914073</v>
+        <v>3.166710156947247</v>
       </c>
       <c r="C44" t="n">
-        <v>57.94462678914073</v>
+        <v>3.166710156947247</v>
       </c>
       <c r="D44" t="n">
-        <v>57.94462678914073</v>
+        <v>3.166710156947247</v>
       </c>
       <c r="E44" t="n">
-        <v>30.07591440498301</v>
+        <v>3.166710156947247</v>
       </c>
       <c r="F44" t="n">
-        <v>30.07591440498301</v>
+        <v>3.166710156947247</v>
       </c>
       <c r="G44" t="n">
-        <v>2.207202020825291</v>
+        <v>3.166710156947247</v>
       </c>
       <c r="H44" t="n">
-        <v>2.207202020825291</v>
+        <v>3.166710156947247</v>
       </c>
       <c r="I44" t="n">
-        <v>2.207202020825291</v>
+        <v>3.166710156947247</v>
       </c>
       <c r="J44" t="n">
-        <v>2.207202020825291</v>
+        <v>3.166710156947247</v>
       </c>
       <c r="K44" t="n">
-        <v>2.207202020825291</v>
+        <v>42.35474834916943</v>
       </c>
       <c r="L44" t="n">
-        <v>2.207202020825291</v>
+        <v>81.54278654139161</v>
       </c>
       <c r="M44" t="n">
-        <v>28.41772601812563</v>
+        <v>120.7308247336138</v>
       </c>
       <c r="N44" t="n">
-        <v>55.73185102583861</v>
+        <v>158.3355078473624</v>
       </c>
       <c r="O44" t="n">
-        <v>83.04597603355158</v>
+        <v>158.3355078473624</v>
       </c>
       <c r="P44" t="n">
-        <v>110.3601010412646</v>
+        <v>158.3355078473624</v>
       </c>
       <c r="Q44" t="n">
-        <v>100.2684856730375</v>
+        <v>158.3355078473624</v>
       </c>
       <c r="R44" t="n">
-        <v>100.2684856730375</v>
+        <v>123.1178524655551</v>
       </c>
       <c r="S44" t="n">
-        <v>100.2684856730375</v>
+        <v>123.1178524655551</v>
       </c>
       <c r="T44" t="n">
-        <v>100.2684856730375</v>
+        <v>123.1178524655551</v>
       </c>
       <c r="U44" t="n">
-        <v>100.2684856730375</v>
+        <v>83.13413836268582</v>
       </c>
       <c r="V44" t="n">
-        <v>100.2684856730375</v>
+        <v>83.13413836268582</v>
       </c>
       <c r="W44" t="n">
-        <v>85.81333917329844</v>
+        <v>83.13413836268582</v>
       </c>
       <c r="X44" t="n">
-        <v>85.81333917329844</v>
+        <v>83.13413836268582</v>
       </c>
       <c r="Y44" t="n">
-        <v>57.94462678914073</v>
+        <v>43.15042425981653</v>
       </c>
     </row>
     <row r="45">
@@ -7701,76 +7701,76 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>2.207202020825291</v>
+        <v>43.15042425981653</v>
       </c>
       <c r="C45" t="n">
-        <v>2.207202020825291</v>
+        <v>3.166710156947247</v>
       </c>
       <c r="D45" t="n">
-        <v>2.207202020825291</v>
+        <v>3.166710156947247</v>
       </c>
       <c r="E45" t="n">
-        <v>2.207202020825291</v>
+        <v>3.166710156947247</v>
       </c>
       <c r="F45" t="n">
-        <v>2.207202020825291</v>
+        <v>3.166710156947247</v>
       </c>
       <c r="G45" t="n">
-        <v>2.207202020825291</v>
+        <v>3.166710156947247</v>
       </c>
       <c r="H45" t="n">
-        <v>2.207202020825291</v>
+        <v>3.166710156947247</v>
       </c>
       <c r="I45" t="n">
-        <v>2.207202020825291</v>
+        <v>3.166710156947247</v>
       </c>
       <c r="J45" t="n">
-        <v>2.207202020825291</v>
+        <v>3.166710156947247</v>
       </c>
       <c r="K45" t="n">
-        <v>2.207202020825291</v>
+        <v>3.166710156947247</v>
       </c>
       <c r="L45" t="n">
-        <v>2.207202020825291</v>
+        <v>3.166710156947247</v>
       </c>
       <c r="M45" t="n">
-        <v>29.52132702853827</v>
+        <v>42.35474834916943</v>
       </c>
       <c r="N45" t="n">
-        <v>56.83545203625125</v>
+        <v>81.54278654139161</v>
       </c>
       <c r="O45" t="n">
-        <v>84.14957704396423</v>
+        <v>119.1474696551402</v>
       </c>
       <c r="P45" t="n">
-        <v>110.3601010412646</v>
+        <v>119.1474696551402</v>
       </c>
       <c r="Q45" t="n">
-        <v>110.3601010412646</v>
+        <v>158.3355078473624</v>
       </c>
       <c r="R45" t="n">
-        <v>82.49138865710684</v>
+        <v>158.3355078473624</v>
       </c>
       <c r="S45" t="n">
-        <v>54.62267627294912</v>
+        <v>158.3355078473624</v>
       </c>
       <c r="T45" t="n">
-        <v>30.07591440498301</v>
+        <v>158.3355078473624</v>
       </c>
       <c r="U45" t="n">
-        <v>30.07591440498301</v>
+        <v>158.3355078473624</v>
       </c>
       <c r="V45" t="n">
-        <v>30.07591440498301</v>
+        <v>158.3355078473624</v>
       </c>
       <c r="W45" t="n">
-        <v>30.07591440498301</v>
+        <v>118.3517937444931</v>
       </c>
       <c r="X45" t="n">
-        <v>30.07591440498301</v>
+        <v>118.3517937444931</v>
       </c>
       <c r="Y45" t="n">
-        <v>2.207202020825291</v>
+        <v>78.36807964162378</v>
       </c>
     </row>
     <row r="46">
@@ -7780,76 +7780,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>108.4888536788635</v>
+        <v>43.15042425981653</v>
       </c>
       <c r="C46" t="n">
-        <v>108.4888536788635</v>
+        <v>3.166710156947247</v>
       </c>
       <c r="D46" t="n">
-        <v>108.4888536788635</v>
+        <v>3.166710156947247</v>
       </c>
       <c r="E46" t="n">
-        <v>108.4888536788635</v>
+        <v>3.166710156947247</v>
       </c>
       <c r="F46" t="n">
-        <v>108.4888536788635</v>
+        <v>3.166710156947247</v>
       </c>
       <c r="G46" t="n">
-        <v>85.81333917329844</v>
+        <v>3.166710156947247</v>
       </c>
       <c r="H46" t="n">
-        <v>57.94462678914073</v>
+        <v>3.166710156947247</v>
       </c>
       <c r="I46" t="n">
-        <v>30.07591440498301</v>
+        <v>3.166710156947247</v>
       </c>
       <c r="J46" t="n">
-        <v>2.207202020825291</v>
+        <v>3.166710156947247</v>
       </c>
       <c r="K46" t="n">
-        <v>2.207202020825291</v>
+        <v>3.166710156947247</v>
       </c>
       <c r="L46" t="n">
-        <v>29.52132702853827</v>
+        <v>30.48083516466022</v>
       </c>
       <c r="M46" t="n">
-        <v>56.83545203625125</v>
+        <v>69.6688733568824</v>
       </c>
       <c r="N46" t="n">
-        <v>84.14957704396423</v>
+        <v>108.8569115491046</v>
       </c>
       <c r="O46" t="n">
-        <v>108.4888536788635</v>
+        <v>133.1961881840039</v>
       </c>
       <c r="P46" t="n">
-        <v>108.4888536788635</v>
+        <v>130.4472581485427</v>
       </c>
       <c r="Q46" t="n">
-        <v>108.4888536788635</v>
+        <v>130.4472581485427</v>
       </c>
       <c r="R46" t="n">
-        <v>108.4888536788635</v>
+        <v>130.4472581485427</v>
       </c>
       <c r="S46" t="n">
-        <v>108.4888536788635</v>
+        <v>130.4472581485427</v>
       </c>
       <c r="T46" t="n">
-        <v>108.4888536788635</v>
+        <v>130.4472581485427</v>
       </c>
       <c r="U46" t="n">
-        <v>108.4888536788635</v>
+        <v>130.4472581485427</v>
       </c>
       <c r="V46" t="n">
-        <v>108.4888536788635</v>
+        <v>130.4472581485427</v>
       </c>
       <c r="W46" t="n">
-        <v>108.4888536788635</v>
+        <v>130.4472581485427</v>
       </c>
       <c r="X46" t="n">
-        <v>108.4888536788635</v>
+        <v>90.46354404567346</v>
       </c>
       <c r="Y46" t="n">
-        <v>108.4888536788635</v>
+        <v>50.47982994280417</v>
       </c>
     </row>
   </sheetData>
@@ -7979,22 +7979,22 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K2" t="n">
-        <v>247.6798763052967</v>
+        <v>259.6737280068211</v>
       </c>
       <c r="L2" t="n">
-        <v>263.3564402303034</v>
+        <v>273.750943367713</v>
       </c>
       <c r="M2" t="n">
-        <v>256.8215099922226</v>
+        <v>230.3462332272727</v>
       </c>
       <c r="N2" t="n">
         <v>229.4130635965909</v>
       </c>
       <c r="O2" t="n">
-        <v>230.0982114216867</v>
+        <v>269.6820883835273</v>
       </c>
       <c r="P2" t="n">
-        <v>258.8230210155857</v>
+        <v>270.8168727171101</v>
       </c>
       <c r="Q2" t="n">
         <v>212.3149906599047</v>
@@ -8058,25 +8058,25 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K3" t="n">
-        <v>137.841438974359</v>
+        <v>177.4253159361996</v>
       </c>
       <c r="L3" t="n">
-        <v>138.5543797798742</v>
+        <v>178.1382567417148</v>
       </c>
       <c r="M3" t="n">
-        <v>168.6093106869681</v>
+        <v>181.7179108838589</v>
       </c>
       <c r="N3" t="n">
-        <v>131.3417120833333</v>
+        <v>169.3262404810591</v>
       </c>
       <c r="O3" t="n">
-        <v>170.1862697047606</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P3" t="n">
-        <v>161.5644326746464</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q3" t="n">
-        <v>167.5717993463377</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R3" t="n">
         <v>45.52166981132082</v>
@@ -8143,10 +8143,10 @@
         <v>162.4747015415544</v>
       </c>
       <c r="M4" t="n">
-        <v>166.5158092079212</v>
+        <v>178.5096609094456</v>
       </c>
       <c r="N4" t="n">
-        <v>155.2755697255493</v>
+        <v>167.2694214270738</v>
       </c>
       <c r="O4" t="n">
         <v>163.0416663658825</v>
@@ -8216,22 +8216,22 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K5" t="n">
-        <v>247.6798763052967</v>
+        <v>259.6737280068211</v>
       </c>
       <c r="L5" t="n">
-        <v>262.2416917349371</v>
+        <v>275.3502919318278</v>
       </c>
       <c r="M5" t="n">
-        <v>230.3462332272727</v>
+        <v>268.3307616249986</v>
       </c>
       <c r="N5" t="n">
         <v>229.4130635965909</v>
       </c>
       <c r="O5" t="n">
-        <v>257.6882366820029</v>
+        <v>230.0982114216867</v>
       </c>
       <c r="P5" t="n">
-        <v>258.8230210155857</v>
+        <v>270.8168727171101</v>
       </c>
       <c r="Q5" t="n">
         <v>212.3149906599047</v>
@@ -8295,25 +8295,25 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K6" t="n">
-        <v>137.841438974359</v>
+        <v>177.4253159361996</v>
       </c>
       <c r="L6" t="n">
-        <v>138.5543797798742</v>
+        <v>178.1382567417148</v>
       </c>
       <c r="M6" t="n">
-        <v>142.1340339220183</v>
+        <v>181.7179108838589</v>
       </c>
       <c r="N6" t="n">
-        <v>158.9317373436494</v>
+        <v>169.3262404810591</v>
       </c>
       <c r="O6" t="n">
-        <v>170.1862697047606</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P6" t="n">
-        <v>161.5644326746464</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q6" t="n">
-        <v>166.4570508509713</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R6" t="n">
         <v>45.52166981132082</v>
@@ -8380,10 +8380,10 @@
         <v>162.4747015415544</v>
       </c>
       <c r="M7" t="n">
-        <v>166.5158092079212</v>
+        <v>178.5096609094456</v>
       </c>
       <c r="N7" t="n">
-        <v>155.2755697255493</v>
+        <v>167.2694214270738</v>
       </c>
       <c r="O7" t="n">
         <v>163.0416663658825</v>
@@ -8453,22 +8453,22 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K8" t="n">
-        <v>246.5651278099304</v>
+        <v>259.6737280068211</v>
       </c>
       <c r="L8" t="n">
-        <v>235.7664149699872</v>
+        <v>275.3502919318278</v>
       </c>
       <c r="M8" t="n">
-        <v>257.9362584875889</v>
+        <v>268.3307616249986</v>
       </c>
       <c r="N8" t="n">
-        <v>257.0030888569071</v>
+        <v>229.4130635965909</v>
       </c>
       <c r="O8" t="n">
         <v>230.0982114216867</v>
       </c>
       <c r="P8" t="n">
-        <v>258.8230210155857</v>
+        <v>270.8168727171101</v>
       </c>
       <c r="Q8" t="n">
         <v>212.3149906599047</v>
@@ -8535,22 +8535,22 @@
         <v>137.841438974359</v>
       </c>
       <c r="L9" t="n">
-        <v>166.1444050401903</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M9" t="n">
-        <v>169.7240591823345</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N9" t="n">
-        <v>157.8169888482831</v>
+        <v>169.3262404810591</v>
       </c>
       <c r="O9" t="n">
-        <v>142.5962444444444</v>
+        <v>182.180121406285</v>
       </c>
       <c r="P9" t="n">
-        <v>133.9744074143302</v>
+        <v>173.5582843761708</v>
       </c>
       <c r="Q9" t="n">
-        <v>167.5717993463377</v>
+        <v>179.5656510478621</v>
       </c>
       <c r="R9" t="n">
         <v>45.52166981132082</v>
@@ -8617,10 +8617,10 @@
         <v>162.4747015415544</v>
       </c>
       <c r="M10" t="n">
-        <v>166.5158092079212</v>
+        <v>178.5096609094456</v>
       </c>
       <c r="N10" t="n">
-        <v>155.2755697255493</v>
+        <v>167.2694214270738</v>
       </c>
       <c r="O10" t="n">
         <v>163.0416663658825</v>
@@ -8690,22 +8690,22 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K11" t="n">
-        <v>220.0898510449805</v>
+        <v>258.0743794427063</v>
       </c>
       <c r="L11" t="n">
-        <v>235.7664149699872</v>
+        <v>275.3502919318278</v>
       </c>
       <c r="M11" t="n">
-        <v>256.8215099922226</v>
+        <v>269.9301101891133</v>
       </c>
       <c r="N11" t="n">
-        <v>257.0030888569071</v>
+        <v>268.9969405584315</v>
       </c>
       <c r="O11" t="n">
-        <v>257.6882366820029</v>
+        <v>230.0982114216867</v>
       </c>
       <c r="P11" t="n">
-        <v>258.8230210155857</v>
+        <v>231.2329957552695</v>
       </c>
       <c r="Q11" t="n">
         <v>212.3149906599047</v>
@@ -8769,25 +8769,25 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K12" t="n">
-        <v>165.4314642346751</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L12" t="n">
-        <v>166.1444050401903</v>
+        <v>178.1382567417148</v>
       </c>
       <c r="M12" t="n">
-        <v>168.6093106869681</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N12" t="n">
-        <v>131.3417120833333</v>
+        <v>169.3262404810591</v>
       </c>
       <c r="O12" t="n">
-        <v>142.5962444444444</v>
+        <v>182.180121406285</v>
       </c>
       <c r="P12" t="n">
-        <v>133.9744074143302</v>
+        <v>173.5582843761708</v>
       </c>
       <c r="Q12" t="n">
-        <v>167.5717993463377</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R12" t="n">
         <v>45.52166981132082</v>
@@ -8854,10 +8854,10 @@
         <v>162.4747015415544</v>
       </c>
       <c r="M13" t="n">
-        <v>166.5158092079212</v>
+        <v>178.5096609094456</v>
       </c>
       <c r="N13" t="n">
-        <v>155.2755697255493</v>
+        <v>167.2694214270738</v>
       </c>
       <c r="O13" t="n">
         <v>163.0416663658825</v>
@@ -8927,22 +8927,22 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K14" t="n">
-        <v>220.0898510449805</v>
+        <v>259.6737280068211</v>
       </c>
       <c r="L14" t="n">
-        <v>263.3564402303034</v>
+        <v>235.7664149699872</v>
       </c>
       <c r="M14" t="n">
-        <v>257.9362584875889</v>
+        <v>269.9301101891133</v>
       </c>
       <c r="N14" t="n">
-        <v>255.8883403615407</v>
+        <v>268.9969405584315</v>
       </c>
       <c r="O14" t="n">
-        <v>230.0982114216867</v>
+        <v>268.0827398194126</v>
       </c>
       <c r="P14" t="n">
-        <v>258.8230210155857</v>
+        <v>231.2329957552695</v>
       </c>
       <c r="Q14" t="n">
         <v>212.3149906599047</v>
@@ -9009,19 +9009,19 @@
         <v>137.841438974359</v>
       </c>
       <c r="L15" t="n">
-        <v>166.1444050401903</v>
+        <v>178.1382567417148</v>
       </c>
       <c r="M15" t="n">
-        <v>142.1340339220183</v>
+        <v>180.1185623197441</v>
       </c>
       <c r="N15" t="n">
-        <v>158.9317373436494</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O15" t="n">
-        <v>170.1862697047606</v>
+        <v>182.180121406285</v>
       </c>
       <c r="P15" t="n">
-        <v>160.4496841792801</v>
+        <v>173.5582843761708</v>
       </c>
       <c r="Q15" t="n">
         <v>139.9817740860215</v>
@@ -9091,10 +9091,10 @@
         <v>162.4747015415544</v>
       </c>
       <c r="M16" t="n">
-        <v>166.5158092079212</v>
+        <v>178.5096609094456</v>
       </c>
       <c r="N16" t="n">
-        <v>155.2755697255493</v>
+        <v>167.2694214270738</v>
       </c>
       <c r="O16" t="n">
         <v>163.0416663658825</v>
@@ -9164,19 +9164,19 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K17" t="n">
-        <v>220.0898510449805</v>
+        <v>264.2220234242092</v>
       </c>
       <c r="L17" t="n">
-        <v>275.3502919318278</v>
+        <v>235.7664149699872</v>
       </c>
       <c r="M17" t="n">
-        <v>268.3307616249986</v>
+        <v>274.4784056065013</v>
       </c>
       <c r="N17" t="n">
-        <v>268.9969405584315</v>
+        <v>271.7621178998911</v>
       </c>
       <c r="O17" t="n">
-        <v>269.6820883835273</v>
+        <v>274.2303838009153</v>
       </c>
       <c r="P17" t="n">
         <v>231.2329957552695</v>
@@ -9243,25 +9243,25 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K18" t="n">
-        <v>177.4253159361996</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L18" t="n">
-        <v>178.1382567417148</v>
+        <v>182.6865521591028</v>
       </c>
       <c r="M18" t="n">
-        <v>180.1185623197441</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N18" t="n">
-        <v>131.3417120833333</v>
+        <v>173.6907663866335</v>
       </c>
       <c r="O18" t="n">
-        <v>142.5962444444444</v>
+        <v>186.728416823673</v>
       </c>
       <c r="P18" t="n">
         <v>133.9744074143302</v>
       </c>
       <c r="Q18" t="n">
-        <v>179.5656510478621</v>
+        <v>184.1139464652501</v>
       </c>
       <c r="R18" t="n">
         <v>45.52166981132082</v>
@@ -9331,7 +9331,7 @@
         <v>178.5096609094456</v>
       </c>
       <c r="N19" t="n">
-        <v>167.2694214270738</v>
+        <v>171.8177168444618</v>
       </c>
       <c r="O19" t="n">
         <v>163.0416663658825</v>
@@ -9486,19 +9486,19 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M21" t="n">
-        <v>241.9453110519923</v>
+        <v>383.1483227996774</v>
       </c>
       <c r="N21" t="n">
         <v>372.3560009609923</v>
       </c>
       <c r="O21" t="n">
-        <v>142.5962444444444</v>
+        <v>255.9771075721939</v>
       </c>
       <c r="P21" t="n">
-        <v>318.4627686399372</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q21" t="n">
-        <v>210.0772877358491</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R21" t="n">
         <v>45.52166981132082</v>
@@ -9720,7 +9720,7 @@
         <v>137.841438974359</v>
       </c>
       <c r="L24" t="n">
-        <v>370.8403453034592</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M24" t="n">
         <v>383.1483227996774</v>
@@ -9729,13 +9729,13 @@
         <v>372.3560009609923</v>
       </c>
       <c r="O24" t="n">
-        <v>198.1125443848066</v>
+        <v>383.6105333221035</v>
       </c>
       <c r="P24" t="n">
         <v>318.4627686399372</v>
       </c>
       <c r="Q24" t="n">
-        <v>139.9817740860215</v>
+        <v>186.7697506723097</v>
       </c>
       <c r="R24" t="n">
         <v>45.52166981132082</v>
@@ -9957,13 +9957,13 @@
         <v>137.841438974359</v>
       </c>
       <c r="L27" t="n">
-        <v>370.8403453034592</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M27" t="n">
-        <v>383.1483227996774</v>
+        <v>359.8407857361378</v>
       </c>
       <c r="N27" t="n">
-        <v>186.8580120236956</v>
+        <v>372.3560009609923</v>
       </c>
       <c r="O27" t="n">
         <v>383.6105333221035</v>
@@ -9972,7 +9972,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q27" t="n">
-        <v>139.9817740860215</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R27" t="n">
         <v>45.52166981132082</v>
@@ -10194,22 +10194,22 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L30" t="n">
-        <v>138.5543797798742</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M30" t="n">
-        <v>303.312501347746</v>
+        <v>383.1483227996774</v>
       </c>
       <c r="N30" t="n">
         <v>372.3560009609923</v>
       </c>
       <c r="O30" t="n">
-        <v>383.6105333221035</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P30" t="n">
-        <v>318.4627686399372</v>
+        <v>177.2597568922521</v>
       </c>
       <c r="Q30" t="n">
-        <v>139.9817740860215</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R30" t="n">
         <v>45.52166981132082</v>
@@ -10431,13 +10431,13 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L33" t="n">
-        <v>299.7328472056018</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M33" t="n">
-        <v>142.1340339220183</v>
+        <v>383.1483227996774</v>
       </c>
       <c r="N33" t="n">
-        <v>372.3560009609923</v>
+        <v>222.4246658592332</v>
       </c>
       <c r="O33" t="n">
         <v>383.6105333221035</v>
@@ -10446,7 +10446,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q33" t="n">
-        <v>139.9817740860215</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R33" t="n">
         <v>45.52166981132082</v>
@@ -10677,13 +10677,13 @@
         <v>372.3560009609923</v>
       </c>
       <c r="O36" t="n">
-        <v>312.5030352242461</v>
+        <v>242.4075215744184</v>
       </c>
       <c r="P36" t="n">
         <v>318.4627686399372</v>
       </c>
       <c r="Q36" t="n">
-        <v>139.9817740860215</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R36" t="n">
         <v>45.52166981132082</v>
@@ -10902,25 +10902,25 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K39" t="n">
-        <v>137.841438974359</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L39" t="n">
-        <v>138.5543797798742</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M39" t="n">
         <v>383.1483227996774</v>
       </c>
       <c r="N39" t="n">
-        <v>372.3560009609923</v>
+        <v>231.1529892133072</v>
       </c>
       <c r="O39" t="n">
-        <v>383.6105333221035</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P39" t="n">
         <v>318.4627686399372</v>
       </c>
       <c r="Q39" t="n">
-        <v>186.7697506723097</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R39" t="n">
         <v>45.52166981132082</v>
@@ -11060,7 +11060,7 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K41" t="n">
-        <v>276.6546058338155</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L41" t="n">
         <v>417.6612145504504</v>
@@ -11075,7 +11075,7 @@
         <v>380.8001812627454</v>
       </c>
       <c r="P41" t="n">
-        <v>321.7987081714826</v>
+        <v>303.7892960137443</v>
       </c>
       <c r="Q41" t="n">
         <v>212.3149906599047</v>
@@ -11139,25 +11139,25 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K42" t="n">
-        <v>137.841438974359</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L42" t="n">
-        <v>358.3214659589933</v>
+        <v>220.7245122328118</v>
       </c>
       <c r="M42" t="n">
-        <v>371.154471098153</v>
+        <v>378.6000273822893</v>
       </c>
       <c r="N42" t="n">
-        <v>360.3621492594679</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O42" t="n">
-        <v>371.616681620579</v>
+        <v>379.0622379047155</v>
       </c>
       <c r="P42" t="n">
-        <v>133.9744074143302</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q42" t="n">
-        <v>139.9817740860215</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R42" t="n">
         <v>45.52166981132082</v>
@@ -11297,22 +11297,22 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K44" t="n">
-        <v>220.0898510449805</v>
+        <v>259.6737280068211</v>
       </c>
       <c r="L44" t="n">
-        <v>235.7664149699872</v>
+        <v>275.3502919318278</v>
       </c>
       <c r="M44" t="n">
-        <v>256.8215099922226</v>
+        <v>269.9301101891133</v>
       </c>
       <c r="N44" t="n">
-        <v>257.0030888569071</v>
+        <v>267.3975919943167</v>
       </c>
       <c r="O44" t="n">
-        <v>257.6882366820029</v>
+        <v>230.0982114216867</v>
       </c>
       <c r="P44" t="n">
-        <v>258.8230210155857</v>
+        <v>231.2329957552695</v>
       </c>
       <c r="Q44" t="n">
         <v>212.3149906599047</v>
@@ -11382,19 +11382,19 @@
         <v>138.5543797798742</v>
       </c>
       <c r="M45" t="n">
-        <v>169.7240591823345</v>
+        <v>181.7179108838589</v>
       </c>
       <c r="N45" t="n">
-        <v>158.9317373436494</v>
+        <v>170.9255890451739</v>
       </c>
       <c r="O45" t="n">
-        <v>170.1862697047606</v>
+        <v>180.5807728421703</v>
       </c>
       <c r="P45" t="n">
-        <v>160.4496841792801</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q45" t="n">
-        <v>139.9817740860215</v>
+        <v>179.5656510478621</v>
       </c>
       <c r="R45" t="n">
         <v>45.52166981132082</v>
@@ -11461,10 +11461,10 @@
         <v>162.4747015415544</v>
       </c>
       <c r="M46" t="n">
-        <v>166.5158092079212</v>
+        <v>178.5096609094456</v>
       </c>
       <c r="N46" t="n">
-        <v>155.2755697255493</v>
+        <v>167.2694214270738</v>
       </c>
       <c r="O46" t="n">
         <v>163.0416663658825</v>
@@ -22592,16 +22592,16 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>122.2790926808335</v>
+        <v>110.2852409793091</v>
       </c>
       <c r="S2" t="n">
-        <v>181.4300443259292</v>
+        <v>169.4361926244048</v>
       </c>
       <c r="T2" t="n">
-        <v>195.5058243038152</v>
+        <v>183.5119726022908</v>
       </c>
       <c r="U2" t="n">
-        <v>237.0350578730948</v>
+        <v>226.4708732943921</v>
       </c>
       <c r="V2" t="n">
         <v>327.7522584701349</v>
@@ -22635,16 +22635,16 @@
         <v>157.6450804554009</v>
       </c>
       <c r="F3" t="n">
-        <v>121.5145094703553</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G3" t="n">
-        <v>109.7534919028945</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H3" t="n">
-        <v>84.64541897618032</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I3" t="n">
-        <v>61.80660759109894</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -22671,16 +22671,16 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>100.1578341526431</v>
+        <v>60.57395719080255</v>
       </c>
       <c r="S3" t="n">
-        <v>171.6831711038378</v>
+        <v>132.0992941419972</v>
       </c>
       <c r="T3" t="n">
-        <v>200.1647286948216</v>
+        <v>160.580851732981</v>
       </c>
       <c r="U3" t="n">
-        <v>225.9413820809748</v>
+        <v>191.8224945792435</v>
       </c>
       <c r="V3" t="n">
         <v>232.8005871494253</v>
@@ -22747,31 +22747,31 @@
         <v>2.721440735106512</v>
       </c>
       <c r="Q4" t="n">
-        <v>86.16204325169439</v>
+        <v>46.5781662898538</v>
       </c>
       <c r="R4" t="n">
-        <v>177.2933913771695</v>
+        <v>137.7095144153289</v>
       </c>
       <c r="S4" t="n">
-        <v>224.0165980369723</v>
+        <v>184.4327210751317</v>
       </c>
       <c r="T4" t="n">
-        <v>227.9455894282815</v>
+        <v>217.9680370670172</v>
       </c>
       <c r="U4" t="n">
         <v>286.3190293564909</v>
       </c>
       <c r="V4" t="n">
-        <v>229.6888839633186</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
-        <v>258.9329730762748</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
-        <v>198.119630128721</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
-        <v>190.9946280917787</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="5">
@@ -22793,19 +22793,19 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
-        <v>404.5147400615823</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G5" t="n">
-        <v>387.7127122548189</v>
+        <v>415.302737515135</v>
       </c>
       <c r="H5" t="n">
-        <v>311.884776855451</v>
+        <v>339.4748021157671</v>
       </c>
       <c r="I5" t="n">
-        <v>182.8858643100898</v>
+        <v>210.4758895704059</v>
       </c>
       <c r="J5" t="n">
-        <v>0</v>
+        <v>11.94928935461252</v>
       </c>
       <c r="K5" t="n">
         <v>0</v>
@@ -22826,19 +22826,19 @@
         <v>0</v>
       </c>
       <c r="Q5" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R5" t="n">
-        <v>149.8691179411497</v>
+        <v>110.2852409793091</v>
       </c>
       <c r="S5" t="n">
-        <v>209.0200695862453</v>
+        <v>169.4361926244048</v>
       </c>
       <c r="T5" t="n">
-        <v>223.0958495641314</v>
+        <v>183.5119726022908</v>
       </c>
       <c r="U5" t="n">
-        <v>251.3456529078365</v>
+        <v>216.4801740798473</v>
       </c>
       <c r="V5" t="n">
         <v>327.7522584701349</v>
@@ -22863,13 +22863,13 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C6" t="n">
-        <v>172.7084989883157</v>
+        <v>133.1246220264752</v>
       </c>
       <c r="D6" t="n">
-        <v>147.4450655646388</v>
+        <v>107.8611886027982</v>
       </c>
       <c r="E6" t="n">
-        <v>157.6450804554009</v>
+        <v>122.7796016274118</v>
       </c>
       <c r="F6" t="n">
         <v>145.0692123933839</v>
@@ -22881,10 +22881,10 @@
         <v>112.2354442364965</v>
       </c>
       <c r="I6" t="n">
-        <v>89.39663285141508</v>
+        <v>49.81275588957449</v>
       </c>
       <c r="J6" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K6" t="n">
         <v>0</v>
@@ -22908,16 +22908,16 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>72.56780889232699</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S6" t="n">
-        <v>144.0931458435217</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T6" t="n">
-        <v>172.5747034345055</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U6" t="n">
-        <v>202.3866791579462</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V6" t="n">
         <v>232.8005871494253</v>
@@ -22957,16 +22957,16 @@
         <v>167.9909793584588</v>
       </c>
       <c r="H7" t="n">
-        <v>162.2271725074396</v>
+        <v>122.643295545599</v>
       </c>
       <c r="I7" t="n">
-        <v>155.4504749272583</v>
+        <v>115.8665979654177</v>
       </c>
       <c r="J7" t="n">
-        <v>93.35918011667277</v>
+        <v>53.77530315483219</v>
       </c>
       <c r="K7" t="n">
-        <v>22.26949182588285</v>
+        <v>12.29193946461858</v>
       </c>
       <c r="L7" t="n">
         <v>0</v>
@@ -22981,19 +22981,19 @@
         <v>0</v>
       </c>
       <c r="P7" t="n">
-        <v>0</v>
+        <v>2.721440735106512</v>
       </c>
       <c r="Q7" t="n">
-        <v>58.57201799137825</v>
+        <v>86.16204325169439</v>
       </c>
       <c r="R7" t="n">
-        <v>149.7033661168533</v>
+        <v>177.2933913771695</v>
       </c>
       <c r="S7" t="n">
-        <v>196.4265727766561</v>
+        <v>224.0165980369723</v>
       </c>
       <c r="T7" t="n">
-        <v>208.2182708028786</v>
+        <v>227.9455894282815</v>
       </c>
       <c r="U7" t="n">
         <v>286.3190293564909</v>
@@ -23063,19 +23063,19 @@
         <v>0</v>
       </c>
       <c r="Q8" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R8" t="n">
-        <v>122.2790926808335</v>
+        <v>110.2852409793091</v>
       </c>
       <c r="S8" t="n">
-        <v>181.4300443259292</v>
+        <v>169.4361926244048</v>
       </c>
       <c r="T8" t="n">
-        <v>195.5058243038152</v>
+        <v>183.5119726022908</v>
       </c>
       <c r="U8" t="n">
-        <v>237.0350578730948</v>
+        <v>216.4801740798473</v>
       </c>
       <c r="V8" t="n">
         <v>327.7522584701349</v>
@@ -23106,19 +23106,19 @@
         <v>147.4450655646388</v>
       </c>
       <c r="E9" t="n">
-        <v>134.0903775323723</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F9" t="n">
-        <v>117.4791871330677</v>
+        <v>105.4853354315433</v>
       </c>
       <c r="G9" t="n">
-        <v>109.7534919028945</v>
+        <v>97.75964020137005</v>
       </c>
       <c r="H9" t="n">
-        <v>112.2354442364965</v>
+        <v>72.65156727465587</v>
       </c>
       <c r="I9" t="n">
-        <v>61.80660759109894</v>
+        <v>55.27774534968376</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -23191,19 +23191,19 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
-        <v>167.8117118238322</v>
+        <v>158.0134269971945</v>
       </c>
       <c r="H10" t="n">
-        <v>134.6371472471234</v>
+        <v>122.643295545599</v>
       </c>
       <c r="I10" t="n">
-        <v>127.8604496669421</v>
+        <v>115.8665979654177</v>
       </c>
       <c r="J10" t="n">
-        <v>65.76915485635664</v>
+        <v>53.77530315483219</v>
       </c>
       <c r="K10" t="n">
-        <v>0</v>
+        <v>22.26949182588285</v>
       </c>
       <c r="L10" t="n">
         <v>0</v>
@@ -23258,10 +23258,10 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C11" t="n">
-        <v>337.6828665106914</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D11" t="n">
-        <v>327.0930163603668</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E11" t="n">
         <v>381.9303700722618</v>
@@ -23306,7 +23306,7 @@
         <v>149.8691179411497</v>
       </c>
       <c r="S11" t="n">
-        <v>209.0200695862453</v>
+        <v>174.1545907582562</v>
       </c>
       <c r="T11" t="n">
         <v>223.0958495641314</v>
@@ -23315,16 +23315,16 @@
         <v>251.3456529078365</v>
       </c>
       <c r="V11" t="n">
-        <v>327.7522584701349</v>
+        <v>288.1683815082943</v>
       </c>
       <c r="W11" t="n">
-        <v>321.6509434570969</v>
+        <v>309.6570917555724</v>
       </c>
       <c r="X11" t="n">
-        <v>369.731100678469</v>
+        <v>330.1472237166284</v>
       </c>
       <c r="Y11" t="n">
-        <v>361.9366444067671</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="12">
@@ -23382,19 +23382,19 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>72.56780889232699</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S12" t="n">
-        <v>144.0931458435217</v>
+        <v>136.8176922758487</v>
       </c>
       <c r="T12" t="n">
-        <v>172.5747034345055</v>
+        <v>160.580851732981</v>
       </c>
       <c r="U12" t="n">
-        <v>201.6400878316884</v>
+        <v>186.3575051191342</v>
       </c>
       <c r="V12" t="n">
-        <v>232.8005871494253</v>
+        <v>193.2167101875847</v>
       </c>
       <c r="W12" t="n">
         <v>251.6949831609196</v>
@@ -23431,16 +23431,16 @@
         <v>167.9909793584588</v>
       </c>
       <c r="H13" t="n">
-        <v>162.2271725074396</v>
+        <v>137.6566757453241</v>
       </c>
       <c r="I13" t="n">
-        <v>155.4504749272583</v>
+        <v>115.8665979654177</v>
       </c>
       <c r="J13" t="n">
-        <v>93.35918011667277</v>
+        <v>53.77530315483219</v>
       </c>
       <c r="K13" t="n">
-        <v>22.26949182588285</v>
+        <v>0</v>
       </c>
       <c r="L13" t="n">
         <v>0</v>
@@ -23455,19 +23455,19 @@
         <v>0</v>
       </c>
       <c r="P13" t="n">
-        <v>2.721440735106512</v>
+        <v>0</v>
       </c>
       <c r="Q13" t="n">
-        <v>58.57201799137825</v>
+        <v>86.16204325169439</v>
       </c>
       <c r="R13" t="n">
-        <v>149.7033661168533</v>
+        <v>177.2933913771695</v>
       </c>
       <c r="S13" t="n">
-        <v>196.4265727766561</v>
+        <v>224.0165980369723</v>
       </c>
       <c r="T13" t="n">
-        <v>205.4968300677721</v>
+        <v>227.9455894282815</v>
       </c>
       <c r="U13" t="n">
         <v>286.3190293564909</v>
@@ -23537,22 +23537,22 @@
         <v>0</v>
       </c>
       <c r="Q14" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R14" t="n">
-        <v>122.2790926808335</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S14" t="n">
-        <v>181.4300443259292</v>
+        <v>174.1545907582562</v>
       </c>
       <c r="T14" t="n">
-        <v>195.5058243038152</v>
+        <v>183.5119726022908</v>
       </c>
       <c r="U14" t="n">
-        <v>237.0350578730948</v>
+        <v>211.7617759459959</v>
       </c>
       <c r="V14" t="n">
-        <v>327.7522584701349</v>
+        <v>288.1683815082943</v>
       </c>
       <c r="W14" t="n">
         <v>349.240968717413</v>
@@ -23586,10 +23586,10 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G15" t="n">
-        <v>137.3435171632106</v>
+        <v>102.4780383352215</v>
       </c>
       <c r="H15" t="n">
-        <v>112.2354442364965</v>
+        <v>72.65156727465587</v>
       </c>
       <c r="I15" t="n">
         <v>89.39663285141508</v>
@@ -23619,16 +23619,16 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>72.56780889232699</v>
+        <v>60.57395719080255</v>
       </c>
       <c r="S15" t="n">
-        <v>144.0931458435217</v>
+        <v>132.0992941419972</v>
       </c>
       <c r="T15" t="n">
-        <v>172.5747034345055</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U15" t="n">
-        <v>201.6400878316884</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V15" t="n">
         <v>232.8005871494253</v>
@@ -23668,16 +23668,16 @@
         <v>167.9909793584588</v>
       </c>
       <c r="H16" t="n">
-        <v>137.1793204476034</v>
+        <v>122.643295545599</v>
       </c>
       <c r="I16" t="n">
-        <v>127.8604496669421</v>
+        <v>115.8665979654177</v>
       </c>
       <c r="J16" t="n">
-        <v>65.76915485635664</v>
+        <v>53.77530315483219</v>
       </c>
       <c r="K16" t="n">
-        <v>0</v>
+        <v>15.01338019972509</v>
       </c>
       <c r="L16" t="n">
         <v>0</v>
@@ -23777,16 +23777,16 @@
         <v>0</v>
       </c>
       <c r="R17" t="n">
-        <v>110.2852409793091</v>
+        <v>105.7369455619211</v>
       </c>
       <c r="S17" t="n">
-        <v>169.4361926244048</v>
+        <v>180.1391513691656</v>
       </c>
       <c r="T17" t="n">
-        <v>183.5119726022908</v>
+        <v>178.9636771849028</v>
       </c>
       <c r="U17" t="n">
-        <v>226.4708732943921</v>
+        <v>207.2134805286079</v>
       </c>
       <c r="V17" t="n">
         <v>327.7522584701349</v>
@@ -23817,16 +23817,16 @@
         <v>147.4450655646388</v>
       </c>
       <c r="E18" t="n">
-        <v>118.0612034935604</v>
+        <v>118.7734630237764</v>
       </c>
       <c r="F18" t="n">
-        <v>145.0692123933839</v>
+        <v>100.9370400141553</v>
       </c>
       <c r="G18" t="n">
-        <v>97.75964020137005</v>
+        <v>93.21134478398204</v>
       </c>
       <c r="H18" t="n">
-        <v>72.65156727465587</v>
+        <v>68.10327185726787</v>
       </c>
       <c r="I18" t="n">
         <v>89.39663285141508</v>
@@ -23856,7 +23856,7 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>65.29235532465395</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S18" t="n">
         <v>171.6831711038378</v>
@@ -23887,10 +23887,10 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>179.8319801819373</v>
+        <v>135.6998078027087</v>
       </c>
       <c r="C19" t="n">
-        <v>127.6629441367872</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
         <v>148.6154730182124</v>
@@ -23902,10 +23902,10 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
-        <v>167.9909793584588</v>
+        <v>123.8588069792302</v>
       </c>
       <c r="H19" t="n">
-        <v>162.2271725074396</v>
+        <v>161.4367220597573</v>
       </c>
       <c r="I19" t="n">
         <v>155.4504749272583</v>
@@ -23932,10 +23932,10 @@
         <v>2.721440735106512</v>
       </c>
       <c r="Q19" t="n">
-        <v>76.18449089043011</v>
+        <v>86.16204325169439</v>
       </c>
       <c r="R19" t="n">
-        <v>137.7095144153289</v>
+        <v>133.1612189979409</v>
       </c>
       <c r="S19" t="n">
         <v>224.0165980369723</v>
@@ -23947,7 +23947,7 @@
         <v>286.3190293564909</v>
       </c>
       <c r="V19" t="n">
-        <v>212.5537663619874</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W19" t="n">
         <v>286.522998336591</v>
@@ -23978,16 +23978,16 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F20" t="n">
-        <v>373.0723303772617</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G20" t="n">
-        <v>174.288448637476</v>
+        <v>415.302737515135</v>
       </c>
       <c r="H20" t="n">
-        <v>98.46051323810809</v>
+        <v>339.4748021157671</v>
       </c>
       <c r="I20" t="n">
-        <v>0</v>
+        <v>210.4758895704059</v>
       </c>
       <c r="J20" t="n">
         <v>11.94928935461252</v>
@@ -24011,28 +24011,28 @@
         <v>0</v>
       </c>
       <c r="Q20" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R20" t="n">
-        <v>149.8691179411497</v>
+        <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>0</v>
+        <v>209.0200695862453</v>
       </c>
       <c r="T20" t="n">
-        <v>223.0958495641314</v>
+        <v>0</v>
       </c>
       <c r="U20" t="n">
-        <v>251.3456529078365</v>
+        <v>10.33136403017744</v>
       </c>
       <c r="V20" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W20" t="n">
-        <v>349.240968717413</v>
+        <v>278.8969609161378</v>
       </c>
       <c r="X20" t="n">
-        <v>369.731100678469</v>
+        <v>128.71681180081</v>
       </c>
       <c r="Y20" t="n">
         <v>386.2379386560536</v>
@@ -24045,10 +24045,10 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C21" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D21" t="n">
         <v>147.4450655646388</v>
@@ -24063,7 +24063,7 @@
         <v>137.3435171632106</v>
       </c>
       <c r="H21" t="n">
-        <v>112.2354442364965</v>
+        <v>47.56280698067039</v>
       </c>
       <c r="I21" t="n">
         <v>89.39663285141508</v>
@@ -24093,25 +24093,25 @@
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S21" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T21" t="n">
-        <v>200.1647286948216</v>
+        <v>0</v>
       </c>
       <c r="U21" t="n">
         <v>0</v>
       </c>
       <c r="V21" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W21" t="n">
-        <v>10.68069428326055</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X21" t="n">
-        <v>136.7341746849847</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y21" t="n">
         <v>205.6826957773044</v>
@@ -24130,7 +24130,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
-        <v>15.42850543284433</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
         <v>146.4339626465692</v>
@@ -24166,16 +24166,16 @@
         <v>0</v>
       </c>
       <c r="P22" t="n">
-        <v>2.721440735106512</v>
+        <v>0</v>
       </c>
       <c r="Q22" t="n">
-        <v>86.16204325169439</v>
+        <v>0</v>
       </c>
       <c r="R22" t="n">
         <v>177.2933913771695</v>
       </c>
       <c r="S22" t="n">
-        <v>224.0165980369723</v>
+        <v>179.7131144384051</v>
       </c>
       <c r="T22" t="n">
         <v>227.9455894282815</v>
@@ -24209,19 +24209,19 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D23" t="n">
-        <v>274.3483346048629</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E23" t="n">
-        <v>381.9303700722618</v>
+        <v>169.6449844288197</v>
       </c>
       <c r="F23" t="n">
-        <v>406.8760457417114</v>
+        <v>165.8617568640524</v>
       </c>
       <c r="G23" t="n">
         <v>415.302737515135</v>
       </c>
       <c r="H23" t="n">
-        <v>339.4748021157671</v>
+        <v>98.46051323810809</v>
       </c>
       <c r="I23" t="n">
         <v>210.4758895704059</v>
@@ -24251,25 +24251,25 @@
         <v>9.990699214544804</v>
       </c>
       <c r="R23" t="n">
-        <v>0</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S23" t="n">
         <v>209.0200695862453</v>
       </c>
       <c r="T23" t="n">
-        <v>0</v>
+        <v>223.0958495641314</v>
       </c>
       <c r="U23" t="n">
         <v>251.3456529078365</v>
       </c>
       <c r="V23" t="n">
-        <v>86.73796959247585</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W23" t="n">
-        <v>349.240968717413</v>
+        <v>108.226679839754</v>
       </c>
       <c r="X23" t="n">
-        <v>128.71681180081</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y23" t="n">
         <v>386.2379386560536</v>
@@ -24282,13 +24282,13 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C24" t="n">
         <v>172.7084989883157</v>
       </c>
       <c r="D24" t="n">
-        <v>147.4450655646388</v>
+        <v>83.55624250011644</v>
       </c>
       <c r="E24" t="n">
         <v>157.6450804554009</v>
@@ -24297,7 +24297,7 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G24" t="n">
-        <v>0.3372550897595659</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H24" t="n">
         <v>112.2354442364965</v>
@@ -24333,25 +24333,25 @@
         <v>100.1578341526431</v>
       </c>
       <c r="S24" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T24" t="n">
-        <v>0</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U24" t="n">
         <v>0</v>
       </c>
       <c r="V24" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W24" t="n">
-        <v>251.6949831609196</v>
+        <v>10.68069428326055</v>
       </c>
       <c r="X24" t="n">
         <v>205.7729852034775</v>
       </c>
       <c r="Y24" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="25">
@@ -24373,7 +24373,7 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
-        <v>145.4210480229312</v>
+        <v>12.23408043756322</v>
       </c>
       <c r="G25" t="n">
         <v>167.9909793584588</v>
@@ -24415,7 +24415,7 @@
         <v>224.0165980369723</v>
       </c>
       <c r="T25" t="n">
-        <v>94.7586218429135</v>
+        <v>227.9455894282815</v>
       </c>
       <c r="U25" t="n">
         <v>286.3190293564909</v>
@@ -24440,13 +24440,13 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>141.7195527858215</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C26" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D26" t="n">
-        <v>354.683041620683</v>
+        <v>113.6687527430239</v>
       </c>
       <c r="E26" t="n">
         <v>381.9303700722618</v>
@@ -24455,13 +24455,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G26" t="n">
-        <v>415.302737515135</v>
+        <v>413.4932414420988</v>
       </c>
       <c r="H26" t="n">
-        <v>339.4748021157671</v>
+        <v>98.46051323810809</v>
       </c>
       <c r="I26" t="n">
-        <v>210.4758895704059</v>
+        <v>0</v>
       </c>
       <c r="J26" t="n">
         <v>11.94928935461252</v>
@@ -24494,10 +24494,10 @@
         <v>209.0200695862453</v>
       </c>
       <c r="T26" t="n">
-        <v>0</v>
+        <v>223.0958495641314</v>
       </c>
       <c r="U26" t="n">
-        <v>21.14182795086677</v>
+        <v>251.3456529078365</v>
       </c>
       <c r="V26" t="n">
         <v>327.7522584701349</v>
@@ -24519,7 +24519,7 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C27" t="n">
         <v>172.7084989883157</v>
@@ -24534,7 +24534,7 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G27" t="n">
-        <v>0</v>
+        <v>87.28582189465754</v>
       </c>
       <c r="H27" t="n">
         <v>112.2354442364965</v>
@@ -24543,7 +24543,7 @@
         <v>89.39663285141508</v>
       </c>
       <c r="J27" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K27" t="n">
         <v>0</v>
@@ -24570,22 +24570,22 @@
         <v>100.1578341526431</v>
       </c>
       <c r="S27" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T27" t="n">
-        <v>0</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U27" t="n">
         <v>225.9413820809748</v>
       </c>
       <c r="V27" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W27" t="n">
-        <v>251.6949831609196</v>
+        <v>10.68069428326055</v>
       </c>
       <c r="X27" t="n">
-        <v>152.598620642358</v>
+        <v>0</v>
       </c>
       <c r="Y27" t="n">
         <v>0</v>
@@ -24640,13 +24640,13 @@
         <v>0</v>
       </c>
       <c r="P28" t="n">
-        <v>0</v>
+        <v>2.721440735106512</v>
       </c>
       <c r="Q28" t="n">
         <v>86.16204325169439</v>
       </c>
       <c r="R28" t="n">
-        <v>46.82786452690794</v>
+        <v>177.2933913771695</v>
       </c>
       <c r="S28" t="n">
         <v>224.0165980369723</v>
@@ -24664,7 +24664,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X28" t="n">
-        <v>225.7096553890372</v>
+        <v>92.52268780366916</v>
       </c>
       <c r="Y28" t="n">
         <v>218.5846533520948</v>
@@ -24677,22 +24677,22 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>382.7338416634806</v>
+        <v>141.7195527858215</v>
       </c>
       <c r="C29" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D29" t="n">
-        <v>354.683041620683</v>
+        <v>113.6687527430239</v>
       </c>
       <c r="E29" t="n">
-        <v>381.9303700722618</v>
+        <v>140.9160811946027</v>
       </c>
       <c r="F29" t="n">
-        <v>406.8760457417114</v>
+        <v>194.5906600982693</v>
       </c>
       <c r="G29" t="n">
-        <v>174.288448637476</v>
+        <v>415.302737515135</v>
       </c>
       <c r="H29" t="n">
         <v>339.4748021157671</v>
@@ -24731,7 +24731,7 @@
         <v>209.0200695862453</v>
       </c>
       <c r="T29" t="n">
-        <v>10.81046392068936</v>
+        <v>223.0958495641314</v>
       </c>
       <c r="U29" t="n">
         <v>251.3456529078365</v>
@@ -24740,13 +24740,13 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W29" t="n">
-        <v>108.226679839754</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X29" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y29" t="n">
-        <v>145.2236497783945</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="30">
@@ -24759,13 +24759,13 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C30" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D30" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E30" t="n">
-        <v>0</v>
+        <v>59.41660345025147</v>
       </c>
       <c r="F30" t="n">
         <v>145.0692123933839</v>
@@ -24774,13 +24774,13 @@
         <v>0</v>
       </c>
       <c r="H30" t="n">
-        <v>0</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I30" t="n">
-        <v>87.87527408662052</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J30" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K30" t="n">
         <v>0</v>
@@ -24813,19 +24813,19 @@
         <v>200.1647286948216</v>
       </c>
       <c r="U30" t="n">
-        <v>225.9413820809748</v>
+        <v>0</v>
       </c>
       <c r="V30" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W30" t="n">
-        <v>251.6949831609196</v>
+        <v>10.68069428326055</v>
       </c>
       <c r="X30" t="n">
         <v>205.7729852034775</v>
       </c>
       <c r="Y30" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="31">
@@ -24895,13 +24895,13 @@
         <v>286.3190293564909</v>
       </c>
       <c r="V31" t="n">
-        <v>252.137643323828</v>
+        <v>118.95067573846</v>
       </c>
       <c r="W31" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X31" t="n">
-        <v>92.52268780366913</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y31" t="n">
         <v>218.5846533520948</v>
@@ -24920,19 +24920,19 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D32" t="n">
-        <v>124.4792166637132</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E32" t="n">
-        <v>381.9303700722618</v>
+        <v>140.9160811946027</v>
       </c>
       <c r="F32" t="n">
-        <v>406.8760457417114</v>
+        <v>165.8617568640524</v>
       </c>
       <c r="G32" t="n">
-        <v>174.288448637476</v>
+        <v>415.302737515135</v>
       </c>
       <c r="H32" t="n">
-        <v>98.46051323810809</v>
+        <v>339.4748021157671</v>
       </c>
       <c r="I32" t="n">
         <v>210.4758895704059</v>
@@ -24959,16 +24959,16 @@
         <v>0</v>
       </c>
       <c r="Q32" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R32" t="n">
-        <v>149.8691179411497</v>
+        <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>209.0200695862453</v>
+        <v>0</v>
       </c>
       <c r="T32" t="n">
-        <v>0</v>
+        <v>138.6760617849701</v>
       </c>
       <c r="U32" t="n">
         <v>251.3456529078365</v>
@@ -24996,19 +24996,19 @@
         <v>0</v>
       </c>
       <c r="C33" t="n">
-        <v>0.04179374389434543</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D33" t="n">
         <v>147.4450655646388</v>
       </c>
       <c r="E33" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F33" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>137.3435171632106</v>
+        <v>0</v>
       </c>
       <c r="H33" t="n">
         <v>112.2354442364965</v>
@@ -25041,7 +25041,7 @@
         <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>100.1578341526431</v>
+        <v>60.56276916382224</v>
       </c>
       <c r="S33" t="n">
         <v>171.6831711038378</v>
@@ -25053,16 +25053,16 @@
         <v>225.9413820809748</v>
       </c>
       <c r="V33" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W33" t="n">
-        <v>251.6949831609196</v>
+        <v>10.68069428326055</v>
       </c>
       <c r="X33" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y33" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="34">
@@ -25075,7 +25075,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C34" t="n">
-        <v>167.2468210986278</v>
+        <v>120.2218967649542</v>
       </c>
       <c r="D34" t="n">
         <v>148.6154730182124</v>
@@ -25117,7 +25117,7 @@
         <v>2.721440735106512</v>
       </c>
       <c r="Q34" t="n">
-        <v>86.16204325169439</v>
+        <v>0</v>
       </c>
       <c r="R34" t="n">
         <v>177.2933913771695</v>
@@ -25135,7 +25135,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W34" t="n">
-        <v>153.336030751223</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X34" t="n">
         <v>225.7096553890372</v>
@@ -25151,25 +25151,25 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>382.7338416634806</v>
+        <v>141.7195527858215</v>
       </c>
       <c r="C35" t="n">
         <v>124.2586028933485</v>
       </c>
       <c r="D35" t="n">
-        <v>354.683041620683</v>
+        <v>113.6687527430239</v>
       </c>
       <c r="E35" t="n">
-        <v>381.9303700722618</v>
+        <v>169.6449844288197</v>
       </c>
       <c r="F35" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G35" t="n">
-        <v>174.288448637476</v>
+        <v>415.302737515135</v>
       </c>
       <c r="H35" t="n">
-        <v>98.46051323810809</v>
+        <v>339.4748021157671</v>
       </c>
       <c r="I35" t="n">
         <v>210.4758895704059</v>
@@ -25202,10 +25202,10 @@
         <v>149.8691179411497</v>
       </c>
       <c r="S35" t="n">
-        <v>0</v>
+        <v>209.0200695862453</v>
       </c>
       <c r="T35" t="n">
-        <v>219.8305335069347</v>
+        <v>223.0958495641314</v>
       </c>
       <c r="U35" t="n">
         <v>251.3456529078365</v>
@@ -25230,28 +25230,28 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>0</v>
+        <v>48.72576195918364</v>
       </c>
       <c r="C36" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D36" t="n">
         <v>0</v>
       </c>
       <c r="E36" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F36" t="n">
         <v>145.0692123933839</v>
       </c>
       <c r="G36" t="n">
-        <v>137.3435171632106</v>
+        <v>0</v>
       </c>
       <c r="H36" t="n">
-        <v>94.93928146295812</v>
+        <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>89.39663285141508</v>
+        <v>0</v>
       </c>
       <c r="J36" t="n">
         <v>0</v>
@@ -25281,13 +25281,13 @@
         <v>100.1578341526431</v>
       </c>
       <c r="S36" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T36" t="n">
         <v>200.1647286948216</v>
       </c>
       <c r="U36" t="n">
-        <v>0</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V36" t="n">
         <v>232.8005871494253</v>
@@ -25299,7 +25299,7 @@
         <v>205.7729852034775</v>
       </c>
       <c r="Y36" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="37">
@@ -25351,13 +25351,13 @@
         <v>0</v>
       </c>
       <c r="P37" t="n">
-        <v>0</v>
+        <v>2.721440735106512</v>
       </c>
       <c r="Q37" t="n">
         <v>86.16204325169439</v>
       </c>
       <c r="R37" t="n">
-        <v>46.82786452690794</v>
+        <v>177.2933913771695</v>
       </c>
       <c r="S37" t="n">
         <v>224.0165980369723</v>
@@ -25366,7 +25366,7 @@
         <v>227.9455894282815</v>
       </c>
       <c r="U37" t="n">
-        <v>286.3190293564909</v>
+        <v>153.1320617711229</v>
       </c>
       <c r="V37" t="n">
         <v>252.137643323828</v>
@@ -25388,7 +25388,7 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>141.7195527858215</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C38" t="n">
         <v>365.2728917710076</v>
@@ -25400,19 +25400,19 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F38" t="n">
-        <v>406.8760457417114</v>
+        <v>405.0665496686753</v>
       </c>
       <c r="G38" t="n">
         <v>174.288448637476</v>
       </c>
       <c r="H38" t="n">
-        <v>339.4748021157671</v>
+        <v>98.46051323810809</v>
       </c>
       <c r="I38" t="n">
-        <v>210.4758895704059</v>
+        <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>0</v>
+        <v>11.94928935461252</v>
       </c>
       <c r="K38" t="n">
         <v>0</v>
@@ -25448,16 +25448,16 @@
         <v>251.3456529078365</v>
       </c>
       <c r="V38" t="n">
-        <v>327.7522584701349</v>
+        <v>86.73796959247585</v>
       </c>
       <c r="W38" t="n">
-        <v>148.9048724285834</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X38" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y38" t="n">
-        <v>145.2236497783945</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="39">
@@ -25470,7 +25470,7 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C39" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D39" t="n">
         <v>147.4450655646388</v>
@@ -25479,10 +25479,10 @@
         <v>157.6450804554009</v>
       </c>
       <c r="F39" t="n">
-        <v>145.0692123933839</v>
+        <v>41.35615703050212</v>
       </c>
       <c r="G39" t="n">
-        <v>54.64996344005395</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H39" t="n">
         <v>112.2354442364965</v>
@@ -25524,19 +25524,19 @@
         <v>0</v>
       </c>
       <c r="U39" t="n">
-        <v>225.9413820809748</v>
+        <v>0</v>
       </c>
       <c r="V39" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W39" t="n">
-        <v>10.68069428326055</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X39" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y39" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="40">
@@ -25600,7 +25600,7 @@
         <v>224.0165980369723</v>
       </c>
       <c r="T40" t="n">
-        <v>227.9455894282815</v>
+        <v>94.7586218429135</v>
       </c>
       <c r="U40" t="n">
         <v>286.3190293564909</v>
@@ -25615,7 +25615,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y40" t="n">
-        <v>85.39768576672677</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="41">
@@ -25625,7 +25625,7 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>340.8724577544357</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C41" t="n">
         <v>365.2728917710076</v>
@@ -25637,10 +25637,10 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F41" t="n">
-        <v>177.8556085655768</v>
+        <v>170.4100522814404</v>
       </c>
       <c r="G41" t="n">
-        <v>186.2823003390004</v>
+        <v>415.302737515135</v>
       </c>
       <c r="H41" t="n">
         <v>339.4748021157671</v>
@@ -25670,16 +25670,16 @@
         <v>0</v>
       </c>
       <c r="Q41" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R41" t="n">
-        <v>0</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S41" t="n">
         <v>209.0200695862453</v>
       </c>
       <c r="T41" t="n">
-        <v>223.0958495641314</v>
+        <v>14.81660252432471</v>
       </c>
       <c r="U41" t="n">
         <v>251.3456529078365</v>
@@ -25688,13 +25688,13 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W41" t="n">
-        <v>349.240968717413</v>
+        <v>112.774975257142</v>
       </c>
       <c r="X41" t="n">
-        <v>369.731100678469</v>
+        <v>133.265107218198</v>
       </c>
       <c r="Y41" t="n">
-        <v>157.217501479919</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="42">
@@ -25704,7 +25704,7 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>166.5331836498673</v>
+        <v>30.72683104420298</v>
       </c>
       <c r="C42" t="n">
         <v>172.7084989883157</v>
@@ -25719,10 +25719,10 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G42" t="n">
-        <v>137.3435171632106</v>
+        <v>0</v>
       </c>
       <c r="H42" t="n">
-        <v>112.2354442364965</v>
+        <v>0</v>
       </c>
       <c r="I42" t="n">
         <v>0</v>
@@ -25758,22 +25758,22 @@
         <v>171.6831711038378</v>
       </c>
       <c r="T42" t="n">
-        <v>62.26024473993834</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U42" t="n">
-        <v>0</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V42" t="n">
-        <v>3.780149973290662</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W42" t="n">
-        <v>251.6949831609196</v>
+        <v>15.22898970064855</v>
       </c>
       <c r="X42" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y42" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="43">
@@ -25831,7 +25831,7 @@
         <v>86.16204325169439</v>
       </c>
       <c r="R43" t="n">
-        <v>177.2933913771695</v>
+        <v>44.10642379180146</v>
       </c>
       <c r="S43" t="n">
         <v>224.0165980369723</v>
@@ -25843,7 +25843,7 @@
         <v>286.3190293564909</v>
       </c>
       <c r="V43" t="n">
-        <v>118.95067573846</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W43" t="n">
         <v>286.522998336591</v>
@@ -25862,7 +25862,7 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>382.7338416634806</v>
+        <v>343.14996470164</v>
       </c>
       <c r="C44" t="n">
         <v>365.2728917710076</v>
@@ -25871,13 +25871,13 @@
         <v>354.683041620683</v>
       </c>
       <c r="E44" t="n">
-        <v>354.3403448119457</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F44" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G44" t="n">
-        <v>387.7127122548189</v>
+        <v>415.302737515135</v>
       </c>
       <c r="H44" t="n">
         <v>339.4748021157671</v>
@@ -25907,10 +25907,10 @@
         <v>0</v>
       </c>
       <c r="Q44" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R44" t="n">
-        <v>149.8691179411497</v>
+        <v>115.0036391131605</v>
       </c>
       <c r="S44" t="n">
         <v>209.0200695862453</v>
@@ -25919,19 +25919,19 @@
         <v>223.0958495641314</v>
       </c>
       <c r="U44" t="n">
-        <v>251.3456529078365</v>
+        <v>211.7617759459959</v>
       </c>
       <c r="V44" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W44" t="n">
-        <v>334.9303736826714</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X44" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y44" t="n">
-        <v>358.6479133957374</v>
+        <v>346.654061694213</v>
       </c>
     </row>
     <row r="45">
@@ -25941,10 +25941,10 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>166.5331836498673</v>
+        <v>131.6677048218782</v>
       </c>
       <c r="C45" t="n">
-        <v>172.7084989883157</v>
+        <v>133.1246220264752</v>
       </c>
       <c r="D45" t="n">
         <v>147.4450655646388</v>
@@ -25989,13 +25989,13 @@
         <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>72.56780889232699</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S45" t="n">
-        <v>144.0931458435217</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T45" t="n">
-        <v>175.8634344455351</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U45" t="n">
         <v>225.9413820809748</v>
@@ -26004,13 +26004,13 @@
         <v>232.8005871494253</v>
       </c>
       <c r="W45" t="n">
-        <v>251.6949831609196</v>
+        <v>212.111106199079</v>
       </c>
       <c r="X45" t="n">
         <v>205.7729852034775</v>
       </c>
       <c r="Y45" t="n">
-        <v>178.0926705169882</v>
+        <v>166.0988188154638</v>
       </c>
     </row>
     <row r="46">
@@ -26020,10 +26020,10 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>179.8319801819373</v>
+        <v>172.5758685557795</v>
       </c>
       <c r="C46" t="n">
-        <v>167.2468210986278</v>
+        <v>127.6629441367872</v>
       </c>
       <c r="D46" t="n">
         <v>148.6154730182124</v>
@@ -26035,16 +26035,16 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
-        <v>145.5422199979494</v>
+        <v>167.9909793584588</v>
       </c>
       <c r="H46" t="n">
-        <v>134.6371472471234</v>
+        <v>162.2271725074396</v>
       </c>
       <c r="I46" t="n">
-        <v>127.8604496669421</v>
+        <v>155.4504749272583</v>
       </c>
       <c r="J46" t="n">
-        <v>65.76915485635664</v>
+        <v>93.35918011667277</v>
       </c>
       <c r="K46" t="n">
         <v>22.26949182588285</v>
@@ -26062,7 +26062,7 @@
         <v>0</v>
       </c>
       <c r="P46" t="n">
-        <v>2.721440735106512</v>
+        <v>0</v>
       </c>
       <c r="Q46" t="n">
         <v>86.16204325169439</v>
@@ -26086,10 +26086,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X46" t="n">
-        <v>225.7096553890372</v>
+        <v>186.1257784271966</v>
       </c>
       <c r="Y46" t="n">
-        <v>218.5846533520948</v>
+        <v>179.0007763902542</v>
       </c>
     </row>
   </sheetData>
@@ -26123,7 +26123,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>345904.1553749646</v>
+        <v>355268.3982687963</v>
       </c>
     </row>
     <row r="3">
@@ -26131,7 +26131,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>345904.155374965</v>
+        <v>355268.3982687963</v>
       </c>
     </row>
     <row r="4">
@@ -26139,7 +26139,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>345904.1553749648</v>
+        <v>355268.3982687963</v>
       </c>
     </row>
     <row r="5">
@@ -26147,7 +26147,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>345904.155374965</v>
+        <v>355268.3982687964</v>
       </c>
     </row>
     <row r="6">
@@ -26155,7 +26155,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>345904.1553749649</v>
+        <v>355268.3982687964</v>
       </c>
     </row>
     <row r="7">
@@ -26163,7 +26163,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>355268.3982687964</v>
+        <v>358659.0160535966</v>
       </c>
     </row>
     <row r="8">
@@ -26179,7 +26179,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>498482.0175939976</v>
+        <v>498482.0175939975</v>
       </c>
     </row>
     <row r="10">
@@ -26187,7 +26187,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>498482.0175939976</v>
+        <v>498482.0175939975</v>
       </c>
     </row>
     <row r="11">
@@ -26195,7 +26195,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>498482.0175939976</v>
+        <v>498482.0175939975</v>
       </c>
     </row>
     <row r="12">
@@ -26203,7 +26203,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>498482.0175939976</v>
+        <v>498482.0175939973</v>
       </c>
     </row>
     <row r="13">
@@ -26211,7 +26211,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>498482.0175939975</v>
+        <v>498482.0175939976</v>
       </c>
     </row>
     <row r="14">
@@ -26227,7 +26227,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>489964.1472319581</v>
+        <v>495251.8800453863</v>
       </c>
     </row>
     <row r="16">
@@ -26235,7 +26235,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>345904.1553749649</v>
+        <v>355268.3982687963</v>
       </c>
     </row>
   </sheetData>
@@ -26311,28 +26311,28 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>57650.69256249412</v>
+        <v>59211.39971146603</v>
       </c>
       <c r="C2" t="n">
-        <v>57650.6925624941</v>
+        <v>59211.39971146602</v>
       </c>
       <c r="D2" t="n">
-        <v>57650.6925624941</v>
+        <v>59211.39971146602</v>
       </c>
       <c r="E2" t="n">
-        <v>57650.6925624941</v>
+        <v>59211.39971146601</v>
       </c>
       <c r="F2" t="n">
-        <v>57650.69256249411</v>
+        <v>59211.39971146602</v>
       </c>
       <c r="G2" t="n">
-        <v>59211.399711466</v>
+        <v>59776.50267559938</v>
       </c>
       <c r="H2" t="n">
-        <v>83080.33626566621</v>
+        <v>83080.33626566618</v>
       </c>
       <c r="I2" t="n">
-        <v>83080.33626566616</v>
+        <v>83080.33626566618</v>
       </c>
       <c r="J2" t="n">
         <v>83080.33626566619</v>
@@ -26341,19 +26341,19 @@
         <v>83080.33626566618</v>
       </c>
       <c r="L2" t="n">
+        <v>83080.33626566619</v>
+      </c>
+      <c r="M2" t="n">
         <v>83080.33626566618</v>
       </c>
-      <c r="M2" t="n">
+      <c r="N2" t="n">
         <v>83080.33626566616</v>
       </c>
-      <c r="N2" t="n">
-        <v>83080.33626566624</v>
-      </c>
       <c r="O2" t="n">
-        <v>81660.69120532628</v>
+        <v>82541.98000756433</v>
       </c>
       <c r="P2" t="n">
-        <v>57650.69256249412</v>
+        <v>59211.39971146602</v>
       </c>
     </row>
     <row r="3">
@@ -26363,7 +26363,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>9246.052035312925</v>
+        <v>13265.46759908291</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26378,16 +26378,16 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>3287.334843612329</v>
+        <v>1246.619549474791</v>
       </c>
       <c r="H3" t="n">
-        <v>54347.73800859507</v>
+        <v>53120.56697032503</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>7218.764569210156</v>
+        <v>10356.88390380382</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -26415,49 +26415,49 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>2278.927672807631</v>
+        <v>33.41106180436364</v>
       </c>
       <c r="C4" t="n">
-        <v>2278.927672807631</v>
+        <v>33.41106180436364</v>
       </c>
       <c r="D4" t="n">
-        <v>2278.927672807631</v>
+        <v>33.41106180436364</v>
       </c>
       <c r="E4" t="n">
-        <v>2278.927672807631</v>
+        <v>33.41106180436363</v>
       </c>
       <c r="F4" t="n">
-        <v>2278.92767280763</v>
+        <v>33.41106180436363</v>
       </c>
       <c r="G4" t="n">
-        <v>2350.685009712585</v>
+        <v>36.87052286425573</v>
       </c>
       <c r="H4" t="n">
-        <v>3448.117877250231</v>
+        <v>179.5324977039669</v>
       </c>
       <c r="I4" t="n">
-        <v>3448.11787725023</v>
+        <v>179.5324977039669</v>
       </c>
       <c r="J4" t="n">
-        <v>3448.117877250231</v>
+        <v>179.5324977039669</v>
       </c>
       <c r="K4" t="n">
-        <v>3448.117877250231</v>
+        <v>179.5324977039669</v>
       </c>
       <c r="L4" t="n">
-        <v>3448.117877250231</v>
+        <v>179.5324977039669</v>
       </c>
       <c r="M4" t="n">
-        <v>3448.11787725023</v>
+        <v>179.5324977039669</v>
       </c>
       <c r="N4" t="n">
-        <v>3448.117877250231</v>
+        <v>179.5324977039668</v>
       </c>
       <c r="O4" t="n">
-        <v>3382.846215652876</v>
+        <v>176.2367752791008</v>
       </c>
       <c r="P4" t="n">
-        <v>2278.927672807631</v>
+        <v>33.41106180436364</v>
       </c>
     </row>
     <row r="5">
@@ -26467,22 +26467,22 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>35305.07353582722</v>
+        <v>36034.29971927991</v>
       </c>
       <c r="C5" t="n">
-        <v>35305.07353582722</v>
+        <v>36034.29971927991</v>
       </c>
       <c r="D5" t="n">
-        <v>35305.07353582722</v>
+        <v>36034.29971927991</v>
       </c>
       <c r="E5" t="n">
-        <v>1677.473535827221</v>
+        <v>2406.699719279908</v>
       </c>
       <c r="F5" t="n">
-        <v>1677.473535827221</v>
+        <v>2406.699719279908</v>
       </c>
       <c r="G5" t="n">
-        <v>2406.699719279908</v>
+        <v>2683.236080657098</v>
       </c>
       <c r="H5" t="n">
         <v>14653.66876376167</v>
@@ -26506,10 +26506,10 @@
         <v>14653.66876376167</v>
       </c>
       <c r="O5" t="n">
-        <v>13924.44258030898</v>
+        <v>14377.13240238448</v>
       </c>
       <c r="P5" t="n">
-        <v>1677.473535827221</v>
+        <v>2406.699719279908</v>
       </c>
     </row>
     <row r="6">
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>10820.63931854635</v>
+        <v>9878.221331298846</v>
       </c>
       <c r="C6" t="n">
-        <v>20066.69135385925</v>
+        <v>23143.68893038174</v>
       </c>
       <c r="D6" t="n">
-        <v>20066.69135385925</v>
+        <v>23143.68893038175</v>
       </c>
       <c r="E6" t="n">
-        <v>53694.29135385925</v>
+        <v>56771.28893038174</v>
       </c>
       <c r="F6" t="n">
-        <v>53694.29135385926</v>
+        <v>56771.28893038174</v>
       </c>
       <c r="G6" t="n">
-        <v>51166.68013886118</v>
+        <v>55809.77652260324</v>
       </c>
       <c r="H6" t="n">
-        <v>10630.81161605923</v>
+        <v>15126.56803387551</v>
       </c>
       <c r="I6" t="n">
-        <v>64978.54962465426</v>
+        <v>68247.13500420054</v>
       </c>
       <c r="J6" t="n">
-        <v>57759.78505544414</v>
+        <v>57890.25110039674</v>
       </c>
       <c r="K6" t="n">
-        <v>64978.54962465428</v>
+        <v>68247.13500420054</v>
       </c>
       <c r="L6" t="n">
-        <v>64978.54962465428</v>
+        <v>68247.13500420055</v>
       </c>
       <c r="M6" t="n">
-        <v>64978.54962465426</v>
+        <v>68247.13500420054</v>
       </c>
       <c r="N6" t="n">
-        <v>64978.54962465433</v>
+        <v>68247.13500420052</v>
       </c>
       <c r="O6" t="n">
-        <v>64353.40240936443</v>
+        <v>67988.61082990075</v>
       </c>
       <c r="P6" t="n">
-        <v>53694.29135385927</v>
+        <v>56771.28893038174</v>
       </c>
     </row>
   </sheetData>
@@ -26787,22 +26787,22 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>27.59002526031614</v>
+        <v>39.58387696184059</v>
       </c>
       <c r="C4" t="n">
-        <v>27.59002526031614</v>
+        <v>39.58387696184059</v>
       </c>
       <c r="D4" t="n">
-        <v>27.59002526031614</v>
+        <v>39.58387696184059</v>
       </c>
       <c r="E4" t="n">
-        <v>27.59002526031614</v>
+        <v>39.58387696184059</v>
       </c>
       <c r="F4" t="n">
-        <v>27.59002526031614</v>
+        <v>39.58387696184059</v>
       </c>
       <c r="G4" t="n">
-        <v>39.58387696184059</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="H4" t="n">
         <v>241.0142888776591</v>
@@ -26826,10 +26826,10 @@
         <v>241.0142888776591</v>
       </c>
       <c r="O4" t="n">
-        <v>229.0204371761346</v>
+        <v>236.4659934602711</v>
       </c>
       <c r="P4" t="n">
-        <v>27.59002526031614</v>
+        <v>39.58387696184059</v>
       </c>
     </row>
   </sheetData>
@@ -27009,7 +27009,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>27.59002526031614</v>
+        <v>39.58387696184059</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -27024,16 +27024,16 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>11.99385170152445</v>
+        <v>4.548295417388005</v>
       </c>
       <c r="H4" t="n">
-        <v>201.4304119158185</v>
+        <v>196.8821164984305</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>27.59002526031614</v>
+        <v>39.58387696184059</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27255,7 +27255,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>27.59002526031614</v>
+        <v>39.58387696184059</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27270,10 +27270,10 @@
         <v>0</v>
       </c>
       <c r="O4" t="n">
-        <v>11.99385170152445</v>
+        <v>4.548295417388005</v>
       </c>
       <c r="P4" t="n">
-        <v>201.4304119158185</v>
+        <v>196.8821164984305</v>
       </c>
     </row>
   </sheetData>
@@ -34699,22 +34699,22 @@
         <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>27.59002526031614</v>
+        <v>39.58387696184059</v>
       </c>
       <c r="L2" t="n">
-        <v>27.59002526031614</v>
+        <v>37.98452839772582</v>
       </c>
       <c r="M2" t="n">
-        <v>26.47527676494983</v>
+        <v>0</v>
       </c>
       <c r="N2" t="n">
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>0</v>
+        <v>39.58387696184059</v>
       </c>
       <c r="P2" t="n">
-        <v>27.59002526031614</v>
+        <v>39.58387696184059</v>
       </c>
       <c r="Q2" t="n">
         <v>0</v>
@@ -34778,25 +34778,25 @@
         <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>0</v>
+        <v>39.58387696184059</v>
       </c>
       <c r="L3" t="n">
-        <v>0</v>
+        <v>39.58387696184059</v>
       </c>
       <c r="M3" t="n">
-        <v>26.47527676494984</v>
+        <v>39.58387696184059</v>
       </c>
       <c r="N3" t="n">
-        <v>0</v>
+        <v>37.98452839772582</v>
       </c>
       <c r="O3" t="n">
-        <v>27.59002526031614</v>
+        <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>27.59002526031614</v>
+        <v>0</v>
       </c>
       <c r="Q3" t="n">
-        <v>27.59002526031614</v>
+        <v>0</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34863,10 +34863,10 @@
         <v>27.59002526031614</v>
       </c>
       <c r="M4" t="n">
-        <v>27.59002526031614</v>
+        <v>39.58387696184059</v>
       </c>
       <c r="N4" t="n">
-        <v>27.59002526031614</v>
+        <v>39.58387696184059</v>
       </c>
       <c r="O4" t="n">
         <v>24.58512791403967</v>
@@ -34936,22 +34936,22 @@
         <v>0</v>
       </c>
       <c r="K5" t="n">
-        <v>27.59002526031614</v>
+        <v>39.58387696184059</v>
       </c>
       <c r="L5" t="n">
-        <v>26.47527676494984</v>
+        <v>39.58387696184059</v>
       </c>
       <c r="M5" t="n">
-        <v>0</v>
+        <v>37.98452839772582</v>
       </c>
       <c r="N5" t="n">
         <v>0</v>
       </c>
       <c r="O5" t="n">
-        <v>27.59002526031614</v>
+        <v>0</v>
       </c>
       <c r="P5" t="n">
-        <v>27.59002526031614</v>
+        <v>39.58387696184059</v>
       </c>
       <c r="Q5" t="n">
         <v>0</v>
@@ -35015,25 +35015,25 @@
         <v>0</v>
       </c>
       <c r="K6" t="n">
-        <v>0</v>
+        <v>39.58387696184059</v>
       </c>
       <c r="L6" t="n">
-        <v>0</v>
+        <v>39.58387696184059</v>
       </c>
       <c r="M6" t="n">
-        <v>0</v>
+        <v>39.58387696184059</v>
       </c>
       <c r="N6" t="n">
-        <v>27.59002526031614</v>
+        <v>37.98452839772582</v>
       </c>
       <c r="O6" t="n">
-        <v>27.59002526031614</v>
+        <v>0</v>
       </c>
       <c r="P6" t="n">
-        <v>27.59002526031614</v>
+        <v>0</v>
       </c>
       <c r="Q6" t="n">
-        <v>26.47527676494983</v>
+        <v>0</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35100,10 +35100,10 @@
         <v>27.59002526031614</v>
       </c>
       <c r="M7" t="n">
-        <v>27.59002526031614</v>
+        <v>39.58387696184059</v>
       </c>
       <c r="N7" t="n">
-        <v>27.59002526031614</v>
+        <v>39.58387696184059</v>
       </c>
       <c r="O7" t="n">
         <v>24.58512791403967</v>
@@ -35173,22 +35173,22 @@
         <v>0</v>
       </c>
       <c r="K8" t="n">
-        <v>26.47527676494984</v>
+        <v>39.58387696184059</v>
       </c>
       <c r="L8" t="n">
-        <v>0</v>
+        <v>39.58387696184059</v>
       </c>
       <c r="M8" t="n">
-        <v>27.59002526031614</v>
+        <v>37.98452839772582</v>
       </c>
       <c r="N8" t="n">
-        <v>27.59002526031614</v>
+        <v>0</v>
       </c>
       <c r="O8" t="n">
         <v>0</v>
       </c>
       <c r="P8" t="n">
-        <v>27.59002526031614</v>
+        <v>39.58387696184059</v>
       </c>
       <c r="Q8" t="n">
         <v>0</v>
@@ -35255,22 +35255,22 @@
         <v>0</v>
       </c>
       <c r="L9" t="n">
-        <v>27.59002526031614</v>
+        <v>0</v>
       </c>
       <c r="M9" t="n">
-        <v>27.59002526031614</v>
+        <v>0</v>
       </c>
       <c r="N9" t="n">
-        <v>26.47527676494983</v>
+        <v>37.98452839772582</v>
       </c>
       <c r="O9" t="n">
-        <v>0</v>
+        <v>39.58387696184059</v>
       </c>
       <c r="P9" t="n">
-        <v>0</v>
+        <v>39.58387696184059</v>
       </c>
       <c r="Q9" t="n">
-        <v>27.59002526031614</v>
+        <v>39.58387696184059</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35337,10 +35337,10 @@
         <v>27.59002526031614</v>
       </c>
       <c r="M10" t="n">
-        <v>27.59002526031614</v>
+        <v>39.58387696184059</v>
       </c>
       <c r="N10" t="n">
-        <v>27.59002526031614</v>
+        <v>39.58387696184059</v>
       </c>
       <c r="O10" t="n">
         <v>24.58512791403967</v>
@@ -35410,22 +35410,22 @@
         <v>0</v>
       </c>
       <c r="K11" t="n">
-        <v>0</v>
+        <v>37.98452839772582</v>
       </c>
       <c r="L11" t="n">
-        <v>0</v>
+        <v>39.58387696184059</v>
       </c>
       <c r="M11" t="n">
-        <v>26.47527676494984</v>
+        <v>39.58387696184059</v>
       </c>
       <c r="N11" t="n">
-        <v>27.59002526031614</v>
+        <v>39.58387696184059</v>
       </c>
       <c r="O11" t="n">
-        <v>27.59002526031614</v>
+        <v>0</v>
       </c>
       <c r="P11" t="n">
-        <v>27.59002526031614</v>
+        <v>0</v>
       </c>
       <c r="Q11" t="n">
         <v>0</v>
@@ -35489,25 +35489,25 @@
         <v>0</v>
       </c>
       <c r="K12" t="n">
-        <v>27.59002526031614</v>
+        <v>0</v>
       </c>
       <c r="L12" t="n">
-        <v>27.59002526031614</v>
+        <v>39.58387696184059</v>
       </c>
       <c r="M12" t="n">
-        <v>26.47527676494983</v>
+        <v>0</v>
       </c>
       <c r="N12" t="n">
-        <v>0</v>
+        <v>37.98452839772582</v>
       </c>
       <c r="O12" t="n">
-        <v>0</v>
+        <v>39.58387696184059</v>
       </c>
       <c r="P12" t="n">
-        <v>0</v>
+        <v>39.58387696184059</v>
       </c>
       <c r="Q12" t="n">
-        <v>27.59002526031614</v>
+        <v>0</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35574,10 +35574,10 @@
         <v>27.59002526031614</v>
       </c>
       <c r="M13" t="n">
-        <v>27.59002526031614</v>
+        <v>39.58387696184059</v>
       </c>
       <c r="N13" t="n">
-        <v>27.59002526031614</v>
+        <v>39.58387696184059</v>
       </c>
       <c r="O13" t="n">
         <v>24.58512791403967</v>
@@ -35647,22 +35647,22 @@
         <v>0</v>
       </c>
       <c r="K14" t="n">
-        <v>0</v>
+        <v>39.58387696184059</v>
       </c>
       <c r="L14" t="n">
-        <v>27.59002526031614</v>
+        <v>0</v>
       </c>
       <c r="M14" t="n">
-        <v>27.59002526031614</v>
+        <v>39.58387696184059</v>
       </c>
       <c r="N14" t="n">
-        <v>26.47527676494983</v>
+        <v>39.58387696184059</v>
       </c>
       <c r="O14" t="n">
-        <v>0</v>
+        <v>37.98452839772582</v>
       </c>
       <c r="P14" t="n">
-        <v>27.59002526031614</v>
+        <v>0</v>
       </c>
       <c r="Q14" t="n">
         <v>0</v>
@@ -35729,19 +35729,19 @@
         <v>0</v>
       </c>
       <c r="L15" t="n">
-        <v>27.59002526031614</v>
+        <v>39.58387696184059</v>
       </c>
       <c r="M15" t="n">
-        <v>0</v>
+        <v>37.98452839772582</v>
       </c>
       <c r="N15" t="n">
-        <v>27.59002526031614</v>
+        <v>0</v>
       </c>
       <c r="O15" t="n">
-        <v>27.59002526031614</v>
+        <v>39.58387696184059</v>
       </c>
       <c r="P15" t="n">
-        <v>26.47527676494983</v>
+        <v>39.58387696184059</v>
       </c>
       <c r="Q15" t="n">
         <v>0</v>
@@ -35811,10 +35811,10 @@
         <v>27.59002526031614</v>
       </c>
       <c r="M16" t="n">
-        <v>27.59002526031614</v>
+        <v>39.58387696184059</v>
       </c>
       <c r="N16" t="n">
-        <v>27.59002526031614</v>
+        <v>39.58387696184059</v>
       </c>
       <c r="O16" t="n">
         <v>24.58512791403967</v>
@@ -35884,19 +35884,19 @@
         <v>0</v>
       </c>
       <c r="K17" t="n">
-        <v>0</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="L17" t="n">
-        <v>39.58387696184059</v>
+        <v>0</v>
       </c>
       <c r="M17" t="n">
-        <v>37.98452839772582</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="N17" t="n">
-        <v>39.58387696184059</v>
+        <v>42.34905430330019</v>
       </c>
       <c r="O17" t="n">
-        <v>39.58387696184059</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="P17" t="n">
         <v>0</v>
@@ -35963,25 +35963,25 @@
         <v>0</v>
       </c>
       <c r="K18" t="n">
-        <v>39.58387696184059</v>
+        <v>0</v>
       </c>
       <c r="L18" t="n">
-        <v>39.58387696184059</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="M18" t="n">
-        <v>37.98452839772582</v>
+        <v>0</v>
       </c>
       <c r="N18" t="n">
-        <v>0</v>
+        <v>42.34905430330018</v>
       </c>
       <c r="O18" t="n">
-        <v>0</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="P18" t="n">
         <v>0</v>
       </c>
       <c r="Q18" t="n">
-        <v>39.58387696184059</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36051,7 +36051,7 @@
         <v>39.58387696184059</v>
       </c>
       <c r="N19" t="n">
-        <v>39.58387696184059</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="O19" t="n">
         <v>24.58512791403967</v>
@@ -36206,19 +36206,19 @@
         <v>232.285965523585</v>
       </c>
       <c r="M21" t="n">
-        <v>99.81127712997396</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="N21" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="O21" t="n">
-        <v>0</v>
+        <v>113.3808631277494</v>
       </c>
       <c r="P21" t="n">
-        <v>184.4883612256069</v>
+        <v>0</v>
       </c>
       <c r="Q21" t="n">
-        <v>70.09551364982758</v>
+        <v>0</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -36440,7 +36440,7 @@
         <v>0</v>
       </c>
       <c r="L24" t="n">
-        <v>232.285965523585</v>
+        <v>0</v>
       </c>
       <c r="M24" t="n">
         <v>241.0142888776591</v>
@@ -36449,13 +36449,13 @@
         <v>241.0142888776591</v>
       </c>
       <c r="O24" t="n">
-        <v>55.51629994036219</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="P24" t="n">
         <v>184.4883612256069</v>
       </c>
       <c r="Q24" t="n">
-        <v>0</v>
+        <v>46.78797658628819</v>
       </c>
       <c r="R24" t="n">
         <v>0</v>
@@ -36677,13 +36677,13 @@
         <v>0</v>
       </c>
       <c r="L27" t="n">
-        <v>232.285965523585</v>
+        <v>0</v>
       </c>
       <c r="M27" t="n">
+        <v>217.7067518141195</v>
+      </c>
+      <c r="N27" t="n">
         <v>241.0142888776591</v>
-      </c>
-      <c r="N27" t="n">
-        <v>55.51629994036225</v>
       </c>
       <c r="O27" t="n">
         <v>241.0142888776591</v>
@@ -36692,7 +36692,7 @@
         <v>184.4883612256069</v>
       </c>
       <c r="Q27" t="n">
-        <v>0</v>
+        <v>70.09551364982758</v>
       </c>
       <c r="R27" t="n">
         <v>0</v>
@@ -36914,22 +36914,22 @@
         <v>126.6237980382196</v>
       </c>
       <c r="L30" t="n">
-        <v>0</v>
+        <v>232.285965523585</v>
       </c>
       <c r="M30" t="n">
-        <v>161.1784674257276</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="N30" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="O30" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="P30" t="n">
-        <v>184.4883612256069</v>
+        <v>43.28534947792182</v>
       </c>
       <c r="Q30" t="n">
-        <v>0</v>
+        <v>70.09551364982758</v>
       </c>
       <c r="R30" t="n">
         <v>0</v>
@@ -37078,7 +37078,7 @@
         <v>219.1673002655598</v>
       </c>
       <c r="N32" t="n">
-        <v>207.9338608153933</v>
+        <v>207.9338608153932</v>
       </c>
       <c r="O32" t="n">
         <v>150.7019698410586</v>
@@ -37151,13 +37151,13 @@
         <v>126.6237980382196</v>
       </c>
       <c r="L33" t="n">
-        <v>161.1784674257276</v>
+        <v>0</v>
       </c>
       <c r="M33" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="N33" t="n">
-        <v>241.0142888776591</v>
+        <v>91.0829537758999</v>
       </c>
       <c r="O33" t="n">
         <v>241.0142888776591</v>
@@ -37166,7 +37166,7 @@
         <v>184.4883612256069</v>
       </c>
       <c r="Q33" t="n">
-        <v>0</v>
+        <v>70.09551364982758</v>
       </c>
       <c r="R33" t="n">
         <v>0</v>
@@ -37318,7 +37318,7 @@
         <v>207.9338608153932</v>
       </c>
       <c r="O35" t="n">
-        <v>150.7019698410587</v>
+        <v>150.7019698410586</v>
       </c>
       <c r="P35" t="n">
         <v>90.5657124162131</v>
@@ -37397,13 +37397,13 @@
         <v>241.0142888776591</v>
       </c>
       <c r="O36" t="n">
-        <v>169.9067907798016</v>
+        <v>99.8112771299739</v>
       </c>
       <c r="P36" t="n">
         <v>184.4883612256069</v>
       </c>
       <c r="Q36" t="n">
-        <v>0</v>
+        <v>70.09551364982758</v>
       </c>
       <c r="R36" t="n">
         <v>0</v>
@@ -37549,7 +37549,7 @@
         <v>181.8947995804632</v>
       </c>
       <c r="M38" t="n">
-        <v>219.1673002655598</v>
+        <v>219.1673002655597</v>
       </c>
       <c r="N38" t="n">
         <v>207.9338608153932</v>
@@ -37622,25 +37622,25 @@
         <v>0</v>
       </c>
       <c r="K39" t="n">
-        <v>0</v>
+        <v>126.6237980382196</v>
       </c>
       <c r="L39" t="n">
-        <v>0</v>
+        <v>232.285965523585</v>
       </c>
       <c r="M39" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="N39" t="n">
-        <v>241.0142888776591</v>
+        <v>99.8112771299739</v>
       </c>
       <c r="O39" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="P39" t="n">
         <v>184.4883612256069</v>
       </c>
       <c r="Q39" t="n">
-        <v>46.78797658628819</v>
+        <v>70.09551364982758</v>
       </c>
       <c r="R39" t="n">
         <v>0</v>
@@ -37780,7 +37780,7 @@
         <v>0</v>
       </c>
       <c r="K41" t="n">
-        <v>56.56475478883492</v>
+        <v>104.0555615261842</v>
       </c>
       <c r="L41" t="n">
         <v>181.8947995804632</v>
@@ -37795,7 +37795,7 @@
         <v>150.7019698410586</v>
       </c>
       <c r="P41" t="n">
-        <v>90.5657124162131</v>
+        <v>72.55630025847472</v>
       </c>
       <c r="Q41" t="n">
         <v>0</v>
@@ -37859,25 +37859,25 @@
         <v>0</v>
       </c>
       <c r="K42" t="n">
-        <v>0</v>
+        <v>126.6237980382196</v>
       </c>
       <c r="L42" t="n">
-        <v>219.767086179119</v>
+        <v>82.17013245293766</v>
       </c>
       <c r="M42" t="n">
-        <v>229.0204371761346</v>
+        <v>236.4659934602711</v>
       </c>
       <c r="N42" t="n">
-        <v>229.0204371761346</v>
+        <v>0</v>
       </c>
       <c r="O42" t="n">
-        <v>229.0204371761346</v>
+        <v>236.4659934602711</v>
       </c>
       <c r="P42" t="n">
-        <v>0</v>
+        <v>184.4883612256069</v>
       </c>
       <c r="Q42" t="n">
-        <v>0</v>
+        <v>70.09551364982758</v>
       </c>
       <c r="R42" t="n">
         <v>0</v>
@@ -38017,22 +38017,22 @@
         <v>0</v>
       </c>
       <c r="K44" t="n">
-        <v>0</v>
+        <v>39.58387696184059</v>
       </c>
       <c r="L44" t="n">
-        <v>0</v>
+        <v>39.58387696184059</v>
       </c>
       <c r="M44" t="n">
-        <v>26.47527676494984</v>
+        <v>39.58387696184059</v>
       </c>
       <c r="N44" t="n">
-        <v>27.59002526031614</v>
+        <v>37.98452839772582</v>
       </c>
       <c r="O44" t="n">
-        <v>27.59002526031614</v>
+        <v>0</v>
       </c>
       <c r="P44" t="n">
-        <v>27.59002526031614</v>
+        <v>0</v>
       </c>
       <c r="Q44" t="n">
         <v>0</v>
@@ -38102,19 +38102,19 @@
         <v>0</v>
       </c>
       <c r="M45" t="n">
-        <v>27.59002526031614</v>
+        <v>39.58387696184059</v>
       </c>
       <c r="N45" t="n">
-        <v>27.59002526031614</v>
+        <v>39.58387696184059</v>
       </c>
       <c r="O45" t="n">
-        <v>27.59002526031614</v>
+        <v>37.98452839772582</v>
       </c>
       <c r="P45" t="n">
-        <v>26.47527676494983</v>
+        <v>0</v>
       </c>
       <c r="Q45" t="n">
-        <v>0</v>
+        <v>39.58387696184059</v>
       </c>
       <c r="R45" t="n">
         <v>0</v>
@@ -38181,10 +38181,10 @@
         <v>27.59002526031614</v>
       </c>
       <c r="M46" t="n">
-        <v>27.59002526031614</v>
+        <v>39.58387696184059</v>
       </c>
       <c r="N46" t="n">
-        <v>27.59002526031614</v>
+        <v>39.58387696184059</v>
       </c>
       <c r="O46" t="n">
         <v>24.58512791403967</v>

--- a/Outputs/1. Budget/Grid Search/Output Files/750000/Output_0_10.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/750000/Output_0_10.xlsx
@@ -480,8 +480,10 @@
           <t>Required Level of Met Demand</t>
         </is>
       </c>
-      <c r="B4" t="n">
-        <v>0</v>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
       </c>
     </row>
     <row r="5">
@@ -501,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>376800.6061809955</v>
+        <v>373609.6494672063</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>2629876.587221766</v>
+        <v>2114249.189782365</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>19997574.02179436</v>
+        <v>19492207.60956401</v>
       </c>
     </row>
     <row r="9">
@@ -541,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>4901378.24669789</v>
+        <v>5116643.000488906</v>
       </c>
     </row>
     <row r="11">
@@ -701,19 +703,19 @@
         <v>0</v>
       </c>
       <c r="Q2" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>39.58387696184059</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="S2" t="n">
-        <v>39.58387696184059</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="T2" t="n">
-        <v>39.58387696184059</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="U2" t="n">
-        <v>24.87477961344436</v>
+        <v>38.87161743162454</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
@@ -747,16 +749,16 @@
         <v>0</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>38.12502610536668</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="J3" t="n">
         <v>0.7465913262578567</v>
@@ -783,16 +785,16 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>39.58387696184059</v>
+        <v>0</v>
       </c>
       <c r="S3" t="n">
-        <v>39.58387696184059</v>
+        <v>0</v>
       </c>
       <c r="T3" t="n">
-        <v>39.58387696184059</v>
+        <v>0</v>
       </c>
       <c r="U3" t="n">
-        <v>34.11888750173132</v>
+        <v>0</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -841,7 +843,7 @@
         <v>0</v>
       </c>
       <c r="K4" t="n">
-        <v>0</v>
+        <v>0.790450447682262</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
@@ -859,16 +861,16 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>39.58387696184059</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="R4" t="n">
-        <v>39.58387696184059</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="S4" t="n">
-        <v>39.58387696184059</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="T4" t="n">
-        <v>9.977552361264268</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
         <v>0</v>
@@ -905,19 +907,19 @@
         <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>0</v>
+        <v>26.92232807701203</v>
       </c>
       <c r="G5" t="n">
-        <v>0</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="J5" t="n">
-        <v>0</v>
+        <v>11.94928935461252</v>
       </c>
       <c r="K5" t="n">
         <v>0</v>
@@ -941,16 +943,16 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>39.58387696184059</v>
+        <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>39.58387696184059</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>39.58387696184059</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>34.86547882798917</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
@@ -975,28 +977,28 @@
         <v>0</v>
       </c>
       <c r="C6" t="n">
-        <v>39.58387696184059</v>
+        <v>0</v>
       </c>
       <c r="D6" t="n">
-        <v>39.58387696184059</v>
+        <v>0</v>
       </c>
       <c r="E6" t="n">
-        <v>34.86547882798917</v>
+        <v>38.12502610536668</v>
       </c>
       <c r="F6" t="n">
-        <v>0</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="G6" t="n">
-        <v>0</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="H6" t="n">
         <v>0</v>
       </c>
       <c r="I6" t="n">
-        <v>39.58387696184059</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="J6" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K6" t="n">
         <v>0</v>
@@ -1069,16 +1071,16 @@
         <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>39.58387696184059</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>39.58387696184059</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>39.58387696184059</v>
+        <v>0</v>
       </c>
       <c r="K7" t="n">
-        <v>9.977552361264268</v>
+        <v>0</v>
       </c>
       <c r="L7" t="n">
         <v>0</v>
@@ -1093,16 +1095,16 @@
         <v>0</v>
       </c>
       <c r="P7" t="n">
-        <v>0</v>
+        <v>0.7904504476822691</v>
       </c>
       <c r="Q7" t="n">
-        <v>0</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="T7" t="n">
         <v>0</v>
@@ -1175,19 +1177,19 @@
         <v>0</v>
       </c>
       <c r="Q8" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R8" t="n">
-        <v>39.58387696184059</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="S8" t="n">
-        <v>39.58387696184059</v>
+        <v>28.88091821707974</v>
       </c>
       <c r="T8" t="n">
-        <v>39.58387696184059</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="U8" t="n">
-        <v>34.86547882798917</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -1221,16 +1223,16 @@
         <v>0</v>
       </c>
       <c r="F9" t="n">
-        <v>39.58387696184059</v>
+        <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>39.58387696184059</v>
+        <v>0</v>
       </c>
       <c r="H9" t="n">
-        <v>39.58387696184059</v>
+        <v>0</v>
       </c>
       <c r="I9" t="n">
-        <v>34.11888750173132</v>
+        <v>0</v>
       </c>
       <c r="J9" t="n">
         <v>0.7465913262578567</v>
@@ -1257,16 +1259,16 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>0</v>
+        <v>38.12502610536668</v>
       </c>
       <c r="S9" t="n">
-        <v>0</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="T9" t="n">
-        <v>0</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="U9" t="n">
-        <v>0</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -1303,19 +1305,19 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>9.977552361264268</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>39.58387696184059</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="I10" t="n">
-        <v>39.58387696184059</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="J10" t="n">
-        <v>39.58387696184059</v>
+        <v>22.653131001028</v>
       </c>
       <c r="K10" t="n">
-        <v>0</v>
+        <v>22.26949182588285</v>
       </c>
       <c r="L10" t="n">
         <v>0</v>
@@ -1379,7 +1381,7 @@
         <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>0</v>
+        <v>38.87161743162454</v>
       </c>
       <c r="G11" t="n">
         <v>0</v>
@@ -1418,22 +1420,22 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>34.86547882798917</v>
+        <v>0</v>
       </c>
       <c r="T11" t="n">
         <v>0</v>
       </c>
       <c r="U11" t="n">
-        <v>0</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="V11" t="n">
-        <v>39.58387696184059</v>
+        <v>0</v>
       </c>
       <c r="W11" t="n">
-        <v>39.58387696184059</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="X11" t="n">
-        <v>39.58387696184059</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="Y11" t="n">
         <v>0</v>
@@ -1467,7 +1469,7 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>0</v>
+        <v>38.87161743162454</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -1497,16 +1499,16 @@
         <v>0</v>
       </c>
       <c r="S12" t="n">
-        <v>34.86547882798917</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="T12" t="n">
-        <v>39.58387696184059</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="U12" t="n">
-        <v>39.58387696184059</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="V12" t="n">
-        <v>39.58387696184059</v>
+        <v>0</v>
       </c>
       <c r="W12" t="n">
         <v>0</v>
@@ -1543,16 +1545,16 @@
         <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>24.5704967621155</v>
+        <v>0.7904504476822691</v>
       </c>
       <c r="I13" t="n">
-        <v>39.58387696184059</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="J13" t="n">
-        <v>39.58387696184059</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="K13" t="n">
-        <v>22.26949182588285</v>
+        <v>0</v>
       </c>
       <c r="L13" t="n">
         <v>0</v>
@@ -1567,10 +1569,10 @@
         <v>0</v>
       </c>
       <c r="P13" t="n">
-        <v>2.721440735106512</v>
+        <v>0</v>
       </c>
       <c r="Q13" t="n">
-        <v>0</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -1616,16 +1618,16 @@
         <v>0</v>
       </c>
       <c r="F14" t="n">
-        <v>0</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="G14" t="n">
-        <v>0</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="H14" t="n">
-        <v>0</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="I14" t="n">
-        <v>0</v>
+        <v>38.87161743162454</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1655,16 +1657,16 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>34.86547882798917</v>
+        <v>0</v>
       </c>
       <c r="T14" t="n">
-        <v>39.58387696184059</v>
+        <v>0</v>
       </c>
       <c r="U14" t="n">
-        <v>39.58387696184059</v>
+        <v>0</v>
       </c>
       <c r="V14" t="n">
-        <v>39.58387696184059</v>
+        <v>0</v>
       </c>
       <c r="W14" t="n">
         <v>0</v>
@@ -1689,19 +1691,19 @@
         <v>0</v>
       </c>
       <c r="D15" t="n">
-        <v>0</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="E15" t="n">
-        <v>0</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="F15" t="n">
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>34.86547882798917</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="H15" t="n">
-        <v>39.58387696184059</v>
+        <v>38.87161743162454</v>
       </c>
       <c r="I15" t="n">
         <v>0</v>
@@ -1731,10 +1733,10 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>39.58387696184059</v>
+        <v>0</v>
       </c>
       <c r="S15" t="n">
-        <v>39.58387696184059</v>
+        <v>0</v>
       </c>
       <c r="T15" t="n">
         <v>0</v>
@@ -1780,16 +1782,16 @@
         <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>39.58387696184059</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>39.58387696184059</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>39.58387696184059</v>
+        <v>0</v>
       </c>
       <c r="K16" t="n">
-        <v>7.256111626157765</v>
+        <v>0</v>
       </c>
       <c r="L16" t="n">
         <v>0</v>
@@ -1807,13 +1809,13 @@
         <v>2.721440735106512</v>
       </c>
       <c r="Q16" t="n">
-        <v>0</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>42.20118209180435</v>
       </c>
       <c r="T16" t="n">
         <v>0</v>
@@ -1853,19 +1855,19 @@
         <v>0</v>
       </c>
       <c r="F17" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="G17" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="H17" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="I17" t="n">
-        <v>0</v>
+        <v>190.3453970742847</v>
       </c>
       <c r="J17" t="n">
-        <v>0</v>
+        <v>11.94928935461252</v>
       </c>
       <c r="K17" t="n">
         <v>0</v>
@@ -1889,16 +1891,16 @@
         <v>9.990699214544804</v>
       </c>
       <c r="R17" t="n">
-        <v>44.13217237922859</v>
+        <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>28.88091821707974</v>
+        <v>0</v>
       </c>
       <c r="T17" t="n">
-        <v>44.13217237922859</v>
+        <v>0</v>
       </c>
       <c r="U17" t="n">
-        <v>44.13217237922859</v>
+        <v>0</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
@@ -1929,16 +1931,16 @@
         <v>0</v>
       </c>
       <c r="E18" t="n">
-        <v>38.87161743162455</v>
+        <v>0</v>
       </c>
       <c r="F18" t="n">
-        <v>44.13217237922859</v>
+        <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>44.13217237922859</v>
+        <v>0</v>
       </c>
       <c r="H18" t="n">
-        <v>44.13217237922859</v>
+        <v>0</v>
       </c>
       <c r="I18" t="n">
         <v>0</v>
@@ -1968,22 +1970,22 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S18" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T18" t="n">
-        <v>0</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U18" t="n">
-        <v>0</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V18" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W18" t="n">
-        <v>0</v>
+        <v>4.580549094716531</v>
       </c>
       <c r="X18" t="n">
         <v>0</v>
@@ -1999,7 +2001,7 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>44.13217237922859</v>
+        <v>0</v>
       </c>
       <c r="C19" t="n">
         <v>0</v>
@@ -2014,10 +2016,10 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>44.13217237922859</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>0.790450447682262</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
         <v>0</v>
@@ -2047,7 +2049,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>44.13217237922859</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
         <v>0</v>
@@ -2056,7 +2058,7 @@
         <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -2093,7 +2095,7 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="H20" t="n">
         <v>0</v>
@@ -2102,7 +2104,7 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>0</v>
+        <v>11.19305615617957</v>
       </c>
       <c r="K20" t="n">
         <v>0</v>
@@ -2126,10 +2128,10 @@
         <v>9.990699214544804</v>
       </c>
       <c r="R20" t="n">
-        <v>149.8691179411497</v>
+        <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>0</v>
+        <v>209.0200695862453</v>
       </c>
       <c r="T20" t="n">
         <v>223.0958495641314</v>
@@ -2141,10 +2143,10 @@
         <v>0</v>
       </c>
       <c r="W20" t="n">
-        <v>70.34400780127524</v>
+        <v>0</v>
       </c>
       <c r="X20" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="Y20" t="n">
         <v>0</v>
@@ -2160,10 +2162,10 @@
         <v>0</v>
       </c>
       <c r="C21" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D21" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E21" t="n">
         <v>0</v>
@@ -2175,7 +2177,7 @@
         <v>0</v>
       </c>
       <c r="H21" t="n">
-        <v>64.67263725582607</v>
+        <v>0</v>
       </c>
       <c r="I21" t="n">
         <v>0</v>
@@ -2205,7 +2207,7 @@
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S21" t="n">
         <v>171.6831711038378</v>
@@ -2226,7 +2228,7 @@
         <v>0</v>
       </c>
       <c r="Y21" t="n">
-        <v>0</v>
+        <v>190.0939048321462</v>
       </c>
     </row>
     <row r="22">
@@ -2278,16 +2280,16 @@
         <v>0</v>
       </c>
       <c r="P22" t="n">
-        <v>2.721440735106512</v>
+        <v>0</v>
       </c>
       <c r="Q22" t="n">
-        <v>86.16204325169439</v>
+        <v>0</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>44.30348359856715</v>
+        <v>133.186967585368</v>
       </c>
       <c r="T22" t="n">
         <v>0</v>
@@ -2324,61 +2326,61 @@
         <v>0</v>
       </c>
       <c r="E23" t="n">
-        <v>212.2853856434421</v>
+        <v>0</v>
       </c>
       <c r="F23" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="G23" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="H23" t="n">
+        <v>0</v>
+      </c>
+      <c r="I23" t="n">
+        <v>0</v>
+      </c>
+      <c r="J23" t="n">
+        <v>0</v>
+      </c>
+      <c r="K23" t="n">
+        <v>0</v>
+      </c>
+      <c r="L23" t="n">
+        <v>0</v>
+      </c>
+      <c r="M23" t="n">
+        <v>0</v>
+      </c>
+      <c r="N23" t="n">
+        <v>0</v>
+      </c>
+      <c r="O23" t="n">
+        <v>0</v>
+      </c>
+      <c r="P23" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q23" t="n">
+        <v>0</v>
+      </c>
+      <c r="R23" t="n">
+        <v>149.8691179411497</v>
+      </c>
+      <c r="S23" t="n">
+        <v>0</v>
+      </c>
+      <c r="T23" t="n">
+        <v>62.4162677022923</v>
+      </c>
+      <c r="U23" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="I23" t="n">
-        <v>0</v>
-      </c>
-      <c r="J23" t="n">
-        <v>0</v>
-      </c>
-      <c r="K23" t="n">
-        <v>0</v>
-      </c>
-      <c r="L23" t="n">
-        <v>0</v>
-      </c>
-      <c r="M23" t="n">
-        <v>0</v>
-      </c>
-      <c r="N23" t="n">
-        <v>0</v>
-      </c>
-      <c r="O23" t="n">
-        <v>0</v>
-      </c>
-      <c r="P23" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q23" t="n">
-        <v>0</v>
-      </c>
-      <c r="R23" t="n">
-        <v>0</v>
-      </c>
-      <c r="S23" t="n">
-        <v>0</v>
-      </c>
-      <c r="T23" t="n">
-        <v>0</v>
-      </c>
-      <c r="U23" t="n">
-        <v>0</v>
-      </c>
       <c r="V23" t="n">
         <v>0</v>
       </c>
       <c r="W23" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="X23" t="n">
         <v>0</v>
@@ -2400,25 +2402,25 @@
         <v>0</v>
       </c>
       <c r="D24" t="n">
-        <v>63.88882306452232</v>
+        <v>0</v>
       </c>
       <c r="E24" t="n">
-        <v>0</v>
+        <v>9.357836733174581</v>
       </c>
       <c r="F24" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G24" t="n">
-        <v>0</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H24" t="n">
-        <v>0</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I24" t="n">
-        <v>0</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J24" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K24" t="n">
         <v>0</v>
@@ -2445,16 +2447,16 @@
         <v>0</v>
       </c>
       <c r="S24" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T24" t="n">
-        <v>0</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U24" t="n">
-        <v>225.9413820809748</v>
+        <v>0</v>
       </c>
       <c r="V24" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W24" t="n">
         <v>241.0142888776591</v>
@@ -2485,43 +2487,43 @@
         <v>0</v>
       </c>
       <c r="F25" t="n">
+        <v>0</v>
+      </c>
+      <c r="G25" t="n">
+        <v>0</v>
+      </c>
+      <c r="H25" t="n">
+        <v>0</v>
+      </c>
+      <c r="I25" t="n">
+        <v>0</v>
+      </c>
+      <c r="J25" t="n">
+        <v>0</v>
+      </c>
+      <c r="K25" t="n">
+        <v>0</v>
+      </c>
+      <c r="L25" t="n">
+        <v>0</v>
+      </c>
+      <c r="M25" t="n">
+        <v>0</v>
+      </c>
+      <c r="N25" t="n">
+        <v>0</v>
+      </c>
+      <c r="O25" t="n">
+        <v>0</v>
+      </c>
+      <c r="P25" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q25" t="n">
+        <v>0</v>
+      </c>
+      <c r="R25" t="n">
         <v>133.186967585368</v>
-      </c>
-      <c r="G25" t="n">
-        <v>0</v>
-      </c>
-      <c r="H25" t="n">
-        <v>0</v>
-      </c>
-      <c r="I25" t="n">
-        <v>0</v>
-      </c>
-      <c r="J25" t="n">
-        <v>0</v>
-      </c>
-      <c r="K25" t="n">
-        <v>0</v>
-      </c>
-      <c r="L25" t="n">
-        <v>0</v>
-      </c>
-      <c r="M25" t="n">
-        <v>0</v>
-      </c>
-      <c r="N25" t="n">
-        <v>0</v>
-      </c>
-      <c r="O25" t="n">
-        <v>0</v>
-      </c>
-      <c r="P25" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q25" t="n">
-        <v>0</v>
-      </c>
-      <c r="R25" t="n">
-        <v>0</v>
       </c>
       <c r="S25" t="n">
         <v>0</v>
@@ -2558,7 +2560,7 @@
         <v>0</v>
       </c>
       <c r="D26" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="E26" t="n">
         <v>0</v>
@@ -2567,10 +2569,10 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>1.809496073036188</v>
+        <v>0</v>
       </c>
       <c r="H26" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="I26" t="n">
         <v>210.4758895704059</v>
@@ -2603,7 +2605,7 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>0</v>
+        <v>209.0200695862453</v>
       </c>
       <c r="T26" t="n">
         <v>0</v>
@@ -2612,16 +2614,16 @@
         <v>0</v>
       </c>
       <c r="V26" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="W26" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="X26" t="n">
         <v>0</v>
       </c>
       <c r="Y26" t="n">
-        <v>241.0142888776591</v>
+        <v>33.80371536444981</v>
       </c>
     </row>
     <row r="27">
@@ -2631,7 +2633,7 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C27" t="n">
         <v>0</v>
@@ -2646,7 +2648,7 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>50.05769526855308</v>
+        <v>0</v>
       </c>
       <c r="H27" t="n">
         <v>0</v>
@@ -2691,7 +2693,7 @@
         <v>0</v>
       </c>
       <c r="V27" t="n">
-        <v>232.8005871494253</v>
+        <v>116.325098768111</v>
       </c>
       <c r="W27" t="n">
         <v>241.0142888776591</v>
@@ -2773,10 +2775,10 @@
         <v>0</v>
       </c>
       <c r="W28" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="X28" t="n">
-        <v>133.186967585368</v>
+        <v>0</v>
       </c>
       <c r="Y28" t="n">
         <v>0</v>
@@ -2789,73 +2791,73 @@
         </is>
       </c>
       <c r="B29" t="n">
+        <v>0</v>
+      </c>
+      <c r="C29" t="n">
+        <v>0</v>
+      </c>
+      <c r="D29" t="n">
+        <v>230.2038249569697</v>
+      </c>
+      <c r="E29" t="n">
+        <v>0</v>
+      </c>
+      <c r="F29" t="n">
+        <v>0</v>
+      </c>
+      <c r="G29" t="n">
+        <v>0</v>
+      </c>
+      <c r="H29" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="C29" t="n">
-        <v>0</v>
-      </c>
-      <c r="D29" t="n">
+      <c r="I29" t="n">
+        <v>0</v>
+      </c>
+      <c r="J29" t="n">
+        <v>0</v>
+      </c>
+      <c r="K29" t="n">
+        <v>0</v>
+      </c>
+      <c r="L29" t="n">
+        <v>0</v>
+      </c>
+      <c r="M29" t="n">
+        <v>0</v>
+      </c>
+      <c r="N29" t="n">
+        <v>0</v>
+      </c>
+      <c r="O29" t="n">
+        <v>0</v>
+      </c>
+      <c r="P29" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q29" t="n">
+        <v>0</v>
+      </c>
+      <c r="R29" t="n">
+        <v>0</v>
+      </c>
+      <c r="S29" t="n">
+        <v>0</v>
+      </c>
+      <c r="T29" t="n">
+        <v>223.0958495641314</v>
+      </c>
+      <c r="U29" t="n">
+        <v>0</v>
+      </c>
+      <c r="V29" t="n">
+        <v>0</v>
+      </c>
+      <c r="W29" t="n">
+        <v>0</v>
+      </c>
+      <c r="X29" t="n">
         <v>241.0142888776591</v>
-      </c>
-      <c r="E29" t="n">
-        <v>241.0142888776591</v>
-      </c>
-      <c r="F29" t="n">
-        <v>212.2853856434421</v>
-      </c>
-      <c r="G29" t="n">
-        <v>0</v>
-      </c>
-      <c r="H29" t="n">
-        <v>0</v>
-      </c>
-      <c r="I29" t="n">
-        <v>0</v>
-      </c>
-      <c r="J29" t="n">
-        <v>0</v>
-      </c>
-      <c r="K29" t="n">
-        <v>0</v>
-      </c>
-      <c r="L29" t="n">
-        <v>0</v>
-      </c>
-      <c r="M29" t="n">
-        <v>0</v>
-      </c>
-      <c r="N29" t="n">
-        <v>0</v>
-      </c>
-      <c r="O29" t="n">
-        <v>0</v>
-      </c>
-      <c r="P29" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q29" t="n">
-        <v>0</v>
-      </c>
-      <c r="R29" t="n">
-        <v>0</v>
-      </c>
-      <c r="S29" t="n">
-        <v>0</v>
-      </c>
-      <c r="T29" t="n">
-        <v>0</v>
-      </c>
-      <c r="U29" t="n">
-        <v>0</v>
-      </c>
-      <c r="V29" t="n">
-        <v>0</v>
-      </c>
-      <c r="W29" t="n">
-        <v>0</v>
-      </c>
-      <c r="X29" t="n">
-        <v>0</v>
       </c>
       <c r="Y29" t="n">
         <v>0</v>
@@ -2868,31 +2870,31 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C30" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D30" t="n">
         <v>0</v>
       </c>
       <c r="E30" t="n">
-        <v>98.22847700514947</v>
+        <v>0</v>
       </c>
       <c r="F30" t="n">
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>137.3435171632106</v>
+        <v>0</v>
       </c>
       <c r="H30" t="n">
-        <v>0</v>
+        <v>94.4876644797814</v>
       </c>
       <c r="I30" t="n">
-        <v>0</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J30" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K30" t="n">
         <v>0</v>
@@ -2925,19 +2927,19 @@
         <v>0</v>
       </c>
       <c r="U30" t="n">
-        <v>225.9413820809748</v>
+        <v>0</v>
       </c>
       <c r="V30" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W30" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="X30" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y30" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="31">
@@ -2968,7 +2970,7 @@
         <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -3007,7 +3009,7 @@
         <v>0</v>
       </c>
       <c r="V31" t="n">
-        <v>133.186967585368</v>
+        <v>0</v>
       </c>
       <c r="W31" t="n">
         <v>0</v>
@@ -3026,7 +3028,7 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="C32" t="n">
         <v>0</v>
@@ -3035,67 +3037,67 @@
         <v>0</v>
       </c>
       <c r="E32" t="n">
+        <v>0</v>
+      </c>
+      <c r="F32" t="n">
+        <v>0</v>
+      </c>
+      <c r="G32" t="n">
+        <v>0</v>
+      </c>
+      <c r="H32" t="n">
+        <v>0</v>
+      </c>
+      <c r="I32" t="n">
+        <v>0</v>
+      </c>
+      <c r="J32" t="n">
+        <v>0</v>
+      </c>
+      <c r="K32" t="n">
+        <v>0</v>
+      </c>
+      <c r="L32" t="n">
+        <v>0</v>
+      </c>
+      <c r="M32" t="n">
+        <v>0</v>
+      </c>
+      <c r="N32" t="n">
+        <v>0</v>
+      </c>
+      <c r="O32" t="n">
+        <v>0</v>
+      </c>
+      <c r="P32" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q32" t="n">
+        <v>0</v>
+      </c>
+      <c r="R32" t="n">
+        <v>0</v>
+      </c>
+      <c r="S32" t="n">
+        <v>0</v>
+      </c>
+      <c r="T32" t="n">
+        <v>0</v>
+      </c>
+      <c r="U32" t="n">
+        <v>0</v>
+      </c>
+      <c r="V32" t="n">
+        <v>0</v>
+      </c>
+      <c r="W32" t="n">
+        <v>212.285385643442</v>
+      </c>
+      <c r="X32" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="F32" t="n">
+      <c r="Y32" t="n">
         <v>241.0142888776591</v>
-      </c>
-      <c r="G32" t="n">
-        <v>0</v>
-      </c>
-      <c r="H32" t="n">
-        <v>0</v>
-      </c>
-      <c r="I32" t="n">
-        <v>0</v>
-      </c>
-      <c r="J32" t="n">
-        <v>0</v>
-      </c>
-      <c r="K32" t="n">
-        <v>0</v>
-      </c>
-      <c r="L32" t="n">
-        <v>0</v>
-      </c>
-      <c r="M32" t="n">
-        <v>0</v>
-      </c>
-      <c r="N32" t="n">
-        <v>0</v>
-      </c>
-      <c r="O32" t="n">
-        <v>0</v>
-      </c>
-      <c r="P32" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q32" t="n">
-        <v>9.990699214544804</v>
-      </c>
-      <c r="R32" t="n">
-        <v>149.8691179411497</v>
-      </c>
-      <c r="S32" t="n">
-        <v>209.0200695862453</v>
-      </c>
-      <c r="T32" t="n">
-        <v>84.41978777916125</v>
-      </c>
-      <c r="U32" t="n">
-        <v>0</v>
-      </c>
-      <c r="V32" t="n">
-        <v>0</v>
-      </c>
-      <c r="W32" t="n">
-        <v>0</v>
-      </c>
-      <c r="X32" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y32" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="33">
@@ -3105,7 +3107,7 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C33" t="n">
         <v>0</v>
@@ -3117,10 +3119,10 @@
         <v>0</v>
       </c>
       <c r="F33" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>137.3435171632106</v>
+        <v>0</v>
       </c>
       <c r="H33" t="n">
         <v>0</v>
@@ -3153,25 +3155,25 @@
         <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>39.59506498882089</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S33" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T33" t="n">
-        <v>0</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U33" t="n">
-        <v>0</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V33" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W33" t="n">
-        <v>241.0142888776591</v>
+        <v>4.580549094716531</v>
       </c>
       <c r="X33" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y33" t="n">
         <v>0</v>
@@ -3187,7 +3189,7 @@
         <v>0</v>
       </c>
       <c r="C34" t="n">
-        <v>47.02492433367365</v>
+        <v>0</v>
       </c>
       <c r="D34" t="n">
         <v>0</v>
@@ -3229,7 +3231,7 @@
         <v>0</v>
       </c>
       <c r="Q34" t="n">
-        <v>86.16204325169439</v>
+        <v>0</v>
       </c>
       <c r="R34" t="n">
         <v>0</v>
@@ -3250,7 +3252,7 @@
         <v>0</v>
       </c>
       <c r="X34" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="Y34" t="n">
         <v>0</v>
@@ -3266,70 +3268,70 @@
         <v>241.0142888776591</v>
       </c>
       <c r="C35" t="n">
+        <v>0</v>
+      </c>
+      <c r="D35" t="n">
+        <v>0</v>
+      </c>
+      <c r="E35" t="n">
+        <v>0</v>
+      </c>
+      <c r="F35" t="n">
+        <v>0</v>
+      </c>
+      <c r="G35" t="n">
+        <v>0</v>
+      </c>
+      <c r="H35" t="n">
+        <v>0</v>
+      </c>
+      <c r="I35" t="n">
+        <v>0</v>
+      </c>
+      <c r="J35" t="n">
+        <v>0</v>
+      </c>
+      <c r="K35" t="n">
+        <v>0</v>
+      </c>
+      <c r="L35" t="n">
+        <v>0</v>
+      </c>
+      <c r="M35" t="n">
+        <v>0</v>
+      </c>
+      <c r="N35" t="n">
+        <v>0</v>
+      </c>
+      <c r="O35" t="n">
+        <v>0</v>
+      </c>
+      <c r="P35" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q35" t="n">
+        <v>0</v>
+      </c>
+      <c r="R35" t="n">
+        <v>149.8691179411497</v>
+      </c>
+      <c r="S35" t="n">
+        <v>0</v>
+      </c>
+      <c r="T35" t="n">
+        <v>223.0958495641314</v>
+      </c>
+      <c r="U35" t="n">
+        <v>0</v>
+      </c>
+      <c r="V35" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="D35" t="n">
-        <v>241.0142888776591</v>
-      </c>
-      <c r="E35" t="n">
-        <v>212.2853856434421</v>
-      </c>
-      <c r="F35" t="n">
-        <v>0</v>
-      </c>
-      <c r="G35" t="n">
-        <v>0</v>
-      </c>
-      <c r="H35" t="n">
-        <v>0</v>
-      </c>
-      <c r="I35" t="n">
-        <v>0</v>
-      </c>
-      <c r="J35" t="n">
-        <v>0</v>
-      </c>
-      <c r="K35" t="n">
-        <v>0</v>
-      </c>
-      <c r="L35" t="n">
-        <v>0</v>
-      </c>
-      <c r="M35" t="n">
-        <v>0</v>
-      </c>
-      <c r="N35" t="n">
-        <v>0</v>
-      </c>
-      <c r="O35" t="n">
-        <v>0</v>
-      </c>
-      <c r="P35" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q35" t="n">
-        <v>0</v>
-      </c>
-      <c r="R35" t="n">
-        <v>0</v>
-      </c>
-      <c r="S35" t="n">
-        <v>0</v>
-      </c>
-      <c r="T35" t="n">
-        <v>0</v>
-      </c>
-      <c r="U35" t="n">
-        <v>0</v>
-      </c>
-      <c r="V35" t="n">
-        <v>0</v>
-      </c>
       <c r="W35" t="n">
         <v>0</v>
       </c>
       <c r="X35" t="n">
-        <v>0</v>
+        <v>80.33470701582003</v>
       </c>
       <c r="Y35" t="n">
         <v>0</v>
@@ -3342,19 +3344,19 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>117.8074216906837</v>
+        <v>0</v>
       </c>
       <c r="C36" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D36" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E36" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F36" t="n">
-        <v>0</v>
+        <v>136.8640974686391</v>
       </c>
       <c r="G36" t="n">
         <v>137.3435171632106</v>
@@ -3399,10 +3401,10 @@
         <v>0</v>
       </c>
       <c r="U36" t="n">
-        <v>0</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V36" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W36" t="n">
         <v>0</v>
@@ -3512,7 +3514,7 @@
         <v>0</v>
       </c>
       <c r="F38" t="n">
-        <v>1.809496073036132</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="G38" t="n">
         <v>241.0142888776591</v>
@@ -3521,7 +3523,7 @@
         <v>241.0142888776591</v>
       </c>
       <c r="I38" t="n">
-        <v>210.4758895704059</v>
+        <v>0</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -3560,7 +3562,7 @@
         <v>0</v>
       </c>
       <c r="V38" t="n">
-        <v>241.0142888776591</v>
+        <v>212.285385643442</v>
       </c>
       <c r="W38" t="n">
         <v>0</v>
@@ -3579,19 +3581,19 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>0</v>
+        <v>112.2956661798583</v>
       </c>
       <c r="C39" t="n">
         <v>172.7084989883157</v>
       </c>
       <c r="D39" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E39" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F39" t="n">
-        <v>103.7130553628818</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G39" t="n">
         <v>0</v>
@@ -3636,10 +3638,10 @@
         <v>200.1647286948216</v>
       </c>
       <c r="U39" t="n">
-        <v>225.9413820809748</v>
+        <v>0</v>
       </c>
       <c r="V39" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W39" t="n">
         <v>0</v>
@@ -3706,13 +3708,13 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="S40" t="n">
         <v>0</v>
       </c>
       <c r="T40" t="n">
-        <v>133.186967585368</v>
+        <v>0</v>
       </c>
       <c r="U40" t="n">
         <v>0</v>
@@ -3749,7 +3751,7 @@
         <v>0</v>
       </c>
       <c r="F41" t="n">
-        <v>236.4659934602711</v>
+        <v>0</v>
       </c>
       <c r="G41" t="n">
         <v>0</v>
@@ -3761,7 +3763,7 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>0</v>
+        <v>11.94928935461252</v>
       </c>
       <c r="K41" t="n">
         <v>0</v>
@@ -3788,22 +3790,22 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>0</v>
+        <v>209.0200695862453</v>
       </c>
       <c r="T41" t="n">
-        <v>208.2792470398066</v>
+        <v>223.0958495641314</v>
       </c>
       <c r="U41" t="n">
-        <v>0</v>
+        <v>9.234466016111892</v>
       </c>
       <c r="V41" t="n">
         <v>0</v>
       </c>
       <c r="W41" t="n">
-        <v>236.4659934602711</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="X41" t="n">
-        <v>236.4659934602711</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="Y41" t="n">
         <v>0</v>
@@ -3816,7 +3818,7 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>135.8063526056644</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C42" t="n">
         <v>0</v>
@@ -3831,7 +3833,7 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>137.3435171632106</v>
+        <v>0</v>
       </c>
       <c r="H42" t="n">
         <v>112.2354442364965</v>
@@ -3879,10 +3881,10 @@
         <v>0</v>
       </c>
       <c r="W42" t="n">
-        <v>236.4659934602711</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="X42" t="n">
-        <v>0</v>
+        <v>119.7194155574191</v>
       </c>
       <c r="Y42" t="n">
         <v>205.6826957773044</v>
@@ -3974,7 +3976,7 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>39.58387696184059</v>
+        <v>0</v>
       </c>
       <c r="C44" t="n">
         <v>0</v>
@@ -4019,31 +4021,31 @@
         <v>0</v>
       </c>
       <c r="Q44" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R44" t="n">
-        <v>34.86547882798917</v>
+        <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>0</v>
+        <v>209.0200695862453</v>
       </c>
       <c r="T44" t="n">
-        <v>0</v>
+        <v>223.0958495641314</v>
       </c>
       <c r="U44" t="n">
-        <v>39.58387696184059</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="V44" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="W44" t="n">
         <v>0</v>
       </c>
       <c r="X44" t="n">
-        <v>0</v>
+        <v>11.19305615617957</v>
       </c>
       <c r="Y44" t="n">
-        <v>39.58387696184059</v>
+        <v>0</v>
       </c>
     </row>
     <row r="45">
@@ -4053,10 +4055,10 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>34.86547882798917</v>
+        <v>0</v>
       </c>
       <c r="C45" t="n">
-        <v>39.58387696184059</v>
+        <v>50.05769526855308</v>
       </c>
       <c r="D45" t="n">
         <v>0</v>
@@ -4113,16 +4115,16 @@
         <v>0</v>
       </c>
       <c r="V45" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W45" t="n">
-        <v>39.58387696184059</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="X45" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y45" t="n">
-        <v>39.58387696184059</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="46">
@@ -4132,10 +4134,10 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>7.256111626157765</v>
+        <v>0</v>
       </c>
       <c r="C46" t="n">
-        <v>39.58387696184059</v>
+        <v>0</v>
       </c>
       <c r="D46" t="n">
         <v>0</v>
@@ -4147,7 +4149,7 @@
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="H46" t="n">
         <v>0</v>
@@ -4174,7 +4176,7 @@
         <v>0</v>
       </c>
       <c r="P46" t="n">
-        <v>2.721440735106512</v>
+        <v>0</v>
       </c>
       <c r="Q46" t="n">
         <v>0</v>
@@ -4198,10 +4200,10 @@
         <v>0</v>
       </c>
       <c r="X46" t="n">
-        <v>39.58387696184059</v>
+        <v>0</v>
       </c>
       <c r="Y46" t="n">
-        <v>39.58387696184059</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -4304,76 +4306,76 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>3.166710156947247</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="C2" t="n">
-        <v>3.166710156947247</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="D2" t="n">
-        <v>3.166710156947247</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="E2" t="n">
-        <v>3.166710156947247</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="F2" t="n">
-        <v>3.166710156947247</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="G2" t="n">
-        <v>3.166710156947247</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="H2" t="n">
-        <v>3.166710156947247</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="I2" t="n">
-        <v>3.166710156947247</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="J2" t="n">
-        <v>3.166710156947247</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="K2" t="n">
-        <v>42.35474834916943</v>
+        <v>47.22142444577459</v>
       </c>
       <c r="L2" t="n">
-        <v>79.95943146291799</v>
+        <v>90.91227510121089</v>
       </c>
       <c r="M2" t="n">
-        <v>79.95943146291799</v>
+        <v>132.8378388614781</v>
       </c>
       <c r="N2" t="n">
-        <v>79.95943146291799</v>
+        <v>132.8378388614781</v>
       </c>
       <c r="O2" t="n">
-        <v>119.1474696551402</v>
+        <v>132.8378388614781</v>
       </c>
       <c r="P2" t="n">
-        <v>158.3355078473624</v>
+        <v>176.5286895169144</v>
       </c>
       <c r="Q2" t="n">
-        <v>148.2438924791353</v>
+        <v>176.5286895169144</v>
       </c>
       <c r="R2" t="n">
-        <v>108.260178376266</v>
+        <v>131.9507376187037</v>
       </c>
       <c r="S2" t="n">
-        <v>68.2764642733967</v>
+        <v>87.37278572049297</v>
       </c>
       <c r="T2" t="n">
-        <v>28.29275017052741</v>
+        <v>42.79483382228227</v>
       </c>
       <c r="U2" t="n">
-        <v>3.166710156947247</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="V2" t="n">
-        <v>3.166710156947247</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="W2" t="n">
-        <v>3.166710156947247</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="X2" t="n">
-        <v>3.166710156947247</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="Y2" t="n">
-        <v>3.166710156947247</v>
+        <v>3.530573790338288</v>
       </c>
     </row>
     <row r="3">
@@ -4383,76 +4385,76 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>3.920842809732961</v>
+        <v>176.5286895169144</v>
       </c>
       <c r="C3" t="n">
-        <v>3.920842809732961</v>
+        <v>176.5286895169144</v>
       </c>
       <c r="D3" t="n">
-        <v>3.920842809732961</v>
+        <v>176.5286895169144</v>
       </c>
       <c r="E3" t="n">
-        <v>3.920842809732961</v>
+        <v>176.5286895169144</v>
       </c>
       <c r="F3" t="n">
-        <v>3.920842809732961</v>
+        <v>138.0185621377561</v>
       </c>
       <c r="G3" t="n">
-        <v>3.920842809732961</v>
+        <v>93.44061023954541</v>
       </c>
       <c r="H3" t="n">
-        <v>3.920842809732961</v>
+        <v>48.8626583413347</v>
       </c>
       <c r="I3" t="n">
-        <v>3.920842809732961</v>
+        <v>4.284706443124001</v>
       </c>
       <c r="J3" t="n">
-        <v>3.166710156947247</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="K3" t="n">
-        <v>42.35474834916943</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="L3" t="n">
-        <v>81.54278654139161</v>
+        <v>45.45613755060546</v>
       </c>
       <c r="M3" t="n">
-        <v>120.7308247336138</v>
+        <v>89.14698820604177</v>
       </c>
       <c r="N3" t="n">
-        <v>158.3355078473624</v>
+        <v>132.8378388614781</v>
       </c>
       <c r="O3" t="n">
-        <v>158.3355078473624</v>
+        <v>132.8378388614781</v>
       </c>
       <c r="P3" t="n">
-        <v>158.3355078473624</v>
+        <v>132.8378388614781</v>
       </c>
       <c r="Q3" t="n">
-        <v>158.3355078473624</v>
+        <v>176.5286895169144</v>
       </c>
       <c r="R3" t="n">
-        <v>118.3517937444931</v>
+        <v>176.5286895169144</v>
       </c>
       <c r="S3" t="n">
-        <v>78.36807964162378</v>
+        <v>176.5286895169144</v>
       </c>
       <c r="T3" t="n">
-        <v>38.38436553875449</v>
+        <v>176.5286895169144</v>
       </c>
       <c r="U3" t="n">
-        <v>3.920842809732961</v>
+        <v>176.5286895169144</v>
       </c>
       <c r="V3" t="n">
-        <v>3.920842809732961</v>
+        <v>176.5286895169144</v>
       </c>
       <c r="W3" t="n">
-        <v>3.920842809732961</v>
+        <v>176.5286895169144</v>
       </c>
       <c r="X3" t="n">
-        <v>3.920842809732961</v>
+        <v>176.5286895169144</v>
       </c>
       <c r="Y3" t="n">
-        <v>3.920842809732961</v>
+        <v>176.5286895169144</v>
       </c>
     </row>
     <row r="4">
@@ -4462,76 +4464,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>3.166710156947247</v>
+        <v>4.329008585976936</v>
       </c>
       <c r="C4" t="n">
-        <v>3.166710156947247</v>
+        <v>4.329008585976936</v>
       </c>
       <c r="D4" t="n">
-        <v>3.166710156947247</v>
+        <v>4.329008585976936</v>
       </c>
       <c r="E4" t="n">
-        <v>3.166710156947247</v>
+        <v>4.329008585976936</v>
       </c>
       <c r="F4" t="n">
-        <v>3.166710156947247</v>
+        <v>4.329008585976936</v>
       </c>
       <c r="G4" t="n">
-        <v>3.166710156947247</v>
+        <v>4.329008585976936</v>
       </c>
       <c r="H4" t="n">
-        <v>3.166710156947247</v>
+        <v>4.329008585976936</v>
       </c>
       <c r="I4" t="n">
-        <v>3.166710156947247</v>
+        <v>4.329008585976936</v>
       </c>
       <c r="J4" t="n">
-        <v>3.166710156947247</v>
+        <v>4.329008585976936</v>
       </c>
       <c r="K4" t="n">
-        <v>3.166710156947247</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="L4" t="n">
-        <v>30.48083516466022</v>
+        <v>30.84469879805127</v>
       </c>
       <c r="M4" t="n">
-        <v>69.6688733568824</v>
+        <v>70.03273699027345</v>
       </c>
       <c r="N4" t="n">
-        <v>108.8569115491046</v>
+        <v>113.7235876457098</v>
       </c>
       <c r="O4" t="n">
-        <v>133.1961881840039</v>
+        <v>138.062864280609</v>
       </c>
       <c r="P4" t="n">
-        <v>133.1961881840039</v>
+        <v>138.062864280609</v>
       </c>
       <c r="Q4" t="n">
-        <v>93.21247408113457</v>
+        <v>93.48491238239833</v>
       </c>
       <c r="R4" t="n">
-        <v>53.22875997826529</v>
+        <v>48.90696048418764</v>
       </c>
       <c r="S4" t="n">
-        <v>13.245045875396</v>
+        <v>4.329008585976936</v>
       </c>
       <c r="T4" t="n">
-        <v>3.166710156947247</v>
+        <v>4.329008585976936</v>
       </c>
       <c r="U4" t="n">
-        <v>3.166710156947247</v>
+        <v>4.329008585976936</v>
       </c>
       <c r="V4" t="n">
-        <v>3.166710156947247</v>
+        <v>4.329008585976936</v>
       </c>
       <c r="W4" t="n">
-        <v>3.166710156947247</v>
+        <v>4.329008585976936</v>
       </c>
       <c r="X4" t="n">
-        <v>3.166710156947247</v>
+        <v>4.329008585976936</v>
       </c>
       <c r="Y4" t="n">
-        <v>3.166710156947247</v>
+        <v>4.329008585976936</v>
       </c>
     </row>
     <row r="5">
@@ -4541,76 +4543,76 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>3.166710156947247</v>
+        <v>176.5286895169144</v>
       </c>
       <c r="C5" t="n">
-        <v>3.166710156947247</v>
+        <v>176.5286895169144</v>
       </c>
       <c r="D5" t="n">
-        <v>3.166710156947247</v>
+        <v>176.5286895169144</v>
       </c>
       <c r="E5" t="n">
-        <v>3.166710156947247</v>
+        <v>176.5286895169144</v>
       </c>
       <c r="F5" t="n">
-        <v>3.166710156947247</v>
+        <v>149.3344187320537</v>
       </c>
       <c r="G5" t="n">
-        <v>3.166710156947247</v>
+        <v>104.756466833843</v>
       </c>
       <c r="H5" t="n">
-        <v>3.166710156947247</v>
+        <v>60.17851493563234</v>
       </c>
       <c r="I5" t="n">
-        <v>3.166710156947247</v>
+        <v>15.60056303742164</v>
       </c>
       <c r="J5" t="n">
-        <v>3.166710156947247</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="K5" t="n">
-        <v>42.35474834916943</v>
+        <v>47.22142444577459</v>
       </c>
       <c r="L5" t="n">
-        <v>81.54278654139161</v>
+        <v>90.91227510121089</v>
       </c>
       <c r="M5" t="n">
-        <v>119.1474696551402</v>
+        <v>132.8378388614781</v>
       </c>
       <c r="N5" t="n">
-        <v>119.1474696551402</v>
+        <v>132.8378388614781</v>
       </c>
       <c r="O5" t="n">
-        <v>119.1474696551402</v>
+        <v>132.8378388614781</v>
       </c>
       <c r="P5" t="n">
-        <v>158.3355078473624</v>
+        <v>176.5286895169144</v>
       </c>
       <c r="Q5" t="n">
-        <v>158.3355078473624</v>
+        <v>176.5286895169144</v>
       </c>
       <c r="R5" t="n">
-        <v>118.3517937444931</v>
+        <v>176.5286895169144</v>
       </c>
       <c r="S5" t="n">
-        <v>78.36807964162378</v>
+        <v>176.5286895169144</v>
       </c>
       <c r="T5" t="n">
-        <v>38.38436553875449</v>
+        <v>176.5286895169144</v>
       </c>
       <c r="U5" t="n">
-        <v>3.166710156947247</v>
+        <v>176.5286895169144</v>
       </c>
       <c r="V5" t="n">
-        <v>3.166710156947247</v>
+        <v>176.5286895169144</v>
       </c>
       <c r="W5" t="n">
-        <v>3.166710156947247</v>
+        <v>176.5286895169144</v>
       </c>
       <c r="X5" t="n">
-        <v>3.166710156947247</v>
+        <v>176.5286895169144</v>
       </c>
       <c r="Y5" t="n">
-        <v>3.166710156947247</v>
+        <v>176.5286895169144</v>
       </c>
     </row>
     <row r="6">
@@ -4620,76 +4622,76 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>158.3355078473624</v>
+        <v>176.5286895169144</v>
       </c>
       <c r="C6" t="n">
-        <v>118.3517937444931</v>
+        <v>176.5286895169144</v>
       </c>
       <c r="D6" t="n">
-        <v>78.36807964162378</v>
+        <v>176.5286895169144</v>
       </c>
       <c r="E6" t="n">
-        <v>43.15042425981653</v>
+        <v>138.0185621377561</v>
       </c>
       <c r="F6" t="n">
-        <v>43.15042425981653</v>
+        <v>93.44061023954541</v>
       </c>
       <c r="G6" t="n">
-        <v>43.15042425981653</v>
+        <v>48.8626583413347</v>
       </c>
       <c r="H6" t="n">
-        <v>43.15042425981653</v>
+        <v>48.8626583413347</v>
       </c>
       <c r="I6" t="n">
-        <v>3.166710156947247</v>
+        <v>4.284706443124001</v>
       </c>
       <c r="J6" t="n">
-        <v>3.166710156947247</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="K6" t="n">
-        <v>42.35474834916943</v>
+        <v>47.22142444577459</v>
       </c>
       <c r="L6" t="n">
-        <v>81.54278654139161</v>
+        <v>47.22142444577459</v>
       </c>
       <c r="M6" t="n">
-        <v>120.7308247336138</v>
+        <v>90.91227510121089</v>
       </c>
       <c r="N6" t="n">
-        <v>158.3355078473624</v>
+        <v>132.8378388614781</v>
       </c>
       <c r="O6" t="n">
-        <v>158.3355078473624</v>
+        <v>132.8378388614781</v>
       </c>
       <c r="P6" t="n">
-        <v>158.3355078473624</v>
+        <v>132.8378388614781</v>
       </c>
       <c r="Q6" t="n">
-        <v>158.3355078473624</v>
+        <v>176.5286895169144</v>
       </c>
       <c r="R6" t="n">
-        <v>158.3355078473624</v>
+        <v>176.5286895169144</v>
       </c>
       <c r="S6" t="n">
-        <v>158.3355078473624</v>
+        <v>176.5286895169144</v>
       </c>
       <c r="T6" t="n">
-        <v>158.3355078473624</v>
+        <v>176.5286895169144</v>
       </c>
       <c r="U6" t="n">
-        <v>158.3355078473624</v>
+        <v>176.5286895169144</v>
       </c>
       <c r="V6" t="n">
-        <v>158.3355078473624</v>
+        <v>176.5286895169144</v>
       </c>
       <c r="W6" t="n">
-        <v>158.3355078473624</v>
+        <v>176.5286895169144</v>
       </c>
       <c r="X6" t="n">
-        <v>158.3355078473624</v>
+        <v>176.5286895169144</v>
       </c>
       <c r="Y6" t="n">
-        <v>158.3355078473624</v>
+        <v>176.5286895169144</v>
       </c>
     </row>
     <row r="7">
@@ -4699,76 +4701,76 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>133.1961881840039</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="C7" t="n">
-        <v>133.1961881840039</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="D7" t="n">
-        <v>133.1961881840039</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="E7" t="n">
-        <v>133.1961881840039</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="F7" t="n">
-        <v>133.1961881840039</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="G7" t="n">
-        <v>133.1961881840039</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="H7" t="n">
-        <v>93.21247408113457</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="I7" t="n">
-        <v>53.22875997826529</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="J7" t="n">
-        <v>13.245045875396</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="K7" t="n">
-        <v>3.166710156947247</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="L7" t="n">
-        <v>30.48083516466022</v>
+        <v>30.84469879805127</v>
       </c>
       <c r="M7" t="n">
-        <v>69.6688733568824</v>
+        <v>70.03273699027345</v>
       </c>
       <c r="N7" t="n">
-        <v>108.8569115491046</v>
+        <v>113.7235876457098</v>
       </c>
       <c r="O7" t="n">
-        <v>133.1961881840039</v>
+        <v>138.062864280609</v>
       </c>
       <c r="P7" t="n">
-        <v>133.1961881840039</v>
+        <v>137.2644294849704</v>
       </c>
       <c r="Q7" t="n">
-        <v>133.1961881840039</v>
+        <v>92.68647758675968</v>
       </c>
       <c r="R7" t="n">
-        <v>133.1961881840039</v>
+        <v>48.10852568854899</v>
       </c>
       <c r="S7" t="n">
-        <v>133.1961881840039</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="T7" t="n">
-        <v>133.1961881840039</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="U7" t="n">
-        <v>133.1961881840039</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="V7" t="n">
-        <v>133.1961881840039</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="W7" t="n">
-        <v>133.1961881840039</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="X7" t="n">
-        <v>133.1961881840039</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="Y7" t="n">
-        <v>133.1961881840039</v>
+        <v>3.530573790338288</v>
       </c>
     </row>
     <row r="8">
@@ -4778,76 +4780,76 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>3.166710156947247</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="C8" t="n">
-        <v>3.166710156947247</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="D8" t="n">
-        <v>3.166710156947247</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="E8" t="n">
-        <v>3.166710156947247</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="F8" t="n">
-        <v>3.166710156947247</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="G8" t="n">
-        <v>3.166710156947247</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="H8" t="n">
-        <v>3.166710156947247</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="I8" t="n">
-        <v>3.166710156947247</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="J8" t="n">
-        <v>3.166710156947247</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="K8" t="n">
-        <v>42.35474834916943</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="L8" t="n">
-        <v>81.54278654139161</v>
+        <v>47.22142444577459</v>
       </c>
       <c r="M8" t="n">
-        <v>119.1474696551402</v>
+        <v>90.91227510121089</v>
       </c>
       <c r="N8" t="n">
-        <v>119.1474696551402</v>
+        <v>132.8378388614781</v>
       </c>
       <c r="O8" t="n">
-        <v>119.1474696551402</v>
+        <v>132.8378388614781</v>
       </c>
       <c r="P8" t="n">
-        <v>158.3355078473624</v>
+        <v>176.5286895169144</v>
       </c>
       <c r="Q8" t="n">
-        <v>158.3355078473624</v>
+        <v>166.4370741486873</v>
       </c>
       <c r="R8" t="n">
-        <v>118.3517937444931</v>
+        <v>121.8591222504766</v>
       </c>
       <c r="S8" t="n">
-        <v>78.36807964162378</v>
+        <v>92.68647758675968</v>
       </c>
       <c r="T8" t="n">
-        <v>38.38436553875449</v>
+        <v>48.10852568854899</v>
       </c>
       <c r="U8" t="n">
-        <v>3.166710156947247</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="V8" t="n">
-        <v>3.166710156947247</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="W8" t="n">
-        <v>3.166710156947247</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="X8" t="n">
-        <v>3.166710156947247</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="Y8" t="n">
-        <v>3.166710156947247</v>
+        <v>3.530573790338288</v>
       </c>
     </row>
     <row r="9">
@@ -4857,76 +4859,76 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>158.3355078473624</v>
+        <v>4.284706443124001</v>
       </c>
       <c r="C9" t="n">
-        <v>158.3355078473624</v>
+        <v>4.284706443124001</v>
       </c>
       <c r="D9" t="n">
-        <v>158.3355078473624</v>
+        <v>4.284706443124001</v>
       </c>
       <c r="E9" t="n">
-        <v>158.3355078473624</v>
+        <v>4.284706443124001</v>
       </c>
       <c r="F9" t="n">
-        <v>118.3517937444931</v>
+        <v>4.284706443124001</v>
       </c>
       <c r="G9" t="n">
-        <v>78.36807964162378</v>
+        <v>4.284706443124001</v>
       </c>
       <c r="H9" t="n">
-        <v>38.38436553875449</v>
+        <v>4.284706443124001</v>
       </c>
       <c r="I9" t="n">
-        <v>3.920842809732961</v>
+        <v>4.284706443124001</v>
       </c>
       <c r="J9" t="n">
-        <v>3.166710156947247</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="K9" t="n">
-        <v>3.166710156947247</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="L9" t="n">
-        <v>3.166710156947247</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="M9" t="n">
-        <v>3.166710156947247</v>
+        <v>47.22142444577459</v>
       </c>
       <c r="N9" t="n">
-        <v>40.77139327069581</v>
+        <v>90.91227510121089</v>
       </c>
       <c r="O9" t="n">
-        <v>79.95943146291799</v>
+        <v>132.8378388614781</v>
       </c>
       <c r="P9" t="n">
-        <v>119.1474696551402</v>
+        <v>132.8378388614781</v>
       </c>
       <c r="Q9" t="n">
-        <v>158.3355078473624</v>
+        <v>176.5286895169144</v>
       </c>
       <c r="R9" t="n">
-        <v>158.3355078473624</v>
+        <v>138.0185621377561</v>
       </c>
       <c r="S9" t="n">
-        <v>158.3355078473624</v>
+        <v>93.44061023954541</v>
       </c>
       <c r="T9" t="n">
-        <v>158.3355078473624</v>
+        <v>48.8626583413347</v>
       </c>
       <c r="U9" t="n">
-        <v>158.3355078473624</v>
+        <v>4.284706443124001</v>
       </c>
       <c r="V9" t="n">
-        <v>158.3355078473624</v>
+        <v>4.284706443124001</v>
       </c>
       <c r="W9" t="n">
-        <v>158.3355078473624</v>
+        <v>4.284706443124001</v>
       </c>
       <c r="X9" t="n">
-        <v>158.3355078473624</v>
+        <v>4.284706443124001</v>
       </c>
       <c r="Y9" t="n">
-        <v>158.3355078473624</v>
+        <v>4.284706443124001</v>
       </c>
     </row>
     <row r="10">
@@ -4936,76 +4938,76 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>133.1961881840039</v>
+        <v>138.062864280609</v>
       </c>
       <c r="C10" t="n">
-        <v>133.1961881840039</v>
+        <v>138.062864280609</v>
       </c>
       <c r="D10" t="n">
-        <v>133.1961881840039</v>
+        <v>138.062864280609</v>
       </c>
       <c r="E10" t="n">
-        <v>133.1961881840039</v>
+        <v>138.062864280609</v>
       </c>
       <c r="F10" t="n">
-        <v>133.1961881840039</v>
+        <v>138.062864280609</v>
       </c>
       <c r="G10" t="n">
-        <v>123.1178524655551</v>
+        <v>138.062864280609</v>
       </c>
       <c r="H10" t="n">
-        <v>83.13413836268582</v>
+        <v>93.48491238239833</v>
       </c>
       <c r="I10" t="n">
-        <v>43.15042425981653</v>
+        <v>48.90696048418764</v>
       </c>
       <c r="J10" t="n">
-        <v>3.166710156947247</v>
+        <v>26.02500997809875</v>
       </c>
       <c r="K10" t="n">
-        <v>3.166710156947247</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="L10" t="n">
-        <v>30.48083516466022</v>
+        <v>30.84469879805127</v>
       </c>
       <c r="M10" t="n">
-        <v>69.6688733568824</v>
+        <v>70.03273699027345</v>
       </c>
       <c r="N10" t="n">
-        <v>108.8569115491046</v>
+        <v>113.7235876457098</v>
       </c>
       <c r="O10" t="n">
-        <v>133.1961881840039</v>
+        <v>138.062864280609</v>
       </c>
       <c r="P10" t="n">
-        <v>133.1961881840039</v>
+        <v>138.062864280609</v>
       </c>
       <c r="Q10" t="n">
-        <v>133.1961881840039</v>
+        <v>138.062864280609</v>
       </c>
       <c r="R10" t="n">
-        <v>133.1961881840039</v>
+        <v>138.062864280609</v>
       </c>
       <c r="S10" t="n">
-        <v>133.1961881840039</v>
+        <v>138.062864280609</v>
       </c>
       <c r="T10" t="n">
-        <v>133.1961881840039</v>
+        <v>138.062864280609</v>
       </c>
       <c r="U10" t="n">
-        <v>133.1961881840039</v>
+        <v>138.062864280609</v>
       </c>
       <c r="V10" t="n">
-        <v>133.1961881840039</v>
+        <v>138.062864280609</v>
       </c>
       <c r="W10" t="n">
-        <v>133.1961881840039</v>
+        <v>138.062864280609</v>
       </c>
       <c r="X10" t="n">
-        <v>133.1961881840039</v>
+        <v>138.062864280609</v>
       </c>
       <c r="Y10" t="n">
-        <v>133.1961881840039</v>
+        <v>138.062864280609</v>
       </c>
     </row>
     <row r="11">
@@ -5015,76 +5017,76 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>3.166710156947247</v>
+        <v>42.79483382228227</v>
       </c>
       <c r="C11" t="n">
-        <v>3.166710156947247</v>
+        <v>42.79483382228227</v>
       </c>
       <c r="D11" t="n">
-        <v>3.166710156947247</v>
+        <v>42.79483382228227</v>
       </c>
       <c r="E11" t="n">
-        <v>3.166710156947247</v>
+        <v>42.79483382228227</v>
       </c>
       <c r="F11" t="n">
-        <v>3.166710156947247</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="G11" t="n">
-        <v>3.166710156947247</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="H11" t="n">
-        <v>3.166710156947247</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="I11" t="n">
-        <v>3.166710156947247</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="J11" t="n">
-        <v>3.166710156947247</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="K11" t="n">
-        <v>40.77139327069581</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="L11" t="n">
-        <v>79.95943146291799</v>
+        <v>47.22142444577459</v>
       </c>
       <c r="M11" t="n">
-        <v>119.1474696551402</v>
+        <v>90.91227510121089</v>
       </c>
       <c r="N11" t="n">
-        <v>158.3355078473624</v>
+        <v>132.8378388614781</v>
       </c>
       <c r="O11" t="n">
-        <v>158.3355078473624</v>
+        <v>176.5286895169144</v>
       </c>
       <c r="P11" t="n">
-        <v>158.3355078473624</v>
+        <v>176.5286895169144</v>
       </c>
       <c r="Q11" t="n">
-        <v>158.3355078473624</v>
+        <v>176.5286895169144</v>
       </c>
       <c r="R11" t="n">
-        <v>158.3355078473624</v>
+        <v>176.5286895169144</v>
       </c>
       <c r="S11" t="n">
-        <v>123.1178524655551</v>
+        <v>176.5286895169144</v>
       </c>
       <c r="T11" t="n">
-        <v>123.1178524655551</v>
+        <v>176.5286895169144</v>
       </c>
       <c r="U11" t="n">
-        <v>123.1178524655551</v>
+        <v>131.9507376187037</v>
       </c>
       <c r="V11" t="n">
-        <v>83.13413836268582</v>
+        <v>131.9507376187037</v>
       </c>
       <c r="W11" t="n">
-        <v>43.15042425981653</v>
+        <v>87.37278572049297</v>
       </c>
       <c r="X11" t="n">
-        <v>3.166710156947247</v>
+        <v>42.79483382228227</v>
       </c>
       <c r="Y11" t="n">
-        <v>3.166710156947247</v>
+        <v>42.79483382228227</v>
       </c>
     </row>
     <row r="12">
@@ -5094,76 +5096,76 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>3.166710156947247</v>
+        <v>42.79483382228227</v>
       </c>
       <c r="C12" t="n">
-        <v>3.166710156947247</v>
+        <v>42.79483382228227</v>
       </c>
       <c r="D12" t="n">
-        <v>3.166710156947247</v>
+        <v>42.79483382228227</v>
       </c>
       <c r="E12" t="n">
-        <v>3.166710156947247</v>
+        <v>42.79483382228227</v>
       </c>
       <c r="F12" t="n">
-        <v>3.166710156947247</v>
+        <v>42.79483382228227</v>
       </c>
       <c r="G12" t="n">
-        <v>3.166710156947247</v>
+        <v>42.79483382228227</v>
       </c>
       <c r="H12" t="n">
-        <v>3.166710156947247</v>
+        <v>42.79483382228227</v>
       </c>
       <c r="I12" t="n">
-        <v>3.166710156947247</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="J12" t="n">
-        <v>3.166710156947247</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="K12" t="n">
-        <v>3.166710156947247</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="L12" t="n">
-        <v>42.35474834916943</v>
+        <v>47.22142444577459</v>
       </c>
       <c r="M12" t="n">
-        <v>42.35474834916943</v>
+        <v>47.22142444577459</v>
       </c>
       <c r="N12" t="n">
-        <v>79.95943146291799</v>
+        <v>47.22142444577459</v>
       </c>
       <c r="O12" t="n">
-        <v>119.1474696551402</v>
+        <v>89.14698820604177</v>
       </c>
       <c r="P12" t="n">
-        <v>158.3355078473624</v>
+        <v>132.8378388614781</v>
       </c>
       <c r="Q12" t="n">
-        <v>158.3355078473624</v>
+        <v>176.5286895169144</v>
       </c>
       <c r="R12" t="n">
-        <v>158.3355078473624</v>
+        <v>176.5286895169144</v>
       </c>
       <c r="S12" t="n">
-        <v>123.1178524655551</v>
+        <v>131.9507376187037</v>
       </c>
       <c r="T12" t="n">
-        <v>83.13413836268582</v>
+        <v>87.37278572049297</v>
       </c>
       <c r="U12" t="n">
-        <v>43.15042425981653</v>
+        <v>42.79483382228227</v>
       </c>
       <c r="V12" t="n">
-        <v>3.166710156947247</v>
+        <v>42.79483382228227</v>
       </c>
       <c r="W12" t="n">
-        <v>3.166710156947247</v>
+        <v>42.79483382228227</v>
       </c>
       <c r="X12" t="n">
-        <v>3.166710156947247</v>
+        <v>42.79483382228227</v>
       </c>
       <c r="Y12" t="n">
-        <v>3.166710156947247</v>
+        <v>42.79483382228227</v>
       </c>
     </row>
     <row r="13">
@@ -5173,76 +5175,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>130.4472581485427</v>
+        <v>93.48491238239833</v>
       </c>
       <c r="C13" t="n">
-        <v>130.4472581485427</v>
+        <v>93.48491238239833</v>
       </c>
       <c r="D13" t="n">
-        <v>130.4472581485427</v>
+        <v>93.48491238239833</v>
       </c>
       <c r="E13" t="n">
-        <v>130.4472581485427</v>
+        <v>93.48491238239833</v>
       </c>
       <c r="F13" t="n">
-        <v>130.4472581485427</v>
+        <v>93.48491238239833</v>
       </c>
       <c r="G13" t="n">
-        <v>130.4472581485427</v>
+        <v>93.48491238239833</v>
       </c>
       <c r="H13" t="n">
-        <v>105.6285745504463</v>
+        <v>92.68647758675968</v>
       </c>
       <c r="I13" t="n">
-        <v>65.64486044757699</v>
+        <v>48.10852568854899</v>
       </c>
       <c r="J13" t="n">
-        <v>25.66114634470771</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="K13" t="n">
-        <v>3.166710156947247</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="L13" t="n">
-        <v>30.48083516466022</v>
+        <v>30.84469879805127</v>
       </c>
       <c r="M13" t="n">
-        <v>69.6688733568824</v>
+        <v>70.03273699027345</v>
       </c>
       <c r="N13" t="n">
-        <v>108.8569115491046</v>
+        <v>113.7235876457098</v>
       </c>
       <c r="O13" t="n">
-        <v>133.1961881840039</v>
+        <v>138.062864280609</v>
       </c>
       <c r="P13" t="n">
-        <v>130.4472581485427</v>
+        <v>138.062864280609</v>
       </c>
       <c r="Q13" t="n">
-        <v>130.4472581485427</v>
+        <v>93.48491238239833</v>
       </c>
       <c r="R13" t="n">
-        <v>130.4472581485427</v>
+        <v>93.48491238239833</v>
       </c>
       <c r="S13" t="n">
-        <v>130.4472581485427</v>
+        <v>93.48491238239833</v>
       </c>
       <c r="T13" t="n">
-        <v>130.4472581485427</v>
+        <v>93.48491238239833</v>
       </c>
       <c r="U13" t="n">
-        <v>130.4472581485427</v>
+        <v>93.48491238239833</v>
       </c>
       <c r="V13" t="n">
-        <v>130.4472581485427</v>
+        <v>93.48491238239833</v>
       </c>
       <c r="W13" t="n">
-        <v>130.4472581485427</v>
+        <v>93.48491238239833</v>
       </c>
       <c r="X13" t="n">
-        <v>130.4472581485427</v>
+        <v>93.48491238239833</v>
       </c>
       <c r="Y13" t="n">
-        <v>130.4472581485427</v>
+        <v>93.48491238239833</v>
       </c>
     </row>
     <row r="14">
@@ -5252,76 +5254,76 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>3.166710156947247</v>
+        <v>176.5286895169144</v>
       </c>
       <c r="C14" t="n">
-        <v>3.166710156947247</v>
+        <v>176.5286895169144</v>
       </c>
       <c r="D14" t="n">
-        <v>3.166710156947247</v>
+        <v>176.5286895169144</v>
       </c>
       <c r="E14" t="n">
-        <v>3.166710156947247</v>
+        <v>176.5286895169144</v>
       </c>
       <c r="F14" t="n">
-        <v>3.166710156947247</v>
+        <v>131.9507376187037</v>
       </c>
       <c r="G14" t="n">
-        <v>3.166710156947247</v>
+        <v>87.37278572049297</v>
       </c>
       <c r="H14" t="n">
-        <v>3.166710156947247</v>
+        <v>42.79483382228227</v>
       </c>
       <c r="I14" t="n">
-        <v>3.166710156947247</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="J14" t="n">
-        <v>3.166710156947247</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="K14" t="n">
-        <v>42.35474834916943</v>
+        <v>47.22142444577459</v>
       </c>
       <c r="L14" t="n">
-        <v>42.35474834916943</v>
+        <v>47.22142444577459</v>
       </c>
       <c r="M14" t="n">
-        <v>81.54278654139161</v>
+        <v>90.91227510121089</v>
       </c>
       <c r="N14" t="n">
-        <v>120.7308247336138</v>
+        <v>134.6031257566472</v>
       </c>
       <c r="O14" t="n">
-        <v>158.3355078473624</v>
+        <v>176.5286895169144</v>
       </c>
       <c r="P14" t="n">
-        <v>158.3355078473624</v>
+        <v>176.5286895169144</v>
       </c>
       <c r="Q14" t="n">
-        <v>158.3355078473624</v>
+        <v>176.5286895169144</v>
       </c>
       <c r="R14" t="n">
-        <v>158.3355078473624</v>
+        <v>176.5286895169144</v>
       </c>
       <c r="S14" t="n">
-        <v>123.1178524655551</v>
+        <v>176.5286895169144</v>
       </c>
       <c r="T14" t="n">
-        <v>83.13413836268582</v>
+        <v>176.5286895169144</v>
       </c>
       <c r="U14" t="n">
-        <v>43.15042425981653</v>
+        <v>176.5286895169144</v>
       </c>
       <c r="V14" t="n">
-        <v>3.166710156947247</v>
+        <v>176.5286895169144</v>
       </c>
       <c r="W14" t="n">
-        <v>3.166710156947247</v>
+        <v>176.5286895169144</v>
       </c>
       <c r="X14" t="n">
-        <v>3.166710156947247</v>
+        <v>176.5286895169144</v>
       </c>
       <c r="Y14" t="n">
-        <v>3.166710156947247</v>
+        <v>176.5286895169144</v>
       </c>
     </row>
     <row r="15">
@@ -5331,76 +5333,76 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>78.36807964162378</v>
+        <v>176.5286895169144</v>
       </c>
       <c r="C15" t="n">
-        <v>78.36807964162378</v>
+        <v>176.5286895169144</v>
       </c>
       <c r="D15" t="n">
-        <v>78.36807964162378</v>
+        <v>131.9507376187037</v>
       </c>
       <c r="E15" t="n">
-        <v>78.36807964162378</v>
+        <v>87.37278572049297</v>
       </c>
       <c r="F15" t="n">
-        <v>78.36807964162378</v>
+        <v>87.37278572049297</v>
       </c>
       <c r="G15" t="n">
-        <v>43.15042425981653</v>
+        <v>42.79483382228227</v>
       </c>
       <c r="H15" t="n">
-        <v>3.166710156947247</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="I15" t="n">
-        <v>3.166710156947247</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="J15" t="n">
-        <v>3.166710156947247</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="K15" t="n">
-        <v>3.166710156947247</v>
+        <v>45.45613755060546</v>
       </c>
       <c r="L15" t="n">
-        <v>42.35474834916943</v>
+        <v>45.45613755060546</v>
       </c>
       <c r="M15" t="n">
-        <v>79.95943146291799</v>
+        <v>89.14698820604177</v>
       </c>
       <c r="N15" t="n">
-        <v>79.95943146291799</v>
+        <v>132.8378388614781</v>
       </c>
       <c r="O15" t="n">
-        <v>119.1474696551402</v>
+        <v>132.8378388614781</v>
       </c>
       <c r="P15" t="n">
-        <v>158.3355078473624</v>
+        <v>132.8378388614781</v>
       </c>
       <c r="Q15" t="n">
-        <v>158.3355078473624</v>
+        <v>176.5286895169144</v>
       </c>
       <c r="R15" t="n">
-        <v>118.3517937444931</v>
+        <v>176.5286895169144</v>
       </c>
       <c r="S15" t="n">
-        <v>78.36807964162378</v>
+        <v>176.5286895169144</v>
       </c>
       <c r="T15" t="n">
-        <v>78.36807964162378</v>
+        <v>176.5286895169144</v>
       </c>
       <c r="U15" t="n">
-        <v>78.36807964162378</v>
+        <v>176.5286895169144</v>
       </c>
       <c r="V15" t="n">
-        <v>78.36807964162378</v>
+        <v>176.5286895169144</v>
       </c>
       <c r="W15" t="n">
-        <v>78.36807964162378</v>
+        <v>176.5286895169144</v>
       </c>
       <c r="X15" t="n">
-        <v>78.36807964162378</v>
+        <v>176.5286895169144</v>
       </c>
       <c r="Y15" t="n">
-        <v>78.36807964162378</v>
+        <v>176.5286895169144</v>
       </c>
     </row>
     <row r="16">
@@ -5410,76 +5412,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>130.4472581485427</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="C16" t="n">
-        <v>130.4472581485427</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="D16" t="n">
-        <v>130.4472581485427</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="E16" t="n">
-        <v>130.4472581485427</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="F16" t="n">
-        <v>130.4472581485427</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="G16" t="n">
-        <v>130.4472581485427</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="H16" t="n">
-        <v>90.46354404567346</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="I16" t="n">
-        <v>50.47982994280417</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="J16" t="n">
-        <v>10.49611583993489</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="K16" t="n">
-        <v>3.166710156947247</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="L16" t="n">
-        <v>30.48083516466022</v>
+        <v>30.84469879805127</v>
       </c>
       <c r="M16" t="n">
-        <v>69.6688733568824</v>
+        <v>70.03273699027345</v>
       </c>
       <c r="N16" t="n">
-        <v>108.8569115491046</v>
+        <v>113.7235876457098</v>
       </c>
       <c r="O16" t="n">
-        <v>133.1961881840039</v>
+        <v>138.062864280609</v>
       </c>
       <c r="P16" t="n">
-        <v>130.4472581485427</v>
+        <v>135.3139342451479</v>
       </c>
       <c r="Q16" t="n">
-        <v>130.4472581485427</v>
+        <v>90.73598234693722</v>
       </c>
       <c r="R16" t="n">
-        <v>130.4472581485427</v>
+        <v>46.15803044872652</v>
       </c>
       <c r="S16" t="n">
-        <v>130.4472581485427</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="T16" t="n">
-        <v>130.4472581485427</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="U16" t="n">
-        <v>130.4472581485427</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="V16" t="n">
-        <v>130.4472581485427</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="W16" t="n">
-        <v>130.4472581485427</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="X16" t="n">
-        <v>130.4472581485427</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="Y16" t="n">
-        <v>130.4472581485427</v>
+        <v>3.530573790338288</v>
       </c>
     </row>
     <row r="17">
@@ -5489,76 +5491,76 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>3.530573790338288</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="C17" t="n">
-        <v>3.530573790338288</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="D17" t="n">
-        <v>3.530573790338288</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="E17" t="n">
-        <v>3.530573790338288</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="F17" t="n">
-        <v>3.530573790338288</v>
+        <v>710.516763498309</v>
       </c>
       <c r="G17" t="n">
-        <v>3.530573790338288</v>
+        <v>467.067986854209</v>
       </c>
       <c r="H17" t="n">
-        <v>3.530573790338288</v>
+        <v>223.6192102101089</v>
       </c>
       <c r="I17" t="n">
-        <v>3.530573790338288</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="J17" t="n">
-        <v>3.530573790338288</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="K17" t="n">
-        <v>47.22142444577459</v>
+        <v>122.2961490211351</v>
       </c>
       <c r="L17" t="n">
-        <v>47.22142444577459</v>
+        <v>302.3720006057937</v>
       </c>
       <c r="M17" t="n">
-        <v>90.91227510121089</v>
+        <v>519.3476278686978</v>
       </c>
       <c r="N17" t="n">
-        <v>132.8378388614781</v>
+        <v>725.2021500759372</v>
       </c>
       <c r="O17" t="n">
-        <v>176.5286895169144</v>
+        <v>874.3971002185853</v>
       </c>
       <c r="P17" t="n">
-        <v>176.5286895169144</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Q17" t="n">
-        <v>166.4370741486873</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="R17" t="n">
-        <v>121.8591222504766</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="S17" t="n">
-        <v>92.68647758675968</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="T17" t="n">
-        <v>48.10852568854899</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="U17" t="n">
-        <v>3.530573790338288</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="V17" t="n">
-        <v>3.530573790338288</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="W17" t="n">
-        <v>3.530573790338288</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="X17" t="n">
-        <v>3.530573790338288</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="Y17" t="n">
-        <v>3.530573790338288</v>
+        <v>953.9655401424092</v>
       </c>
     </row>
     <row r="18">
@@ -5568,76 +5570,76 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>176.5286895169144</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C18" t="n">
-        <v>176.5286895169144</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D18" t="n">
-        <v>176.5286895169144</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E18" t="n">
-        <v>137.2644294849704</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F18" t="n">
-        <v>92.68647758675968</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G18" t="n">
-        <v>48.10852568854899</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H18" t="n">
-        <v>3.530573790338288</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I18" t="n">
-        <v>3.530573790338288</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J18" t="n">
-        <v>3.530573790338288</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="K18" t="n">
-        <v>3.530573790338288</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L18" t="n">
-        <v>47.22142444577459</v>
+        <v>249.2442489785619</v>
       </c>
       <c r="M18" t="n">
-        <v>47.22142444577459</v>
+        <v>417.4543050195419</v>
       </c>
       <c r="N18" t="n">
-        <v>89.14698820604177</v>
+        <v>656.0584510084244</v>
       </c>
       <c r="O18" t="n">
-        <v>132.8378388614781</v>
+        <v>894.6625969973069</v>
       </c>
       <c r="P18" t="n">
-        <v>132.8378388614781</v>
+        <v>894.6625969973069</v>
       </c>
       <c r="Q18" t="n">
-        <v>176.5286895169144</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="R18" t="n">
-        <v>176.5286895169144</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="S18" t="n">
-        <v>176.5286895169144</v>
+        <v>689.4702815141908</v>
       </c>
       <c r="T18" t="n">
-        <v>176.5286895169144</v>
+        <v>487.2836868729568</v>
       </c>
       <c r="U18" t="n">
-        <v>176.5286895169144</v>
+        <v>259.0600686093459</v>
       </c>
       <c r="V18" t="n">
-        <v>176.5286895169144</v>
+        <v>23.90796037760316</v>
       </c>
       <c r="W18" t="n">
-        <v>176.5286895169144</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="X18" t="n">
-        <v>176.5286895169144</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="Y18" t="n">
-        <v>176.5286895169144</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="19">
@@ -5647,76 +5649,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>48.90696048418764</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C19" t="n">
-        <v>48.90696048418764</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D19" t="n">
-        <v>48.90696048418764</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E19" t="n">
-        <v>48.90696048418764</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F19" t="n">
-        <v>48.90696048418764</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G19" t="n">
-        <v>4.329008585976936</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H19" t="n">
-        <v>3.530573790338288</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I19" t="n">
-        <v>3.530573790338288</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J19" t="n">
-        <v>3.530573790338288</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="K19" t="n">
-        <v>3.530573790338288</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L19" t="n">
-        <v>30.84469879805127</v>
+        <v>46.5952681179257</v>
       </c>
       <c r="M19" t="n">
-        <v>70.03273699027345</v>
+        <v>85.78330631014788</v>
       </c>
       <c r="N19" t="n">
-        <v>113.7235876457098</v>
+        <v>129.4741569655842</v>
       </c>
       <c r="O19" t="n">
-        <v>138.062864280609</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="P19" t="n">
-        <v>138.062864280609</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="Q19" t="n">
-        <v>138.062864280609</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="R19" t="n">
-        <v>93.48491238239833</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="S19" t="n">
-        <v>93.48491238239833</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="T19" t="n">
-        <v>93.48491238239833</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="U19" t="n">
-        <v>93.48491238239833</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="V19" t="n">
-        <v>93.48491238239833</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="W19" t="n">
-        <v>93.48491238239833</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="X19" t="n">
-        <v>93.48491238239833</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="Y19" t="n">
-        <v>93.48491238239833</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="20">
@@ -5726,28 +5728,28 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>19.28114311021272</v>
+        <v>274.0360370837871</v>
       </c>
       <c r="C20" t="n">
-        <v>19.28114311021272</v>
+        <v>274.0360370837871</v>
       </c>
       <c r="D20" t="n">
-        <v>19.28114311021272</v>
+        <v>274.0360370837871</v>
       </c>
       <c r="E20" t="n">
-        <v>19.28114311021272</v>
+        <v>274.0360370837871</v>
       </c>
       <c r="F20" t="n">
-        <v>19.28114311021272</v>
+        <v>274.0360370837871</v>
       </c>
       <c r="G20" t="n">
-        <v>19.28114311021272</v>
+        <v>30.58726043968704</v>
       </c>
       <c r="H20" t="n">
-        <v>19.28114311021272</v>
+        <v>30.58726043968704</v>
       </c>
       <c r="I20" t="n">
-        <v>19.28114311021272</v>
+        <v>30.58726043968704</v>
       </c>
       <c r="J20" t="n">
         <v>19.28114311021272</v>
@@ -5774,28 +5776,28 @@
         <v>953.9655401424092</v>
       </c>
       <c r="R20" t="n">
-        <v>802.5825927271064</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="S20" t="n">
-        <v>802.5825927271064</v>
+        <v>742.8341567219593</v>
       </c>
       <c r="T20" t="n">
-        <v>577.2332497330343</v>
+        <v>517.4848137278872</v>
       </c>
       <c r="U20" t="n">
-        <v>333.7844730889342</v>
+        <v>274.0360370837871</v>
       </c>
       <c r="V20" t="n">
-        <v>333.7844730889342</v>
+        <v>274.0360370837871</v>
       </c>
       <c r="W20" t="n">
-        <v>262.7299197543128</v>
+        <v>274.0360370837871</v>
       </c>
       <c r="X20" t="n">
-        <v>19.28114311021272</v>
+        <v>274.0360370837871</v>
       </c>
       <c r="Y20" t="n">
-        <v>19.28114311021272</v>
+        <v>274.0360370837871</v>
       </c>
     </row>
     <row r="21">
@@ -5805,22 +5807,22 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>259.0600686093459</v>
+        <v>168.215552771464</v>
       </c>
       <c r="C21" t="n">
-        <v>84.60703932821886</v>
+        <v>168.215552771464</v>
       </c>
       <c r="D21" t="n">
-        <v>84.60703932821886</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E21" t="n">
-        <v>84.60703932821886</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F21" t="n">
-        <v>84.60703932821886</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G21" t="n">
-        <v>84.60703932821886</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H21" t="n">
         <v>19.28114311021272</v>
@@ -5832,16 +5834,16 @@
         <v>19.28114311021272</v>
       </c>
       <c r="K21" t="n">
-        <v>144.6387031680501</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L21" t="n">
-        <v>374.6018090363993</v>
+        <v>249.2442489785619</v>
       </c>
       <c r="M21" t="n">
-        <v>613.2059550252818</v>
+        <v>486.8488635328713</v>
       </c>
       <c r="N21" t="n">
-        <v>851.8101010141643</v>
+        <v>725.4530095217538</v>
       </c>
       <c r="O21" t="n">
         <v>964.0571555106362</v>
@@ -5853,28 +5855,28 @@
         <v>964.0571555106362</v>
       </c>
       <c r="R21" t="n">
-        <v>862.8876260635219</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S21" t="n">
-        <v>689.4702815141908</v>
+        <v>790.6398109613051</v>
       </c>
       <c r="T21" t="n">
-        <v>487.2836868729568</v>
+        <v>588.4532163200711</v>
       </c>
       <c r="U21" t="n">
-        <v>259.0600686093459</v>
+        <v>360.2295980564601</v>
       </c>
       <c r="V21" t="n">
-        <v>259.0600686093459</v>
+        <v>360.2295980564601</v>
       </c>
       <c r="W21" t="n">
-        <v>259.0600686093459</v>
+        <v>360.2295980564601</v>
       </c>
       <c r="X21" t="n">
-        <v>259.0600686093459</v>
+        <v>360.2295980564601</v>
       </c>
       <c r="Y21" t="n">
-        <v>259.0600686093459</v>
+        <v>168.215552771464</v>
       </c>
     </row>
     <row r="22">
@@ -5926,13 +5928,13 @@
         <v>153.8134336004835</v>
       </c>
       <c r="P22" t="n">
-        <v>151.0645035650224</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="Q22" t="n">
-        <v>64.03213664411894</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="R22" t="n">
-        <v>64.03213664411894</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="S22" t="n">
         <v>19.28114311021272</v>
@@ -5963,13 +5965,13 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>720.6083788665362</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="C23" t="n">
-        <v>720.6083788665362</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="D23" t="n">
-        <v>720.6083788665362</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="E23" t="n">
         <v>506.1786963984129</v>
@@ -5978,7 +5980,7 @@
         <v>262.7299197543128</v>
       </c>
       <c r="G23" t="n">
-        <v>262.7299197543128</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H23" t="n">
         <v>19.28114311021272</v>
@@ -6011,28 +6013,28 @@
         <v>964.0571555106362</v>
       </c>
       <c r="R23" t="n">
-        <v>964.0571555106362</v>
+        <v>812.6742080953335</v>
       </c>
       <c r="S23" t="n">
-        <v>964.0571555106362</v>
+        <v>812.6742080953335</v>
       </c>
       <c r="T23" t="n">
-        <v>964.0571555106362</v>
+        <v>749.627473042513</v>
       </c>
       <c r="U23" t="n">
-        <v>964.0571555106362</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="V23" t="n">
-        <v>964.0571555106362</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="W23" t="n">
-        <v>720.6083788665362</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="X23" t="n">
-        <v>720.6083788665362</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="Y23" t="n">
-        <v>720.6083788665362</v>
+        <v>506.1786963984129</v>
       </c>
     </row>
     <row r="24">
@@ -6042,49 +6044,49 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>83.81530782185143</v>
+        <v>518.4217842253022</v>
       </c>
       <c r="C24" t="n">
-        <v>83.81530782185143</v>
+        <v>518.4217842253022</v>
       </c>
       <c r="D24" t="n">
-        <v>19.28114311021272</v>
+        <v>518.4217842253022</v>
       </c>
       <c r="E24" t="n">
-        <v>19.28114311021272</v>
+        <v>508.9694238887622</v>
       </c>
       <c r="F24" t="n">
-        <v>19.28114311021272</v>
+        <v>362.4348659156472</v>
       </c>
       <c r="G24" t="n">
-        <v>19.28114311021272</v>
+        <v>223.7040404982626</v>
       </c>
       <c r="H24" t="n">
-        <v>19.28114311021272</v>
+        <v>110.334904905842</v>
       </c>
       <c r="I24" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="J24" t="n">
         <v>19.28114311021272</v>
       </c>
       <c r="K24" t="n">
-        <v>19.28114311021272</v>
+        <v>144.6387031680501</v>
       </c>
       <c r="L24" t="n">
-        <v>19.28114311021272</v>
+        <v>374.6018090363993</v>
       </c>
       <c r="M24" t="n">
-        <v>257.8852890990952</v>
+        <v>417.4543050195419</v>
       </c>
       <c r="N24" t="n">
-        <v>496.4894350879777</v>
+        <v>656.0584510084244</v>
       </c>
       <c r="O24" t="n">
-        <v>735.0935810768601</v>
+        <v>894.6625969973069</v>
       </c>
       <c r="P24" t="n">
-        <v>917.7370586902109</v>
+        <v>894.6625969973069</v>
       </c>
       <c r="Q24" t="n">
         <v>964.0571555106362</v>
@@ -6093,25 +6095,25 @@
         <v>964.0571555106362</v>
       </c>
       <c r="S24" t="n">
-        <v>790.6398109613051</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T24" t="n">
-        <v>790.6398109613051</v>
+        <v>761.8705608694022</v>
       </c>
       <c r="U24" t="n">
-        <v>562.4161926976942</v>
+        <v>761.8705608694022</v>
       </c>
       <c r="V24" t="n">
-        <v>327.2640844659515</v>
+        <v>761.8705608694022</v>
       </c>
       <c r="W24" t="n">
-        <v>83.81530782185143</v>
+        <v>518.4217842253022</v>
       </c>
       <c r="X24" t="n">
-        <v>83.81530782185143</v>
+        <v>518.4217842253022</v>
       </c>
       <c r="Y24" t="n">
-        <v>83.81530782185143</v>
+        <v>518.4217842253022</v>
       </c>
     </row>
     <row r="25">
@@ -6121,16 +6123,16 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C25" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D25" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E25" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F25" t="n">
         <v>19.28114311021272</v>
@@ -6169,28 +6171,28 @@
         <v>153.8134336004835</v>
       </c>
       <c r="R25" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="S25" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="T25" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="U25" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="V25" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="W25" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="X25" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="Y25" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="26">
@@ -6200,22 +6202,22 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>720.6083788665362</v>
+        <v>231.8830517671884</v>
       </c>
       <c r="C26" t="n">
-        <v>720.6083788665362</v>
+        <v>231.8830517671884</v>
       </c>
       <c r="D26" t="n">
-        <v>477.1596022224361</v>
+        <v>231.8830517671884</v>
       </c>
       <c r="E26" t="n">
-        <v>477.1596022224361</v>
+        <v>231.8830517671884</v>
       </c>
       <c r="F26" t="n">
-        <v>477.1596022224361</v>
+        <v>231.8830517671884</v>
       </c>
       <c r="G26" t="n">
-        <v>475.3318284112885</v>
+        <v>231.8830517671884</v>
       </c>
       <c r="H26" t="n">
         <v>231.8830517671884</v>
@@ -6251,25 +6253,25 @@
         <v>964.0571555106362</v>
       </c>
       <c r="S26" t="n">
-        <v>964.0571555106362</v>
+        <v>752.9257720901863</v>
       </c>
       <c r="T26" t="n">
-        <v>964.0571555106362</v>
+        <v>752.9257720901863</v>
       </c>
       <c r="U26" t="n">
-        <v>964.0571555106362</v>
+        <v>752.9257720901863</v>
       </c>
       <c r="V26" t="n">
-        <v>964.0571555106362</v>
+        <v>509.4769954460863</v>
       </c>
       <c r="W26" t="n">
-        <v>964.0571555106362</v>
+        <v>266.0282188019862</v>
       </c>
       <c r="X26" t="n">
-        <v>964.0571555106362</v>
+        <v>266.0282188019862</v>
       </c>
       <c r="Y26" t="n">
-        <v>720.6083788665362</v>
+        <v>231.8830517671884</v>
       </c>
     </row>
     <row r="27">
@@ -6279,19 +6281,19 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>69.84447166430675</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C27" t="n">
-        <v>69.84447166430675</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D27" t="n">
-        <v>69.84447166430675</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E27" t="n">
-        <v>69.84447166430675</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F27" t="n">
-        <v>69.84447166430675</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G27" t="n">
         <v>19.28114311021272</v>
@@ -6306,13 +6308,13 @@
         <v>19.28114311021272</v>
       </c>
       <c r="K27" t="n">
-        <v>19.28114311021272</v>
+        <v>144.6387031680501</v>
       </c>
       <c r="L27" t="n">
-        <v>19.28114311021272</v>
+        <v>144.6387031680501</v>
       </c>
       <c r="M27" t="n">
-        <v>234.810827406191</v>
+        <v>383.2428491569326</v>
       </c>
       <c r="N27" t="n">
         <v>473.4149733950735</v>
@@ -6339,16 +6341,16 @@
         <v>964.0571555106362</v>
       </c>
       <c r="V27" t="n">
-        <v>728.9050472788936</v>
+        <v>846.5570557448675</v>
       </c>
       <c r="W27" t="n">
-        <v>485.4562706347935</v>
+        <v>603.1082791007675</v>
       </c>
       <c r="X27" t="n">
-        <v>277.6047704292607</v>
+        <v>395.2567788952347</v>
       </c>
       <c r="Y27" t="n">
-        <v>69.84447166430675</v>
+        <v>187.4964801302808</v>
       </c>
     </row>
     <row r="28">
@@ -6358,76 +6360,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C28" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D28" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E28" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F28" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G28" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H28" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I28" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J28" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="K28" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L28" t="n">
-        <v>856.8389900280785</v>
+        <v>46.5952681179257</v>
       </c>
       <c r="M28" t="n">
-        <v>896.0270282203006</v>
+        <v>85.78330631014788</v>
       </c>
       <c r="N28" t="n">
-        <v>939.7178788757369</v>
+        <v>129.4741569655842</v>
       </c>
       <c r="O28" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="P28" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="Q28" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="R28" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="S28" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="T28" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="U28" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="V28" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="W28" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="X28" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="Y28" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="29">
@@ -6437,22 +6439,22 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>720.6083788665362</v>
+        <v>495.259035872464</v>
       </c>
       <c r="C29" t="n">
-        <v>720.6083788665362</v>
+        <v>495.259035872464</v>
       </c>
       <c r="D29" t="n">
-        <v>477.1596022224361</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="E29" t="n">
-        <v>233.7108255783361</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="F29" t="n">
-        <v>19.28114311021272</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="G29" t="n">
-        <v>19.28114311021272</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="H29" t="n">
         <v>19.28114311021272</v>
@@ -6491,22 +6493,22 @@
         <v>964.0571555106362</v>
       </c>
       <c r="T29" t="n">
-        <v>964.0571555106362</v>
+        <v>738.7078125165641</v>
       </c>
       <c r="U29" t="n">
-        <v>964.0571555106362</v>
+        <v>738.7078125165641</v>
       </c>
       <c r="V29" t="n">
-        <v>964.0571555106362</v>
+        <v>738.7078125165641</v>
       </c>
       <c r="W29" t="n">
-        <v>964.0571555106362</v>
+        <v>738.7078125165641</v>
       </c>
       <c r="X29" t="n">
-        <v>964.0571555106362</v>
+        <v>495.259035872464</v>
       </c>
       <c r="Y29" t="n">
-        <v>964.0571555106362</v>
+        <v>495.259035872464</v>
       </c>
     </row>
     <row r="30">
@@ -6516,46 +6518,46 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>257.2326523711826</v>
+        <v>380.2300195200815</v>
       </c>
       <c r="C30" t="n">
-        <v>257.2326523711826</v>
+        <v>205.7769902389545</v>
       </c>
       <c r="D30" t="n">
-        <v>257.2326523711826</v>
+        <v>205.7769902389545</v>
       </c>
       <c r="E30" t="n">
-        <v>158.0119685275972</v>
+        <v>205.7769902389545</v>
       </c>
       <c r="F30" t="n">
-        <v>158.0119685275972</v>
+        <v>205.7769902389545</v>
       </c>
       <c r="G30" t="n">
-        <v>19.28114311021272</v>
+        <v>205.7769902389545</v>
       </c>
       <c r="H30" t="n">
-        <v>19.28114311021272</v>
+        <v>110.334904905842</v>
       </c>
       <c r="I30" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="J30" t="n">
         <v>19.28114311021272</v>
       </c>
       <c r="K30" t="n">
-        <v>144.6387031680501</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L30" t="n">
-        <v>374.6018090363993</v>
+        <v>249.2442489785619</v>
       </c>
       <c r="M30" t="n">
-        <v>613.2059550252818</v>
+        <v>473.4149733950735</v>
       </c>
       <c r="N30" t="n">
-        <v>851.8101010141643</v>
+        <v>473.4149733950735</v>
       </c>
       <c r="O30" t="n">
-        <v>851.8101010141643</v>
+        <v>712.019119383956</v>
       </c>
       <c r="P30" t="n">
         <v>894.6625969973069</v>
@@ -6573,19 +6575,19 @@
         <v>964.0571555106362</v>
       </c>
       <c r="U30" t="n">
-        <v>735.8335372470253</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="V30" t="n">
-        <v>500.6814290152826</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="W30" t="n">
-        <v>257.2326523711826</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="X30" t="n">
-        <v>257.2326523711826</v>
+        <v>756.2056553051034</v>
       </c>
       <c r="Y30" t="n">
-        <v>257.2326523711826</v>
+        <v>548.4453565401495</v>
       </c>
     </row>
     <row r="31">
@@ -6595,25 +6597,25 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="C31" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="D31" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="E31" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="F31" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="G31" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="H31" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="I31" t="n">
         <v>19.28114311021272</v>
@@ -6655,16 +6657,16 @@
         <v>153.8134336004835</v>
       </c>
       <c r="V31" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="W31" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="X31" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="Y31" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
     </row>
     <row r="32">
@@ -6674,16 +6676,16 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>506.1786963984129</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C32" t="n">
-        <v>506.1786963984129</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D32" t="n">
-        <v>506.1786963984129</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E32" t="n">
-        <v>262.7299197543128</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F32" t="n">
         <v>19.28114311021272</v>
@@ -6719,31 +6721,31 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Q32" t="n">
-        <v>953.9655401424092</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="R32" t="n">
-        <v>802.5825927271064</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S32" t="n">
-        <v>591.4512093066566</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T32" t="n">
-        <v>506.1786963984129</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U32" t="n">
-        <v>506.1786963984129</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="V32" t="n">
-        <v>506.1786963984129</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="W32" t="n">
-        <v>506.1786963984129</v>
+        <v>749.627473042513</v>
       </c>
       <c r="X32" t="n">
         <v>506.1786963984129</v>
       </c>
       <c r="Y32" t="n">
-        <v>506.1786963984129</v>
+        <v>262.7299197543128</v>
       </c>
     </row>
     <row r="33">
@@ -6753,19 +6755,19 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>304.5465265007123</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C33" t="n">
-        <v>304.5465265007123</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D33" t="n">
-        <v>304.5465265007123</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E33" t="n">
-        <v>304.5465265007123</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F33" t="n">
-        <v>158.0119685275972</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G33" t="n">
         <v>19.28114311021272</v>
@@ -6783,16 +6785,16 @@
         <v>144.6387031680501</v>
       </c>
       <c r="L33" t="n">
-        <v>144.6387031680501</v>
+        <v>374.6018090363993</v>
       </c>
       <c r="M33" t="n">
-        <v>383.2428491569326</v>
+        <v>417.4543050195419</v>
       </c>
       <c r="N33" t="n">
-        <v>473.4149733950735</v>
+        <v>656.0584510084244</v>
       </c>
       <c r="O33" t="n">
-        <v>712.019119383956</v>
+        <v>894.6625969973069</v>
       </c>
       <c r="P33" t="n">
         <v>894.6625969973069</v>
@@ -6801,28 +6803,28 @@
         <v>964.0571555106362</v>
       </c>
       <c r="R33" t="n">
-        <v>924.0621403704131</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="S33" t="n">
-        <v>924.0621403704131</v>
+        <v>689.4702815141908</v>
       </c>
       <c r="T33" t="n">
-        <v>924.0621403704131</v>
+        <v>487.2836868729568</v>
       </c>
       <c r="U33" t="n">
-        <v>924.0621403704131</v>
+        <v>259.0600686093459</v>
       </c>
       <c r="V33" t="n">
-        <v>924.0621403704131</v>
+        <v>23.90796037760316</v>
       </c>
       <c r="W33" t="n">
-        <v>680.6133637263131</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="X33" t="n">
-        <v>472.7618635207803</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="Y33" t="n">
-        <v>472.7618635207803</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="34">
@@ -6832,7 +6834,7 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>66.78106667958005</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C34" t="n">
         <v>19.28114311021272</v>
@@ -6877,31 +6879,31 @@
         <v>153.8134336004835</v>
       </c>
       <c r="Q34" t="n">
-        <v>66.78106667958005</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="R34" t="n">
-        <v>66.78106667958005</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="S34" t="n">
-        <v>66.78106667958005</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="T34" t="n">
-        <v>66.78106667958005</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="U34" t="n">
-        <v>66.78106667958005</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="V34" t="n">
-        <v>66.78106667958005</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="W34" t="n">
-        <v>66.78106667958005</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="X34" t="n">
-        <v>66.78106667958005</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="Y34" t="n">
-        <v>66.78106667958005</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="35">
@@ -6911,13 +6913,13 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>720.6083788665362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C35" t="n">
-        <v>477.1596022224361</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D35" t="n">
-        <v>233.7108255783361</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E35" t="n">
         <v>19.28114311021272</v>
@@ -6959,28 +6961,28 @@
         <v>964.0571555106362</v>
       </c>
       <c r="R35" t="n">
-        <v>964.0571555106362</v>
+        <v>812.6742080953335</v>
       </c>
       <c r="S35" t="n">
-        <v>964.0571555106362</v>
+        <v>812.6742080953335</v>
       </c>
       <c r="T35" t="n">
-        <v>964.0571555106362</v>
+        <v>587.3248651012614</v>
       </c>
       <c r="U35" t="n">
-        <v>964.0571555106362</v>
+        <v>587.3248651012614</v>
       </c>
       <c r="V35" t="n">
-        <v>964.0571555106362</v>
+        <v>343.8760884571613</v>
       </c>
       <c r="W35" t="n">
-        <v>964.0571555106362</v>
+        <v>343.8760884571613</v>
       </c>
       <c r="X35" t="n">
-        <v>964.0571555106362</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="Y35" t="n">
-        <v>964.0571555106362</v>
+        <v>262.7299197543128</v>
       </c>
     </row>
     <row r="36">
@@ -6990,16 +6992,16 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>845.059759863481</v>
+        <v>500.6814290152826</v>
       </c>
       <c r="C36" t="n">
-        <v>670.606730582354</v>
+        <v>500.6814290152826</v>
       </c>
       <c r="D36" t="n">
-        <v>521.6723209211027</v>
+        <v>500.6814290152826</v>
       </c>
       <c r="E36" t="n">
-        <v>362.4348659156472</v>
+        <v>500.6814290152826</v>
       </c>
       <c r="F36" t="n">
         <v>362.4348659156472</v>
@@ -7017,16 +7019,16 @@
         <v>19.28114311021272</v>
       </c>
       <c r="K36" t="n">
-        <v>144.6387031680501</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L36" t="n">
-        <v>374.6018090363993</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="M36" t="n">
-        <v>374.6018090363993</v>
+        <v>234.810827406191</v>
       </c>
       <c r="N36" t="n">
-        <v>613.2059550252818</v>
+        <v>473.4149733950735</v>
       </c>
       <c r="O36" t="n">
         <v>712.019119383956</v>
@@ -7047,19 +7049,19 @@
         <v>964.0571555106362</v>
       </c>
       <c r="U36" t="n">
-        <v>964.0571555106362</v>
+        <v>735.8335372470253</v>
       </c>
       <c r="V36" t="n">
-        <v>964.0571555106362</v>
+        <v>500.6814290152826</v>
       </c>
       <c r="W36" t="n">
-        <v>964.0571555106362</v>
+        <v>500.6814290152826</v>
       </c>
       <c r="X36" t="n">
-        <v>964.0571555106362</v>
+        <v>500.6814290152826</v>
       </c>
       <c r="Y36" t="n">
-        <v>964.0571555106362</v>
+        <v>500.6814290152826</v>
       </c>
     </row>
     <row r="37">
@@ -7069,76 +7071,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="C37" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="D37" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="E37" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="F37" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="G37" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="H37" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="I37" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="J37" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="K37" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="L37" t="n">
-        <v>46.5952681179257</v>
+        <v>856.8389900280785</v>
       </c>
       <c r="M37" t="n">
-        <v>85.78330631014788</v>
+        <v>896.0270282203006</v>
       </c>
       <c r="N37" t="n">
-        <v>129.4741569655842</v>
+        <v>939.7178788757369</v>
       </c>
       <c r="O37" t="n">
-        <v>153.8134336004835</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="P37" t="n">
-        <v>153.8134336004835</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Q37" t="n">
-        <v>153.8134336004835</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="R37" t="n">
-        <v>153.8134336004835</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S37" t="n">
-        <v>153.8134336004835</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T37" t="n">
-        <v>153.8134336004835</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U37" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="V37" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="W37" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="X37" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="Y37" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
     </row>
     <row r="38">
@@ -7148,25 +7150,25 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>720.6083788665362</v>
+        <v>749.627473042513</v>
       </c>
       <c r="C38" t="n">
-        <v>720.6083788665362</v>
+        <v>749.627473042513</v>
       </c>
       <c r="D38" t="n">
-        <v>720.6083788665362</v>
+        <v>749.627473042513</v>
       </c>
       <c r="E38" t="n">
-        <v>720.6083788665362</v>
+        <v>749.627473042513</v>
       </c>
       <c r="F38" t="n">
-        <v>718.7806050553886</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="G38" t="n">
-        <v>475.3318284112885</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="H38" t="n">
-        <v>231.8830517671884</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I38" t="n">
         <v>19.28114311021272</v>
@@ -7208,16 +7210,16 @@
         <v>964.0571555106362</v>
       </c>
       <c r="V38" t="n">
-        <v>720.6083788665362</v>
+        <v>749.627473042513</v>
       </c>
       <c r="W38" t="n">
-        <v>720.6083788665362</v>
+        <v>749.627473042513</v>
       </c>
       <c r="X38" t="n">
-        <v>720.6083788665362</v>
+        <v>749.627473042513</v>
       </c>
       <c r="Y38" t="n">
-        <v>720.6083788665362</v>
+        <v>749.627473042513</v>
       </c>
     </row>
     <row r="39">
@@ -7227,16 +7229,16 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>298.4948343740486</v>
+        <v>648.4405950311615</v>
       </c>
       <c r="C39" t="n">
-        <v>124.0418050929216</v>
+        <v>473.9875657500345</v>
       </c>
       <c r="D39" t="n">
-        <v>124.0418050929216</v>
+        <v>325.0531560887832</v>
       </c>
       <c r="E39" t="n">
-        <v>124.0418050929216</v>
+        <v>165.8157010833278</v>
       </c>
       <c r="F39" t="n">
         <v>19.28114311021272</v>
@@ -7260,10 +7262,10 @@
         <v>374.6018090363993</v>
       </c>
       <c r="M39" t="n">
-        <v>613.2059550252818</v>
+        <v>374.6018090363993</v>
       </c>
       <c r="N39" t="n">
-        <v>712.019119383956</v>
+        <v>473.4149733950735</v>
       </c>
       <c r="O39" t="n">
         <v>712.019119383956</v>
@@ -7284,19 +7286,19 @@
         <v>761.8705608694022</v>
       </c>
       <c r="U39" t="n">
-        <v>533.6469426057913</v>
+        <v>761.8705608694022</v>
       </c>
       <c r="V39" t="n">
-        <v>298.4948343740486</v>
+        <v>761.8705608694022</v>
       </c>
       <c r="W39" t="n">
-        <v>298.4948343740486</v>
+        <v>761.8705608694022</v>
       </c>
       <c r="X39" t="n">
-        <v>298.4948343740486</v>
+        <v>761.8705608694022</v>
       </c>
       <c r="Y39" t="n">
-        <v>298.4948343740486</v>
+        <v>761.8705608694022</v>
       </c>
     </row>
     <row r="40">
@@ -7306,76 +7308,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C40" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D40" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E40" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F40" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G40" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H40" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I40" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J40" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="K40" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L40" t="n">
-        <v>856.8389900280785</v>
+        <v>46.5952681179257</v>
       </c>
       <c r="M40" t="n">
-        <v>896.0270282203006</v>
+        <v>85.78330631014788</v>
       </c>
       <c r="N40" t="n">
-        <v>939.7178788757369</v>
+        <v>129.4741569655842</v>
       </c>
       <c r="O40" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="P40" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="Q40" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="R40" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="S40" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="T40" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="U40" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="V40" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="W40" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="X40" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="Y40" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="41">
@@ -7385,76 +7387,76 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>257.7718183255803</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="C41" t="n">
-        <v>257.7718183255803</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="D41" t="n">
-        <v>257.7718183255803</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="E41" t="n">
-        <v>257.7718183255803</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="F41" t="n">
-        <v>18.91727947682168</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="G41" t="n">
-        <v>18.91727947682168</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="H41" t="n">
-        <v>18.91727947682168</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="I41" t="n">
-        <v>18.91727947682168</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="J41" t="n">
-        <v>18.91727947682168</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="K41" t="n">
-        <v>121.932285387744</v>
+        <v>122.2961490211351</v>
       </c>
       <c r="L41" t="n">
-        <v>302.0081369724026</v>
+        <v>302.3720006057937</v>
       </c>
       <c r="M41" t="n">
-        <v>518.9837642353068</v>
+        <v>519.3476278686978</v>
       </c>
       <c r="N41" t="n">
-        <v>724.8382864425462</v>
+        <v>725.2021500759372</v>
       </c>
       <c r="O41" t="n">
-        <v>874.0332365851942</v>
+        <v>874.3971002185853</v>
       </c>
       <c r="P41" t="n">
-        <v>945.8639738410842</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Q41" t="n">
-        <v>945.8639738410842</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="R41" t="n">
-        <v>945.8639738410842</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S41" t="n">
-        <v>945.8639738410842</v>
+        <v>752.9257720901863</v>
       </c>
       <c r="T41" t="n">
-        <v>735.4808960230977</v>
+        <v>527.5764290961142</v>
       </c>
       <c r="U41" t="n">
-        <v>735.4808960230977</v>
+        <v>518.2486856454962</v>
       </c>
       <c r="V41" t="n">
-        <v>735.4808960230977</v>
+        <v>518.2486856454962</v>
       </c>
       <c r="W41" t="n">
-        <v>496.626357174339</v>
+        <v>274.7999090013961</v>
       </c>
       <c r="X41" t="n">
-        <v>257.7718183255803</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="Y41" t="n">
-        <v>257.7718183255803</v>
+        <v>31.35113235729608</v>
       </c>
     </row>
     <row r="42">
@@ -7464,76 +7466,76 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>362.0710022822561</v>
+        <v>223.7040404982626</v>
       </c>
       <c r="C42" t="n">
-        <v>362.0710022822561</v>
+        <v>223.7040404982626</v>
       </c>
       <c r="D42" t="n">
-        <v>362.0710022822561</v>
+        <v>223.7040404982626</v>
       </c>
       <c r="E42" t="n">
-        <v>362.0710022822561</v>
+        <v>223.7040404982626</v>
       </c>
       <c r="F42" t="n">
-        <v>362.0710022822561</v>
+        <v>223.7040404982626</v>
       </c>
       <c r="G42" t="n">
-        <v>223.3401768648716</v>
+        <v>223.7040404982626</v>
       </c>
       <c r="H42" t="n">
-        <v>109.9710412724509</v>
+        <v>110.334904905842</v>
       </c>
       <c r="I42" t="n">
-        <v>19.6714121296074</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="J42" t="n">
-        <v>18.91727947682168</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="K42" t="n">
-        <v>144.2748395346591</v>
+        <v>144.6387031680501</v>
       </c>
       <c r="L42" t="n">
-        <v>225.6232706630674</v>
+        <v>374.6018090363993</v>
       </c>
       <c r="M42" t="n">
-        <v>459.7246041887357</v>
+        <v>613.2059550252818</v>
       </c>
       <c r="N42" t="n">
-        <v>459.7246041887357</v>
+        <v>712.019119383956</v>
       </c>
       <c r="O42" t="n">
-        <v>693.8259377144041</v>
+        <v>712.019119383956</v>
       </c>
       <c r="P42" t="n">
-        <v>876.4694153277549</v>
+        <v>894.6625969973069</v>
       </c>
       <c r="Q42" t="n">
-        <v>945.8639738410842</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="R42" t="n">
-        <v>945.8639738410842</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S42" t="n">
-        <v>945.8639738410842</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T42" t="n">
-        <v>945.8639738410842</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U42" t="n">
-        <v>945.8639738410842</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="V42" t="n">
-        <v>945.8639738410842</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="W42" t="n">
-        <v>707.0094349923255</v>
+        <v>720.6083788665362</v>
       </c>
       <c r="X42" t="n">
-        <v>707.0094349923255</v>
+        <v>599.6796762832846</v>
       </c>
       <c r="Y42" t="n">
-        <v>499.2491362273716</v>
+        <v>391.9193775183306</v>
       </c>
     </row>
     <row r="43">
@@ -7543,76 +7545,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>18.91727947682168</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C43" t="n">
-        <v>18.91727947682168</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D43" t="n">
-        <v>18.91727947682168</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E43" t="n">
-        <v>18.91727947682168</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F43" t="n">
-        <v>18.91727947682168</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G43" t="n">
-        <v>18.91727947682168</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H43" t="n">
-        <v>18.91727947682168</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I43" t="n">
-        <v>18.91727947682168</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J43" t="n">
-        <v>18.91727947682168</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="K43" t="n">
-        <v>18.91727947682168</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L43" t="n">
-        <v>46.23140448453466</v>
+        <v>46.5952681179257</v>
       </c>
       <c r="M43" t="n">
-        <v>85.41944267675684</v>
+        <v>85.78330631014788</v>
       </c>
       <c r="N43" t="n">
-        <v>129.1102933321932</v>
+        <v>129.4741569655842</v>
       </c>
       <c r="O43" t="n">
-        <v>153.4495699670924</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="P43" t="n">
-        <v>153.4495699670924</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="Q43" t="n">
-        <v>153.4495699670924</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="R43" t="n">
-        <v>18.91727947682168</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="S43" t="n">
-        <v>18.91727947682168</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="T43" t="n">
-        <v>18.91727947682168</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="U43" t="n">
-        <v>18.91727947682168</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="V43" t="n">
-        <v>18.91727947682168</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="W43" t="n">
-        <v>18.91727947682168</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="X43" t="n">
-        <v>18.91727947682168</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="Y43" t="n">
-        <v>18.91727947682168</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="44">
@@ -7622,76 +7624,76 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>3.166710156947247</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C44" t="n">
-        <v>3.166710156947247</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D44" t="n">
-        <v>3.166710156947247</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E44" t="n">
-        <v>3.166710156947247</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F44" t="n">
-        <v>3.166710156947247</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G44" t="n">
-        <v>3.166710156947247</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H44" t="n">
-        <v>3.166710156947247</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I44" t="n">
-        <v>3.166710156947247</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J44" t="n">
-        <v>3.166710156947247</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="K44" t="n">
-        <v>42.35474834916943</v>
+        <v>122.2961490211351</v>
       </c>
       <c r="L44" t="n">
-        <v>81.54278654139161</v>
+        <v>302.3720006057937</v>
       </c>
       <c r="M44" t="n">
-        <v>120.7308247336138</v>
+        <v>519.3476278686978</v>
       </c>
       <c r="N44" t="n">
-        <v>158.3355078473624</v>
+        <v>725.2021500759372</v>
       </c>
       <c r="O44" t="n">
-        <v>158.3355078473624</v>
+        <v>874.3971002185853</v>
       </c>
       <c r="P44" t="n">
-        <v>158.3355078473624</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Q44" t="n">
-        <v>158.3355078473624</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="R44" t="n">
-        <v>123.1178524655551</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="S44" t="n">
-        <v>123.1178524655551</v>
+        <v>742.8341567219593</v>
       </c>
       <c r="T44" t="n">
-        <v>123.1178524655551</v>
+        <v>517.4848137278872</v>
       </c>
       <c r="U44" t="n">
-        <v>83.13413836268582</v>
+        <v>274.0360370837871</v>
       </c>
       <c r="V44" t="n">
-        <v>83.13413836268582</v>
+        <v>30.58726043968704</v>
       </c>
       <c r="W44" t="n">
-        <v>83.13413836268582</v>
+        <v>30.58726043968704</v>
       </c>
       <c r="X44" t="n">
-        <v>83.13413836268582</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="Y44" t="n">
-        <v>43.15042425981653</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="45">
@@ -7701,76 +7703,76 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>43.15042425981653</v>
+        <v>69.84447166430675</v>
       </c>
       <c r="C45" t="n">
-        <v>3.166710156947247</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D45" t="n">
-        <v>3.166710156947247</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E45" t="n">
-        <v>3.166710156947247</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F45" t="n">
-        <v>3.166710156947247</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G45" t="n">
-        <v>3.166710156947247</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H45" t="n">
-        <v>3.166710156947247</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I45" t="n">
-        <v>3.166710156947247</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J45" t="n">
-        <v>3.166710156947247</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="K45" t="n">
-        <v>3.166710156947247</v>
+        <v>144.6387031680501</v>
       </c>
       <c r="L45" t="n">
-        <v>3.166710156947247</v>
+        <v>374.6018090363993</v>
       </c>
       <c r="M45" t="n">
-        <v>42.35474834916943</v>
+        <v>613.2059550252818</v>
       </c>
       <c r="N45" t="n">
-        <v>81.54278654139161</v>
+        <v>851.8101010141643</v>
       </c>
       <c r="O45" t="n">
-        <v>119.1474696551402</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="P45" t="n">
-        <v>119.1474696551402</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Q45" t="n">
-        <v>158.3355078473624</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="R45" t="n">
-        <v>158.3355078473624</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S45" t="n">
-        <v>158.3355078473624</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T45" t="n">
-        <v>158.3355078473624</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U45" t="n">
-        <v>158.3355078473624</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="V45" t="n">
-        <v>158.3355078473624</v>
+        <v>728.9050472788936</v>
       </c>
       <c r="W45" t="n">
-        <v>118.3517937444931</v>
+        <v>485.4562706347935</v>
       </c>
       <c r="X45" t="n">
-        <v>118.3517937444931</v>
+        <v>277.6047704292607</v>
       </c>
       <c r="Y45" t="n">
-        <v>78.36807964162378</v>
+        <v>69.84447166430675</v>
       </c>
     </row>
     <row r="46">
@@ -7780,76 +7782,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>43.15042425981653</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="C46" t="n">
-        <v>3.166710156947247</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="D46" t="n">
-        <v>3.166710156947247</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="E46" t="n">
-        <v>3.166710156947247</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="F46" t="n">
-        <v>3.166710156947247</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="G46" t="n">
-        <v>3.166710156947247</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H46" t="n">
-        <v>3.166710156947247</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I46" t="n">
-        <v>3.166710156947247</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J46" t="n">
-        <v>3.166710156947247</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="K46" t="n">
-        <v>3.166710156947247</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L46" t="n">
-        <v>30.48083516466022</v>
+        <v>46.5952681179257</v>
       </c>
       <c r="M46" t="n">
-        <v>69.6688733568824</v>
+        <v>85.78330631014788</v>
       </c>
       <c r="N46" t="n">
-        <v>108.8569115491046</v>
+        <v>129.4741569655842</v>
       </c>
       <c r="O46" t="n">
-        <v>133.1961881840039</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="P46" t="n">
-        <v>130.4472581485427</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="Q46" t="n">
-        <v>130.4472581485427</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="R46" t="n">
-        <v>130.4472581485427</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="S46" t="n">
-        <v>130.4472581485427</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="T46" t="n">
-        <v>130.4472581485427</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="U46" t="n">
-        <v>130.4472581485427</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="V46" t="n">
-        <v>130.4472581485427</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="W46" t="n">
-        <v>130.4472581485427</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="X46" t="n">
-        <v>90.46354404567346</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="Y46" t="n">
-        <v>50.47982994280417</v>
+        <v>153.8134336004835</v>
       </c>
     </row>
   </sheetData>
@@ -7979,22 +7981,22 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K2" t="n">
-        <v>259.6737280068211</v>
+        <v>264.2220234242092</v>
       </c>
       <c r="L2" t="n">
-        <v>273.750943367713</v>
+        <v>279.8985873492159</v>
       </c>
       <c r="M2" t="n">
-        <v>230.3462332272727</v>
+        <v>272.6952875305729</v>
       </c>
       <c r="N2" t="n">
         <v>229.4130635965909</v>
       </c>
       <c r="O2" t="n">
-        <v>269.6820883835273</v>
+        <v>230.0982114216867</v>
       </c>
       <c r="P2" t="n">
-        <v>270.8168727171101</v>
+        <v>275.3651681344982</v>
       </c>
       <c r="Q2" t="n">
         <v>212.3149906599047</v>
@@ -8058,16 +8060,16 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K3" t="n">
-        <v>177.4253159361996</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L3" t="n">
-        <v>178.1382567417148</v>
+        <v>180.9034340831744</v>
       </c>
       <c r="M3" t="n">
-        <v>181.7179108838589</v>
+        <v>186.2662063012469</v>
       </c>
       <c r="N3" t="n">
-        <v>169.3262404810591</v>
+        <v>175.4738844625619</v>
       </c>
       <c r="O3" t="n">
         <v>142.5962444444444</v>
@@ -8076,7 +8078,7 @@
         <v>133.9744074143302</v>
       </c>
       <c r="Q3" t="n">
-        <v>139.9817740860215</v>
+        <v>184.1139464652501</v>
       </c>
       <c r="R3" t="n">
         <v>45.52166981132082</v>
@@ -8146,7 +8148,7 @@
         <v>178.5096609094456</v>
       </c>
       <c r="N4" t="n">
-        <v>167.2694214270738</v>
+        <v>171.8177168444618</v>
       </c>
       <c r="O4" t="n">
         <v>163.0416663658825</v>
@@ -8216,13 +8218,13 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K5" t="n">
-        <v>259.6737280068211</v>
+        <v>264.2220234242092</v>
       </c>
       <c r="L5" t="n">
-        <v>275.3502919318278</v>
+        <v>279.8985873492159</v>
       </c>
       <c r="M5" t="n">
-        <v>268.3307616249986</v>
+        <v>272.6952875305729</v>
       </c>
       <c r="N5" t="n">
         <v>229.4130635965909</v>
@@ -8231,7 +8233,7 @@
         <v>230.0982114216867</v>
       </c>
       <c r="P5" t="n">
-        <v>270.8168727171101</v>
+        <v>275.3651681344982</v>
       </c>
       <c r="Q5" t="n">
         <v>212.3149906599047</v>
@@ -8295,16 +8297,16 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K6" t="n">
-        <v>177.4253159361996</v>
+        <v>181.9736113535876</v>
       </c>
       <c r="L6" t="n">
-        <v>178.1382567417148</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M6" t="n">
-        <v>181.7179108838589</v>
+        <v>186.2662063012469</v>
       </c>
       <c r="N6" t="n">
-        <v>169.3262404810591</v>
+        <v>173.6907663866335</v>
       </c>
       <c r="O6" t="n">
         <v>142.5962444444444</v>
@@ -8313,7 +8315,7 @@
         <v>133.9744074143302</v>
       </c>
       <c r="Q6" t="n">
-        <v>139.9817740860215</v>
+        <v>184.1139464652501</v>
       </c>
       <c r="R6" t="n">
         <v>45.52166981132082</v>
@@ -8383,7 +8385,7 @@
         <v>178.5096609094456</v>
       </c>
       <c r="N7" t="n">
-        <v>167.2694214270738</v>
+        <v>171.8177168444618</v>
       </c>
       <c r="O7" t="n">
         <v>163.0416663658825</v>
@@ -8453,22 +8455,22 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K8" t="n">
-        <v>259.6737280068211</v>
+        <v>220.0898510449805</v>
       </c>
       <c r="L8" t="n">
-        <v>275.3502919318278</v>
+        <v>279.8985873492159</v>
       </c>
       <c r="M8" t="n">
-        <v>268.3307616249986</v>
+        <v>274.4784056065013</v>
       </c>
       <c r="N8" t="n">
-        <v>229.4130635965909</v>
+        <v>271.7621178998911</v>
       </c>
       <c r="O8" t="n">
         <v>230.0982114216867</v>
       </c>
       <c r="P8" t="n">
-        <v>270.8168727171101</v>
+        <v>275.3651681344982</v>
       </c>
       <c r="Q8" t="n">
         <v>212.3149906599047</v>
@@ -8538,19 +8540,19 @@
         <v>138.5543797798742</v>
       </c>
       <c r="M9" t="n">
-        <v>142.1340339220183</v>
+        <v>186.2662063012469</v>
       </c>
       <c r="N9" t="n">
-        <v>169.3262404810591</v>
+        <v>175.4738844625619</v>
       </c>
       <c r="O9" t="n">
-        <v>182.180121406285</v>
+        <v>184.9452987477446</v>
       </c>
       <c r="P9" t="n">
-        <v>173.5582843761708</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q9" t="n">
-        <v>179.5656510478621</v>
+        <v>184.1139464652501</v>
       </c>
       <c r="R9" t="n">
         <v>45.52166981132082</v>
@@ -8620,7 +8622,7 @@
         <v>178.5096609094456</v>
       </c>
       <c r="N10" t="n">
-        <v>167.2694214270738</v>
+        <v>171.8177168444618</v>
       </c>
       <c r="O10" t="n">
         <v>163.0416663658825</v>
@@ -8690,19 +8692,19 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K11" t="n">
-        <v>258.0743794427063</v>
+        <v>220.0898510449805</v>
       </c>
       <c r="L11" t="n">
-        <v>275.3502919318278</v>
+        <v>279.8985873492159</v>
       </c>
       <c r="M11" t="n">
-        <v>269.9301101891133</v>
+        <v>274.4784056065013</v>
       </c>
       <c r="N11" t="n">
-        <v>268.9969405584315</v>
+        <v>271.7621178998911</v>
       </c>
       <c r="O11" t="n">
-        <v>230.0982114216867</v>
+        <v>274.2303838009153</v>
       </c>
       <c r="P11" t="n">
         <v>231.2329957552695</v>
@@ -8772,22 +8774,22 @@
         <v>137.841438974359</v>
       </c>
       <c r="L12" t="n">
-        <v>178.1382567417148</v>
+        <v>182.6865521591028</v>
       </c>
       <c r="M12" t="n">
         <v>142.1340339220183</v>
       </c>
       <c r="N12" t="n">
-        <v>169.3262404810591</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O12" t="n">
-        <v>182.180121406285</v>
+        <v>184.9452987477446</v>
       </c>
       <c r="P12" t="n">
-        <v>173.5582843761708</v>
+        <v>178.1065797935588</v>
       </c>
       <c r="Q12" t="n">
-        <v>139.9817740860215</v>
+        <v>184.1139464652501</v>
       </c>
       <c r="R12" t="n">
         <v>45.52166981132082</v>
@@ -8857,7 +8859,7 @@
         <v>178.5096609094456</v>
       </c>
       <c r="N13" t="n">
-        <v>167.2694214270738</v>
+        <v>171.8177168444618</v>
       </c>
       <c r="O13" t="n">
         <v>163.0416663658825</v>
@@ -8927,19 +8929,19 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K14" t="n">
-        <v>259.6737280068211</v>
+        <v>264.2220234242092</v>
       </c>
       <c r="L14" t="n">
         <v>235.7664149699872</v>
       </c>
       <c r="M14" t="n">
-        <v>269.9301101891133</v>
+        <v>274.4784056065013</v>
       </c>
       <c r="N14" t="n">
-        <v>268.9969405584315</v>
+        <v>273.5452359758195</v>
       </c>
       <c r="O14" t="n">
-        <v>268.0827398194126</v>
+        <v>272.4472657249869</v>
       </c>
       <c r="P14" t="n">
         <v>231.2329957552695</v>
@@ -9006,25 +9008,25 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K15" t="n">
-        <v>137.841438974359</v>
+        <v>180.1904932776592</v>
       </c>
       <c r="L15" t="n">
-        <v>178.1382567417148</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M15" t="n">
-        <v>180.1185623197441</v>
+        <v>186.2662063012469</v>
       </c>
       <c r="N15" t="n">
-        <v>131.3417120833333</v>
+        <v>175.4738844625619</v>
       </c>
       <c r="O15" t="n">
-        <v>182.180121406285</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P15" t="n">
-        <v>173.5582843761708</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q15" t="n">
-        <v>139.9817740860215</v>
+        <v>184.1139464652501</v>
       </c>
       <c r="R15" t="n">
         <v>45.52166981132082</v>
@@ -9094,7 +9096,7 @@
         <v>178.5096609094456</v>
       </c>
       <c r="N16" t="n">
-        <v>167.2694214270738</v>
+        <v>171.8177168444618</v>
       </c>
       <c r="O16" t="n">
         <v>163.0416663658825</v>
@@ -9164,22 +9166,22 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K17" t="n">
-        <v>264.2220234242092</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L17" t="n">
-        <v>235.7664149699872</v>
+        <v>417.6612145504504</v>
       </c>
       <c r="M17" t="n">
-        <v>274.4784056065013</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N17" t="n">
-        <v>271.7621178998911</v>
+        <v>437.3469244119842</v>
       </c>
       <c r="O17" t="n">
-        <v>274.2303838009153</v>
+        <v>380.8001812627454</v>
       </c>
       <c r="P17" t="n">
-        <v>231.2329957552695</v>
+        <v>321.7987081714826</v>
       </c>
       <c r="Q17" t="n">
         <v>212.3149906599047</v>
@@ -9246,22 +9248,22 @@
         <v>137.841438974359</v>
       </c>
       <c r="L18" t="n">
-        <v>182.6865521591028</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M18" t="n">
-        <v>142.1340339220183</v>
+        <v>312.0431814381598</v>
       </c>
       <c r="N18" t="n">
-        <v>173.6907663866335</v>
+        <v>372.3560009609923</v>
       </c>
       <c r="O18" t="n">
-        <v>186.728416823673</v>
+        <v>383.6105333221035</v>
       </c>
       <c r="P18" t="n">
         <v>133.9744074143302</v>
       </c>
       <c r="Q18" t="n">
-        <v>184.1139464652501</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R18" t="n">
         <v>45.52166981132082</v>
@@ -9480,19 +9482,19 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K21" t="n">
-        <v>264.4652370125786</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L21" t="n">
         <v>370.8403453034592</v>
       </c>
       <c r="M21" t="n">
-        <v>383.1483227996774</v>
+        <v>382.1386950879875</v>
       </c>
       <c r="N21" t="n">
         <v>372.3560009609923</v>
       </c>
       <c r="O21" t="n">
-        <v>255.9771075721939</v>
+        <v>383.6105333221035</v>
       </c>
       <c r="P21" t="n">
         <v>133.9744074143302</v>
@@ -9717,13 +9719,13 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K24" t="n">
-        <v>137.841438974359</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L24" t="n">
-        <v>138.5543797798742</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M24" t="n">
-        <v>383.1483227996774</v>
+        <v>185.4193833999402</v>
       </c>
       <c r="N24" t="n">
         <v>372.3560009609923</v>
@@ -9732,10 +9734,10 @@
         <v>383.6105333221035</v>
       </c>
       <c r="P24" t="n">
-        <v>318.4627686399372</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q24" t="n">
-        <v>186.7697506723097</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R24" t="n">
         <v>45.52166981132082</v>
@@ -9954,16 +9956,16 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K27" t="n">
-        <v>137.841438974359</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L27" t="n">
         <v>138.5543797798742</v>
       </c>
       <c r="M27" t="n">
-        <v>359.8407857361378</v>
+        <v>383.1483227996774</v>
       </c>
       <c r="N27" t="n">
-        <v>372.3560009609923</v>
+        <v>222.4246658592332</v>
       </c>
       <c r="O27" t="n">
         <v>383.6105333221035</v>
@@ -10191,22 +10193,22 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K30" t="n">
-        <v>264.4652370125786</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L30" t="n">
         <v>370.8403453034592</v>
       </c>
       <c r="M30" t="n">
-        <v>383.1483227996774</v>
+        <v>368.5691090902119</v>
       </c>
       <c r="N30" t="n">
-        <v>372.3560009609923</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O30" t="n">
-        <v>142.5962444444444</v>
+        <v>383.6105333221035</v>
       </c>
       <c r="P30" t="n">
-        <v>177.2597568922521</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q30" t="n">
         <v>210.0772877358491</v>
@@ -10431,19 +10433,19 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L33" t="n">
-        <v>138.5543797798742</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M33" t="n">
-        <v>383.1483227996774</v>
+        <v>185.4193833999402</v>
       </c>
       <c r="N33" t="n">
-        <v>222.4246658592332</v>
+        <v>372.3560009609923</v>
       </c>
       <c r="O33" t="n">
         <v>383.6105333221035</v>
       </c>
       <c r="P33" t="n">
-        <v>318.4627686399372</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q33" t="n">
         <v>210.0772877358491</v>
@@ -10665,19 +10667,19 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K36" t="n">
-        <v>264.4652370125786</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L36" t="n">
-        <v>370.8403453034592</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M36" t="n">
-        <v>142.1340339220183</v>
+        <v>359.8407857361378</v>
       </c>
       <c r="N36" t="n">
         <v>372.3560009609923</v>
       </c>
       <c r="O36" t="n">
-        <v>242.4075215744184</v>
+        <v>383.6105333221035</v>
       </c>
       <c r="P36" t="n">
         <v>318.4627686399372</v>
@@ -10908,13 +10910,13 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M39" t="n">
-        <v>383.1483227996774</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N39" t="n">
-        <v>231.1529892133072</v>
+        <v>231.1529892133073</v>
       </c>
       <c r="O39" t="n">
-        <v>142.5962444444444</v>
+        <v>383.6105333221035</v>
       </c>
       <c r="P39" t="n">
         <v>318.4627686399372</v>
@@ -11075,7 +11077,7 @@
         <v>380.8001812627454</v>
       </c>
       <c r="P41" t="n">
-        <v>303.7892960137443</v>
+        <v>321.7987081714826</v>
       </c>
       <c r="Q41" t="n">
         <v>212.3149906599047</v>
@@ -11142,16 +11144,16 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L42" t="n">
-        <v>220.7245122328118</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M42" t="n">
-        <v>378.6000273822893</v>
+        <v>383.1483227996774</v>
       </c>
       <c r="N42" t="n">
-        <v>131.3417120833333</v>
+        <v>231.1529892133072</v>
       </c>
       <c r="O42" t="n">
-        <v>379.0622379047155</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P42" t="n">
         <v>318.4627686399372</v>
@@ -11297,22 +11299,22 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K44" t="n">
-        <v>259.6737280068211</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L44" t="n">
-        <v>275.3502919318278</v>
+        <v>417.6612145504504</v>
       </c>
       <c r="M44" t="n">
-        <v>269.9301101891133</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N44" t="n">
-        <v>267.3975919943167</v>
+        <v>437.3469244119842</v>
       </c>
       <c r="O44" t="n">
-        <v>230.0982114216867</v>
+        <v>380.8001812627454</v>
       </c>
       <c r="P44" t="n">
-        <v>231.2329957552695</v>
+        <v>321.7987081714826</v>
       </c>
       <c r="Q44" t="n">
         <v>212.3149906599047</v>
@@ -11376,25 +11378,25 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K45" t="n">
-        <v>137.841438974359</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L45" t="n">
-        <v>138.5543797798742</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M45" t="n">
-        <v>181.7179108838589</v>
+        <v>383.1483227996774</v>
       </c>
       <c r="N45" t="n">
-        <v>170.9255890451739</v>
+        <v>372.3560009609923</v>
       </c>
       <c r="O45" t="n">
-        <v>180.5807728421703</v>
+        <v>255.9771075721939</v>
       </c>
       <c r="P45" t="n">
         <v>133.9744074143302</v>
       </c>
       <c r="Q45" t="n">
-        <v>179.5656510478621</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R45" t="n">
         <v>45.52166981132082</v>
@@ -11464,7 +11466,7 @@
         <v>178.5096609094456</v>
       </c>
       <c r="N46" t="n">
-        <v>167.2694214270738</v>
+        <v>171.8177168444618</v>
       </c>
       <c r="O46" t="n">
         <v>163.0416663658825</v>
@@ -22589,19 +22591,19 @@
         <v>0</v>
       </c>
       <c r="Q2" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R2" t="n">
-        <v>110.2852409793091</v>
+        <v>105.7369455619211</v>
       </c>
       <c r="S2" t="n">
-        <v>169.4361926244048</v>
+        <v>164.8878972070167</v>
       </c>
       <c r="T2" t="n">
-        <v>183.5119726022908</v>
+        <v>178.9636771849028</v>
       </c>
       <c r="U2" t="n">
-        <v>226.4708732943921</v>
+        <v>212.474035476212</v>
       </c>
       <c r="V2" t="n">
         <v>327.7522584701349</v>
@@ -22635,16 +22637,16 @@
         <v>157.6450804554009</v>
       </c>
       <c r="F3" t="n">
-        <v>145.0692123933839</v>
+        <v>106.9441862880172</v>
       </c>
       <c r="G3" t="n">
-        <v>137.3435171632106</v>
+        <v>93.21134478398204</v>
       </c>
       <c r="H3" t="n">
-        <v>112.2354442364965</v>
+        <v>68.10327185726787</v>
       </c>
       <c r="I3" t="n">
-        <v>89.39663285141508</v>
+        <v>45.26446047218649</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -22671,16 +22673,16 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>60.57395719080255</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S3" t="n">
-        <v>132.0992941419972</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T3" t="n">
-        <v>160.580851732981</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U3" t="n">
-        <v>191.8224945792435</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V3" t="n">
         <v>232.8005871494253</v>
@@ -22729,7 +22731,7 @@
         <v>93.35918011667277</v>
       </c>
       <c r="K4" t="n">
-        <v>22.26949182588285</v>
+        <v>21.47904137820059</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
@@ -22747,16 +22749,16 @@
         <v>2.721440735106512</v>
       </c>
       <c r="Q4" t="n">
-        <v>46.5781662898538</v>
+        <v>42.02987087246579</v>
       </c>
       <c r="R4" t="n">
-        <v>137.7095144153289</v>
+        <v>133.1612189979409</v>
       </c>
       <c r="S4" t="n">
-        <v>184.4327210751317</v>
+        <v>179.8844256577437</v>
       </c>
       <c r="T4" t="n">
-        <v>217.9680370670172</v>
+        <v>227.9455894282815</v>
       </c>
       <c r="U4" t="n">
         <v>286.3190293564909</v>
@@ -22793,19 +22795,19 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
-        <v>406.8760457417114</v>
+        <v>379.9537176646994</v>
       </c>
       <c r="G5" t="n">
-        <v>415.302737515135</v>
+        <v>371.1705651359065</v>
       </c>
       <c r="H5" t="n">
-        <v>339.4748021157671</v>
+        <v>295.3426297365386</v>
       </c>
       <c r="I5" t="n">
-        <v>210.4758895704059</v>
+        <v>166.3437171911773</v>
       </c>
       <c r="J5" t="n">
-        <v>11.94928935461252</v>
+        <v>0</v>
       </c>
       <c r="K5" t="n">
         <v>0</v>
@@ -22829,16 +22831,16 @@
         <v>9.990699214544804</v>
       </c>
       <c r="R5" t="n">
-        <v>110.2852409793091</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S5" t="n">
-        <v>169.4361926244048</v>
+        <v>209.0200695862453</v>
       </c>
       <c r="T5" t="n">
-        <v>183.5119726022908</v>
+        <v>223.0958495641314</v>
       </c>
       <c r="U5" t="n">
-        <v>216.4801740798473</v>
+        <v>251.3456529078365</v>
       </c>
       <c r="V5" t="n">
         <v>327.7522584701349</v>
@@ -22863,28 +22865,28 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C6" t="n">
-        <v>133.1246220264752</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D6" t="n">
-        <v>107.8611886027982</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E6" t="n">
-        <v>122.7796016274118</v>
+        <v>119.5200543500343</v>
       </c>
       <c r="F6" t="n">
-        <v>145.0692123933839</v>
+        <v>100.9370400141553</v>
       </c>
       <c r="G6" t="n">
-        <v>137.3435171632106</v>
+        <v>93.21134478398204</v>
       </c>
       <c r="H6" t="n">
         <v>112.2354442364965</v>
       </c>
       <c r="I6" t="n">
-        <v>49.81275588957449</v>
+        <v>45.26446047218649</v>
       </c>
       <c r="J6" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K6" t="n">
         <v>0</v>
@@ -22957,16 +22959,16 @@
         <v>167.9909793584588</v>
       </c>
       <c r="H7" t="n">
-        <v>122.643295545599</v>
+        <v>162.2271725074396</v>
       </c>
       <c r="I7" t="n">
-        <v>115.8665979654177</v>
+        <v>155.4504749272583</v>
       </c>
       <c r="J7" t="n">
-        <v>53.77530315483219</v>
+        <v>93.35918011667277</v>
       </c>
       <c r="K7" t="n">
-        <v>12.29193946461858</v>
+        <v>22.26949182588285</v>
       </c>
       <c r="L7" t="n">
         <v>0</v>
@@ -22981,16 +22983,16 @@
         <v>0</v>
       </c>
       <c r="P7" t="n">
-        <v>2.721440735106512</v>
+        <v>1.930990287424243</v>
       </c>
       <c r="Q7" t="n">
-        <v>86.16204325169439</v>
+        <v>42.02987087246579</v>
       </c>
       <c r="R7" t="n">
-        <v>177.2933913771695</v>
+        <v>133.1612189979409</v>
       </c>
       <c r="S7" t="n">
-        <v>224.0165980369723</v>
+        <v>179.8844256577437</v>
       </c>
       <c r="T7" t="n">
         <v>227.9455894282815</v>
@@ -23063,19 +23065,19 @@
         <v>0</v>
       </c>
       <c r="Q8" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>110.2852409793091</v>
+        <v>105.7369455619211</v>
       </c>
       <c r="S8" t="n">
-        <v>169.4361926244048</v>
+        <v>180.1391513691656</v>
       </c>
       <c r="T8" t="n">
-        <v>183.5119726022908</v>
+        <v>178.9636771849028</v>
       </c>
       <c r="U8" t="n">
-        <v>216.4801740798473</v>
+        <v>207.2134805286079</v>
       </c>
       <c r="V8" t="n">
         <v>327.7522584701349</v>
@@ -23109,16 +23111,16 @@
         <v>157.6450804554009</v>
       </c>
       <c r="F9" t="n">
-        <v>105.4853354315433</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G9" t="n">
-        <v>97.75964020137005</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H9" t="n">
-        <v>72.65156727465587</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I9" t="n">
-        <v>55.27774534968376</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -23145,16 +23147,16 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>100.1578341526431</v>
+        <v>62.03280804727645</v>
       </c>
       <c r="S9" t="n">
-        <v>171.6831711038378</v>
+        <v>127.5509987246092</v>
       </c>
       <c r="T9" t="n">
-        <v>200.1647286948216</v>
+        <v>156.032556315593</v>
       </c>
       <c r="U9" t="n">
-        <v>225.9413820809748</v>
+        <v>181.8092097017462</v>
       </c>
       <c r="V9" t="n">
         <v>232.8005871494253</v>
@@ -23191,19 +23193,19 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
-        <v>158.0134269971945</v>
+        <v>167.9909793584588</v>
       </c>
       <c r="H10" t="n">
-        <v>122.643295545599</v>
+        <v>118.095000128211</v>
       </c>
       <c r="I10" t="n">
-        <v>115.8665979654177</v>
+        <v>111.3183025480297</v>
       </c>
       <c r="J10" t="n">
-        <v>53.77530315483219</v>
+        <v>70.70604911564477</v>
       </c>
       <c r="K10" t="n">
-        <v>22.26949182588285</v>
+        <v>0</v>
       </c>
       <c r="L10" t="n">
         <v>0</v>
@@ -23267,7 +23269,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F11" t="n">
-        <v>406.8760457417114</v>
+        <v>368.0044283100869</v>
       </c>
       <c r="G11" t="n">
         <v>415.302737515135</v>
@@ -23306,22 +23308,22 @@
         <v>149.8691179411497</v>
       </c>
       <c r="S11" t="n">
-        <v>174.1545907582562</v>
+        <v>209.0200695862453</v>
       </c>
       <c r="T11" t="n">
         <v>223.0958495641314</v>
       </c>
       <c r="U11" t="n">
-        <v>251.3456529078365</v>
+        <v>207.2134805286079</v>
       </c>
       <c r="V11" t="n">
-        <v>288.1683815082943</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W11" t="n">
-        <v>309.6570917555724</v>
+        <v>305.1087963381844</v>
       </c>
       <c r="X11" t="n">
-        <v>330.1472237166284</v>
+        <v>325.5989282992405</v>
       </c>
       <c r="Y11" t="n">
         <v>386.2379386560536</v>
@@ -23355,7 +23357,7 @@
         <v>112.2354442364965</v>
       </c>
       <c r="I12" t="n">
-        <v>89.39663285141508</v>
+        <v>50.52501541979053</v>
       </c>
       <c r="J12" t="n">
         <v>0.7465913262578567</v>
@@ -23385,16 +23387,16 @@
         <v>100.1578341526431</v>
       </c>
       <c r="S12" t="n">
-        <v>136.8176922758487</v>
+        <v>127.5509987246092</v>
       </c>
       <c r="T12" t="n">
-        <v>160.580851732981</v>
+        <v>156.032556315593</v>
       </c>
       <c r="U12" t="n">
-        <v>186.3575051191342</v>
+        <v>181.8092097017462</v>
       </c>
       <c r="V12" t="n">
-        <v>193.2167101875847</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W12" t="n">
         <v>251.6949831609196</v>
@@ -23431,16 +23433,16 @@
         <v>167.9909793584588</v>
       </c>
       <c r="H13" t="n">
-        <v>137.6566757453241</v>
+        <v>161.4367220597573</v>
       </c>
       <c r="I13" t="n">
-        <v>115.8665979654177</v>
+        <v>111.3183025480297</v>
       </c>
       <c r="J13" t="n">
-        <v>53.77530315483219</v>
+        <v>49.22700773744418</v>
       </c>
       <c r="K13" t="n">
-        <v>0</v>
+        <v>22.26949182588285</v>
       </c>
       <c r="L13" t="n">
         <v>0</v>
@@ -23455,10 +23457,10 @@
         <v>0</v>
       </c>
       <c r="P13" t="n">
-        <v>0</v>
+        <v>2.721440735106512</v>
       </c>
       <c r="Q13" t="n">
-        <v>86.16204325169439</v>
+        <v>42.02987087246579</v>
       </c>
       <c r="R13" t="n">
         <v>177.2933913771695</v>
@@ -23504,16 +23506,16 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F14" t="n">
-        <v>406.8760457417114</v>
+        <v>362.7438733624829</v>
       </c>
       <c r="G14" t="n">
-        <v>415.302737515135</v>
+        <v>371.1705651359065</v>
       </c>
       <c r="H14" t="n">
-        <v>339.4748021157671</v>
+        <v>295.3426297365386</v>
       </c>
       <c r="I14" t="n">
-        <v>210.4758895704059</v>
+        <v>171.6042721387814</v>
       </c>
       <c r="J14" t="n">
         <v>11.94928935461252</v>
@@ -23543,16 +23545,16 @@
         <v>149.8691179411497</v>
       </c>
       <c r="S14" t="n">
-        <v>174.1545907582562</v>
+        <v>209.0200695862453</v>
       </c>
       <c r="T14" t="n">
-        <v>183.5119726022908</v>
+        <v>223.0958495641314</v>
       </c>
       <c r="U14" t="n">
-        <v>211.7617759459959</v>
+        <v>251.3456529078365</v>
       </c>
       <c r="V14" t="n">
-        <v>288.1683815082943</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W14" t="n">
         <v>349.240968717413</v>
@@ -23577,19 +23579,19 @@
         <v>172.7084989883157</v>
       </c>
       <c r="D15" t="n">
-        <v>147.4450655646388</v>
+        <v>103.3128931854102</v>
       </c>
       <c r="E15" t="n">
-        <v>157.6450804554009</v>
+        <v>113.5129080761724</v>
       </c>
       <c r="F15" t="n">
         <v>145.0692123933839</v>
       </c>
       <c r="G15" t="n">
-        <v>102.4780383352215</v>
+        <v>93.21134478398204</v>
       </c>
       <c r="H15" t="n">
-        <v>72.65156727465587</v>
+        <v>73.36382680487192</v>
       </c>
       <c r="I15" t="n">
         <v>89.39663285141508</v>
@@ -23619,10 +23621,10 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>60.57395719080255</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S15" t="n">
-        <v>132.0992941419972</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T15" t="n">
         <v>200.1647286948216</v>
@@ -23668,16 +23670,16 @@
         <v>167.9909793584588</v>
       </c>
       <c r="H16" t="n">
-        <v>122.643295545599</v>
+        <v>162.2271725074396</v>
       </c>
       <c r="I16" t="n">
-        <v>115.8665979654177</v>
+        <v>155.4504749272583</v>
       </c>
       <c r="J16" t="n">
-        <v>53.77530315483219</v>
+        <v>93.35918011667277</v>
       </c>
       <c r="K16" t="n">
-        <v>15.01338019972509</v>
+        <v>22.26949182588285</v>
       </c>
       <c r="L16" t="n">
         <v>0</v>
@@ -23695,13 +23697,13 @@
         <v>0</v>
       </c>
       <c r="Q16" t="n">
-        <v>86.16204325169439</v>
+        <v>42.02987087246579</v>
       </c>
       <c r="R16" t="n">
-        <v>177.2933913771695</v>
+        <v>133.1612189979409</v>
       </c>
       <c r="S16" t="n">
-        <v>224.0165980369723</v>
+        <v>181.8154159451679</v>
       </c>
       <c r="T16" t="n">
         <v>227.9455894282815</v>
@@ -23741,19 +23743,19 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F17" t="n">
-        <v>406.8760457417114</v>
+        <v>165.8617568640524</v>
       </c>
       <c r="G17" t="n">
-        <v>415.302737515135</v>
+        <v>174.288448637476</v>
       </c>
       <c r="H17" t="n">
-        <v>339.4748021157671</v>
+        <v>98.46051323810809</v>
       </c>
       <c r="I17" t="n">
-        <v>210.4758895704059</v>
+        <v>20.13049249612121</v>
       </c>
       <c r="J17" t="n">
-        <v>11.94928935461252</v>
+        <v>0</v>
       </c>
       <c r="K17" t="n">
         <v>0</v>
@@ -23777,16 +23779,16 @@
         <v>0</v>
       </c>
       <c r="R17" t="n">
-        <v>105.7369455619211</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S17" t="n">
-        <v>180.1391513691656</v>
+        <v>209.0200695862453</v>
       </c>
       <c r="T17" t="n">
-        <v>178.9636771849028</v>
+        <v>223.0958495641314</v>
       </c>
       <c r="U17" t="n">
-        <v>207.2134805286079</v>
+        <v>251.3456529078365</v>
       </c>
       <c r="V17" t="n">
         <v>327.7522584701349</v>
@@ -23817,16 +23819,16 @@
         <v>147.4450655646388</v>
       </c>
       <c r="E18" t="n">
-        <v>118.7734630237764</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F18" t="n">
-        <v>100.9370400141553</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G18" t="n">
-        <v>93.21134478398204</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H18" t="n">
-        <v>68.10327185726787</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I18" t="n">
         <v>89.39663285141508</v>
@@ -23856,22 +23858,22 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S18" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T18" t="n">
-        <v>200.1647286948216</v>
+        <v>0</v>
       </c>
       <c r="U18" t="n">
-        <v>225.9413820809748</v>
+        <v>0</v>
       </c>
       <c r="V18" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W18" t="n">
-        <v>251.6949831609196</v>
+        <v>247.1144340662031</v>
       </c>
       <c r="X18" t="n">
         <v>205.7729852034775</v>
@@ -23887,7 +23889,7 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>135.6998078027087</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
         <v>167.2468210986278</v>
@@ -23902,10 +23904,10 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
-        <v>123.8588069792302</v>
+        <v>167.9909793584588</v>
       </c>
       <c r="H19" t="n">
-        <v>161.4367220597573</v>
+        <v>162.2271725074396</v>
       </c>
       <c r="I19" t="n">
         <v>155.4504749272583</v>
@@ -23935,7 +23937,7 @@
         <v>86.16204325169439</v>
       </c>
       <c r="R19" t="n">
-        <v>133.1612189979409</v>
+        <v>177.2933913771695</v>
       </c>
       <c r="S19" t="n">
         <v>224.0165980369723</v>
@@ -23944,7 +23946,7 @@
         <v>227.9455894282815</v>
       </c>
       <c r="U19" t="n">
-        <v>286.3190293564909</v>
+        <v>153.1320617711229</v>
       </c>
       <c r="V19" t="n">
         <v>252.137643323828</v>
@@ -23981,7 +23983,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G20" t="n">
-        <v>415.302737515135</v>
+        <v>174.288448637476</v>
       </c>
       <c r="H20" t="n">
         <v>339.4748021157671</v>
@@ -23990,7 +23992,7 @@
         <v>210.4758895704059</v>
       </c>
       <c r="J20" t="n">
-        <v>11.94928935461252</v>
+        <v>0.7562331984329429</v>
       </c>
       <c r="K20" t="n">
         <v>0</v>
@@ -24014,10 +24016,10 @@
         <v>0</v>
       </c>
       <c r="R20" t="n">
-        <v>0</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S20" t="n">
-        <v>209.0200695862453</v>
+        <v>0</v>
       </c>
       <c r="T20" t="n">
         <v>0</v>
@@ -24029,10 +24031,10 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W20" t="n">
-        <v>278.8969609161378</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X20" t="n">
-        <v>128.71681180081</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y20" t="n">
         <v>386.2379386560536</v>
@@ -24048,10 +24050,10 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C21" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D21" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E21" t="n">
         <v>157.6450804554009</v>
@@ -24063,7 +24065,7 @@
         <v>137.3435171632106</v>
       </c>
       <c r="H21" t="n">
-        <v>47.56280698067039</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I21" t="n">
         <v>89.39663285141508</v>
@@ -24093,7 +24095,7 @@
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -24114,7 +24116,7 @@
         <v>205.7729852034775</v>
       </c>
       <c r="Y21" t="n">
-        <v>205.6826957773044</v>
+        <v>15.58879094515819</v>
       </c>
     </row>
     <row r="22">
@@ -24166,16 +24168,16 @@
         <v>0</v>
       </c>
       <c r="P22" t="n">
-        <v>0</v>
+        <v>2.721440735106512</v>
       </c>
       <c r="Q22" t="n">
-        <v>0</v>
+        <v>86.16204325169439</v>
       </c>
       <c r="R22" t="n">
         <v>177.2933913771695</v>
       </c>
       <c r="S22" t="n">
-        <v>179.7131144384051</v>
+        <v>90.82963045160423</v>
       </c>
       <c r="T22" t="n">
         <v>227.9455894282815</v>
@@ -24212,16 +24214,16 @@
         <v>354.683041620683</v>
       </c>
       <c r="E23" t="n">
-        <v>169.6449844288197</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F23" t="n">
         <v>165.8617568640524</v>
       </c>
       <c r="G23" t="n">
-        <v>415.302737515135</v>
+        <v>174.288448637476</v>
       </c>
       <c r="H23" t="n">
-        <v>98.46051323810809</v>
+        <v>339.4748021157671</v>
       </c>
       <c r="I23" t="n">
         <v>210.4758895704059</v>
@@ -24251,22 +24253,22 @@
         <v>9.990699214544804</v>
       </c>
       <c r="R23" t="n">
-        <v>149.8691179411497</v>
+        <v>0</v>
       </c>
       <c r="S23" t="n">
         <v>209.0200695862453</v>
       </c>
       <c r="T23" t="n">
-        <v>223.0958495641314</v>
+        <v>160.679581861839</v>
       </c>
       <c r="U23" t="n">
-        <v>251.3456529078365</v>
+        <v>10.33136403017744</v>
       </c>
       <c r="V23" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W23" t="n">
-        <v>108.226679839754</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X23" t="n">
         <v>369.731100678469</v>
@@ -24288,25 +24290,25 @@
         <v>172.7084989883157</v>
       </c>
       <c r="D24" t="n">
-        <v>83.55624250011644</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E24" t="n">
-        <v>157.6450804554009</v>
+        <v>148.2872437222263</v>
       </c>
       <c r="F24" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>137.3435171632106</v>
+        <v>0</v>
       </c>
       <c r="H24" t="n">
-        <v>112.2354442364965</v>
+        <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>89.39663285141508</v>
+        <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K24" t="n">
         <v>0</v>
@@ -24333,16 +24335,16 @@
         <v>100.1578341526431</v>
       </c>
       <c r="S24" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T24" t="n">
-        <v>200.1647286948216</v>
+        <v>0</v>
       </c>
       <c r="U24" t="n">
-        <v>0</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V24" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W24" t="n">
         <v>10.68069428326055</v>
@@ -24373,7 +24375,7 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
-        <v>12.23408043756322</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
         <v>167.9909793584588</v>
@@ -24409,7 +24411,7 @@
         <v>86.16204325169439</v>
       </c>
       <c r="R25" t="n">
-        <v>177.2933913771695</v>
+        <v>44.10642379180146</v>
       </c>
       <c r="S25" t="n">
         <v>224.0165980369723</v>
@@ -24446,7 +24448,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D26" t="n">
-        <v>113.6687527430239</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E26" t="n">
         <v>381.9303700722618</v>
@@ -24455,10 +24457,10 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G26" t="n">
-        <v>413.4932414420988</v>
+        <v>415.302737515135</v>
       </c>
       <c r="H26" t="n">
-        <v>98.46051323810809</v>
+        <v>339.4748021157671</v>
       </c>
       <c r="I26" t="n">
         <v>0</v>
@@ -24491,7 +24493,7 @@
         <v>149.8691179411497</v>
       </c>
       <c r="S26" t="n">
-        <v>209.0200695862453</v>
+        <v>0</v>
       </c>
       <c r="T26" t="n">
         <v>223.0958495641314</v>
@@ -24500,16 +24502,16 @@
         <v>251.3456529078365</v>
       </c>
       <c r="V26" t="n">
-        <v>327.7522584701349</v>
+        <v>86.73796959247585</v>
       </c>
       <c r="W26" t="n">
-        <v>349.240968717413</v>
+        <v>108.226679839754</v>
       </c>
       <c r="X26" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y26" t="n">
-        <v>145.2236497783945</v>
+        <v>352.4342232916038</v>
       </c>
     </row>
     <row r="27">
@@ -24519,7 +24521,7 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C27" t="n">
         <v>172.7084989883157</v>
@@ -24534,7 +24536,7 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G27" t="n">
-        <v>87.28582189465754</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H27" t="n">
         <v>112.2354442364965</v>
@@ -24579,7 +24581,7 @@
         <v>225.9413820809748</v>
       </c>
       <c r="V27" t="n">
-        <v>0</v>
+        <v>116.4754883813142</v>
       </c>
       <c r="W27" t="n">
         <v>10.68069428326055</v>
@@ -24661,10 +24663,10 @@
         <v>252.137643323828</v>
       </c>
       <c r="W28" t="n">
-        <v>286.522998336591</v>
+        <v>153.336030751223</v>
       </c>
       <c r="X28" t="n">
-        <v>92.52268780366916</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y28" t="n">
         <v>218.5846533520948</v>
@@ -24677,25 +24679,25 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>141.7195527858215</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C29" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D29" t="n">
-        <v>113.6687527430239</v>
+        <v>124.4792166637132</v>
       </c>
       <c r="E29" t="n">
-        <v>140.9160811946027</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F29" t="n">
-        <v>194.5906600982693</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G29" t="n">
         <v>415.302737515135</v>
       </c>
       <c r="H29" t="n">
-        <v>339.4748021157671</v>
+        <v>98.46051323810809</v>
       </c>
       <c r="I29" t="n">
         <v>210.4758895704059</v>
@@ -24731,7 +24733,7 @@
         <v>209.0200695862453</v>
       </c>
       <c r="T29" t="n">
-        <v>223.0958495641314</v>
+        <v>0</v>
       </c>
       <c r="U29" t="n">
         <v>251.3456529078365</v>
@@ -24743,7 +24745,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X29" t="n">
-        <v>369.731100678469</v>
+        <v>128.71681180081</v>
       </c>
       <c r="Y29" t="n">
         <v>386.2379386560536</v>
@@ -24756,31 +24758,31 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C30" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D30" t="n">
         <v>147.4450655646388</v>
       </c>
       <c r="E30" t="n">
-        <v>59.41660345025147</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F30" t="n">
         <v>145.0692123933839</v>
       </c>
       <c r="G30" t="n">
-        <v>0</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H30" t="n">
-        <v>112.2354442364965</v>
+        <v>17.74777975671506</v>
       </c>
       <c r="I30" t="n">
-        <v>89.39663285141508</v>
+        <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K30" t="n">
         <v>0</v>
@@ -24813,19 +24815,19 @@
         <v>200.1647286948216</v>
       </c>
       <c r="U30" t="n">
-        <v>0</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V30" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W30" t="n">
-        <v>10.68069428326055</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X30" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y30" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="31">
@@ -24856,7 +24858,7 @@
         <v>162.2271725074396</v>
       </c>
       <c r="I31" t="n">
-        <v>155.4504749272583</v>
+        <v>22.26350734189026</v>
       </c>
       <c r="J31" t="n">
         <v>93.35918011667277</v>
@@ -24895,7 +24897,7 @@
         <v>286.3190293564909</v>
       </c>
       <c r="V31" t="n">
-        <v>118.95067573846</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W31" t="n">
         <v>286.522998336591</v>
@@ -24914,7 +24916,7 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>382.7338416634806</v>
+        <v>141.7195527858215</v>
       </c>
       <c r="C32" t="n">
         <v>365.2728917710076</v>
@@ -24923,10 +24925,10 @@
         <v>354.683041620683</v>
       </c>
       <c r="E32" t="n">
-        <v>140.9160811946027</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F32" t="n">
-        <v>165.8617568640524</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G32" t="n">
         <v>415.302737515135</v>
@@ -24959,16 +24961,16 @@
         <v>0</v>
       </c>
       <c r="Q32" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R32" t="n">
-        <v>0</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S32" t="n">
-        <v>0</v>
+        <v>209.0200695862453</v>
       </c>
       <c r="T32" t="n">
-        <v>138.6760617849701</v>
+        <v>223.0958495641314</v>
       </c>
       <c r="U32" t="n">
         <v>251.3456529078365</v>
@@ -24977,13 +24979,13 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W32" t="n">
-        <v>349.240968717413</v>
+        <v>136.955583073971</v>
       </c>
       <c r="X32" t="n">
-        <v>369.731100678469</v>
+        <v>128.71681180081</v>
       </c>
       <c r="Y32" t="n">
-        <v>386.2379386560536</v>
+        <v>145.2236497783945</v>
       </c>
     </row>
     <row r="33">
@@ -24993,7 +24995,7 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C33" t="n">
         <v>172.7084989883157</v>
@@ -25005,10 +25007,10 @@
         <v>157.6450804554009</v>
       </c>
       <c r="F33" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G33" t="n">
-        <v>0</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H33" t="n">
         <v>112.2354442364965</v>
@@ -25041,25 +25043,25 @@
         <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>60.56276916382224</v>
+        <v>0</v>
       </c>
       <c r="S33" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T33" t="n">
-        <v>200.1647286948216</v>
+        <v>0</v>
       </c>
       <c r="U33" t="n">
-        <v>225.9413820809748</v>
+        <v>0</v>
       </c>
       <c r="V33" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W33" t="n">
-        <v>10.68069428326055</v>
+        <v>247.1144340662031</v>
       </c>
       <c r="X33" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y33" t="n">
         <v>205.6826957773044</v>
@@ -25075,7 +25077,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C34" t="n">
-        <v>120.2218967649542</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
         <v>148.6154730182124</v>
@@ -25117,7 +25119,7 @@
         <v>2.721440735106512</v>
       </c>
       <c r="Q34" t="n">
-        <v>0</v>
+        <v>86.16204325169439</v>
       </c>
       <c r="R34" t="n">
         <v>177.2933913771695</v>
@@ -25138,7 +25140,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X34" t="n">
-        <v>225.7096553890372</v>
+        <v>92.52268780366913</v>
       </c>
       <c r="Y34" t="n">
         <v>218.5846533520948</v>
@@ -25154,13 +25156,13 @@
         <v>141.7195527858215</v>
       </c>
       <c r="C35" t="n">
-        <v>124.2586028933485</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D35" t="n">
-        <v>113.6687527430239</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E35" t="n">
-        <v>169.6449844288197</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F35" t="n">
         <v>406.8760457417114</v>
@@ -25199,25 +25201,25 @@
         <v>9.990699214544804</v>
       </c>
       <c r="R35" t="n">
-        <v>149.8691179411497</v>
+        <v>0</v>
       </c>
       <c r="S35" t="n">
         <v>209.0200695862453</v>
       </c>
       <c r="T35" t="n">
-        <v>223.0958495641314</v>
+        <v>0</v>
       </c>
       <c r="U35" t="n">
         <v>251.3456529078365</v>
       </c>
       <c r="V35" t="n">
-        <v>327.7522584701349</v>
+        <v>86.73796959247585</v>
       </c>
       <c r="W35" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X35" t="n">
-        <v>369.731100678469</v>
+        <v>289.396393662649</v>
       </c>
       <c r="Y35" t="n">
         <v>386.2379386560536</v>
@@ -25230,19 +25232,19 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>48.72576195918364</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C36" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D36" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E36" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F36" t="n">
-        <v>145.0692123933839</v>
+        <v>8.205114924744777</v>
       </c>
       <c r="G36" t="n">
         <v>0</v>
@@ -25287,10 +25289,10 @@
         <v>200.1647286948216</v>
       </c>
       <c r="U36" t="n">
-        <v>225.9413820809748</v>
+        <v>0</v>
       </c>
       <c r="V36" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W36" t="n">
         <v>251.6949831609196</v>
@@ -25400,7 +25402,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F38" t="n">
-        <v>405.0665496686753</v>
+        <v>165.8617568640524</v>
       </c>
       <c r="G38" t="n">
         <v>174.288448637476</v>
@@ -25409,7 +25411,7 @@
         <v>98.46051323810809</v>
       </c>
       <c r="I38" t="n">
-        <v>0</v>
+        <v>210.4758895704059</v>
       </c>
       <c r="J38" t="n">
         <v>11.94928935461252</v>
@@ -25448,7 +25450,7 @@
         <v>251.3456529078365</v>
       </c>
       <c r="V38" t="n">
-        <v>86.73796959247585</v>
+        <v>115.4668728266929</v>
       </c>
       <c r="W38" t="n">
         <v>349.240968717413</v>
@@ -25467,19 +25469,19 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>166.5331836498673</v>
+        <v>54.23751747000904</v>
       </c>
       <c r="C39" t="n">
         <v>0</v>
       </c>
       <c r="D39" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E39" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F39" t="n">
-        <v>41.35615703050212</v>
+        <v>0</v>
       </c>
       <c r="G39" t="n">
         <v>137.3435171632106</v>
@@ -25524,10 +25526,10 @@
         <v>0</v>
       </c>
       <c r="U39" t="n">
-        <v>0</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V39" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W39" t="n">
         <v>251.6949831609196</v>
@@ -25594,13 +25596,13 @@
         <v>86.16204325169439</v>
       </c>
       <c r="R40" t="n">
-        <v>177.2933913771695</v>
+        <v>44.10642379180146</v>
       </c>
       <c r="S40" t="n">
         <v>224.0165980369723</v>
       </c>
       <c r="T40" t="n">
-        <v>94.7586218429135</v>
+        <v>227.9455894282815</v>
       </c>
       <c r="U40" t="n">
         <v>286.3190293564909</v>
@@ -25637,7 +25639,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F41" t="n">
-        <v>170.4100522814404</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G41" t="n">
         <v>415.302737515135</v>
@@ -25649,7 +25651,7 @@
         <v>210.4758895704059</v>
       </c>
       <c r="J41" t="n">
-        <v>11.94928935461252</v>
+        <v>0</v>
       </c>
       <c r="K41" t="n">
         <v>0</v>
@@ -25676,22 +25678,22 @@
         <v>149.8691179411497</v>
       </c>
       <c r="S41" t="n">
-        <v>209.0200695862453</v>
+        <v>0</v>
       </c>
       <c r="T41" t="n">
-        <v>14.81660252432471</v>
+        <v>0</v>
       </c>
       <c r="U41" t="n">
-        <v>251.3456529078365</v>
+        <v>242.1111868917246</v>
       </c>
       <c r="V41" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W41" t="n">
-        <v>112.774975257142</v>
+        <v>108.226679839754</v>
       </c>
       <c r="X41" t="n">
-        <v>133.265107218198</v>
+        <v>128.71681180081</v>
       </c>
       <c r="Y41" t="n">
         <v>386.2379386560536</v>
@@ -25704,7 +25706,7 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>30.72683104420298</v>
+        <v>0</v>
       </c>
       <c r="C42" t="n">
         <v>172.7084989883157</v>
@@ -25719,7 +25721,7 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G42" t="n">
-        <v>0</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H42" t="n">
         <v>0</v>
@@ -25767,10 +25769,10 @@
         <v>232.8005871494253</v>
       </c>
       <c r="W42" t="n">
-        <v>15.22898970064855</v>
+        <v>10.68069428326055</v>
       </c>
       <c r="X42" t="n">
-        <v>205.7729852034775</v>
+        <v>86.05356964605839</v>
       </c>
       <c r="Y42" t="n">
         <v>0</v>
@@ -25862,7 +25864,7 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>343.14996470164</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C44" t="n">
         <v>365.2728917710076</v>
@@ -25907,31 +25909,31 @@
         <v>0</v>
       </c>
       <c r="Q44" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R44" t="n">
-        <v>115.0036391131605</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S44" t="n">
-        <v>209.0200695862453</v>
+        <v>0</v>
       </c>
       <c r="T44" t="n">
-        <v>223.0958495641314</v>
+        <v>0</v>
       </c>
       <c r="U44" t="n">
-        <v>211.7617759459959</v>
+        <v>10.33136403017744</v>
       </c>
       <c r="V44" t="n">
-        <v>327.7522584701349</v>
+        <v>86.73796959247585</v>
       </c>
       <c r="W44" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X44" t="n">
-        <v>369.731100678469</v>
+        <v>358.5380445222895</v>
       </c>
       <c r="Y44" t="n">
-        <v>346.654061694213</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="45">
@@ -25941,10 +25943,10 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>131.6677048218782</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C45" t="n">
-        <v>133.1246220264752</v>
+        <v>122.6508037197626</v>
       </c>
       <c r="D45" t="n">
         <v>147.4450655646388</v>
@@ -26001,16 +26003,16 @@
         <v>225.9413820809748</v>
       </c>
       <c r="V45" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W45" t="n">
-        <v>212.111106199079</v>
+        <v>10.68069428326055</v>
       </c>
       <c r="X45" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y45" t="n">
-        <v>166.0988188154638</v>
+        <v>0</v>
       </c>
     </row>
     <row r="46">
@@ -26020,10 +26022,10 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>172.5758685557795</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C46" t="n">
-        <v>127.6629441367872</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D46" t="n">
         <v>148.6154730182124</v>
@@ -26035,7 +26037,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
-        <v>167.9909793584588</v>
+        <v>34.80401177309074</v>
       </c>
       <c r="H46" t="n">
         <v>162.2271725074396</v>
@@ -26062,7 +26064,7 @@
         <v>0</v>
       </c>
       <c r="P46" t="n">
-        <v>0</v>
+        <v>2.721440735106512</v>
       </c>
       <c r="Q46" t="n">
         <v>86.16204325169439</v>
@@ -26086,10 +26088,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X46" t="n">
-        <v>186.1257784271966</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y46" t="n">
-        <v>179.0007763902542</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
   </sheetData>
@@ -26123,7 +26125,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>355268.3982687963</v>
+        <v>358659.0160535968</v>
       </c>
     </row>
     <row r="3">
@@ -26131,7 +26133,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>355268.3982687963</v>
+        <v>358659.0160535968</v>
       </c>
     </row>
     <row r="4">
@@ -26139,7 +26141,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>355268.3982687963</v>
+        <v>358659.0160535965</v>
       </c>
     </row>
     <row r="5">
@@ -26147,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>355268.3982687964</v>
+        <v>358659.0160535966</v>
       </c>
     </row>
     <row r="6">
@@ -26155,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>355268.3982687964</v>
+        <v>358659.0160535966</v>
       </c>
     </row>
     <row r="7">
@@ -26163,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>358659.0160535966</v>
+        <v>498482.0175939973</v>
       </c>
     </row>
     <row r="8">
@@ -26195,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>498482.0175939975</v>
+        <v>498482.0175939976</v>
       </c>
     </row>
     <row r="12">
@@ -26203,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>498482.0175939973</v>
+        <v>498482.0175939975</v>
       </c>
     </row>
     <row r="13">
@@ -26211,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>498482.0175939976</v>
+        <v>498482.0175939975</v>
       </c>
     </row>
     <row r="14">
@@ -26227,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>495251.8800453863</v>
+        <v>498482.0175939978</v>
       </c>
     </row>
     <row r="16">
@@ -26235,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>355268.3982687963</v>
+        <v>498482.0175939975</v>
       </c>
     </row>
   </sheetData>
@@ -26311,49 +26313,49 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>59211.39971146603</v>
+        <v>59776.50267559938</v>
       </c>
       <c r="C2" t="n">
-        <v>59211.39971146602</v>
+        <v>59776.50267559939</v>
       </c>
       <c r="D2" t="n">
-        <v>59211.39971146602</v>
+        <v>59776.50267559937</v>
       </c>
       <c r="E2" t="n">
-        <v>59211.39971146601</v>
+        <v>59776.5026755994</v>
       </c>
       <c r="F2" t="n">
-        <v>59211.39971146602</v>
+        <v>59776.50267559939</v>
       </c>
       <c r="G2" t="n">
-        <v>59776.50267559938</v>
+        <v>83080.33626566621</v>
       </c>
       <c r="H2" t="n">
-        <v>83080.33626566618</v>
+        <v>83080.33626566621</v>
       </c>
       <c r="I2" t="n">
         <v>83080.33626566618</v>
       </c>
       <c r="J2" t="n">
+        <v>83080.33626566618</v>
+      </c>
+      <c r="K2" t="n">
+        <v>83080.33626566621</v>
+      </c>
+      <c r="L2" t="n">
+        <v>83080.33626566618</v>
+      </c>
+      <c r="M2" t="n">
         <v>83080.33626566619</v>
       </c>
-      <c r="K2" t="n">
+      <c r="N2" t="n">
+        <v>83080.33626566615</v>
+      </c>
+      <c r="O2" t="n">
         <v>83080.33626566618</v>
       </c>
-      <c r="L2" t="n">
-        <v>83080.33626566619</v>
-      </c>
-      <c r="M2" t="n">
+      <c r="P2" t="n">
         <v>83080.33626566618</v>
-      </c>
-      <c r="N2" t="n">
-        <v>83080.33626566616</v>
-      </c>
-      <c r="O2" t="n">
-        <v>82541.98000756433</v>
-      </c>
-      <c r="P2" t="n">
-        <v>59211.39971146602</v>
       </c>
     </row>
     <row r="3">
@@ -26363,7 +26365,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>13265.46759908291</v>
+        <v>14789.70600424422</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26378,16 +26380,16 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>1246.619549474791</v>
+        <v>53962.43490047232</v>
       </c>
       <c r="H3" t="n">
-        <v>53120.56697032503</v>
+        <v>0</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>10356.88390380382</v>
+        <v>11546.91810999089</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -26402,7 +26404,7 @@
         <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>0</v>
+        <v>47379.87821746379</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
@@ -26415,22 +26417,22 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>33.41106180436364</v>
+        <v>36.87052286425573</v>
       </c>
       <c r="C4" t="n">
-        <v>33.41106180436364</v>
+        <v>36.87052286425573</v>
       </c>
       <c r="D4" t="n">
-        <v>33.41106180436364</v>
+        <v>36.87052286425573</v>
       </c>
       <c r="E4" t="n">
-        <v>33.41106180436363</v>
+        <v>36.87052286425573</v>
       </c>
       <c r="F4" t="n">
-        <v>33.41106180436363</v>
+        <v>36.87052286425572</v>
       </c>
       <c r="G4" t="n">
-        <v>36.87052286425573</v>
+        <v>179.5324977039669</v>
       </c>
       <c r="H4" t="n">
         <v>179.5324977039669</v>
@@ -26451,13 +26453,13 @@
         <v>179.5324977039669</v>
       </c>
       <c r="N4" t="n">
-        <v>179.5324977039668</v>
+        <v>179.5324977039669</v>
       </c>
       <c r="O4" t="n">
-        <v>176.2367752791008</v>
+        <v>179.5324977039669</v>
       </c>
       <c r="P4" t="n">
-        <v>33.41106180436364</v>
+        <v>179.5324977039669</v>
       </c>
     </row>
     <row r="5">
@@ -26467,22 +26469,22 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>36034.29971927991</v>
+        <v>36310.8360806571</v>
       </c>
       <c r="C5" t="n">
-        <v>36034.29971927991</v>
+        <v>36310.8360806571</v>
       </c>
       <c r="D5" t="n">
-        <v>36034.29971927991</v>
+        <v>36310.8360806571</v>
       </c>
       <c r="E5" t="n">
-        <v>2406.699719279908</v>
+        <v>2683.236080657098</v>
       </c>
       <c r="F5" t="n">
-        <v>2406.699719279908</v>
+        <v>2683.236080657098</v>
       </c>
       <c r="G5" t="n">
-        <v>2683.236080657098</v>
+        <v>14653.66876376167</v>
       </c>
       <c r="H5" t="n">
         <v>14653.66876376167</v>
@@ -26506,10 +26508,10 @@
         <v>14653.66876376167</v>
       </c>
       <c r="O5" t="n">
-        <v>14377.13240238448</v>
+        <v>14653.66876376167</v>
       </c>
       <c r="P5" t="n">
-        <v>2406.699719279908</v>
+        <v>14653.66876376167</v>
       </c>
     </row>
     <row r="6">
@@ -26519,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>9878.221331298846</v>
+        <v>8639.0900678338</v>
       </c>
       <c r="C6" t="n">
-        <v>23143.68893038174</v>
+        <v>23428.79607207803</v>
       </c>
       <c r="D6" t="n">
-        <v>23143.68893038175</v>
+        <v>23428.79607207802</v>
       </c>
       <c r="E6" t="n">
-        <v>56771.28893038174</v>
+        <v>57056.39607207804</v>
       </c>
       <c r="F6" t="n">
-        <v>56771.28893038174</v>
+        <v>57056.39607207803</v>
       </c>
       <c r="G6" t="n">
-        <v>55809.77652260324</v>
+        <v>14284.70010372825</v>
       </c>
       <c r="H6" t="n">
-        <v>15126.56803387551</v>
+        <v>68247.13500420057</v>
       </c>
       <c r="I6" t="n">
         <v>68247.13500420054</v>
       </c>
       <c r="J6" t="n">
-        <v>57890.25110039674</v>
+        <v>56700.21689420965</v>
       </c>
       <c r="K6" t="n">
+        <v>68247.13500420057</v>
+      </c>
+      <c r="L6" t="n">
         <v>68247.13500420054</v>
       </c>
-      <c r="L6" t="n">
+      <c r="M6" t="n">
         <v>68247.13500420055</v>
       </c>
-      <c r="M6" t="n">
+      <c r="N6" t="n">
+        <v>68247.13500420051</v>
+      </c>
+      <c r="O6" t="n">
+        <v>20867.25678673675</v>
+      </c>
+      <c r="P6" t="n">
         <v>68247.13500420054</v>
-      </c>
-      <c r="N6" t="n">
-        <v>68247.13500420052</v>
-      </c>
-      <c r="O6" t="n">
-        <v>67988.61082990075</v>
-      </c>
-      <c r="P6" t="n">
-        <v>56771.28893038174</v>
       </c>
     </row>
   </sheetData>
@@ -26787,22 +26789,22 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>39.58387696184059</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="C4" t="n">
-        <v>39.58387696184059</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="D4" t="n">
-        <v>39.58387696184059</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="E4" t="n">
-        <v>39.58387696184059</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="F4" t="n">
-        <v>39.58387696184059</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="G4" t="n">
-        <v>44.13217237922859</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="H4" t="n">
         <v>241.0142888776591</v>
@@ -26826,10 +26828,10 @@
         <v>241.0142888776591</v>
       </c>
       <c r="O4" t="n">
-        <v>236.4659934602711</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="P4" t="n">
-        <v>39.58387696184059</v>
+        <v>241.0142888776591</v>
       </c>
     </row>
   </sheetData>
@@ -27009,7 +27011,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>39.58387696184059</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -27024,31 +27026,31 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>4.548295417388005</v>
+        <v>196.8821164984305</v>
       </c>
       <c r="H4" t="n">
+        <v>0</v>
+      </c>
+      <c r="I4" t="n">
+        <v>0</v>
+      </c>
+      <c r="J4" t="n">
+        <v>44.13217237922859</v>
+      </c>
+      <c r="K4" t="n">
+        <v>0</v>
+      </c>
+      <c r="L4" t="n">
+        <v>0</v>
+      </c>
+      <c r="M4" t="n">
+        <v>0</v>
+      </c>
+      <c r="N4" t="n">
+        <v>0</v>
+      </c>
+      <c r="O4" t="n">
         <v>196.8821164984305</v>
-      </c>
-      <c r="I4" t="n">
-        <v>0</v>
-      </c>
-      <c r="J4" t="n">
-        <v>39.58387696184059</v>
-      </c>
-      <c r="K4" t="n">
-        <v>0</v>
-      </c>
-      <c r="L4" t="n">
-        <v>0</v>
-      </c>
-      <c r="M4" t="n">
-        <v>0</v>
-      </c>
-      <c r="N4" t="n">
-        <v>0</v>
-      </c>
-      <c r="O4" t="n">
-        <v>0</v>
       </c>
       <c r="P4" t="n">
         <v>0</v>
@@ -27255,7 +27257,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>39.58387696184059</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27270,10 +27272,10 @@
         <v>0</v>
       </c>
       <c r="O4" t="n">
-        <v>4.548295417388005</v>
+        <v>196.8821164984305</v>
       </c>
       <c r="P4" t="n">
-        <v>196.8821164984305</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -34699,22 +34701,22 @@
         <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>39.58387696184059</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="L2" t="n">
-        <v>37.98452839772582</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="M2" t="n">
-        <v>0</v>
+        <v>42.34905430330019</v>
       </c>
       <c r="N2" t="n">
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>39.58387696184059</v>
+        <v>0</v>
       </c>
       <c r="P2" t="n">
-        <v>39.58387696184059</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="Q2" t="n">
         <v>0</v>
@@ -34778,16 +34780,16 @@
         <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>39.58387696184059</v>
+        <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>39.58387696184059</v>
+        <v>42.34905430330018</v>
       </c>
       <c r="M3" t="n">
-        <v>39.58387696184059</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="N3" t="n">
-        <v>37.98452839772582</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="O3" t="n">
         <v>0</v>
@@ -34796,7 +34798,7 @@
         <v>0</v>
       </c>
       <c r="Q3" t="n">
-        <v>0</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34866,7 +34868,7 @@
         <v>39.58387696184059</v>
       </c>
       <c r="N4" t="n">
-        <v>39.58387696184059</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="O4" t="n">
         <v>24.58512791403967</v>
@@ -34936,13 +34938,13 @@
         <v>0</v>
       </c>
       <c r="K5" t="n">
-        <v>39.58387696184059</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="L5" t="n">
-        <v>39.58387696184059</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="M5" t="n">
-        <v>37.98452839772582</v>
+        <v>42.34905430330019</v>
       </c>
       <c r="N5" t="n">
         <v>0</v>
@@ -34951,7 +34953,7 @@
         <v>0</v>
       </c>
       <c r="P5" t="n">
-        <v>39.58387696184059</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="Q5" t="n">
         <v>0</v>
@@ -35015,16 +35017,16 @@
         <v>0</v>
       </c>
       <c r="K6" t="n">
-        <v>39.58387696184059</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="L6" t="n">
-        <v>39.58387696184059</v>
+        <v>0</v>
       </c>
       <c r="M6" t="n">
-        <v>39.58387696184059</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="N6" t="n">
-        <v>37.98452839772582</v>
+        <v>42.34905430330019</v>
       </c>
       <c r="O6" t="n">
         <v>0</v>
@@ -35033,7 +35035,7 @@
         <v>0</v>
       </c>
       <c r="Q6" t="n">
-        <v>0</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35103,7 +35105,7 @@
         <v>39.58387696184059</v>
       </c>
       <c r="N7" t="n">
-        <v>39.58387696184059</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="O7" t="n">
         <v>24.58512791403967</v>
@@ -35173,22 +35175,22 @@
         <v>0</v>
       </c>
       <c r="K8" t="n">
-        <v>39.58387696184059</v>
+        <v>0</v>
       </c>
       <c r="L8" t="n">
-        <v>39.58387696184059</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="M8" t="n">
-        <v>37.98452839772582</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="N8" t="n">
-        <v>0</v>
+        <v>42.34905430330019</v>
       </c>
       <c r="O8" t="n">
         <v>0</v>
       </c>
       <c r="P8" t="n">
-        <v>39.58387696184059</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="Q8" t="n">
         <v>0</v>
@@ -35258,19 +35260,19 @@
         <v>0</v>
       </c>
       <c r="M9" t="n">
-        <v>0</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="N9" t="n">
-        <v>37.98452839772582</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="O9" t="n">
-        <v>39.58387696184059</v>
+        <v>42.34905430330019</v>
       </c>
       <c r="P9" t="n">
-        <v>39.58387696184059</v>
+        <v>0</v>
       </c>
       <c r="Q9" t="n">
-        <v>39.58387696184059</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35340,7 +35342,7 @@
         <v>39.58387696184059</v>
       </c>
       <c r="N10" t="n">
-        <v>39.58387696184059</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="O10" t="n">
         <v>24.58512791403967</v>
@@ -35410,19 +35412,19 @@
         <v>0</v>
       </c>
       <c r="K11" t="n">
-        <v>37.98452839772582</v>
+        <v>0</v>
       </c>
       <c r="L11" t="n">
-        <v>39.58387696184059</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="M11" t="n">
-        <v>39.58387696184059</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="N11" t="n">
-        <v>39.58387696184059</v>
+        <v>42.34905430330019</v>
       </c>
       <c r="O11" t="n">
-        <v>0</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="P11" t="n">
         <v>0</v>
@@ -35492,22 +35494,22 @@
         <v>0</v>
       </c>
       <c r="L12" t="n">
-        <v>39.58387696184059</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="M12" t="n">
         <v>0</v>
       </c>
       <c r="N12" t="n">
-        <v>37.98452839772582</v>
+        <v>0</v>
       </c>
       <c r="O12" t="n">
-        <v>39.58387696184059</v>
+        <v>42.34905430330018</v>
       </c>
       <c r="P12" t="n">
-        <v>39.58387696184059</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="Q12" t="n">
-        <v>0</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35577,7 +35579,7 @@
         <v>39.58387696184059</v>
       </c>
       <c r="N13" t="n">
-        <v>39.58387696184059</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="O13" t="n">
         <v>24.58512791403967</v>
@@ -35647,19 +35649,19 @@
         <v>0</v>
       </c>
       <c r="K14" t="n">
-        <v>39.58387696184059</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="L14" t="n">
         <v>0</v>
       </c>
       <c r="M14" t="n">
-        <v>39.58387696184059</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="N14" t="n">
-        <v>39.58387696184059</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="O14" t="n">
-        <v>37.98452839772582</v>
+        <v>42.34905430330016</v>
       </c>
       <c r="P14" t="n">
         <v>0</v>
@@ -35726,25 +35728,25 @@
         <v>0</v>
       </c>
       <c r="K15" t="n">
-        <v>0</v>
+        <v>42.34905430330018</v>
       </c>
       <c r="L15" t="n">
-        <v>39.58387696184059</v>
+        <v>0</v>
       </c>
       <c r="M15" t="n">
-        <v>37.98452839772582</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="N15" t="n">
-        <v>0</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="O15" t="n">
-        <v>39.58387696184059</v>
+        <v>0</v>
       </c>
       <c r="P15" t="n">
-        <v>39.58387696184059</v>
+        <v>0</v>
       </c>
       <c r="Q15" t="n">
-        <v>0</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35814,7 +35816,7 @@
         <v>39.58387696184059</v>
       </c>
       <c r="N16" t="n">
-        <v>39.58387696184059</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="O16" t="n">
         <v>24.58512791403967</v>
@@ -35884,22 +35886,22 @@
         <v>0</v>
       </c>
       <c r="K17" t="n">
-        <v>44.13217237922859</v>
+        <v>104.0555615261842</v>
       </c>
       <c r="L17" t="n">
-        <v>0</v>
+        <v>181.8947995804632</v>
       </c>
       <c r="M17" t="n">
-        <v>44.13217237922859</v>
+        <v>219.1673002655598</v>
       </c>
       <c r="N17" t="n">
-        <v>42.34905430330019</v>
+        <v>207.9338608153932</v>
       </c>
       <c r="O17" t="n">
-        <v>44.13217237922859</v>
+        <v>150.7019698410586</v>
       </c>
       <c r="P17" t="n">
-        <v>0</v>
+        <v>90.5657124162131</v>
       </c>
       <c r="Q17" t="n">
         <v>0</v>
@@ -35966,22 +35968,22 @@
         <v>0</v>
       </c>
       <c r="L18" t="n">
-        <v>44.13217237922859</v>
+        <v>232.285965523585</v>
       </c>
       <c r="M18" t="n">
-        <v>0</v>
+        <v>169.9091475161415</v>
       </c>
       <c r="N18" t="n">
-        <v>42.34905430330018</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="O18" t="n">
-        <v>44.13217237922859</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="P18" t="n">
         <v>0</v>
       </c>
       <c r="Q18" t="n">
-        <v>44.13217237922859</v>
+        <v>70.09551364982758</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36200,19 +36202,19 @@
         <v>0</v>
       </c>
       <c r="K21" t="n">
-        <v>126.6237980382196</v>
+        <v>0</v>
       </c>
       <c r="L21" t="n">
         <v>232.285965523585</v>
       </c>
       <c r="M21" t="n">
-        <v>241.0142888776591</v>
+        <v>240.0046611659691</v>
       </c>
       <c r="N21" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="O21" t="n">
-        <v>113.3808631277494</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="P21" t="n">
         <v>0</v>
@@ -36437,13 +36439,13 @@
         <v>0</v>
       </c>
       <c r="K24" t="n">
-        <v>0</v>
+        <v>126.6237980382196</v>
       </c>
       <c r="L24" t="n">
-        <v>0</v>
+        <v>232.285965523585</v>
       </c>
       <c r="M24" t="n">
-        <v>241.0142888776591</v>
+        <v>43.28534947792188</v>
       </c>
       <c r="N24" t="n">
         <v>241.0142888776591</v>
@@ -36452,10 +36454,10 @@
         <v>241.0142888776591</v>
       </c>
       <c r="P24" t="n">
-        <v>184.4883612256069</v>
+        <v>0</v>
       </c>
       <c r="Q24" t="n">
-        <v>46.78797658628819</v>
+        <v>70.09551364982758</v>
       </c>
       <c r="R24" t="n">
         <v>0</v>
@@ -36674,16 +36676,16 @@
         <v>0</v>
       </c>
       <c r="K27" t="n">
-        <v>0</v>
+        <v>126.6237980382196</v>
       </c>
       <c r="L27" t="n">
         <v>0</v>
       </c>
       <c r="M27" t="n">
-        <v>217.7067518141195</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="N27" t="n">
-        <v>241.0142888776591</v>
+        <v>91.0829537758999</v>
       </c>
       <c r="O27" t="n">
         <v>241.0142888776591</v>
@@ -36911,22 +36913,22 @@
         <v>0</v>
       </c>
       <c r="K30" t="n">
-        <v>126.6237980382196</v>
+        <v>0</v>
       </c>
       <c r="L30" t="n">
         <v>232.285965523585</v>
       </c>
       <c r="M30" t="n">
+        <v>226.4350751681936</v>
+      </c>
+      <c r="N30" t="n">
+        <v>0</v>
+      </c>
+      <c r="O30" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="N30" t="n">
-        <v>241.0142888776591</v>
-      </c>
-      <c r="O30" t="n">
-        <v>0</v>
-      </c>
       <c r="P30" t="n">
-        <v>43.28534947792182</v>
+        <v>184.4883612256069</v>
       </c>
       <c r="Q30" t="n">
         <v>70.09551364982758</v>
@@ -37151,19 +37153,19 @@
         <v>126.6237980382196</v>
       </c>
       <c r="L33" t="n">
-        <v>0</v>
+        <v>232.285965523585</v>
       </c>
       <c r="M33" t="n">
+        <v>43.28534947792188</v>
+      </c>
+      <c r="N33" t="n">
         <v>241.0142888776591</v>
-      </c>
-      <c r="N33" t="n">
-        <v>91.0829537758999</v>
       </c>
       <c r="O33" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="P33" t="n">
-        <v>184.4883612256069</v>
+        <v>0</v>
       </c>
       <c r="Q33" t="n">
         <v>70.09551364982758</v>
@@ -37385,19 +37387,19 @@
         <v>0</v>
       </c>
       <c r="K36" t="n">
-        <v>126.6237980382196</v>
+        <v>0</v>
       </c>
       <c r="L36" t="n">
-        <v>232.285965523585</v>
+        <v>0</v>
       </c>
       <c r="M36" t="n">
-        <v>0</v>
+        <v>217.7067518141195</v>
       </c>
       <c r="N36" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="O36" t="n">
-        <v>99.8112771299739</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="P36" t="n">
         <v>184.4883612256069</v>
@@ -37549,7 +37551,7 @@
         <v>181.8947995804632</v>
       </c>
       <c r="M38" t="n">
-        <v>219.1673002655597</v>
+        <v>219.1673002655598</v>
       </c>
       <c r="N38" t="n">
         <v>207.9338608153932</v>
@@ -37628,13 +37630,13 @@
         <v>232.285965523585</v>
       </c>
       <c r="M39" t="n">
+        <v>0</v>
+      </c>
+      <c r="N39" t="n">
+        <v>99.81127712997396</v>
+      </c>
+      <c r="O39" t="n">
         <v>241.0142888776591</v>
-      </c>
-      <c r="N39" t="n">
-        <v>99.8112771299739</v>
-      </c>
-      <c r="O39" t="n">
-        <v>0</v>
       </c>
       <c r="P39" t="n">
         <v>184.4883612256069</v>
@@ -37795,7 +37797,7 @@
         <v>150.7019698410586</v>
       </c>
       <c r="P41" t="n">
-        <v>72.55630025847472</v>
+        <v>90.5657124162131</v>
       </c>
       <c r="Q41" t="n">
         <v>0</v>
@@ -37862,16 +37864,16 @@
         <v>126.6237980382196</v>
       </c>
       <c r="L42" t="n">
-        <v>82.17013245293766</v>
+        <v>232.285965523585</v>
       </c>
       <c r="M42" t="n">
-        <v>236.4659934602711</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="N42" t="n">
-        <v>0</v>
+        <v>99.8112771299739</v>
       </c>
       <c r="O42" t="n">
-        <v>236.4659934602711</v>
+        <v>0</v>
       </c>
       <c r="P42" t="n">
         <v>184.4883612256069</v>
@@ -38017,22 +38019,22 @@
         <v>0</v>
       </c>
       <c r="K44" t="n">
-        <v>39.58387696184059</v>
+        <v>104.0555615261842</v>
       </c>
       <c r="L44" t="n">
-        <v>39.58387696184059</v>
+        <v>181.8947995804632</v>
       </c>
       <c r="M44" t="n">
-        <v>39.58387696184059</v>
+        <v>219.1673002655598</v>
       </c>
       <c r="N44" t="n">
-        <v>37.98452839772582</v>
+        <v>207.9338608153932</v>
       </c>
       <c r="O44" t="n">
-        <v>0</v>
+        <v>150.7019698410586</v>
       </c>
       <c r="P44" t="n">
-        <v>0</v>
+        <v>90.5657124162131</v>
       </c>
       <c r="Q44" t="n">
         <v>0</v>
@@ -38096,25 +38098,25 @@
         <v>0</v>
       </c>
       <c r="K45" t="n">
-        <v>0</v>
+        <v>126.6237980382196</v>
       </c>
       <c r="L45" t="n">
-        <v>0</v>
+        <v>232.285965523585</v>
       </c>
       <c r="M45" t="n">
-        <v>39.58387696184059</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="N45" t="n">
-        <v>39.58387696184059</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="O45" t="n">
-        <v>37.98452839772582</v>
+        <v>113.3808631277494</v>
       </c>
       <c r="P45" t="n">
         <v>0</v>
       </c>
       <c r="Q45" t="n">
-        <v>39.58387696184059</v>
+        <v>0</v>
       </c>
       <c r="R45" t="n">
         <v>0</v>
@@ -38184,7 +38186,7 @@
         <v>39.58387696184059</v>
       </c>
       <c r="N46" t="n">
-        <v>39.58387696184059</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="O46" t="n">
         <v>24.58512791403967</v>

--- a/Outputs/1. Budget/Grid Search/Output Files/750000/Output_0_10.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/750000/Output_0_10.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>373609.6494672063</v>
+        <v>268277.9841761547</v>
       </c>
     </row>
     <row r="7">
@@ -513,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>2114249.189782365</v>
+        <v>925399.3994514375</v>
       </c>
     </row>
     <row r="8">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>19492207.60956401</v>
+        <v>18327015.93006067</v>
       </c>
     </row>
     <row r="9">
@@ -543,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>5116643.000488906</v>
+        <v>5764008.847562066</v>
       </c>
     </row>
     <row r="11">
@@ -658,7 +658,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>212.2853856434421</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
@@ -706,28 +706,28 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>44.13217237922859</v>
+        <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>44.13217237922859</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>44.13217237922859</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>38.87161743162454</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
     </row>
     <row r="3">
@@ -749,19 +749,19 @@
         <v>0</v>
       </c>
       <c r="F3" t="n">
-        <v>38.12502610536668</v>
+        <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>44.13217237922859</v>
+        <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>44.13217237922859</v>
+        <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>44.13217237922859</v>
+        <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -785,7 +785,7 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -794,16 +794,16 @@
         <v>0</v>
       </c>
       <c r="U3" t="n">
-        <v>0</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V3" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W3" t="n">
-        <v>0</v>
+        <v>170.6554636898984</v>
       </c>
       <c r="X3" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y3" t="n">
         <v>0</v>
@@ -843,7 +843,7 @@
         <v>0</v>
       </c>
       <c r="K4" t="n">
-        <v>0.790450447682262</v>
+        <v>0</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
@@ -861,13 +861,13 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>44.13217237922859</v>
+        <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>44.13217237922859</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>44.13217237922859</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
         <v>0</v>
@@ -879,7 +879,7 @@
         <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="X4" t="n">
         <v>0</v>
@@ -895,28 +895,28 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>40.47627913313517</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="F5" t="n">
-        <v>26.92232807701203</v>
+        <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>44.13217237922859</v>
+        <v>0</v>
       </c>
       <c r="H5" t="n">
-        <v>44.13217237922859</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>44.13217237922859</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>11.94928935461252</v>
@@ -940,10 +940,10 @@
         <v>0</v>
       </c>
       <c r="Q5" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R5" t="n">
-        <v>0</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -980,25 +980,25 @@
         <v>0</v>
       </c>
       <c r="D6" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E6" t="n">
-        <v>38.12502610536668</v>
+        <v>140.9311839358223</v>
       </c>
       <c r="F6" t="n">
-        <v>44.13217237922859</v>
+        <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>44.13217237922859</v>
+        <v>0</v>
       </c>
       <c r="H6" t="n">
         <v>0</v>
       </c>
       <c r="I6" t="n">
-        <v>44.13217237922859</v>
+        <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K6" t="n">
         <v>0</v>
@@ -1028,7 +1028,7 @@
         <v>0</v>
       </c>
       <c r="T6" t="n">
-        <v>0</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U6" t="n">
         <v>0</v>
@@ -1037,10 +1037,10 @@
         <v>0</v>
       </c>
       <c r="W6" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="X6" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y6" t="n">
         <v>0</v>
@@ -1095,16 +1095,16 @@
         <v>0</v>
       </c>
       <c r="P7" t="n">
-        <v>0.7904504476822691</v>
+        <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>44.13217237922859</v>
+        <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>44.13217237922859</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>44.13217237922859</v>
+        <v>133.186967585368</v>
       </c>
       <c r="T7" t="n">
         <v>0</v>
@@ -1132,7 +1132,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="C8" t="n">
         <v>0</v>
@@ -1180,16 +1180,16 @@
         <v>9.990699214544804</v>
       </c>
       <c r="R8" t="n">
-        <v>44.13217237922859</v>
+        <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>28.88091821707974</v>
+        <v>202.2946864288972</v>
       </c>
       <c r="T8" t="n">
-        <v>44.13217237922859</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>44.13217237922859</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -1201,7 +1201,7 @@
         <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
     </row>
     <row r="9">
@@ -1211,10 +1211,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C9" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D9" t="n">
         <v>0</v>
@@ -1223,19 +1223,19 @@
         <v>0</v>
       </c>
       <c r="F9" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G9" t="n">
         <v>0</v>
       </c>
       <c r="H9" t="n">
-        <v>0</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I9" t="n">
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K9" t="n">
         <v>0</v>
@@ -1259,19 +1259,19 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>38.12502610536668</v>
+        <v>0</v>
       </c>
       <c r="S9" t="n">
-        <v>44.13217237922859</v>
+        <v>0</v>
       </c>
       <c r="T9" t="n">
-        <v>44.13217237922859</v>
+        <v>0</v>
       </c>
       <c r="U9" t="n">
-        <v>44.13217237922859</v>
+        <v>0</v>
       </c>
       <c r="V9" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W9" t="n">
         <v>0</v>
@@ -1280,7 +1280,7 @@
         <v>0</v>
       </c>
       <c r="Y9" t="n">
-        <v>0</v>
+        <v>105.9813258589305</v>
       </c>
     </row>
     <row r="10">
@@ -1308,16 +1308,16 @@
         <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>44.13217237922859</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>44.13217237922859</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>22.653131001028</v>
+        <v>0</v>
       </c>
       <c r="K10" t="n">
-        <v>22.26949182588285</v>
+        <v>0</v>
       </c>
       <c r="L10" t="n">
         <v>0</v>
@@ -1353,7 +1353,7 @@
         <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="X10" t="n">
         <v>0</v>
@@ -1381,10 +1381,10 @@
         <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>38.87161743162454</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="G11" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="H11" t="n">
         <v>0</v>
@@ -1414,7 +1414,7 @@
         <v>0</v>
       </c>
       <c r="Q11" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R11" t="n">
         <v>0</v>
@@ -1423,22 +1423,22 @@
         <v>0</v>
       </c>
       <c r="T11" t="n">
-        <v>0</v>
+        <v>202.2946864288972</v>
       </c>
       <c r="U11" t="n">
-        <v>44.13217237922859</v>
+        <v>0</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
       </c>
       <c r="W11" t="n">
-        <v>44.13217237922859</v>
+        <v>0</v>
       </c>
       <c r="X11" t="n">
-        <v>44.13217237922859</v>
+        <v>0</v>
       </c>
       <c r="Y11" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
     </row>
     <row r="12">
@@ -1469,7 +1469,7 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>38.87161743162454</v>
+        <v>0</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -1496,28 +1496,28 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>0</v>
+        <v>29.8892983910557</v>
       </c>
       <c r="S12" t="n">
-        <v>44.13217237922859</v>
+        <v>0</v>
       </c>
       <c r="T12" t="n">
-        <v>44.13217237922859</v>
+        <v>0</v>
       </c>
       <c r="U12" t="n">
-        <v>44.13217237922859</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V12" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W12" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="X12" t="n">
         <v>0</v>
       </c>
       <c r="Y12" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="13">
@@ -1542,16 +1542,16 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="H13" t="n">
-        <v>0.7904504476822691</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>44.13217237922859</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>44.13217237922859</v>
+        <v>0</v>
       </c>
       <c r="K13" t="n">
         <v>0</v>
@@ -1572,7 +1572,7 @@
         <v>0</v>
       </c>
       <c r="Q13" t="n">
-        <v>44.13217237922859</v>
+        <v>0</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -1606,7 +1606,7 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0</v>
+        <v>240.2580556792261</v>
       </c>
       <c r="C14" t="n">
         <v>0</v>
@@ -1618,19 +1618,19 @@
         <v>0</v>
       </c>
       <c r="F14" t="n">
-        <v>44.13217237922859</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="G14" t="n">
-        <v>44.13217237922859</v>
+        <v>0</v>
       </c>
       <c r="H14" t="n">
-        <v>44.13217237922859</v>
+        <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>38.87161743162454</v>
+        <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>0</v>
+        <v>11.94928935461252</v>
       </c>
       <c r="K14" t="n">
         <v>0</v>
@@ -1651,16 +1651,16 @@
         <v>0</v>
       </c>
       <c r="Q14" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R14" t="n">
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>0</v>
+        <v>209.0200695862453</v>
       </c>
       <c r="T14" t="n">
-        <v>0</v>
+        <v>223.0958495641314</v>
       </c>
       <c r="U14" t="n">
         <v>0</v>
@@ -1691,19 +1691,19 @@
         <v>0</v>
       </c>
       <c r="D15" t="n">
-        <v>44.13217237922859</v>
+        <v>0</v>
       </c>
       <c r="E15" t="n">
-        <v>44.13217237922859</v>
+        <v>0</v>
       </c>
       <c r="F15" t="n">
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>44.13217237922859</v>
+        <v>0</v>
       </c>
       <c r="H15" t="n">
-        <v>38.87161743162454</v>
+        <v>0</v>
       </c>
       <c r="I15" t="n">
         <v>0</v>
@@ -1733,7 +1733,7 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>0</v>
+        <v>29.8892983910557</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -1742,19 +1742,19 @@
         <v>0</v>
       </c>
       <c r="U15" t="n">
-        <v>0</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V15" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W15" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="X15" t="n">
         <v>0</v>
       </c>
       <c r="Y15" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="16">
@@ -1806,16 +1806,16 @@
         <v>0</v>
       </c>
       <c r="P16" t="n">
-        <v>2.721440735106512</v>
+        <v>0</v>
       </c>
       <c r="Q16" t="n">
-        <v>44.13217237922859</v>
+        <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>44.13217237922859</v>
+        <v>133.186967585368</v>
       </c>
       <c r="S16" t="n">
-        <v>42.20118209180435</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
         <v>0</v>
@@ -1855,19 +1855,19 @@
         <v>0</v>
       </c>
       <c r="F17" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="H17" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="I17" t="n">
-        <v>190.3453970742847</v>
+        <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>11.94928935461252</v>
+        <v>0</v>
       </c>
       <c r="K17" t="n">
         <v>0</v>
@@ -1888,16 +1888,16 @@
         <v>0</v>
       </c>
       <c r="Q17" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R17" t="n">
-        <v>0</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S17" t="n">
-        <v>0</v>
+        <v>80.33470701582003</v>
       </c>
       <c r="T17" t="n">
-        <v>0</v>
+        <v>223.0958495641314</v>
       </c>
       <c r="U17" t="n">
         <v>0</v>
@@ -1906,7 +1906,7 @@
         <v>0</v>
       </c>
       <c r="W17" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="X17" t="n">
         <v>0</v>
@@ -1934,13 +1934,13 @@
         <v>0</v>
       </c>
       <c r="F18" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G18" t="n">
-        <v>0</v>
+        <v>104.0508854668113</v>
       </c>
       <c r="H18" t="n">
-        <v>0</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I18" t="n">
         <v>0</v>
@@ -1973,19 +1973,19 @@
         <v>100.1578341526431</v>
       </c>
       <c r="S18" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T18" t="n">
-        <v>200.1647286948216</v>
+        <v>0</v>
       </c>
       <c r="U18" t="n">
-        <v>225.9413820809748</v>
+        <v>0</v>
       </c>
       <c r="V18" t="n">
         <v>232.8005871494253</v>
       </c>
       <c r="W18" t="n">
-        <v>4.580549094716531</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="X18" t="n">
         <v>0</v>
@@ -2055,10 +2055,10 @@
         <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="U19" t="n">
-        <v>133.186967585368</v>
+        <v>0</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -2080,7 +2080,7 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="C20" t="n">
         <v>0</v>
@@ -2104,7 +2104,7 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>11.19305615617957</v>
+        <v>0</v>
       </c>
       <c r="K20" t="n">
         <v>0</v>
@@ -2125,31 +2125,31 @@
         <v>0</v>
       </c>
       <c r="Q20" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R20" t="n">
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>209.0200695862453</v>
+        <v>0</v>
       </c>
       <c r="T20" t="n">
-        <v>223.0958495641314</v>
+        <v>212.285385643442</v>
       </c>
       <c r="U20" t="n">
+        <v>0</v>
+      </c>
+      <c r="V20" t="n">
+        <v>0</v>
+      </c>
+      <c r="W20" t="n">
+        <v>0</v>
+      </c>
+      <c r="X20" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y20" t="n">
         <v>241.0142888776591</v>
-      </c>
-      <c r="V20" t="n">
-        <v>0</v>
-      </c>
-      <c r="W20" t="n">
-        <v>0</v>
-      </c>
-      <c r="X20" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y20" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="21">
@@ -2159,7 +2159,7 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>0</v>
+        <v>76.56695936884228</v>
       </c>
       <c r="C21" t="n">
         <v>0</v>
@@ -2174,7 +2174,7 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>0</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H21" t="n">
         <v>0</v>
@@ -2207,28 +2207,28 @@
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S21" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T21" t="n">
-        <v>200.1647286948216</v>
+        <v>0</v>
       </c>
       <c r="U21" t="n">
-        <v>225.9413820809748</v>
+        <v>0</v>
       </c>
       <c r="V21" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W21" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="X21" t="n">
         <v>0</v>
       </c>
       <c r="Y21" t="n">
-        <v>190.0939048321462</v>
+        <v>0</v>
       </c>
     </row>
     <row r="22">
@@ -2289,16 +2289,16 @@
         <v>0</v>
       </c>
       <c r="S22" t="n">
+        <v>0</v>
+      </c>
+      <c r="T22" t="n">
+        <v>0</v>
+      </c>
+      <c r="U22" t="n">
+        <v>0</v>
+      </c>
+      <c r="V22" t="n">
         <v>133.186967585368</v>
-      </c>
-      <c r="T22" t="n">
-        <v>0</v>
-      </c>
-      <c r="U22" t="n">
-        <v>0</v>
-      </c>
-      <c r="V22" t="n">
-        <v>0</v>
       </c>
       <c r="W22" t="n">
         <v>0</v>
@@ -2329,10 +2329,10 @@
         <v>0</v>
       </c>
       <c r="F23" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="H23" t="n">
         <v>0</v>
@@ -2362,28 +2362,28 @@
         <v>0</v>
       </c>
       <c r="Q23" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R23" t="n">
         <v>149.8691179411497</v>
       </c>
       <c r="S23" t="n">
-        <v>0</v>
+        <v>52.42556848774752</v>
       </c>
       <c r="T23" t="n">
-        <v>62.4162677022923</v>
+        <v>0</v>
       </c>
       <c r="U23" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="V23" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="W23" t="n">
         <v>0</v>
       </c>
       <c r="X23" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="Y23" t="n">
         <v>0</v>
@@ -2405,19 +2405,19 @@
         <v>0</v>
       </c>
       <c r="E24" t="n">
-        <v>9.357836733174581</v>
+        <v>0</v>
       </c>
       <c r="F24" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>137.3435171632106</v>
+        <v>0</v>
       </c>
       <c r="H24" t="n">
-        <v>112.2354442364965</v>
+        <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>89.39663285141508</v>
+        <v>0</v>
       </c>
       <c r="J24" t="n">
         <v>0.7465913262578567</v>
@@ -2444,25 +2444,25 @@
         <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
       </c>
       <c r="T24" t="n">
-        <v>200.1647286948216</v>
+        <v>0</v>
       </c>
       <c r="U24" t="n">
-        <v>0</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V24" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W24" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="X24" t="n">
-        <v>0</v>
+        <v>134.667568689459</v>
       </c>
       <c r="Y24" t="n">
         <v>0</v>
@@ -2487,7 +2487,7 @@
         <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="G25" t="n">
         <v>0</v>
@@ -2523,7 +2523,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>133.186967585368</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
         <v>0</v>
@@ -2560,7 +2560,7 @@
         <v>0</v>
       </c>
       <c r="D26" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="E26" t="n">
         <v>0</v>
@@ -2575,7 +2575,7 @@
         <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>210.4758895704059</v>
+        <v>0</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -2602,19 +2602,19 @@
         <v>0</v>
       </c>
       <c r="R26" t="n">
-        <v>0</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S26" t="n">
         <v>209.0200695862453</v>
       </c>
       <c r="T26" t="n">
-        <v>0</v>
+        <v>94.41048699370604</v>
       </c>
       <c r="U26" t="n">
         <v>0</v>
       </c>
       <c r="V26" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="W26" t="n">
         <v>241.0142888776591</v>
@@ -2623,7 +2623,7 @@
         <v>0</v>
       </c>
       <c r="Y26" t="n">
-        <v>33.80371536444981</v>
+        <v>0</v>
       </c>
     </row>
     <row r="27">
@@ -2633,22 +2633,22 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C27" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D27" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E27" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F27" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G27" t="n">
-        <v>0</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H27" t="n">
         <v>0</v>
@@ -2681,28 +2681,28 @@
         <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
       </c>
       <c r="T27" t="n">
-        <v>0</v>
+        <v>74.95904355882617</v>
       </c>
       <c r="U27" t="n">
         <v>0</v>
       </c>
       <c r="V27" t="n">
-        <v>116.325098768111</v>
+        <v>0</v>
       </c>
       <c r="W27" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="X27" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y27" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="28">
@@ -2721,7 +2721,7 @@
         <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="F28" t="n">
         <v>0</v>
@@ -2775,7 +2775,7 @@
         <v>0</v>
       </c>
       <c r="W28" t="n">
-        <v>133.186967585368</v>
+        <v>0</v>
       </c>
       <c r="X28" t="n">
         <v>0</v>
@@ -2797,67 +2797,67 @@
         <v>0</v>
       </c>
       <c r="D29" t="n">
-        <v>230.2038249569697</v>
+        <v>0</v>
       </c>
       <c r="E29" t="n">
         <v>0</v>
       </c>
       <c r="F29" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="G29" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="H29" t="n">
+        <v>0</v>
+      </c>
+      <c r="I29" t="n">
+        <v>0</v>
+      </c>
+      <c r="J29" t="n">
+        <v>0</v>
+      </c>
+      <c r="K29" t="n">
+        <v>0</v>
+      </c>
+      <c r="L29" t="n">
+        <v>0</v>
+      </c>
+      <c r="M29" t="n">
+        <v>0</v>
+      </c>
+      <c r="N29" t="n">
+        <v>0</v>
+      </c>
+      <c r="O29" t="n">
+        <v>0</v>
+      </c>
+      <c r="P29" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q29" t="n">
+        <v>9.990699214544804</v>
+      </c>
+      <c r="R29" t="n">
+        <v>0</v>
+      </c>
+      <c r="S29" t="n">
+        <v>0</v>
+      </c>
+      <c r="T29" t="n">
+        <v>0</v>
+      </c>
+      <c r="U29" t="n">
+        <v>0</v>
+      </c>
+      <c r="V29" t="n">
+        <v>202.2946864288972</v>
+      </c>
+      <c r="W29" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="I29" t="n">
-        <v>0</v>
-      </c>
-      <c r="J29" t="n">
-        <v>0</v>
-      </c>
-      <c r="K29" t="n">
-        <v>0</v>
-      </c>
-      <c r="L29" t="n">
-        <v>0</v>
-      </c>
-      <c r="M29" t="n">
-        <v>0</v>
-      </c>
-      <c r="N29" t="n">
-        <v>0</v>
-      </c>
-      <c r="O29" t="n">
-        <v>0</v>
-      </c>
-      <c r="P29" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q29" t="n">
-        <v>0</v>
-      </c>
-      <c r="R29" t="n">
-        <v>0</v>
-      </c>
-      <c r="S29" t="n">
-        <v>0</v>
-      </c>
-      <c r="T29" t="n">
-        <v>223.0958495641314</v>
-      </c>
-      <c r="U29" t="n">
-        <v>0</v>
-      </c>
-      <c r="V29" t="n">
-        <v>0</v>
-      </c>
-      <c r="W29" t="n">
-        <v>0</v>
-      </c>
       <c r="X29" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="Y29" t="n">
         <v>0</v>
@@ -2870,25 +2870,25 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C30" t="n">
-        <v>172.7084989883157</v>
+        <v>45.28887413297245</v>
       </c>
       <c r="D30" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E30" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F30" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G30" t="n">
-        <v>0</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H30" t="n">
-        <v>94.4876644797814</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I30" t="n">
         <v>89.39663285141508</v>
@@ -2918,7 +2918,7 @@
         <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -2936,10 +2936,10 @@
         <v>0</v>
       </c>
       <c r="X30" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y30" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="31">
@@ -2970,49 +2970,49 @@
         <v>0</v>
       </c>
       <c r="I31" t="n">
+        <v>0</v>
+      </c>
+      <c r="J31" t="n">
+        <v>0</v>
+      </c>
+      <c r="K31" t="n">
+        <v>0</v>
+      </c>
+      <c r="L31" t="n">
+        <v>0</v>
+      </c>
+      <c r="M31" t="n">
+        <v>0</v>
+      </c>
+      <c r="N31" t="n">
+        <v>0</v>
+      </c>
+      <c r="O31" t="n">
+        <v>0</v>
+      </c>
+      <c r="P31" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q31" t="n">
+        <v>0</v>
+      </c>
+      <c r="R31" t="n">
+        <v>0</v>
+      </c>
+      <c r="S31" t="n">
+        <v>0</v>
+      </c>
+      <c r="T31" t="n">
+        <v>0</v>
+      </c>
+      <c r="U31" t="n">
+        <v>0</v>
+      </c>
+      <c r="V31" t="n">
+        <v>0</v>
+      </c>
+      <c r="W31" t="n">
         <v>133.186967585368</v>
-      </c>
-      <c r="J31" t="n">
-        <v>0</v>
-      </c>
-      <c r="K31" t="n">
-        <v>0</v>
-      </c>
-      <c r="L31" t="n">
-        <v>0</v>
-      </c>
-      <c r="M31" t="n">
-        <v>0</v>
-      </c>
-      <c r="N31" t="n">
-        <v>0</v>
-      </c>
-      <c r="O31" t="n">
-        <v>0</v>
-      </c>
-      <c r="P31" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q31" t="n">
-        <v>0</v>
-      </c>
-      <c r="R31" t="n">
-        <v>0</v>
-      </c>
-      <c r="S31" t="n">
-        <v>0</v>
-      </c>
-      <c r="T31" t="n">
-        <v>0</v>
-      </c>
-      <c r="U31" t="n">
-        <v>0</v>
-      </c>
-      <c r="V31" t="n">
-        <v>0</v>
-      </c>
-      <c r="W31" t="n">
-        <v>0</v>
       </c>
       <c r="X31" t="n">
         <v>0</v>
@@ -3028,25 +3028,25 @@
         </is>
       </c>
       <c r="B32" t="n">
+        <v>0</v>
+      </c>
+      <c r="C32" t="n">
+        <v>0</v>
+      </c>
+      <c r="D32" t="n">
+        <v>0</v>
+      </c>
+      <c r="E32" t="n">
+        <v>0</v>
+      </c>
+      <c r="F32" t="n">
+        <v>0</v>
+      </c>
+      <c r="G32" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="C32" t="n">
-        <v>0</v>
-      </c>
-      <c r="D32" t="n">
-        <v>0</v>
-      </c>
-      <c r="E32" t="n">
-        <v>0</v>
-      </c>
-      <c r="F32" t="n">
-        <v>0</v>
-      </c>
-      <c r="G32" t="n">
-        <v>0</v>
-      </c>
       <c r="H32" t="n">
-        <v>0</v>
+        <v>102.3382270926889</v>
       </c>
       <c r="I32" t="n">
         <v>0</v>
@@ -3073,16 +3073,16 @@
         <v>0</v>
       </c>
       <c r="Q32" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R32" t="n">
-        <v>0</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S32" t="n">
-        <v>0</v>
+        <v>209.0200695862453</v>
       </c>
       <c r="T32" t="n">
-        <v>0</v>
+        <v>223.0958495641314</v>
       </c>
       <c r="U32" t="n">
         <v>0</v>
@@ -3091,13 +3091,13 @@
         <v>0</v>
       </c>
       <c r="W32" t="n">
-        <v>212.285385643442</v>
+        <v>0</v>
       </c>
       <c r="X32" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="Y32" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
     </row>
     <row r="33">
@@ -3110,7 +3110,7 @@
         <v>0</v>
       </c>
       <c r="C33" t="n">
-        <v>0</v>
+        <v>64.38401073897946</v>
       </c>
       <c r="D33" t="n">
         <v>0</v>
@@ -3131,7 +3131,7 @@
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K33" t="n">
         <v>0</v>
@@ -3155,13 +3155,13 @@
         <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S33" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T33" t="n">
-        <v>200.1647286948216</v>
+        <v>0</v>
       </c>
       <c r="U33" t="n">
         <v>225.9413820809748</v>
@@ -3170,13 +3170,13 @@
         <v>232.8005871494253</v>
       </c>
       <c r="W33" t="n">
-        <v>4.580549094716531</v>
+        <v>0</v>
       </c>
       <c r="X33" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y33" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="34">
@@ -3234,7 +3234,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="S34" t="n">
         <v>0</v>
@@ -3252,7 +3252,7 @@
         <v>0</v>
       </c>
       <c r="X34" t="n">
-        <v>133.186967585368</v>
+        <v>0</v>
       </c>
       <c r="Y34" t="n">
         <v>0</v>
@@ -3265,31 +3265,31 @@
         </is>
       </c>
       <c r="B35" t="n">
+        <v>0</v>
+      </c>
+      <c r="C35" t="n">
+        <v>0</v>
+      </c>
+      <c r="D35" t="n">
+        <v>0</v>
+      </c>
+      <c r="E35" t="n">
+        <v>0</v>
+      </c>
+      <c r="F35" t="n">
+        <v>0</v>
+      </c>
+      <c r="G35" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="C35" t="n">
-        <v>0</v>
-      </c>
-      <c r="D35" t="n">
-        <v>0</v>
-      </c>
-      <c r="E35" t="n">
-        <v>0</v>
-      </c>
-      <c r="F35" t="n">
-        <v>0</v>
-      </c>
-      <c r="G35" t="n">
-        <v>0</v>
-      </c>
       <c r="H35" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="I35" t="n">
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>0</v>
+        <v>11.94928935461252</v>
       </c>
       <c r="K35" t="n">
         <v>0</v>
@@ -3316,7 +3316,7 @@
         <v>149.8691179411497</v>
       </c>
       <c r="S35" t="n">
-        <v>0</v>
+        <v>68.38541766120755</v>
       </c>
       <c r="T35" t="n">
         <v>223.0958495641314</v>
@@ -3325,13 +3325,13 @@
         <v>0</v>
       </c>
       <c r="V35" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="W35" t="n">
         <v>0</v>
       </c>
       <c r="X35" t="n">
-        <v>80.33470701582003</v>
+        <v>0</v>
       </c>
       <c r="Y35" t="n">
         <v>0</v>
@@ -3347,22 +3347,22 @@
         <v>0</v>
       </c>
       <c r="C36" t="n">
-        <v>0</v>
+        <v>61.5792418851937</v>
       </c>
       <c r="D36" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E36" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F36" t="n">
-        <v>136.8640974686391</v>
+        <v>0</v>
       </c>
       <c r="G36" t="n">
         <v>137.3435171632106</v>
       </c>
       <c r="H36" t="n">
-        <v>112.2354442364965</v>
+        <v>0</v>
       </c>
       <c r="I36" t="n">
         <v>89.39663285141508</v>
@@ -3392,7 +3392,7 @@
         <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -3401,13 +3401,13 @@
         <v>0</v>
       </c>
       <c r="U36" t="n">
-        <v>225.9413820809748</v>
+        <v>0</v>
       </c>
       <c r="V36" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W36" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="X36" t="n">
         <v>0</v>
@@ -3480,13 +3480,13 @@
         <v>0</v>
       </c>
       <c r="U37" t="n">
+        <v>0</v>
+      </c>
+      <c r="V37" t="n">
+        <v>0</v>
+      </c>
+      <c r="W37" t="n">
         <v>133.186967585368</v>
-      </c>
-      <c r="V37" t="n">
-        <v>0</v>
-      </c>
-      <c r="W37" t="n">
-        <v>0</v>
       </c>
       <c r="X37" t="n">
         <v>0</v>
@@ -3502,7 +3502,7 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="C38" t="n">
         <v>0</v>
@@ -3514,13 +3514,13 @@
         <v>0</v>
       </c>
       <c r="F38" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="G38" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="H38" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="I38" t="n">
         <v>0</v>
@@ -3547,7 +3547,7 @@
         <v>0</v>
       </c>
       <c r="Q38" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R38" t="n">
         <v>0</v>
@@ -3556,13 +3556,13 @@
         <v>0</v>
       </c>
       <c r="T38" t="n">
-        <v>0</v>
+        <v>223.0958495641314</v>
       </c>
       <c r="U38" t="n">
-        <v>0</v>
+        <v>220.2131257424249</v>
       </c>
       <c r="V38" t="n">
-        <v>212.285385643442</v>
+        <v>0</v>
       </c>
       <c r="W38" t="n">
         <v>0</v>
@@ -3581,10 +3581,10 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>112.2956661798583</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C39" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D39" t="n">
         <v>147.4450655646388</v>
@@ -3593,13 +3593,13 @@
         <v>157.6450804554009</v>
       </c>
       <c r="F39" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G39" t="n">
         <v>0</v>
       </c>
       <c r="H39" t="n">
-        <v>0</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I39" t="n">
         <v>0</v>
@@ -3629,10 +3629,10 @@
         <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S39" t="n">
-        <v>0</v>
+        <v>51.14691552255101</v>
       </c>
       <c r="T39" t="n">
         <v>200.1647286948216</v>
@@ -3708,19 +3708,19 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
+        <v>0</v>
+      </c>
+      <c r="S40" t="n">
+        <v>0</v>
+      </c>
+      <c r="T40" t="n">
+        <v>0</v>
+      </c>
+      <c r="U40" t="n">
+        <v>0</v>
+      </c>
+      <c r="V40" t="n">
         <v>133.186967585368</v>
-      </c>
-      <c r="S40" t="n">
-        <v>0</v>
-      </c>
-      <c r="T40" t="n">
-        <v>0</v>
-      </c>
-      <c r="U40" t="n">
-        <v>0</v>
-      </c>
-      <c r="V40" t="n">
-        <v>0</v>
       </c>
       <c r="W40" t="n">
         <v>0</v>
@@ -3754,16 +3754,16 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="H41" t="n">
         <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>0</v>
+        <v>210.4758895704059</v>
       </c>
       <c r="J41" t="n">
-        <v>11.94928935461252</v>
+        <v>0</v>
       </c>
       <c r="K41" t="n">
         <v>0</v>
@@ -3790,13 +3790,13 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>209.0200695862453</v>
+        <v>0</v>
       </c>
       <c r="T41" t="n">
         <v>223.0958495641314</v>
       </c>
       <c r="U41" t="n">
-        <v>9.234466016111892</v>
+        <v>0</v>
       </c>
       <c r="V41" t="n">
         <v>0</v>
@@ -3805,10 +3805,10 @@
         <v>241.0142888776591</v>
       </c>
       <c r="X41" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="Y41" t="n">
-        <v>0</v>
+        <v>19.7279353865638</v>
       </c>
     </row>
     <row r="42">
@@ -3818,7 +3818,7 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C42" t="n">
         <v>0</v>
@@ -3836,13 +3836,13 @@
         <v>0</v>
       </c>
       <c r="H42" t="n">
-        <v>112.2354442364965</v>
+        <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>89.39663285141508</v>
+        <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K42" t="n">
         <v>0</v>
@@ -3869,25 +3869,25 @@
         <v>0</v>
       </c>
       <c r="S42" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T42" t="n">
-        <v>0</v>
+        <v>63.88882306452221</v>
       </c>
       <c r="U42" t="n">
-        <v>0</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V42" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W42" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="X42" t="n">
-        <v>119.7194155574191</v>
+        <v>0</v>
       </c>
       <c r="Y42" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="43">
@@ -3994,7 +3994,7 @@
         <v>0</v>
       </c>
       <c r="H44" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="I44" t="n">
         <v>0</v>
@@ -4021,10 +4021,10 @@
         <v>0</v>
       </c>
       <c r="Q44" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R44" t="n">
-        <v>0</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S44" t="n">
         <v>209.0200695862453</v>
@@ -4033,16 +4033,16 @@
         <v>223.0958495641314</v>
       </c>
       <c r="U44" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="V44" t="n">
-        <v>241.0142888776591</v>
+        <v>112.3289263072337</v>
       </c>
       <c r="W44" t="n">
         <v>0</v>
       </c>
       <c r="X44" t="n">
-        <v>11.19305615617957</v>
+        <v>0</v>
       </c>
       <c r="Y44" t="n">
         <v>0</v>
@@ -4058,19 +4058,19 @@
         <v>0</v>
       </c>
       <c r="C45" t="n">
-        <v>50.05769526855308</v>
+        <v>0</v>
       </c>
       <c r="D45" t="n">
         <v>0</v>
       </c>
       <c r="E45" t="n">
-        <v>0</v>
+        <v>78.19622121383934</v>
       </c>
       <c r="F45" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G45" t="n">
-        <v>0</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H45" t="n">
         <v>0</v>
@@ -4079,7 +4079,7 @@
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K45" t="n">
         <v>0</v>
@@ -4103,7 +4103,7 @@
         <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -4121,10 +4121,10 @@
         <v>241.0142888776591</v>
       </c>
       <c r="X45" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y45" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="46">
@@ -4149,55 +4149,55 @@
         <v>0</v>
       </c>
       <c r="G46" t="n">
+        <v>0</v>
+      </c>
+      <c r="H46" t="n">
+        <v>0</v>
+      </c>
+      <c r="I46" t="n">
+        <v>0</v>
+      </c>
+      <c r="J46" t="n">
+        <v>0</v>
+      </c>
+      <c r="K46" t="n">
+        <v>0</v>
+      </c>
+      <c r="L46" t="n">
+        <v>0</v>
+      </c>
+      <c r="M46" t="n">
+        <v>0</v>
+      </c>
+      <c r="N46" t="n">
+        <v>0</v>
+      </c>
+      <c r="O46" t="n">
+        <v>0</v>
+      </c>
+      <c r="P46" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q46" t="n">
+        <v>0</v>
+      </c>
+      <c r="R46" t="n">
+        <v>0</v>
+      </c>
+      <c r="S46" t="n">
+        <v>0</v>
+      </c>
+      <c r="T46" t="n">
+        <v>0</v>
+      </c>
+      <c r="U46" t="n">
+        <v>0</v>
+      </c>
+      <c r="V46" t="n">
+        <v>0</v>
+      </c>
+      <c r="W46" t="n">
         <v>133.186967585368</v>
-      </c>
-      <c r="H46" t="n">
-        <v>0</v>
-      </c>
-      <c r="I46" t="n">
-        <v>0</v>
-      </c>
-      <c r="J46" t="n">
-        <v>0</v>
-      </c>
-      <c r="K46" t="n">
-        <v>0</v>
-      </c>
-      <c r="L46" t="n">
-        <v>0</v>
-      </c>
-      <c r="M46" t="n">
-        <v>0</v>
-      </c>
-      <c r="N46" t="n">
-        <v>0</v>
-      </c>
-      <c r="O46" t="n">
-        <v>0</v>
-      </c>
-      <c r="P46" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q46" t="n">
-        <v>0</v>
-      </c>
-      <c r="R46" t="n">
-        <v>0</v>
-      </c>
-      <c r="S46" t="n">
-        <v>0</v>
-      </c>
-      <c r="T46" t="n">
-        <v>0</v>
-      </c>
-      <c r="U46" t="n">
-        <v>0</v>
-      </c>
-      <c r="V46" t="n">
-        <v>0</v>
-      </c>
-      <c r="W46" t="n">
-        <v>0</v>
       </c>
       <c r="X46" t="n">
         <v>0</v>
@@ -4306,76 +4306,76 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>3.530573790338288</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C2" t="n">
-        <v>3.530573790338288</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D2" t="n">
-        <v>3.530573790338288</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E2" t="n">
-        <v>3.530573790338288</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F2" t="n">
-        <v>3.530573790338288</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G2" t="n">
-        <v>3.530573790338288</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H2" t="n">
-        <v>3.530573790338288</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I2" t="n">
-        <v>3.530573790338288</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J2" t="n">
-        <v>3.530573790338288</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="K2" t="n">
-        <v>47.22142444577459</v>
+        <v>122.2961490211351</v>
       </c>
       <c r="L2" t="n">
-        <v>90.91227510121089</v>
+        <v>302.3720006057937</v>
       </c>
       <c r="M2" t="n">
-        <v>132.8378388614781</v>
+        <v>519.3476278686978</v>
       </c>
       <c r="N2" t="n">
-        <v>132.8378388614781</v>
+        <v>725.2021500759372</v>
       </c>
       <c r="O2" t="n">
-        <v>132.8378388614781</v>
+        <v>874.3971002185853</v>
       </c>
       <c r="P2" t="n">
-        <v>176.5286895169144</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Q2" t="n">
-        <v>176.5286895169144</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="R2" t="n">
-        <v>131.9507376187037</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S2" t="n">
-        <v>87.37278572049297</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T2" t="n">
-        <v>42.79483382228227</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U2" t="n">
-        <v>3.530573790338288</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="V2" t="n">
-        <v>3.530573790338288</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="W2" t="n">
-        <v>3.530573790338288</v>
+        <v>720.6083788665362</v>
       </c>
       <c r="X2" t="n">
-        <v>3.530573790338288</v>
+        <v>477.1596022224361</v>
       </c>
       <c r="Y2" t="n">
-        <v>3.530573790338288</v>
+        <v>233.7108255783361</v>
       </c>
     </row>
     <row r="3">
@@ -4385,76 +4385,76 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>176.5286895169144</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C3" t="n">
-        <v>176.5286895169144</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D3" t="n">
-        <v>176.5286895169144</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E3" t="n">
-        <v>176.5286895169144</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F3" t="n">
-        <v>138.0185621377561</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G3" t="n">
-        <v>93.44061023954541</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H3" t="n">
-        <v>48.8626583413347</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I3" t="n">
-        <v>4.284706443124001</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J3" t="n">
-        <v>3.530573790338288</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="K3" t="n">
-        <v>3.530573790338288</v>
+        <v>144.6387031680501</v>
       </c>
       <c r="L3" t="n">
-        <v>45.45613755060546</v>
+        <v>374.6018090363993</v>
       </c>
       <c r="M3" t="n">
-        <v>89.14698820604177</v>
+        <v>374.6018090363993</v>
       </c>
       <c r="N3" t="n">
-        <v>132.8378388614781</v>
+        <v>542.809531908403</v>
       </c>
       <c r="O3" t="n">
-        <v>132.8378388614781</v>
+        <v>781.4136778972854</v>
       </c>
       <c r="P3" t="n">
-        <v>132.8378388614781</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Q3" t="n">
-        <v>176.5286895169144</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="R3" t="n">
-        <v>176.5286895169144</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="S3" t="n">
-        <v>176.5286895169144</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="T3" t="n">
-        <v>176.5286895169144</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="U3" t="n">
-        <v>176.5286895169144</v>
+        <v>634.6640077999109</v>
       </c>
       <c r="V3" t="n">
-        <v>176.5286895169144</v>
+        <v>399.5118995681682</v>
       </c>
       <c r="W3" t="n">
-        <v>176.5286895169144</v>
+        <v>227.1326433157456</v>
       </c>
       <c r="X3" t="n">
-        <v>176.5286895169144</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="Y3" t="n">
-        <v>176.5286895169144</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="4">
@@ -4464,76 +4464,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>4.329008585976936</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C4" t="n">
-        <v>4.329008585976936</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D4" t="n">
-        <v>4.329008585976936</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E4" t="n">
-        <v>4.329008585976936</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F4" t="n">
-        <v>4.329008585976936</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G4" t="n">
-        <v>4.329008585976936</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H4" t="n">
-        <v>4.329008585976936</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I4" t="n">
-        <v>4.329008585976936</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J4" t="n">
-        <v>4.329008585976936</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="K4" t="n">
-        <v>3.530573790338288</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L4" t="n">
-        <v>30.84469879805127</v>
+        <v>46.5952681179257</v>
       </c>
       <c r="M4" t="n">
-        <v>70.03273699027345</v>
+        <v>85.78330631014788</v>
       </c>
       <c r="N4" t="n">
-        <v>113.7235876457098</v>
+        <v>129.4741569655842</v>
       </c>
       <c r="O4" t="n">
-        <v>138.062864280609</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="P4" t="n">
-        <v>138.062864280609</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="Q4" t="n">
-        <v>93.48491238239833</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="R4" t="n">
-        <v>48.90696048418764</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="S4" t="n">
-        <v>4.329008585976936</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="T4" t="n">
-        <v>4.329008585976936</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="U4" t="n">
-        <v>4.329008585976936</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="V4" t="n">
-        <v>4.329008585976936</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="W4" t="n">
-        <v>4.329008585976936</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="X4" t="n">
-        <v>4.329008585976936</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="Y4" t="n">
-        <v>4.329008585976936</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="5">
@@ -4543,76 +4543,76 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>176.5286895169144</v>
+        <v>761.6974622895962</v>
       </c>
       <c r="C5" t="n">
-        <v>176.5286895169144</v>
+        <v>518.2486856454962</v>
       </c>
       <c r="D5" t="n">
-        <v>176.5286895169144</v>
+        <v>274.7999090013961</v>
       </c>
       <c r="E5" t="n">
-        <v>176.5286895169144</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="F5" t="n">
-        <v>149.3344187320537</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="G5" t="n">
-        <v>104.756466833843</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="H5" t="n">
-        <v>60.17851493563234</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="I5" t="n">
-        <v>15.60056303742164</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="J5" t="n">
-        <v>3.530573790338288</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="K5" t="n">
-        <v>47.22142444577459</v>
+        <v>122.2961490211351</v>
       </c>
       <c r="L5" t="n">
-        <v>90.91227510121089</v>
+        <v>302.3720006057937</v>
       </c>
       <c r="M5" t="n">
-        <v>132.8378388614781</v>
+        <v>519.3476278686978</v>
       </c>
       <c r="N5" t="n">
-        <v>132.8378388614781</v>
+        <v>725.2021500759372</v>
       </c>
       <c r="O5" t="n">
-        <v>132.8378388614781</v>
+        <v>874.3971002185853</v>
       </c>
       <c r="P5" t="n">
-        <v>176.5286895169144</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Q5" t="n">
-        <v>176.5286895169144</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="R5" t="n">
-        <v>176.5286895169144</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="S5" t="n">
-        <v>176.5286895169144</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="T5" t="n">
-        <v>176.5286895169144</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="U5" t="n">
-        <v>176.5286895169144</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="V5" t="n">
-        <v>176.5286895169144</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="W5" t="n">
-        <v>176.5286895169144</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="X5" t="n">
-        <v>176.5286895169144</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="Y5" t="n">
-        <v>176.5286895169144</v>
+        <v>802.5825927271064</v>
       </c>
     </row>
     <row r="6">
@@ -4622,76 +4622,76 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>176.5286895169144</v>
+        <v>310.5702840197694</v>
       </c>
       <c r="C6" t="n">
-        <v>176.5286895169144</v>
+        <v>310.5702840197694</v>
       </c>
       <c r="D6" t="n">
-        <v>176.5286895169144</v>
+        <v>161.6358743585181</v>
       </c>
       <c r="E6" t="n">
-        <v>138.0185621377561</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F6" t="n">
-        <v>93.44061023954541</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G6" t="n">
-        <v>48.8626583413347</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H6" t="n">
-        <v>48.8626583413347</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I6" t="n">
-        <v>4.284706443124001</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J6" t="n">
-        <v>3.530573790338288</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="K6" t="n">
-        <v>47.22142444577459</v>
+        <v>144.6387031680501</v>
       </c>
       <c r="L6" t="n">
-        <v>47.22142444577459</v>
+        <v>144.6387031680501</v>
       </c>
       <c r="M6" t="n">
-        <v>90.91227510121089</v>
+        <v>383.2428491569326</v>
       </c>
       <c r="N6" t="n">
-        <v>132.8378388614781</v>
+        <v>473.4149733950735</v>
       </c>
       <c r="O6" t="n">
-        <v>132.8378388614781</v>
+        <v>712.019119383956</v>
       </c>
       <c r="P6" t="n">
-        <v>132.8378388614781</v>
+        <v>894.6625969973069</v>
       </c>
       <c r="Q6" t="n">
-        <v>176.5286895169144</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="R6" t="n">
-        <v>176.5286895169144</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S6" t="n">
-        <v>176.5286895169144</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T6" t="n">
-        <v>176.5286895169144</v>
+        <v>761.8705608694022</v>
       </c>
       <c r="U6" t="n">
-        <v>176.5286895169144</v>
+        <v>761.8705608694022</v>
       </c>
       <c r="V6" t="n">
-        <v>176.5286895169144</v>
+        <v>761.8705608694022</v>
       </c>
       <c r="W6" t="n">
-        <v>176.5286895169144</v>
+        <v>518.4217842253022</v>
       </c>
       <c r="X6" t="n">
-        <v>176.5286895169144</v>
+        <v>310.5702840197694</v>
       </c>
       <c r="Y6" t="n">
-        <v>176.5286895169144</v>
+        <v>310.5702840197694</v>
       </c>
     </row>
     <row r="7">
@@ -4701,76 +4701,76 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>3.530573790338288</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C7" t="n">
-        <v>3.530573790338288</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D7" t="n">
-        <v>3.530573790338288</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E7" t="n">
-        <v>3.530573790338288</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F7" t="n">
-        <v>3.530573790338288</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G7" t="n">
-        <v>3.530573790338288</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H7" t="n">
-        <v>3.530573790338288</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I7" t="n">
-        <v>3.530573790338288</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J7" t="n">
-        <v>3.530573790338288</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="K7" t="n">
-        <v>3.530573790338288</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L7" t="n">
-        <v>30.84469879805127</v>
+        <v>46.5952681179257</v>
       </c>
       <c r="M7" t="n">
-        <v>70.03273699027345</v>
+        <v>85.78330631014788</v>
       </c>
       <c r="N7" t="n">
-        <v>113.7235876457098</v>
+        <v>129.4741569655842</v>
       </c>
       <c r="O7" t="n">
-        <v>138.062864280609</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="P7" t="n">
-        <v>137.2644294849704</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="Q7" t="n">
-        <v>92.68647758675968</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="R7" t="n">
-        <v>48.10852568854899</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="S7" t="n">
-        <v>3.530573790338288</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="T7" t="n">
-        <v>3.530573790338288</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="U7" t="n">
-        <v>3.530573790338288</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="V7" t="n">
-        <v>3.530573790338288</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="W7" t="n">
-        <v>3.530573790338288</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="X7" t="n">
-        <v>3.530573790338288</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="Y7" t="n">
-        <v>3.530573790338288</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="8">
@@ -4780,76 +4780,76 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>3.530573790338288</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C8" t="n">
-        <v>3.530573790338288</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D8" t="n">
-        <v>3.530573790338288</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E8" t="n">
-        <v>3.530573790338288</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F8" t="n">
-        <v>3.530573790338288</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G8" t="n">
-        <v>3.530573790338288</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H8" t="n">
-        <v>3.530573790338288</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I8" t="n">
-        <v>3.530573790338288</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J8" t="n">
-        <v>3.530573790338288</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="K8" t="n">
-        <v>3.530573790338288</v>
+        <v>122.2961490211351</v>
       </c>
       <c r="L8" t="n">
-        <v>47.22142444577459</v>
+        <v>302.3720006057937</v>
       </c>
       <c r="M8" t="n">
-        <v>90.91227510121089</v>
+        <v>519.3476278686978</v>
       </c>
       <c r="N8" t="n">
-        <v>132.8378388614781</v>
+        <v>725.2021500759372</v>
       </c>
       <c r="O8" t="n">
-        <v>132.8378388614781</v>
+        <v>874.3971002185853</v>
       </c>
       <c r="P8" t="n">
-        <v>176.5286895169144</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Q8" t="n">
-        <v>166.4370741486873</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="R8" t="n">
-        <v>121.8591222504766</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="S8" t="n">
-        <v>92.68647758675968</v>
+        <v>749.627473042513</v>
       </c>
       <c r="T8" t="n">
-        <v>48.10852568854899</v>
+        <v>749.627473042513</v>
       </c>
       <c r="U8" t="n">
-        <v>3.530573790338288</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="V8" t="n">
-        <v>3.530573790338288</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="W8" t="n">
-        <v>3.530573790338288</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="X8" t="n">
-        <v>3.530573790338288</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="Y8" t="n">
-        <v>3.530573790338288</v>
+        <v>262.7299197543128</v>
       </c>
     </row>
     <row r="9">
@@ -4859,76 +4859,76 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>4.284706443124001</v>
+        <v>453.6378659568754</v>
       </c>
       <c r="C9" t="n">
-        <v>4.284706443124001</v>
+        <v>279.1848366757484</v>
       </c>
       <c r="D9" t="n">
-        <v>4.284706443124001</v>
+        <v>279.1848366757484</v>
       </c>
       <c r="E9" t="n">
-        <v>4.284706443124001</v>
+        <v>279.1848366757484</v>
       </c>
       <c r="F9" t="n">
-        <v>4.284706443124001</v>
+        <v>132.6502787026334</v>
       </c>
       <c r="G9" t="n">
-        <v>4.284706443124001</v>
+        <v>132.6502787026334</v>
       </c>
       <c r="H9" t="n">
-        <v>4.284706443124001</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I9" t="n">
-        <v>4.284706443124001</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J9" t="n">
-        <v>3.530573790338288</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="K9" t="n">
-        <v>3.530573790338288</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L9" t="n">
-        <v>3.530573790338288</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="M9" t="n">
-        <v>47.22142444577459</v>
+        <v>257.8852890990952</v>
       </c>
       <c r="N9" t="n">
-        <v>90.91227510121089</v>
+        <v>473.4149733950735</v>
       </c>
       <c r="O9" t="n">
-        <v>132.8378388614781</v>
+        <v>712.019119383956</v>
       </c>
       <c r="P9" t="n">
-        <v>132.8378388614781</v>
+        <v>894.6625969973069</v>
       </c>
       <c r="Q9" t="n">
-        <v>176.5286895169144</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="R9" t="n">
-        <v>138.0185621377561</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S9" t="n">
-        <v>93.44061023954541</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T9" t="n">
-        <v>48.8626583413347</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U9" t="n">
-        <v>4.284706443124001</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="V9" t="n">
-        <v>4.284706443124001</v>
+        <v>728.9050472788936</v>
       </c>
       <c r="W9" t="n">
-        <v>4.284706443124001</v>
+        <v>728.9050472788936</v>
       </c>
       <c r="X9" t="n">
-        <v>4.284706443124001</v>
+        <v>728.9050472788936</v>
       </c>
       <c r="Y9" t="n">
-        <v>4.284706443124001</v>
+        <v>621.8532029769435</v>
       </c>
     </row>
     <row r="10">
@@ -4938,76 +4938,76 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>138.062864280609</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C10" t="n">
-        <v>138.062864280609</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D10" t="n">
-        <v>138.062864280609</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E10" t="n">
-        <v>138.062864280609</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F10" t="n">
-        <v>138.062864280609</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G10" t="n">
-        <v>138.062864280609</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H10" t="n">
-        <v>93.48491238239833</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I10" t="n">
-        <v>48.90696048418764</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J10" t="n">
-        <v>26.02500997809875</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="K10" t="n">
-        <v>3.530573790338288</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L10" t="n">
-        <v>30.84469879805127</v>
+        <v>46.5952681179257</v>
       </c>
       <c r="M10" t="n">
-        <v>70.03273699027345</v>
+        <v>85.78330631014788</v>
       </c>
       <c r="N10" t="n">
-        <v>113.7235876457098</v>
+        <v>129.4741569655842</v>
       </c>
       <c r="O10" t="n">
-        <v>138.062864280609</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="P10" t="n">
-        <v>138.062864280609</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="Q10" t="n">
-        <v>138.062864280609</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="R10" t="n">
-        <v>138.062864280609</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="S10" t="n">
-        <v>138.062864280609</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="T10" t="n">
-        <v>138.062864280609</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="U10" t="n">
-        <v>138.062864280609</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="V10" t="n">
-        <v>138.062864280609</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="W10" t="n">
-        <v>138.062864280609</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="X10" t="n">
-        <v>138.062864280609</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="Y10" t="n">
-        <v>138.062864280609</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="11">
@@ -5017,76 +5017,76 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>42.79483382228227</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="C11" t="n">
-        <v>42.79483382228227</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="D11" t="n">
-        <v>42.79483382228227</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="E11" t="n">
-        <v>42.79483382228227</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="F11" t="n">
-        <v>3.530573790338288</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="G11" t="n">
-        <v>3.530573790338288</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H11" t="n">
-        <v>3.530573790338288</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I11" t="n">
-        <v>3.530573790338288</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J11" t="n">
-        <v>3.530573790338288</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="K11" t="n">
-        <v>3.530573790338288</v>
+        <v>122.2961490211351</v>
       </c>
       <c r="L11" t="n">
-        <v>47.22142444577459</v>
+        <v>302.3720006057937</v>
       </c>
       <c r="M11" t="n">
-        <v>90.91227510121089</v>
+        <v>519.3476278686978</v>
       </c>
       <c r="N11" t="n">
-        <v>132.8378388614781</v>
+        <v>725.2021500759372</v>
       </c>
       <c r="O11" t="n">
-        <v>176.5286895169144</v>
+        <v>874.3971002185853</v>
       </c>
       <c r="P11" t="n">
-        <v>176.5286895169144</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Q11" t="n">
-        <v>176.5286895169144</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="R11" t="n">
-        <v>176.5286895169144</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="S11" t="n">
-        <v>176.5286895169144</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="T11" t="n">
-        <v>176.5286895169144</v>
+        <v>749.627473042513</v>
       </c>
       <c r="U11" t="n">
-        <v>131.9507376187037</v>
+        <v>749.627473042513</v>
       </c>
       <c r="V11" t="n">
-        <v>131.9507376187037</v>
+        <v>749.627473042513</v>
       </c>
       <c r="W11" t="n">
-        <v>87.37278572049297</v>
+        <v>749.627473042513</v>
       </c>
       <c r="X11" t="n">
-        <v>42.79483382228227</v>
+        <v>749.627473042513</v>
       </c>
       <c r="Y11" t="n">
-        <v>42.79483382228227</v>
+        <v>506.1786963984129</v>
       </c>
     </row>
     <row r="12">
@@ -5096,76 +5096,76 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>42.79483382228227</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C12" t="n">
-        <v>42.79483382228227</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D12" t="n">
-        <v>42.79483382228227</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E12" t="n">
-        <v>42.79483382228227</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F12" t="n">
-        <v>42.79483382228227</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G12" t="n">
-        <v>42.79483382228227</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H12" t="n">
-        <v>42.79483382228227</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I12" t="n">
-        <v>3.530573790338288</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J12" t="n">
-        <v>3.530573790338288</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="K12" t="n">
-        <v>3.530573790338288</v>
+        <v>144.6387031680501</v>
       </c>
       <c r="L12" t="n">
-        <v>47.22142444577459</v>
+        <v>234.810827406191</v>
       </c>
       <c r="M12" t="n">
-        <v>47.22142444577459</v>
+        <v>234.810827406191</v>
       </c>
       <c r="N12" t="n">
-        <v>47.22142444577459</v>
+        <v>473.4149733950735</v>
       </c>
       <c r="O12" t="n">
-        <v>89.14698820604177</v>
+        <v>712.019119383956</v>
       </c>
       <c r="P12" t="n">
-        <v>132.8378388614781</v>
+        <v>894.6625969973069</v>
       </c>
       <c r="Q12" t="n">
-        <v>176.5286895169144</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="R12" t="n">
-        <v>176.5286895169144</v>
+        <v>933.8659450146204</v>
       </c>
       <c r="S12" t="n">
-        <v>131.9507376187037</v>
+        <v>933.8659450146204</v>
       </c>
       <c r="T12" t="n">
-        <v>87.37278572049297</v>
+        <v>933.8659450146204</v>
       </c>
       <c r="U12" t="n">
-        <v>42.79483382228227</v>
+        <v>705.6423267510095</v>
       </c>
       <c r="V12" t="n">
-        <v>42.79483382228227</v>
+        <v>470.4902185192667</v>
       </c>
       <c r="W12" t="n">
-        <v>42.79483382228227</v>
+        <v>227.0414418751666</v>
       </c>
       <c r="X12" t="n">
-        <v>42.79483382228227</v>
+        <v>227.0414418751666</v>
       </c>
       <c r="Y12" t="n">
-        <v>42.79483382228227</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="13">
@@ -5175,76 +5175,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>93.48491238239833</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="C13" t="n">
-        <v>93.48491238239833</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="D13" t="n">
-        <v>93.48491238239833</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="E13" t="n">
-        <v>93.48491238239833</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="F13" t="n">
-        <v>93.48491238239833</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="G13" t="n">
-        <v>93.48491238239833</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H13" t="n">
-        <v>92.68647758675968</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I13" t="n">
-        <v>48.10852568854899</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J13" t="n">
-        <v>3.530573790338288</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="K13" t="n">
-        <v>3.530573790338288</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L13" t="n">
-        <v>30.84469879805127</v>
+        <v>46.5952681179257</v>
       </c>
       <c r="M13" t="n">
-        <v>70.03273699027345</v>
+        <v>85.78330631014788</v>
       </c>
       <c r="N13" t="n">
-        <v>113.7235876457098</v>
+        <v>129.4741569655842</v>
       </c>
       <c r="O13" t="n">
-        <v>138.062864280609</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="P13" t="n">
-        <v>138.062864280609</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="Q13" t="n">
-        <v>93.48491238239833</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="R13" t="n">
-        <v>93.48491238239833</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="S13" t="n">
-        <v>93.48491238239833</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="T13" t="n">
-        <v>93.48491238239833</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="U13" t="n">
-        <v>93.48491238239833</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="V13" t="n">
-        <v>93.48491238239833</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="W13" t="n">
-        <v>93.48491238239833</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="X13" t="n">
-        <v>93.48491238239833</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="Y13" t="n">
-        <v>93.48491238239833</v>
+        <v>153.8134336004835</v>
       </c>
     </row>
     <row r="14">
@@ -5254,76 +5254,76 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>176.5286895169144</v>
+        <v>274.7999090013961</v>
       </c>
       <c r="C14" t="n">
-        <v>176.5286895169144</v>
+        <v>274.7999090013961</v>
       </c>
       <c r="D14" t="n">
-        <v>176.5286895169144</v>
+        <v>274.7999090013961</v>
       </c>
       <c r="E14" t="n">
-        <v>176.5286895169144</v>
+        <v>274.7999090013961</v>
       </c>
       <c r="F14" t="n">
-        <v>131.9507376187037</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="G14" t="n">
-        <v>87.37278572049297</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="H14" t="n">
-        <v>42.79483382228227</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="I14" t="n">
-        <v>3.530573790338288</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="J14" t="n">
-        <v>3.530573790338288</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="K14" t="n">
-        <v>47.22142444577459</v>
+        <v>122.2961490211351</v>
       </c>
       <c r="L14" t="n">
-        <v>47.22142444577459</v>
+        <v>302.3720006057937</v>
       </c>
       <c r="M14" t="n">
-        <v>90.91227510121089</v>
+        <v>519.3476278686978</v>
       </c>
       <c r="N14" t="n">
-        <v>134.6031257566472</v>
+        <v>725.2021500759372</v>
       </c>
       <c r="O14" t="n">
-        <v>176.5286895169144</v>
+        <v>874.3971002185853</v>
       </c>
       <c r="P14" t="n">
-        <v>176.5286895169144</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Q14" t="n">
-        <v>176.5286895169144</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="R14" t="n">
-        <v>176.5286895169144</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="S14" t="n">
-        <v>176.5286895169144</v>
+        <v>742.8341567219593</v>
       </c>
       <c r="T14" t="n">
-        <v>176.5286895169144</v>
+        <v>517.4848137278872</v>
       </c>
       <c r="U14" t="n">
-        <v>176.5286895169144</v>
+        <v>517.4848137278872</v>
       </c>
       <c r="V14" t="n">
-        <v>176.5286895169144</v>
+        <v>517.4848137278872</v>
       </c>
       <c r="W14" t="n">
-        <v>176.5286895169144</v>
+        <v>517.4848137278872</v>
       </c>
       <c r="X14" t="n">
-        <v>176.5286895169144</v>
+        <v>517.4848137278872</v>
       </c>
       <c r="Y14" t="n">
-        <v>176.5286895169144</v>
+        <v>517.4848137278872</v>
       </c>
     </row>
     <row r="15">
@@ -5333,76 +5333,76 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>176.5286895169144</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C15" t="n">
-        <v>176.5286895169144</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D15" t="n">
-        <v>131.9507376187037</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E15" t="n">
-        <v>87.37278572049297</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F15" t="n">
-        <v>87.37278572049297</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G15" t="n">
-        <v>42.79483382228227</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H15" t="n">
-        <v>3.530573790338288</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I15" t="n">
-        <v>3.530573790338288</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J15" t="n">
-        <v>3.530573790338288</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="K15" t="n">
-        <v>45.45613755060546</v>
+        <v>144.6387031680501</v>
       </c>
       <c r="L15" t="n">
-        <v>45.45613755060546</v>
+        <v>374.6018090363993</v>
       </c>
       <c r="M15" t="n">
-        <v>89.14698820604177</v>
+        <v>613.2059550252818</v>
       </c>
       <c r="N15" t="n">
-        <v>132.8378388614781</v>
+        <v>851.8101010141643</v>
       </c>
       <c r="O15" t="n">
-        <v>132.8378388614781</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="P15" t="n">
-        <v>132.8378388614781</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Q15" t="n">
-        <v>176.5286895169144</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="R15" t="n">
-        <v>176.5286895169144</v>
+        <v>933.8659450146204</v>
       </c>
       <c r="S15" t="n">
-        <v>176.5286895169144</v>
+        <v>933.8659450146204</v>
       </c>
       <c r="T15" t="n">
-        <v>176.5286895169144</v>
+        <v>933.8659450146204</v>
       </c>
       <c r="U15" t="n">
-        <v>176.5286895169144</v>
+        <v>705.6423267510095</v>
       </c>
       <c r="V15" t="n">
-        <v>176.5286895169144</v>
+        <v>470.4902185192667</v>
       </c>
       <c r="W15" t="n">
-        <v>176.5286895169144</v>
+        <v>227.0414418751666</v>
       </c>
       <c r="X15" t="n">
-        <v>176.5286895169144</v>
+        <v>227.0414418751666</v>
       </c>
       <c r="Y15" t="n">
-        <v>176.5286895169144</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="16">
@@ -5412,76 +5412,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>3.530573790338288</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C16" t="n">
-        <v>3.530573790338288</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D16" t="n">
-        <v>3.530573790338288</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E16" t="n">
-        <v>3.530573790338288</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F16" t="n">
-        <v>3.530573790338288</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G16" t="n">
-        <v>3.530573790338288</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H16" t="n">
-        <v>3.530573790338288</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I16" t="n">
-        <v>3.530573790338288</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J16" t="n">
-        <v>3.530573790338288</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="K16" t="n">
-        <v>3.530573790338288</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L16" t="n">
-        <v>30.84469879805127</v>
+        <v>46.5952681179257</v>
       </c>
       <c r="M16" t="n">
-        <v>70.03273699027345</v>
+        <v>85.78330631014788</v>
       </c>
       <c r="N16" t="n">
-        <v>113.7235876457098</v>
+        <v>129.4741569655842</v>
       </c>
       <c r="O16" t="n">
-        <v>138.062864280609</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="P16" t="n">
-        <v>135.3139342451479</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="Q16" t="n">
-        <v>90.73598234693722</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="R16" t="n">
-        <v>46.15803044872652</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="S16" t="n">
-        <v>3.530573790338288</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="T16" t="n">
-        <v>3.530573790338288</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="U16" t="n">
-        <v>3.530573790338288</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="V16" t="n">
-        <v>3.530573790338288</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="W16" t="n">
-        <v>3.530573790338288</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="X16" t="n">
-        <v>3.530573790338288</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="Y16" t="n">
-        <v>3.530573790338288</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="17">
@@ -5491,28 +5491,28 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>953.9655401424092</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="C17" t="n">
-        <v>953.9655401424092</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="D17" t="n">
-        <v>953.9655401424092</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="E17" t="n">
-        <v>953.9655401424092</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="F17" t="n">
-        <v>710.516763498309</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="G17" t="n">
-        <v>467.067986854209</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="H17" t="n">
-        <v>223.6192102101089</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I17" t="n">
-        <v>31.35113235729608</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J17" t="n">
         <v>19.28114311021272</v>
@@ -5536,31 +5536,31 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Q17" t="n">
-        <v>953.9655401424092</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="R17" t="n">
-        <v>953.9655401424092</v>
+        <v>812.6742080953335</v>
       </c>
       <c r="S17" t="n">
-        <v>953.9655401424092</v>
+        <v>731.528039392485</v>
       </c>
       <c r="T17" t="n">
-        <v>953.9655401424092</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="U17" t="n">
-        <v>953.9655401424092</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="V17" t="n">
-        <v>953.9655401424092</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="W17" t="n">
-        <v>953.9655401424092</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="X17" t="n">
-        <v>953.9655401424092</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="Y17" t="n">
-        <v>953.9655401424092</v>
+        <v>262.7299197543128</v>
       </c>
     </row>
     <row r="18">
@@ -5570,22 +5570,22 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>19.28114311021272</v>
+        <v>384.2867411876791</v>
       </c>
       <c r="C18" t="n">
-        <v>19.28114311021272</v>
+        <v>384.2867411876791</v>
       </c>
       <c r="D18" t="n">
-        <v>19.28114311021272</v>
+        <v>384.2867411876791</v>
       </c>
       <c r="E18" t="n">
-        <v>19.28114311021272</v>
+        <v>384.2867411876791</v>
       </c>
       <c r="F18" t="n">
-        <v>19.28114311021272</v>
+        <v>237.752183214564</v>
       </c>
       <c r="G18" t="n">
-        <v>19.28114311021272</v>
+        <v>132.6502787026334</v>
       </c>
       <c r="H18" t="n">
         <v>19.28114311021272</v>
@@ -5597,22 +5597,22 @@
         <v>19.28114311021272</v>
       </c>
       <c r="K18" t="n">
-        <v>19.28114311021272</v>
+        <v>144.6387031680501</v>
       </c>
       <c r="L18" t="n">
-        <v>249.2442489785619</v>
+        <v>374.6018090363993</v>
       </c>
       <c r="M18" t="n">
-        <v>417.4543050195419</v>
+        <v>486.8488635328713</v>
       </c>
       <c r="N18" t="n">
-        <v>656.0584510084244</v>
+        <v>725.4530095217538</v>
       </c>
       <c r="O18" t="n">
-        <v>894.6625969973069</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="P18" t="n">
-        <v>894.6625969973069</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Q18" t="n">
         <v>964.0571555106362</v>
@@ -5621,25 +5621,25 @@
         <v>862.8876260635219</v>
       </c>
       <c r="S18" t="n">
-        <v>689.4702815141908</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="T18" t="n">
-        <v>487.2836868729568</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="U18" t="n">
-        <v>259.0600686093459</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="V18" t="n">
-        <v>23.90796037760316</v>
+        <v>627.7355178317791</v>
       </c>
       <c r="W18" t="n">
-        <v>19.28114311021272</v>
+        <v>384.2867411876791</v>
       </c>
       <c r="X18" t="n">
-        <v>19.28114311021272</v>
+        <v>384.2867411876791</v>
       </c>
       <c r="Y18" t="n">
-        <v>19.28114311021272</v>
+        <v>384.2867411876791</v>
       </c>
     </row>
     <row r="19">
@@ -5703,7 +5703,7 @@
         <v>153.8134336004835</v>
       </c>
       <c r="T19" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="U19" t="n">
         <v>19.28114311021272</v>
@@ -5728,28 +5728,28 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>274.0360370837871</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="C20" t="n">
-        <v>274.0360370837871</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="D20" t="n">
-        <v>274.0360370837871</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="E20" t="n">
-        <v>274.0360370837871</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="F20" t="n">
-        <v>274.0360370837871</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="G20" t="n">
-        <v>30.58726043968704</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H20" t="n">
-        <v>30.58726043968704</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I20" t="n">
-        <v>30.58726043968704</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J20" t="n">
         <v>19.28114311021272</v>
@@ -5773,31 +5773,31 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Q20" t="n">
-        <v>953.9655401424092</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="R20" t="n">
-        <v>953.9655401424092</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S20" t="n">
-        <v>742.8341567219593</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T20" t="n">
-        <v>517.4848137278872</v>
+        <v>749.627473042513</v>
       </c>
       <c r="U20" t="n">
-        <v>274.0360370837871</v>
+        <v>749.627473042513</v>
       </c>
       <c r="V20" t="n">
-        <v>274.0360370837871</v>
+        <v>749.627473042513</v>
       </c>
       <c r="W20" t="n">
-        <v>274.0360370837871</v>
+        <v>749.627473042513</v>
       </c>
       <c r="X20" t="n">
-        <v>274.0360370837871</v>
+        <v>749.627473042513</v>
       </c>
       <c r="Y20" t="n">
-        <v>274.0360370837871</v>
+        <v>506.1786963984129</v>
       </c>
     </row>
     <row r="21">
@@ -5807,19 +5807,19 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>168.215552771464</v>
+        <v>306.9463781888485</v>
       </c>
       <c r="C21" t="n">
-        <v>168.215552771464</v>
+        <v>306.9463781888485</v>
       </c>
       <c r="D21" t="n">
-        <v>19.28114311021272</v>
+        <v>158.0119685275972</v>
       </c>
       <c r="E21" t="n">
-        <v>19.28114311021272</v>
+        <v>158.0119685275972</v>
       </c>
       <c r="F21" t="n">
-        <v>19.28114311021272</v>
+        <v>158.0119685275972</v>
       </c>
       <c r="G21" t="n">
         <v>19.28114311021272</v>
@@ -5834,49 +5834,49 @@
         <v>19.28114311021272</v>
       </c>
       <c r="K21" t="n">
-        <v>19.28114311021272</v>
+        <v>144.6387031680501</v>
       </c>
       <c r="L21" t="n">
-        <v>249.2442489785619</v>
+        <v>374.6018090363993</v>
       </c>
       <c r="M21" t="n">
-        <v>486.8488635328713</v>
+        <v>473.4149733950735</v>
       </c>
       <c r="N21" t="n">
-        <v>725.4530095217538</v>
+        <v>712.019119383956</v>
       </c>
       <c r="O21" t="n">
-        <v>964.0571555106362</v>
+        <v>712.019119383956</v>
       </c>
       <c r="P21" t="n">
-        <v>964.0571555106362</v>
+        <v>894.6625969973069</v>
       </c>
       <c r="Q21" t="n">
         <v>964.0571555106362</v>
       </c>
       <c r="R21" t="n">
-        <v>964.0571555106362</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="S21" t="n">
-        <v>790.6398109613051</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="T21" t="n">
-        <v>588.4532163200711</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="U21" t="n">
-        <v>360.2295980564601</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="V21" t="n">
-        <v>360.2295980564601</v>
+        <v>627.7355178317791</v>
       </c>
       <c r="W21" t="n">
-        <v>360.2295980564601</v>
+        <v>384.2867411876791</v>
       </c>
       <c r="X21" t="n">
-        <v>360.2295980564601</v>
+        <v>384.2867411876791</v>
       </c>
       <c r="Y21" t="n">
-        <v>168.215552771464</v>
+        <v>384.2867411876791</v>
       </c>
     </row>
     <row r="22">
@@ -5937,13 +5937,13 @@
         <v>153.8134336004835</v>
       </c>
       <c r="S22" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="T22" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="U22" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="V22" t="n">
         <v>19.28114311021272</v>
@@ -5965,19 +5965,19 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>506.1786963984129</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C23" t="n">
-        <v>506.1786963984129</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D23" t="n">
-        <v>506.1786963984129</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E23" t="n">
-        <v>506.1786963984129</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F23" t="n">
-        <v>262.7299197543128</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G23" t="n">
         <v>19.28114311021272</v>
@@ -6010,13 +6010,13 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Q23" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="R23" t="n">
-        <v>812.6742080953335</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="S23" t="n">
-        <v>812.6742080953335</v>
+        <v>749.627473042513</v>
       </c>
       <c r="T23" t="n">
         <v>749.627473042513</v>
@@ -6025,16 +6025,16 @@
         <v>506.1786963984129</v>
       </c>
       <c r="V23" t="n">
-        <v>506.1786963984129</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="W23" t="n">
-        <v>506.1786963984129</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="X23" t="n">
-        <v>506.1786963984129</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="Y23" t="n">
-        <v>506.1786963984129</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="24">
@@ -6044,25 +6044,25 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>518.4217842253022</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="C24" t="n">
-        <v>518.4217842253022</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="D24" t="n">
-        <v>518.4217842253022</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="E24" t="n">
-        <v>508.9694238887622</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="F24" t="n">
-        <v>362.4348659156472</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="G24" t="n">
-        <v>223.7040404982626</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="H24" t="n">
-        <v>110.334904905842</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="I24" t="n">
         <v>20.03527576299844</v>
@@ -6077,43 +6077,43 @@
         <v>374.6018090363993</v>
       </c>
       <c r="M24" t="n">
-        <v>417.4543050195419</v>
+        <v>613.2059550252818</v>
       </c>
       <c r="N24" t="n">
-        <v>656.0584510084244</v>
+        <v>851.8101010141643</v>
       </c>
       <c r="O24" t="n">
-        <v>894.6625969973069</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="P24" t="n">
-        <v>894.6625969973069</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Q24" t="n">
         <v>964.0571555106362</v>
       </c>
       <c r="R24" t="n">
-        <v>964.0571555106362</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="S24" t="n">
-        <v>964.0571555106362</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="T24" t="n">
-        <v>761.8705608694022</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="U24" t="n">
-        <v>761.8705608694022</v>
+        <v>634.6640077999109</v>
       </c>
       <c r="V24" t="n">
-        <v>761.8705608694022</v>
+        <v>399.5118995681682</v>
       </c>
       <c r="W24" t="n">
-        <v>518.4217842253022</v>
+        <v>156.0631229240681</v>
       </c>
       <c r="X24" t="n">
-        <v>518.4217842253022</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="Y24" t="n">
-        <v>518.4217842253022</v>
+        <v>20.03527576299844</v>
       </c>
     </row>
     <row r="25">
@@ -6123,16 +6123,16 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="C25" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="D25" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="E25" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="F25" t="n">
         <v>19.28114311021272</v>
@@ -6171,28 +6171,28 @@
         <v>153.8134336004835</v>
       </c>
       <c r="R25" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="S25" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="T25" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="U25" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="V25" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="W25" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="X25" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="Y25" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
     </row>
     <row r="26">
@@ -6202,25 +6202,25 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>231.8830517671884</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="C26" t="n">
-        <v>231.8830517671884</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="D26" t="n">
-        <v>231.8830517671884</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E26" t="n">
-        <v>231.8830517671884</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F26" t="n">
-        <v>231.8830517671884</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G26" t="n">
-        <v>231.8830517671884</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H26" t="n">
-        <v>231.8830517671884</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I26" t="n">
         <v>19.28114311021272</v>
@@ -6250,28 +6250,28 @@
         <v>964.0571555106362</v>
       </c>
       <c r="R26" t="n">
-        <v>964.0571555106362</v>
+        <v>812.6742080953335</v>
       </c>
       <c r="S26" t="n">
-        <v>752.9257720901863</v>
+        <v>601.5428246748836</v>
       </c>
       <c r="T26" t="n">
-        <v>752.9257720901863</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="U26" t="n">
-        <v>752.9257720901863</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="V26" t="n">
-        <v>509.4769954460863</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="W26" t="n">
-        <v>266.0282188019862</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="X26" t="n">
-        <v>266.0282188019862</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="Y26" t="n">
-        <v>231.8830517671884</v>
+        <v>262.7299197543128</v>
       </c>
     </row>
     <row r="27">
@@ -6281,19 +6281,19 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>19.28114311021272</v>
+        <v>787.171420448546</v>
       </c>
       <c r="C27" t="n">
-        <v>19.28114311021272</v>
+        <v>612.718391167419</v>
       </c>
       <c r="D27" t="n">
-        <v>19.28114311021272</v>
+        <v>463.7839815061678</v>
       </c>
       <c r="E27" t="n">
-        <v>19.28114311021272</v>
+        <v>304.5465265007123</v>
       </c>
       <c r="F27" t="n">
-        <v>19.28114311021272</v>
+        <v>158.0119685275972</v>
       </c>
       <c r="G27" t="n">
         <v>19.28114311021272</v>
@@ -6308,16 +6308,16 @@
         <v>19.28114311021272</v>
       </c>
       <c r="K27" t="n">
-        <v>144.6387031680501</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L27" t="n">
-        <v>144.6387031680501</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="M27" t="n">
-        <v>383.2428491569326</v>
+        <v>257.8852890990952</v>
       </c>
       <c r="N27" t="n">
-        <v>473.4149733950735</v>
+        <v>496.4894350879777</v>
       </c>
       <c r="O27" t="n">
         <v>712.019119383956</v>
@@ -6329,28 +6329,28 @@
         <v>964.0571555106362</v>
       </c>
       <c r="R27" t="n">
-        <v>964.0571555106362</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="S27" t="n">
-        <v>964.0571555106362</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="T27" t="n">
-        <v>964.0571555106362</v>
+        <v>787.171420448546</v>
       </c>
       <c r="U27" t="n">
-        <v>964.0571555106362</v>
+        <v>787.171420448546</v>
       </c>
       <c r="V27" t="n">
-        <v>846.5570557448675</v>
+        <v>787.171420448546</v>
       </c>
       <c r="W27" t="n">
-        <v>603.1082791007675</v>
+        <v>787.171420448546</v>
       </c>
       <c r="X27" t="n">
-        <v>395.2567788952347</v>
+        <v>787.171420448546</v>
       </c>
       <c r="Y27" t="n">
-        <v>187.4964801302808</v>
+        <v>787.171420448546</v>
       </c>
     </row>
     <row r="28">
@@ -6360,13 +6360,13 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="C28" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="D28" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="E28" t="n">
         <v>19.28114311021272</v>
@@ -6423,13 +6423,13 @@
         <v>153.8134336004835</v>
       </c>
       <c r="W28" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="X28" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="Y28" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
     </row>
     <row r="29">
@@ -6439,22 +6439,22 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>495.259035872464</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="C29" t="n">
-        <v>495.259035872464</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="D29" t="n">
-        <v>262.7299197543128</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="E29" t="n">
-        <v>262.7299197543128</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="F29" t="n">
         <v>262.7299197543128</v>
       </c>
       <c r="G29" t="n">
-        <v>262.7299197543128</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H29" t="n">
         <v>19.28114311021272</v>
@@ -6484,31 +6484,31 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Q29" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="R29" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="S29" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="T29" t="n">
-        <v>738.7078125165641</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="U29" t="n">
-        <v>738.7078125165641</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="V29" t="n">
-        <v>738.7078125165641</v>
+        <v>749.627473042513</v>
       </c>
       <c r="W29" t="n">
-        <v>738.7078125165641</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="X29" t="n">
-        <v>495.259035872464</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="Y29" t="n">
-        <v>495.259035872464</v>
+        <v>506.1786963984129</v>
       </c>
     </row>
     <row r="30">
@@ -6518,22 +6518,22 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>380.2300195200815</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="C30" t="n">
-        <v>205.7769902389545</v>
+        <v>817.1412885554689</v>
       </c>
       <c r="D30" t="n">
-        <v>205.7769902389545</v>
+        <v>668.2068788942177</v>
       </c>
       <c r="E30" t="n">
-        <v>205.7769902389545</v>
+        <v>508.9694238887622</v>
       </c>
       <c r="F30" t="n">
-        <v>205.7769902389545</v>
+        <v>362.4348659156472</v>
       </c>
       <c r="G30" t="n">
-        <v>205.7769902389545</v>
+        <v>223.7040404982626</v>
       </c>
       <c r="H30" t="n">
         <v>110.334904905842</v>
@@ -6551,43 +6551,43 @@
         <v>249.2442489785619</v>
       </c>
       <c r="M30" t="n">
-        <v>473.4149733950735</v>
+        <v>487.8483949674443</v>
       </c>
       <c r="N30" t="n">
-        <v>473.4149733950735</v>
+        <v>542.809531908403</v>
       </c>
       <c r="O30" t="n">
-        <v>712.019119383956</v>
+        <v>781.4136778972854</v>
       </c>
       <c r="P30" t="n">
-        <v>894.6625969973069</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Q30" t="n">
         <v>964.0571555106362</v>
       </c>
       <c r="R30" t="n">
-        <v>964.0571555106362</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="S30" t="n">
-        <v>964.0571555106362</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="T30" t="n">
-        <v>964.0571555106362</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="U30" t="n">
-        <v>964.0571555106362</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="V30" t="n">
-        <v>964.0571555106362</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="W30" t="n">
-        <v>964.0571555106362</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="X30" t="n">
-        <v>756.2056553051034</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="Y30" t="n">
-        <v>548.4453565401495</v>
+        <v>862.8876260635219</v>
       </c>
     </row>
     <row r="31">
@@ -6597,25 +6597,25 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C31" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D31" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E31" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F31" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G31" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H31" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I31" t="n">
         <v>19.28114311021272</v>
@@ -6660,13 +6660,13 @@
         <v>153.8134336004835</v>
       </c>
       <c r="W31" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="X31" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="Y31" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="32">
@@ -6676,22 +6676,22 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>19.28114311021272</v>
+        <v>366.1018663125844</v>
       </c>
       <c r="C32" t="n">
-        <v>19.28114311021272</v>
+        <v>366.1018663125844</v>
       </c>
       <c r="D32" t="n">
-        <v>19.28114311021272</v>
+        <v>366.1018663125844</v>
       </c>
       <c r="E32" t="n">
-        <v>19.28114311021272</v>
+        <v>366.1018663125844</v>
       </c>
       <c r="F32" t="n">
-        <v>19.28114311021272</v>
+        <v>366.1018663125844</v>
       </c>
       <c r="G32" t="n">
-        <v>19.28114311021272</v>
+        <v>122.6530896684844</v>
       </c>
       <c r="H32" t="n">
         <v>19.28114311021272</v>
@@ -6721,31 +6721,31 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Q32" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="R32" t="n">
-        <v>964.0571555106362</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="S32" t="n">
-        <v>964.0571555106362</v>
+        <v>591.4512093066566</v>
       </c>
       <c r="T32" t="n">
-        <v>964.0571555106362</v>
+        <v>366.1018663125844</v>
       </c>
       <c r="U32" t="n">
-        <v>964.0571555106362</v>
+        <v>366.1018663125844</v>
       </c>
       <c r="V32" t="n">
-        <v>964.0571555106362</v>
+        <v>366.1018663125844</v>
       </c>
       <c r="W32" t="n">
-        <v>749.627473042513</v>
+        <v>366.1018663125844</v>
       </c>
       <c r="X32" t="n">
-        <v>506.1786963984129</v>
+        <v>366.1018663125844</v>
       </c>
       <c r="Y32" t="n">
-        <v>262.7299197543128</v>
+        <v>366.1018663125844</v>
       </c>
     </row>
     <row r="33">
@@ -6755,28 +6755,28 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>19.28114311021272</v>
+        <v>85.06963004479587</v>
       </c>
       <c r="C33" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="D33" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="E33" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="F33" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="G33" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="H33" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="I33" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="J33" t="n">
         <v>19.28114311021272</v>
@@ -6788,43 +6788,43 @@
         <v>374.6018090363993</v>
       </c>
       <c r="M33" t="n">
-        <v>417.4543050195419</v>
+        <v>613.2059550252818</v>
       </c>
       <c r="N33" t="n">
-        <v>656.0584510084244</v>
+        <v>851.8101010141643</v>
       </c>
       <c r="O33" t="n">
-        <v>894.6625969973069</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="P33" t="n">
-        <v>894.6625969973069</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Q33" t="n">
         <v>964.0571555106362</v>
       </c>
       <c r="R33" t="n">
-        <v>862.8876260635219</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S33" t="n">
-        <v>689.4702815141908</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T33" t="n">
-        <v>487.2836868729568</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U33" t="n">
-        <v>259.0600686093459</v>
+        <v>735.8335372470253</v>
       </c>
       <c r="V33" t="n">
-        <v>23.90796037760316</v>
+        <v>500.6814290152826</v>
       </c>
       <c r="W33" t="n">
-        <v>19.28114311021272</v>
+        <v>500.6814290152826</v>
       </c>
       <c r="X33" t="n">
-        <v>19.28114311021272</v>
+        <v>292.8299288097498</v>
       </c>
       <c r="Y33" t="n">
-        <v>19.28114311021272</v>
+        <v>85.06963004479587</v>
       </c>
     </row>
     <row r="34">
@@ -6882,22 +6882,22 @@
         <v>153.8134336004835</v>
       </c>
       <c r="R34" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="S34" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="T34" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="U34" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="V34" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="W34" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="X34" t="n">
         <v>19.28114311021272</v>
@@ -6913,28 +6913,28 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>19.28114311021272</v>
+        <v>518.2486856454962</v>
       </c>
       <c r="C35" t="n">
-        <v>19.28114311021272</v>
+        <v>518.2486856454962</v>
       </c>
       <c r="D35" t="n">
-        <v>19.28114311021272</v>
+        <v>518.2486856454962</v>
       </c>
       <c r="E35" t="n">
-        <v>19.28114311021272</v>
+        <v>518.2486856454962</v>
       </c>
       <c r="F35" t="n">
-        <v>19.28114311021272</v>
+        <v>518.2486856454962</v>
       </c>
       <c r="G35" t="n">
-        <v>19.28114311021272</v>
+        <v>274.7999090013961</v>
       </c>
       <c r="H35" t="n">
-        <v>19.28114311021272</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="I35" t="n">
-        <v>19.28114311021272</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="J35" t="n">
         <v>19.28114311021272</v>
@@ -6964,25 +6964,25 @@
         <v>812.6742080953335</v>
       </c>
       <c r="S35" t="n">
-        <v>812.6742080953335</v>
+        <v>743.5980286395683</v>
       </c>
       <c r="T35" t="n">
-        <v>587.3248651012614</v>
+        <v>518.2486856454962</v>
       </c>
       <c r="U35" t="n">
-        <v>587.3248651012614</v>
+        <v>518.2486856454962</v>
       </c>
       <c r="V35" t="n">
-        <v>343.8760884571613</v>
+        <v>518.2486856454962</v>
       </c>
       <c r="W35" t="n">
-        <v>343.8760884571613</v>
+        <v>518.2486856454962</v>
       </c>
       <c r="X35" t="n">
-        <v>262.7299197543128</v>
+        <v>518.2486856454962</v>
       </c>
       <c r="Y35" t="n">
-        <v>262.7299197543128</v>
+        <v>518.2486856454962</v>
       </c>
     </row>
     <row r="36">
@@ -6992,22 +6992,22 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>500.6814290152826</v>
+        <v>619.4388494194218</v>
       </c>
       <c r="C36" t="n">
-        <v>500.6814290152826</v>
+        <v>557.2375949899332</v>
       </c>
       <c r="D36" t="n">
-        <v>500.6814290152826</v>
+        <v>408.3031853286819</v>
       </c>
       <c r="E36" t="n">
-        <v>500.6814290152826</v>
+        <v>249.0657303232264</v>
       </c>
       <c r="F36" t="n">
-        <v>362.4348659156472</v>
+        <v>249.0657303232264</v>
       </c>
       <c r="G36" t="n">
-        <v>223.7040404982626</v>
+        <v>110.334904905842</v>
       </c>
       <c r="H36" t="n">
         <v>110.334904905842</v>
@@ -7019,49 +7019,49 @@
         <v>19.28114311021272</v>
       </c>
       <c r="K36" t="n">
-        <v>19.28114311021272</v>
+        <v>144.6387031680501</v>
       </c>
       <c r="L36" t="n">
-        <v>19.28114311021272</v>
+        <v>374.6018090363993</v>
       </c>
       <c r="M36" t="n">
-        <v>234.810827406191</v>
+        <v>613.2059550252818</v>
       </c>
       <c r="N36" t="n">
-        <v>473.4149733950735</v>
+        <v>851.8101010141643</v>
       </c>
       <c r="O36" t="n">
-        <v>712.019119383956</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="P36" t="n">
-        <v>894.6625969973069</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Q36" t="n">
         <v>964.0571555106362</v>
       </c>
       <c r="R36" t="n">
-        <v>964.0571555106362</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="S36" t="n">
-        <v>964.0571555106362</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="T36" t="n">
-        <v>964.0571555106362</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="U36" t="n">
-        <v>735.8335372470253</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="V36" t="n">
-        <v>500.6814290152826</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="W36" t="n">
-        <v>500.6814290152826</v>
+        <v>619.4388494194218</v>
       </c>
       <c r="X36" t="n">
-        <v>500.6814290152826</v>
+        <v>619.4388494194218</v>
       </c>
       <c r="Y36" t="n">
-        <v>500.6814290152826</v>
+        <v>619.4388494194218</v>
       </c>
     </row>
     <row r="37">
@@ -7071,76 +7071,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C37" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D37" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E37" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F37" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G37" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H37" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I37" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J37" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="K37" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L37" t="n">
-        <v>856.8389900280785</v>
+        <v>46.5952681179257</v>
       </c>
       <c r="M37" t="n">
-        <v>896.0270282203006</v>
+        <v>85.78330631014788</v>
       </c>
       <c r="N37" t="n">
-        <v>939.7178788757369</v>
+        <v>129.4741569655842</v>
       </c>
       <c r="O37" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="P37" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="Q37" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="R37" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="S37" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="T37" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="U37" t="n">
-        <v>829.5248650203655</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="V37" t="n">
-        <v>829.5248650203655</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="W37" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="X37" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="Y37" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="38">
@@ -7150,22 +7150,22 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>749.627473042513</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="C38" t="n">
-        <v>749.627473042513</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="D38" t="n">
-        <v>749.627473042513</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="E38" t="n">
-        <v>749.627473042513</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="F38" t="n">
-        <v>506.1786963984129</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="G38" t="n">
-        <v>262.7299197543128</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H38" t="n">
         <v>19.28114311021272</v>
@@ -7195,31 +7195,31 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Q38" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="R38" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="S38" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="T38" t="n">
-        <v>964.0571555106362</v>
+        <v>728.6161971483371</v>
       </c>
       <c r="U38" t="n">
-        <v>964.0571555106362</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="V38" t="n">
-        <v>749.627473042513</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="W38" t="n">
-        <v>749.627473042513</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="X38" t="n">
-        <v>749.627473042513</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="Y38" t="n">
-        <v>749.627473042513</v>
+        <v>506.1786963984129</v>
       </c>
     </row>
     <row r="39">
@@ -7229,22 +7229,22 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>648.4405950311615</v>
+        <v>440.8221433693402</v>
       </c>
       <c r="C39" t="n">
-        <v>473.9875657500345</v>
+        <v>440.8221433693402</v>
       </c>
       <c r="D39" t="n">
-        <v>325.0531560887832</v>
+        <v>291.8877337080889</v>
       </c>
       <c r="E39" t="n">
-        <v>165.8157010833278</v>
+        <v>132.6502787026334</v>
       </c>
       <c r="F39" t="n">
-        <v>19.28114311021272</v>
+        <v>132.6502787026334</v>
       </c>
       <c r="G39" t="n">
-        <v>19.28114311021272</v>
+        <v>132.6502787026334</v>
       </c>
       <c r="H39" t="n">
         <v>19.28114311021272</v>
@@ -7262,43 +7262,43 @@
         <v>374.6018090363993</v>
       </c>
       <c r="M39" t="n">
-        <v>374.6018090363993</v>
+        <v>542.809531908403</v>
       </c>
       <c r="N39" t="n">
-        <v>473.4149733950735</v>
+        <v>542.809531908403</v>
       </c>
       <c r="O39" t="n">
-        <v>712.019119383956</v>
+        <v>781.4136778972854</v>
       </c>
       <c r="P39" t="n">
-        <v>894.6625969973069</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Q39" t="n">
         <v>964.0571555106362</v>
       </c>
       <c r="R39" t="n">
-        <v>964.0571555106362</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="S39" t="n">
-        <v>964.0571555106362</v>
+        <v>811.2240750306421</v>
       </c>
       <c r="T39" t="n">
-        <v>761.8705608694022</v>
+        <v>609.0374803894082</v>
       </c>
       <c r="U39" t="n">
-        <v>761.8705608694022</v>
+        <v>609.0374803894082</v>
       </c>
       <c r="V39" t="n">
-        <v>761.8705608694022</v>
+        <v>609.0374803894082</v>
       </c>
       <c r="W39" t="n">
-        <v>761.8705608694022</v>
+        <v>609.0374803894082</v>
       </c>
       <c r="X39" t="n">
-        <v>761.8705608694022</v>
+        <v>609.0374803894082</v>
       </c>
       <c r="Y39" t="n">
-        <v>761.8705608694022</v>
+        <v>609.0374803894082</v>
       </c>
     </row>
     <row r="40">
@@ -7356,16 +7356,16 @@
         <v>153.8134336004835</v>
       </c>
       <c r="R40" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="S40" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="T40" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="U40" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="V40" t="n">
         <v>19.28114311021272</v>
@@ -7387,28 +7387,28 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>31.35113235729608</v>
+        <v>475.3318284112885</v>
       </c>
       <c r="C41" t="n">
-        <v>31.35113235729608</v>
+        <v>475.3318284112885</v>
       </c>
       <c r="D41" t="n">
-        <v>31.35113235729608</v>
+        <v>475.3318284112885</v>
       </c>
       <c r="E41" t="n">
-        <v>31.35113235729608</v>
+        <v>475.3318284112885</v>
       </c>
       <c r="F41" t="n">
-        <v>31.35113235729608</v>
+        <v>475.3318284112885</v>
       </c>
       <c r="G41" t="n">
-        <v>31.35113235729608</v>
+        <v>231.8830517671884</v>
       </c>
       <c r="H41" t="n">
-        <v>31.35113235729608</v>
+        <v>231.8830517671884</v>
       </c>
       <c r="I41" t="n">
-        <v>31.35113235729608</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J41" t="n">
         <v>19.28114311021272</v>
@@ -7438,25 +7438,25 @@
         <v>964.0571555106362</v>
       </c>
       <c r="S41" t="n">
-        <v>752.9257720901863</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T41" t="n">
-        <v>527.5764290961142</v>
+        <v>738.7078125165641</v>
       </c>
       <c r="U41" t="n">
-        <v>518.2486856454962</v>
+        <v>738.7078125165641</v>
       </c>
       <c r="V41" t="n">
-        <v>518.2486856454962</v>
+        <v>738.7078125165641</v>
       </c>
       <c r="W41" t="n">
-        <v>274.7999090013961</v>
+        <v>495.259035872464</v>
       </c>
       <c r="X41" t="n">
-        <v>31.35113235729608</v>
+        <v>495.259035872464</v>
       </c>
       <c r="Y41" t="n">
-        <v>31.35113235729608</v>
+        <v>475.3318284112885</v>
       </c>
     </row>
     <row r="42">
@@ -7466,28 +7466,28 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>223.7040404982626</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C42" t="n">
-        <v>223.7040404982626</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D42" t="n">
-        <v>223.7040404982626</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E42" t="n">
-        <v>223.7040404982626</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F42" t="n">
-        <v>223.7040404982626</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G42" t="n">
-        <v>223.7040404982626</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H42" t="n">
-        <v>110.334904905842</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I42" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J42" t="n">
         <v>19.28114311021272</v>
@@ -7499,16 +7499,16 @@
         <v>374.6018090363993</v>
       </c>
       <c r="M42" t="n">
-        <v>613.2059550252818</v>
+        <v>486.8488635328713</v>
       </c>
       <c r="N42" t="n">
-        <v>712.019119383956</v>
+        <v>725.4530095217538</v>
       </c>
       <c r="O42" t="n">
-        <v>712.019119383956</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="P42" t="n">
-        <v>894.6625969973069</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Q42" t="n">
         <v>964.0571555106362</v>
@@ -7517,25 +7517,25 @@
         <v>964.0571555106362</v>
       </c>
       <c r="S42" t="n">
-        <v>964.0571555106362</v>
+        <v>790.6398109613051</v>
       </c>
       <c r="T42" t="n">
-        <v>964.0571555106362</v>
+        <v>726.1056462496665</v>
       </c>
       <c r="U42" t="n">
-        <v>964.0571555106362</v>
+        <v>497.8820279860555</v>
       </c>
       <c r="V42" t="n">
-        <v>964.0571555106362</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="W42" t="n">
-        <v>720.6083788665362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="X42" t="n">
-        <v>599.6796762832846</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="Y42" t="n">
-        <v>391.9193775183306</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="43">
@@ -7624,22 +7624,22 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>19.28114311021272</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="C44" t="n">
-        <v>19.28114311021272</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="D44" t="n">
-        <v>19.28114311021272</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="E44" t="n">
-        <v>19.28114311021272</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="F44" t="n">
-        <v>19.28114311021272</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="G44" t="n">
-        <v>19.28114311021272</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="H44" t="n">
         <v>19.28114311021272</v>
@@ -7669,31 +7669,31 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Q44" t="n">
-        <v>953.9655401424092</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="R44" t="n">
-        <v>953.9655401424092</v>
+        <v>812.6742080953335</v>
       </c>
       <c r="S44" t="n">
-        <v>742.8341567219593</v>
+        <v>601.5428246748836</v>
       </c>
       <c r="T44" t="n">
-        <v>517.4848137278872</v>
+        <v>376.1934816808115</v>
       </c>
       <c r="U44" t="n">
-        <v>274.0360370837871</v>
+        <v>376.1934816808115</v>
       </c>
       <c r="V44" t="n">
-        <v>30.58726043968704</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="W44" t="n">
-        <v>30.58726043968704</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="X44" t="n">
-        <v>19.28114311021272</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="Y44" t="n">
-        <v>19.28114311021272</v>
+        <v>262.7299197543128</v>
       </c>
     </row>
     <row r="45">
@@ -7703,28 +7703,28 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>69.84447166430675</v>
+        <v>384.2867411876791</v>
       </c>
       <c r="C45" t="n">
-        <v>19.28114311021272</v>
+        <v>384.2867411876791</v>
       </c>
       <c r="D45" t="n">
-        <v>19.28114311021272</v>
+        <v>384.2867411876791</v>
       </c>
       <c r="E45" t="n">
-        <v>19.28114311021272</v>
+        <v>305.3006591534979</v>
       </c>
       <c r="F45" t="n">
-        <v>19.28114311021272</v>
+        <v>158.7661011803829</v>
       </c>
       <c r="G45" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="H45" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="I45" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="J45" t="n">
         <v>19.28114311021272</v>
@@ -7739,7 +7739,7 @@
         <v>613.2059550252818</v>
       </c>
       <c r="N45" t="n">
-        <v>851.8101010141643</v>
+        <v>725.4530095217538</v>
       </c>
       <c r="O45" t="n">
         <v>964.0571555106362</v>
@@ -7751,28 +7751,28 @@
         <v>964.0571555106362</v>
       </c>
       <c r="R45" t="n">
-        <v>964.0571555106362</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="S45" t="n">
-        <v>964.0571555106362</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="T45" t="n">
-        <v>964.0571555106362</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="U45" t="n">
-        <v>964.0571555106362</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="V45" t="n">
-        <v>728.9050472788936</v>
+        <v>627.7355178317791</v>
       </c>
       <c r="W45" t="n">
-        <v>485.4562706347935</v>
+        <v>384.2867411876791</v>
       </c>
       <c r="X45" t="n">
-        <v>277.6047704292607</v>
+        <v>384.2867411876791</v>
       </c>
       <c r="Y45" t="n">
-        <v>69.84447166430675</v>
+        <v>384.2867411876791</v>
       </c>
     </row>
     <row r="46">
@@ -7782,19 +7782,19 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C46" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D46" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E46" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F46" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G46" t="n">
         <v>19.28114311021272</v>
@@ -7845,13 +7845,13 @@
         <v>153.8134336004835</v>
       </c>
       <c r="W46" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="X46" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="Y46" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
   </sheetData>
@@ -7981,22 +7981,22 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K2" t="n">
-        <v>264.2220234242092</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L2" t="n">
-        <v>279.8985873492159</v>
+        <v>417.6612145504504</v>
       </c>
       <c r="M2" t="n">
-        <v>272.6952875305729</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N2" t="n">
-        <v>229.4130635965909</v>
+        <v>437.3469244119842</v>
       </c>
       <c r="O2" t="n">
-        <v>230.0982114216867</v>
+        <v>380.8001812627454</v>
       </c>
       <c r="P2" t="n">
-        <v>275.3651681344982</v>
+        <v>321.7987081714826</v>
       </c>
       <c r="Q2" t="n">
         <v>212.3149906599047</v>
@@ -8060,25 +8060,25 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K3" t="n">
-        <v>137.841438974359</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L3" t="n">
-        <v>180.9034340831744</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M3" t="n">
-        <v>186.2662063012469</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N3" t="n">
-        <v>175.4738844625619</v>
+        <v>301.248502863135</v>
       </c>
       <c r="O3" t="n">
-        <v>142.5962444444444</v>
+        <v>383.6105333221035</v>
       </c>
       <c r="P3" t="n">
-        <v>133.9744074143302</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q3" t="n">
-        <v>184.1139464652501</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R3" t="n">
         <v>45.52166981132082</v>
@@ -8218,22 +8218,22 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K5" t="n">
-        <v>264.2220234242092</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L5" t="n">
-        <v>279.8985873492159</v>
+        <v>417.6612145504504</v>
       </c>
       <c r="M5" t="n">
-        <v>272.6952875305729</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N5" t="n">
-        <v>229.4130635965909</v>
+        <v>437.3469244119842</v>
       </c>
       <c r="O5" t="n">
-        <v>230.0982114216867</v>
+        <v>380.8001812627454</v>
       </c>
       <c r="P5" t="n">
-        <v>275.3651681344982</v>
+        <v>321.7987081714826</v>
       </c>
       <c r="Q5" t="n">
         <v>212.3149906599047</v>
@@ -8297,25 +8297,25 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K6" t="n">
-        <v>181.9736113535876</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L6" t="n">
         <v>138.5543797798742</v>
       </c>
       <c r="M6" t="n">
-        <v>186.2662063012469</v>
+        <v>383.1483227996774</v>
       </c>
       <c r="N6" t="n">
-        <v>173.6907663866335</v>
+        <v>222.4246658592332</v>
       </c>
       <c r="O6" t="n">
-        <v>142.5962444444444</v>
+        <v>383.6105333221035</v>
       </c>
       <c r="P6" t="n">
-        <v>133.9744074143302</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q6" t="n">
-        <v>184.1139464652501</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R6" t="n">
         <v>45.52166981132082</v>
@@ -8455,22 +8455,22 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K8" t="n">
-        <v>220.0898510449805</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L8" t="n">
-        <v>279.8985873492159</v>
+        <v>417.6612145504504</v>
       </c>
       <c r="M8" t="n">
-        <v>274.4784056065013</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N8" t="n">
-        <v>271.7621178998911</v>
+        <v>437.3469244119842</v>
       </c>
       <c r="O8" t="n">
-        <v>230.0982114216867</v>
+        <v>380.8001812627454</v>
       </c>
       <c r="P8" t="n">
-        <v>275.3651681344982</v>
+        <v>321.7987081714826</v>
       </c>
       <c r="Q8" t="n">
         <v>212.3149906599047</v>
@@ -8540,19 +8540,19 @@
         <v>138.5543797798742</v>
       </c>
       <c r="M9" t="n">
-        <v>186.2662063012469</v>
+        <v>383.1483227996774</v>
       </c>
       <c r="N9" t="n">
-        <v>175.4738844625619</v>
+        <v>349.0484638974528</v>
       </c>
       <c r="O9" t="n">
-        <v>184.9452987477446</v>
+        <v>383.6105333221035</v>
       </c>
       <c r="P9" t="n">
-        <v>133.9744074143302</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q9" t="n">
-        <v>184.1139464652501</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R9" t="n">
         <v>45.52166981132082</v>
@@ -8692,22 +8692,22 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K11" t="n">
-        <v>220.0898510449805</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L11" t="n">
-        <v>279.8985873492159</v>
+        <v>417.6612145504504</v>
       </c>
       <c r="M11" t="n">
-        <v>274.4784056065013</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N11" t="n">
-        <v>271.7621178998911</v>
+        <v>437.3469244119842</v>
       </c>
       <c r="O11" t="n">
-        <v>274.2303838009153</v>
+        <v>380.8001812627454</v>
       </c>
       <c r="P11" t="n">
-        <v>231.2329957552695</v>
+        <v>321.7987081714826</v>
       </c>
       <c r="Q11" t="n">
         <v>212.3149906599047</v>
@@ -8771,25 +8771,25 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K12" t="n">
-        <v>137.841438974359</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L12" t="n">
-        <v>182.6865521591028</v>
+        <v>229.6373335557741</v>
       </c>
       <c r="M12" t="n">
         <v>142.1340339220183</v>
       </c>
       <c r="N12" t="n">
-        <v>131.3417120833333</v>
+        <v>372.3560009609923</v>
       </c>
       <c r="O12" t="n">
-        <v>184.9452987477446</v>
+        <v>383.6105333221035</v>
       </c>
       <c r="P12" t="n">
-        <v>178.1065797935588</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q12" t="n">
-        <v>184.1139464652501</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R12" t="n">
         <v>45.52166981132082</v>
@@ -8929,22 +8929,22 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K14" t="n">
-        <v>264.2220234242092</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L14" t="n">
-        <v>235.7664149699872</v>
+        <v>417.6612145504504</v>
       </c>
       <c r="M14" t="n">
-        <v>274.4784056065013</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N14" t="n">
-        <v>273.5452359758195</v>
+        <v>437.3469244119842</v>
       </c>
       <c r="O14" t="n">
-        <v>272.4472657249869</v>
+        <v>380.8001812627454</v>
       </c>
       <c r="P14" t="n">
-        <v>231.2329957552695</v>
+        <v>321.7987081714826</v>
       </c>
       <c r="Q14" t="n">
         <v>212.3149906599047</v>
@@ -9008,25 +9008,25 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K15" t="n">
-        <v>180.1904932776592</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L15" t="n">
-        <v>138.5543797798742</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M15" t="n">
-        <v>186.2662063012469</v>
+        <v>383.1483227996774</v>
       </c>
       <c r="N15" t="n">
-        <v>175.4738844625619</v>
+        <v>372.3560009609923</v>
       </c>
       <c r="O15" t="n">
-        <v>142.5962444444444</v>
+        <v>255.9771075721939</v>
       </c>
       <c r="P15" t="n">
         <v>133.9744074143302</v>
       </c>
       <c r="Q15" t="n">
-        <v>184.1139464652501</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R15" t="n">
         <v>45.52166981132082</v>
@@ -9245,13 +9245,13 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K18" t="n">
-        <v>137.841438974359</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L18" t="n">
         <v>370.8403453034592</v>
       </c>
       <c r="M18" t="n">
-        <v>312.0431814381598</v>
+        <v>255.5148970497678</v>
       </c>
       <c r="N18" t="n">
         <v>372.3560009609923</v>
@@ -9263,7 +9263,7 @@
         <v>133.9744074143302</v>
       </c>
       <c r="Q18" t="n">
-        <v>210.0772877358491</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R18" t="n">
         <v>45.52166981132082</v>
@@ -9482,25 +9482,25 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K21" t="n">
-        <v>137.841438974359</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L21" t="n">
         <v>370.8403453034592</v>
       </c>
       <c r="M21" t="n">
-        <v>382.1386950879875</v>
+        <v>241.9453110519923</v>
       </c>
       <c r="N21" t="n">
         <v>372.3560009609923</v>
       </c>
       <c r="O21" t="n">
-        <v>383.6105333221035</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P21" t="n">
-        <v>133.9744074143302</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q21" t="n">
-        <v>139.9817740860215</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R21" t="n">
         <v>45.52166981132082</v>
@@ -9725,19 +9725,19 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M24" t="n">
-        <v>185.4193833999402</v>
+        <v>383.1483227996774</v>
       </c>
       <c r="N24" t="n">
         <v>372.3560009609923</v>
       </c>
       <c r="O24" t="n">
-        <v>383.6105333221035</v>
+        <v>255.9771075721939</v>
       </c>
       <c r="P24" t="n">
         <v>133.9744074143302</v>
       </c>
       <c r="Q24" t="n">
-        <v>210.0772877358491</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R24" t="n">
         <v>45.52166981132082</v>
@@ -9956,7 +9956,7 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K27" t="n">
-        <v>264.4652370125786</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L27" t="n">
         <v>138.5543797798742</v>
@@ -9965,10 +9965,10 @@
         <v>383.1483227996774</v>
       </c>
       <c r="N27" t="n">
-        <v>222.4246658592332</v>
+        <v>372.3560009609923</v>
       </c>
       <c r="O27" t="n">
-        <v>383.6105333221035</v>
+        <v>360.302996258564</v>
       </c>
       <c r="P27" t="n">
         <v>318.4627686399372</v>
@@ -10199,10 +10199,10 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M30" t="n">
-        <v>368.5691090902119</v>
+        <v>383.1483227996774</v>
       </c>
       <c r="N30" t="n">
-        <v>131.3417120833333</v>
+        <v>186.8580120236956</v>
       </c>
       <c r="O30" t="n">
         <v>383.6105333221035</v>
@@ -10211,7 +10211,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q30" t="n">
-        <v>210.0772877358491</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R30" t="n">
         <v>45.52166981132082</v>
@@ -10436,19 +10436,19 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M33" t="n">
-        <v>185.4193833999402</v>
+        <v>383.1483227996774</v>
       </c>
       <c r="N33" t="n">
         <v>372.3560009609923</v>
       </c>
       <c r="O33" t="n">
-        <v>383.6105333221035</v>
+        <v>255.9771075721939</v>
       </c>
       <c r="P33" t="n">
         <v>133.9744074143302</v>
       </c>
       <c r="Q33" t="n">
-        <v>210.0772877358491</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R33" t="n">
         <v>45.52166981132082</v>
@@ -10667,25 +10667,25 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K36" t="n">
-        <v>137.841438974359</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L36" t="n">
-        <v>138.5543797798742</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M36" t="n">
-        <v>359.8407857361378</v>
+        <v>383.1483227996774</v>
       </c>
       <c r="N36" t="n">
         <v>372.3560009609923</v>
       </c>
       <c r="O36" t="n">
-        <v>383.6105333221035</v>
+        <v>255.9771075721939</v>
       </c>
       <c r="P36" t="n">
-        <v>318.4627686399372</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q36" t="n">
-        <v>210.0772877358491</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R36" t="n">
         <v>45.52166981132082</v>
@@ -10825,7 +10825,7 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K38" t="n">
-        <v>324.1454125711647</v>
+        <v>324.1454125711648</v>
       </c>
       <c r="L38" t="n">
         <v>417.6612145504504</v>
@@ -10910,10 +10910,10 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M39" t="n">
-        <v>142.1340339220183</v>
+        <v>312.04082470182</v>
       </c>
       <c r="N39" t="n">
-        <v>231.1529892133073</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O39" t="n">
         <v>383.6105333221035</v>
@@ -10922,7 +10922,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q39" t="n">
-        <v>210.0772877358491</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R39" t="n">
         <v>45.52166981132082</v>
@@ -11147,19 +11147,19 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M42" t="n">
-        <v>383.1483227996774</v>
+        <v>255.5148970497678</v>
       </c>
       <c r="N42" t="n">
-        <v>231.1529892133072</v>
+        <v>372.3560009609923</v>
       </c>
       <c r="O42" t="n">
-        <v>142.5962444444444</v>
+        <v>383.6105333221035</v>
       </c>
       <c r="P42" t="n">
-        <v>318.4627686399372</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q42" t="n">
-        <v>210.0772877358491</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R42" t="n">
         <v>45.52166981132082</v>
@@ -11387,10 +11387,10 @@
         <v>383.1483227996774</v>
       </c>
       <c r="N45" t="n">
-        <v>372.3560009609923</v>
+        <v>244.7225752110828</v>
       </c>
       <c r="O45" t="n">
-        <v>255.9771075721939</v>
+        <v>383.6105333221035</v>
       </c>
       <c r="P45" t="n">
         <v>133.9744074143302</v>
@@ -22546,7 +22546,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>382.7338416634806</v>
+        <v>170.4484560200385</v>
       </c>
       <c r="C2" t="n">
         <v>365.2728917710076</v>
@@ -22594,28 +22594,28 @@
         <v>9.990699214544804</v>
       </c>
       <c r="R2" t="n">
-        <v>105.7369455619211</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S2" t="n">
-        <v>164.8878972070167</v>
+        <v>209.0200695862453</v>
       </c>
       <c r="T2" t="n">
-        <v>178.9636771849028</v>
+        <v>223.0958495641314</v>
       </c>
       <c r="U2" t="n">
-        <v>212.474035476212</v>
+        <v>251.3456529078365</v>
       </c>
       <c r="V2" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
-        <v>349.240968717413</v>
+        <v>108.226679839754</v>
       </c>
       <c r="X2" t="n">
-        <v>369.731100678469</v>
+        <v>128.71681180081</v>
       </c>
       <c r="Y2" t="n">
-        <v>386.2379386560536</v>
+        <v>145.2236497783945</v>
       </c>
     </row>
     <row r="3">
@@ -22637,19 +22637,19 @@
         <v>157.6450804554009</v>
       </c>
       <c r="F3" t="n">
-        <v>106.9441862880172</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G3" t="n">
-        <v>93.21134478398204</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H3" t="n">
-        <v>68.10327185726787</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I3" t="n">
-        <v>45.26446047218649</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -22673,7 +22673,7 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S3" t="n">
         <v>171.6831711038378</v>
@@ -22682,16 +22682,16 @@
         <v>200.1647286948216</v>
       </c>
       <c r="U3" t="n">
-        <v>225.9413820809748</v>
+        <v>0</v>
       </c>
       <c r="V3" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W3" t="n">
-        <v>251.6949831609196</v>
+        <v>81.03951947102121</v>
       </c>
       <c r="X3" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y3" t="n">
         <v>205.6826957773044</v>
@@ -22731,7 +22731,7 @@
         <v>93.35918011667277</v>
       </c>
       <c r="K4" t="n">
-        <v>21.47904137820059</v>
+        <v>22.26949182588285</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
@@ -22749,13 +22749,13 @@
         <v>2.721440735106512</v>
       </c>
       <c r="Q4" t="n">
-        <v>42.02987087246579</v>
+        <v>86.16204325169439</v>
       </c>
       <c r="R4" t="n">
-        <v>133.1612189979409</v>
+        <v>177.2933913771695</v>
       </c>
       <c r="S4" t="n">
-        <v>179.8844256577437</v>
+        <v>224.0165980369723</v>
       </c>
       <c r="T4" t="n">
         <v>227.9455894282815</v>
@@ -22767,7 +22767,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
-        <v>286.522998336591</v>
+        <v>153.336030751223</v>
       </c>
       <c r="X4" t="n">
         <v>225.7096553890372</v>
@@ -22783,28 +22783,28 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>382.7338416634806</v>
+        <v>342.2575625303454</v>
       </c>
       <c r="C5" t="n">
-        <v>365.2728917710076</v>
+        <v>124.2586028933485</v>
       </c>
       <c r="D5" t="n">
-        <v>354.683041620683</v>
+        <v>113.6687527430239</v>
       </c>
       <c r="E5" t="n">
-        <v>381.9303700722618</v>
+        <v>140.9160811946027</v>
       </c>
       <c r="F5" t="n">
-        <v>379.9537176646994</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G5" t="n">
-        <v>371.1705651359065</v>
+        <v>415.302737515135</v>
       </c>
       <c r="H5" t="n">
-        <v>295.3426297365386</v>
+        <v>339.4748021157671</v>
       </c>
       <c r="I5" t="n">
-        <v>166.3437171911773</v>
+        <v>210.4758895704059</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -22828,10 +22828,10 @@
         <v>0</v>
       </c>
       <c r="Q5" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>149.8691179411497</v>
+        <v>0</v>
       </c>
       <c r="S5" t="n">
         <v>209.0200695862453</v>
@@ -22868,25 +22868,25 @@
         <v>172.7084989883157</v>
       </c>
       <c r="D6" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E6" t="n">
-        <v>119.5200543500343</v>
+        <v>16.71389651957864</v>
       </c>
       <c r="F6" t="n">
-        <v>100.9370400141553</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G6" t="n">
-        <v>93.21134478398204</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H6" t="n">
         <v>112.2354442364965</v>
       </c>
       <c r="I6" t="n">
-        <v>45.26446047218649</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J6" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K6" t="n">
         <v>0</v>
@@ -22916,7 +22916,7 @@
         <v>171.6831711038378</v>
       </c>
       <c r="T6" t="n">
-        <v>200.1647286948216</v>
+        <v>0</v>
       </c>
       <c r="U6" t="n">
         <v>225.9413820809748</v>
@@ -22925,10 +22925,10 @@
         <v>232.8005871494253</v>
       </c>
       <c r="W6" t="n">
-        <v>251.6949831609196</v>
+        <v>10.68069428326055</v>
       </c>
       <c r="X6" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y6" t="n">
         <v>205.6826957773044</v>
@@ -22983,16 +22983,16 @@
         <v>0</v>
       </c>
       <c r="P7" t="n">
-        <v>1.930990287424243</v>
+        <v>2.721440735106512</v>
       </c>
       <c r="Q7" t="n">
-        <v>42.02987087246579</v>
+        <v>86.16204325169439</v>
       </c>
       <c r="R7" t="n">
-        <v>133.1612189979409</v>
+        <v>177.2933913771695</v>
       </c>
       <c r="S7" t="n">
-        <v>179.8844256577437</v>
+        <v>90.82963045160423</v>
       </c>
       <c r="T7" t="n">
         <v>227.9455894282815</v>
@@ -23020,7 +23020,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>382.7338416634806</v>
+        <v>141.7195527858215</v>
       </c>
       <c r="C8" t="n">
         <v>365.2728917710076</v>
@@ -23068,16 +23068,16 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>105.7369455619211</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S8" t="n">
-        <v>180.1391513691656</v>
+        <v>6.725383157348119</v>
       </c>
       <c r="T8" t="n">
-        <v>178.9636771849028</v>
+        <v>223.0958495641314</v>
       </c>
       <c r="U8" t="n">
-        <v>207.2134805286079</v>
+        <v>10.33136403017744</v>
       </c>
       <c r="V8" t="n">
         <v>327.7522584701349</v>
@@ -23089,7 +23089,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
-        <v>386.2379386560536</v>
+        <v>145.2236497783945</v>
       </c>
     </row>
     <row r="9">
@@ -23099,10 +23099,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C9" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D9" t="n">
         <v>147.4450655646388</v>
@@ -23111,19 +23111,19 @@
         <v>157.6450804554009</v>
       </c>
       <c r="F9" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G9" t="n">
         <v>137.3435171632106</v>
       </c>
       <c r="H9" t="n">
-        <v>112.2354442364965</v>
+        <v>0</v>
       </c>
       <c r="I9" t="n">
         <v>89.39663285141508</v>
       </c>
       <c r="J9" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K9" t="n">
         <v>0</v>
@@ -23147,19 +23147,19 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>62.03280804727645</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S9" t="n">
-        <v>127.5509987246092</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T9" t="n">
-        <v>156.032556315593</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U9" t="n">
-        <v>181.8092097017462</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V9" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W9" t="n">
         <v>251.6949831609196</v>
@@ -23168,7 +23168,7 @@
         <v>205.7729852034775</v>
       </c>
       <c r="Y9" t="n">
-        <v>205.6826957773044</v>
+        <v>99.70136991837383</v>
       </c>
     </row>
     <row r="10">
@@ -23196,16 +23196,16 @@
         <v>167.9909793584588</v>
       </c>
       <c r="H10" t="n">
-        <v>118.095000128211</v>
+        <v>162.2271725074396</v>
       </c>
       <c r="I10" t="n">
-        <v>111.3183025480297</v>
+        <v>155.4504749272583</v>
       </c>
       <c r="J10" t="n">
-        <v>70.70604911564477</v>
+        <v>93.35918011667277</v>
       </c>
       <c r="K10" t="n">
-        <v>0</v>
+        <v>22.26949182588285</v>
       </c>
       <c r="L10" t="n">
         <v>0</v>
@@ -23241,7 +23241,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
-        <v>286.522998336591</v>
+        <v>153.336030751223</v>
       </c>
       <c r="X10" t="n">
         <v>225.7096553890372</v>
@@ -23269,10 +23269,10 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F11" t="n">
-        <v>368.0044283100869</v>
+        <v>165.8617568640524</v>
       </c>
       <c r="G11" t="n">
-        <v>415.302737515135</v>
+        <v>174.288448637476</v>
       </c>
       <c r="H11" t="n">
         <v>339.4748021157671</v>
@@ -23302,7 +23302,7 @@
         <v>0</v>
       </c>
       <c r="Q11" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R11" t="n">
         <v>149.8691179411497</v>
@@ -23311,22 +23311,22 @@
         <v>209.0200695862453</v>
       </c>
       <c r="T11" t="n">
-        <v>223.0958495641314</v>
+        <v>20.80116313523413</v>
       </c>
       <c r="U11" t="n">
-        <v>207.2134805286079</v>
+        <v>251.3456529078365</v>
       </c>
       <c r="V11" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W11" t="n">
-        <v>305.1087963381844</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X11" t="n">
-        <v>325.5989282992405</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y11" t="n">
-        <v>386.2379386560536</v>
+        <v>145.2236497783945</v>
       </c>
     </row>
     <row r="12">
@@ -23357,7 +23357,7 @@
         <v>112.2354442364965</v>
       </c>
       <c r="I12" t="n">
-        <v>50.52501541979053</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J12" t="n">
         <v>0.7465913262578567</v>
@@ -23384,28 +23384,28 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>100.1578341526431</v>
+        <v>70.26853576158743</v>
       </c>
       <c r="S12" t="n">
-        <v>127.5509987246092</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T12" t="n">
-        <v>156.032556315593</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U12" t="n">
-        <v>181.8092097017462</v>
+        <v>0</v>
       </c>
       <c r="V12" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W12" t="n">
-        <v>251.6949831609196</v>
+        <v>10.68069428326055</v>
       </c>
       <c r="X12" t="n">
         <v>205.7729852034775</v>
       </c>
       <c r="Y12" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="13">
@@ -23430,16 +23430,16 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>167.9909793584588</v>
+        <v>34.80401177309074</v>
       </c>
       <c r="H13" t="n">
-        <v>161.4367220597573</v>
+        <v>162.2271725074396</v>
       </c>
       <c r="I13" t="n">
-        <v>111.3183025480297</v>
+        <v>155.4504749272583</v>
       </c>
       <c r="J13" t="n">
-        <v>49.22700773744418</v>
+        <v>93.35918011667277</v>
       </c>
       <c r="K13" t="n">
         <v>22.26949182588285</v>
@@ -23460,7 +23460,7 @@
         <v>2.721440735106512</v>
       </c>
       <c r="Q13" t="n">
-        <v>42.02987087246579</v>
+        <v>86.16204325169439</v>
       </c>
       <c r="R13" t="n">
         <v>177.2933913771695</v>
@@ -23494,7 +23494,7 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>382.7338416634806</v>
+        <v>142.4757859842545</v>
       </c>
       <c r="C14" t="n">
         <v>365.2728917710076</v>
@@ -23506,19 +23506,19 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F14" t="n">
-        <v>362.7438733624829</v>
+        <v>165.8617568640524</v>
       </c>
       <c r="G14" t="n">
-        <v>371.1705651359065</v>
+        <v>415.302737515135</v>
       </c>
       <c r="H14" t="n">
-        <v>295.3426297365386</v>
+        <v>339.4748021157671</v>
       </c>
       <c r="I14" t="n">
-        <v>171.6042721387814</v>
+        <v>210.4758895704059</v>
       </c>
       <c r="J14" t="n">
-        <v>11.94928935461252</v>
+        <v>0</v>
       </c>
       <c r="K14" t="n">
         <v>0</v>
@@ -23539,16 +23539,16 @@
         <v>0</v>
       </c>
       <c r="Q14" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R14" t="n">
         <v>149.8691179411497</v>
       </c>
       <c r="S14" t="n">
-        <v>209.0200695862453</v>
+        <v>0</v>
       </c>
       <c r="T14" t="n">
-        <v>223.0958495641314</v>
+        <v>0</v>
       </c>
       <c r="U14" t="n">
         <v>251.3456529078365</v>
@@ -23579,19 +23579,19 @@
         <v>172.7084989883157</v>
       </c>
       <c r="D15" t="n">
-        <v>103.3128931854102</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E15" t="n">
-        <v>113.5129080761724</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F15" t="n">
         <v>145.0692123933839</v>
       </c>
       <c r="G15" t="n">
-        <v>93.21134478398204</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H15" t="n">
-        <v>73.36382680487192</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I15" t="n">
         <v>89.39663285141508</v>
@@ -23621,7 +23621,7 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>100.1578341526431</v>
+        <v>70.26853576158743</v>
       </c>
       <c r="S15" t="n">
         <v>171.6831711038378</v>
@@ -23630,19 +23630,19 @@
         <v>200.1647286948216</v>
       </c>
       <c r="U15" t="n">
-        <v>225.9413820809748</v>
+        <v>0</v>
       </c>
       <c r="V15" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W15" t="n">
-        <v>251.6949831609196</v>
+        <v>10.68069428326055</v>
       </c>
       <c r="X15" t="n">
         <v>205.7729852034775</v>
       </c>
       <c r="Y15" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="16">
@@ -23694,16 +23694,16 @@
         <v>0</v>
       </c>
       <c r="P16" t="n">
-        <v>0</v>
+        <v>2.721440735106512</v>
       </c>
       <c r="Q16" t="n">
-        <v>42.02987087246579</v>
+        <v>86.16204325169439</v>
       </c>
       <c r="R16" t="n">
-        <v>133.1612189979409</v>
+        <v>44.10642379180146</v>
       </c>
       <c r="S16" t="n">
-        <v>181.8154159451679</v>
+        <v>224.0165980369723</v>
       </c>
       <c r="T16" t="n">
         <v>227.9455894282815</v>
@@ -23743,19 +23743,19 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F17" t="n">
-        <v>165.8617568640524</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G17" t="n">
-        <v>174.288448637476</v>
+        <v>415.302737515135</v>
       </c>
       <c r="H17" t="n">
         <v>98.46051323810809</v>
       </c>
       <c r="I17" t="n">
-        <v>20.13049249612121</v>
+        <v>210.4758895704059</v>
       </c>
       <c r="J17" t="n">
-        <v>0</v>
+        <v>11.94928935461252</v>
       </c>
       <c r="K17" t="n">
         <v>0</v>
@@ -23776,16 +23776,16 @@
         <v>0</v>
       </c>
       <c r="Q17" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R17" t="n">
-        <v>149.8691179411497</v>
+        <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>209.0200695862453</v>
+        <v>128.6853625704253</v>
       </c>
       <c r="T17" t="n">
-        <v>223.0958495641314</v>
+        <v>0</v>
       </c>
       <c r="U17" t="n">
         <v>251.3456529078365</v>
@@ -23794,7 +23794,7 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W17" t="n">
-        <v>349.240968717413</v>
+        <v>108.226679839754</v>
       </c>
       <c r="X17" t="n">
         <v>369.731100678469</v>
@@ -23822,13 +23822,13 @@
         <v>157.6450804554009</v>
       </c>
       <c r="F18" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>137.3435171632106</v>
+        <v>33.2926316963993</v>
       </c>
       <c r="H18" t="n">
-        <v>112.2354442364965</v>
+        <v>0</v>
       </c>
       <c r="I18" t="n">
         <v>89.39663285141508</v>
@@ -23861,19 +23861,19 @@
         <v>0</v>
       </c>
       <c r="S18" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T18" t="n">
-        <v>0</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U18" t="n">
-        <v>0</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
       </c>
       <c r="W18" t="n">
-        <v>247.1144340662031</v>
+        <v>10.68069428326055</v>
       </c>
       <c r="X18" t="n">
         <v>205.7729852034775</v>
@@ -23943,10 +23943,10 @@
         <v>224.0165980369723</v>
       </c>
       <c r="T19" t="n">
-        <v>227.9455894282815</v>
+        <v>94.75862184291347</v>
       </c>
       <c r="U19" t="n">
-        <v>153.1320617711229</v>
+        <v>286.3190293564909</v>
       </c>
       <c r="V19" t="n">
         <v>252.137643323828</v>
@@ -23968,7 +23968,7 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>382.7338416634806</v>
+        <v>141.7195527858215</v>
       </c>
       <c r="C20" t="n">
         <v>365.2728917710076</v>
@@ -23992,7 +23992,7 @@
         <v>210.4758895704059</v>
       </c>
       <c r="J20" t="n">
-        <v>0.7562331984329429</v>
+        <v>11.94928935461252</v>
       </c>
       <c r="K20" t="n">
         <v>0</v>
@@ -24013,19 +24013,19 @@
         <v>0</v>
       </c>
       <c r="Q20" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R20" t="n">
         <v>149.8691179411497</v>
       </c>
       <c r="S20" t="n">
-        <v>0</v>
+        <v>209.0200695862453</v>
       </c>
       <c r="T20" t="n">
-        <v>0</v>
+        <v>10.81046392068936</v>
       </c>
       <c r="U20" t="n">
-        <v>10.33136403017744</v>
+        <v>251.3456529078365</v>
       </c>
       <c r="V20" t="n">
         <v>327.7522584701349</v>
@@ -24037,7 +24037,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y20" t="n">
-        <v>386.2379386560536</v>
+        <v>145.2236497783945</v>
       </c>
     </row>
     <row r="21">
@@ -24047,7 +24047,7 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>166.5331836498673</v>
+        <v>89.96622428102506</v>
       </c>
       <c r="C21" t="n">
         <v>172.7084989883157</v>
@@ -24062,7 +24062,7 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G21" t="n">
-        <v>137.3435171632106</v>
+        <v>0</v>
       </c>
       <c r="H21" t="n">
         <v>112.2354442364965</v>
@@ -24095,28 +24095,28 @@
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S21" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T21" t="n">
-        <v>0</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U21" t="n">
-        <v>0</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V21" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W21" t="n">
-        <v>251.6949831609196</v>
+        <v>10.68069428326055</v>
       </c>
       <c r="X21" t="n">
         <v>205.7729852034775</v>
       </c>
       <c r="Y21" t="n">
-        <v>15.58879094515819</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="22">
@@ -24177,7 +24177,7 @@
         <v>177.2933913771695</v>
       </c>
       <c r="S22" t="n">
-        <v>90.82963045160423</v>
+        <v>224.0165980369723</v>
       </c>
       <c r="T22" t="n">
         <v>227.9455894282815</v>
@@ -24186,7 +24186,7 @@
         <v>286.3190293564909</v>
       </c>
       <c r="V22" t="n">
-        <v>252.137643323828</v>
+        <v>118.95067573846</v>
       </c>
       <c r="W22" t="n">
         <v>286.522998336591</v>
@@ -24217,10 +24217,10 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F23" t="n">
-        <v>165.8617568640524</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G23" t="n">
-        <v>174.288448637476</v>
+        <v>415.302737515135</v>
       </c>
       <c r="H23" t="n">
         <v>339.4748021157671</v>
@@ -24250,28 +24250,28 @@
         <v>0</v>
       </c>
       <c r="Q23" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R23" t="n">
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>209.0200695862453</v>
+        <v>156.5945010984978</v>
       </c>
       <c r="T23" t="n">
-        <v>160.679581861839</v>
+        <v>223.0958495641314</v>
       </c>
       <c r="U23" t="n">
         <v>10.33136403017744</v>
       </c>
       <c r="V23" t="n">
-        <v>327.7522584701349</v>
+        <v>86.73796959247585</v>
       </c>
       <c r="W23" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X23" t="n">
-        <v>369.731100678469</v>
+        <v>128.71681180081</v>
       </c>
       <c r="Y23" t="n">
         <v>386.2379386560536</v>
@@ -24293,19 +24293,19 @@
         <v>147.4450655646388</v>
       </c>
       <c r="E24" t="n">
-        <v>148.2872437222263</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F24" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G24" t="n">
-        <v>0</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H24" t="n">
-        <v>0</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I24" t="n">
-        <v>0</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J24" t="n">
         <v>0</v>
@@ -24332,25 +24332,25 @@
         <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S24" t="n">
         <v>171.6831711038378</v>
       </c>
       <c r="T24" t="n">
-        <v>0</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U24" t="n">
-        <v>225.9413820809748</v>
+        <v>0</v>
       </c>
       <c r="V24" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W24" t="n">
         <v>10.68069428326055</v>
       </c>
       <c r="X24" t="n">
-        <v>205.7729852034775</v>
+        <v>71.10541651401849</v>
       </c>
       <c r="Y24" t="n">
         <v>205.6826957773044</v>
@@ -24375,7 +24375,7 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
-        <v>145.4210480229312</v>
+        <v>12.23408043756322</v>
       </c>
       <c r="G25" t="n">
         <v>167.9909793584588</v>
@@ -24411,7 +24411,7 @@
         <v>86.16204325169439</v>
       </c>
       <c r="R25" t="n">
-        <v>44.10642379180146</v>
+        <v>177.2933913771695</v>
       </c>
       <c r="S25" t="n">
         <v>224.0165980369723</v>
@@ -24448,7 +24448,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D26" t="n">
-        <v>354.683041620683</v>
+        <v>113.6687527430239</v>
       </c>
       <c r="E26" t="n">
         <v>381.9303700722618</v>
@@ -24463,7 +24463,7 @@
         <v>339.4748021157671</v>
       </c>
       <c r="I26" t="n">
-        <v>0</v>
+        <v>210.4758895704059</v>
       </c>
       <c r="J26" t="n">
         <v>11.94928935461252</v>
@@ -24490,19 +24490,19 @@
         <v>9.990699214544804</v>
       </c>
       <c r="R26" t="n">
-        <v>149.8691179411497</v>
+        <v>0</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
       </c>
       <c r="T26" t="n">
-        <v>223.0958495641314</v>
+        <v>128.6853625704253</v>
       </c>
       <c r="U26" t="n">
         <v>251.3456529078365</v>
       </c>
       <c r="V26" t="n">
-        <v>86.73796959247585</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W26" t="n">
         <v>108.226679839754</v>
@@ -24511,7 +24511,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y26" t="n">
-        <v>352.4342232916038</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="27">
@@ -24521,22 +24521,22 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C27" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D27" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E27" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F27" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>137.3435171632106</v>
+        <v>0</v>
       </c>
       <c r="H27" t="n">
         <v>112.2354442364965</v>
@@ -24569,28 +24569,28 @@
         <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S27" t="n">
         <v>171.6831711038378</v>
       </c>
       <c r="T27" t="n">
-        <v>200.1647286948216</v>
+        <v>125.2056851359954</v>
       </c>
       <c r="U27" t="n">
         <v>225.9413820809748</v>
       </c>
       <c r="V27" t="n">
-        <v>116.4754883813142</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W27" t="n">
-        <v>10.68069428326055</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X27" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y27" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="28">
@@ -24609,7 +24609,7 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
-        <v>146.4339626465692</v>
+        <v>13.24699506120115</v>
       </c>
       <c r="F28" t="n">
         <v>145.4210480229312</v>
@@ -24663,7 +24663,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W28" t="n">
-        <v>153.336030751223</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X28" t="n">
         <v>225.7096553890372</v>
@@ -24685,19 +24685,19 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D29" t="n">
-        <v>124.4792166637132</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E29" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F29" t="n">
-        <v>406.8760457417114</v>
+        <v>165.8617568640524</v>
       </c>
       <c r="G29" t="n">
-        <v>415.302737515135</v>
+        <v>174.288448637476</v>
       </c>
       <c r="H29" t="n">
-        <v>98.46051323810809</v>
+        <v>339.4748021157671</v>
       </c>
       <c r="I29" t="n">
         <v>210.4758895704059</v>
@@ -24724,7 +24724,7 @@
         <v>0</v>
       </c>
       <c r="Q29" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R29" t="n">
         <v>149.8691179411497</v>
@@ -24733,19 +24733,19 @@
         <v>209.0200695862453</v>
       </c>
       <c r="T29" t="n">
-        <v>0</v>
+        <v>223.0958495641314</v>
       </c>
       <c r="U29" t="n">
         <v>251.3456529078365</v>
       </c>
       <c r="V29" t="n">
-        <v>327.7522584701349</v>
+        <v>125.4575720412377</v>
       </c>
       <c r="W29" t="n">
-        <v>349.240968717413</v>
+        <v>108.226679839754</v>
       </c>
       <c r="X29" t="n">
-        <v>128.71681180081</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y29" t="n">
         <v>386.2379386560536</v>
@@ -24758,25 +24758,25 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C30" t="n">
-        <v>0</v>
+        <v>127.4196248553433</v>
       </c>
       <c r="D30" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E30" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F30" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>137.3435171632106</v>
+        <v>0</v>
       </c>
       <c r="H30" t="n">
-        <v>17.74777975671506</v>
+        <v>0</v>
       </c>
       <c r="I30" t="n">
         <v>0</v>
@@ -24806,7 +24806,7 @@
         <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S30" t="n">
         <v>171.6831711038378</v>
@@ -24824,10 +24824,10 @@
         <v>251.6949831609196</v>
       </c>
       <c r="X30" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y30" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="31">
@@ -24858,7 +24858,7 @@
         <v>162.2271725074396</v>
       </c>
       <c r="I31" t="n">
-        <v>22.26350734189026</v>
+        <v>155.4504749272583</v>
       </c>
       <c r="J31" t="n">
         <v>93.35918011667277</v>
@@ -24900,7 +24900,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W31" t="n">
-        <v>286.522998336591</v>
+        <v>153.336030751223</v>
       </c>
       <c r="X31" t="n">
         <v>225.7096553890372</v>
@@ -24916,7 +24916,7 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>141.7195527858215</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C32" t="n">
         <v>365.2728917710076</v>
@@ -24931,10 +24931,10 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G32" t="n">
-        <v>415.302737515135</v>
+        <v>174.288448637476</v>
       </c>
       <c r="H32" t="n">
-        <v>339.4748021157671</v>
+        <v>237.1365750230782</v>
       </c>
       <c r="I32" t="n">
         <v>210.4758895704059</v>
@@ -24961,16 +24961,16 @@
         <v>0</v>
       </c>
       <c r="Q32" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R32" t="n">
-        <v>149.8691179411497</v>
+        <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>209.0200695862453</v>
+        <v>0</v>
       </c>
       <c r="T32" t="n">
-        <v>223.0958495641314</v>
+        <v>0</v>
       </c>
       <c r="U32" t="n">
         <v>251.3456529078365</v>
@@ -24979,13 +24979,13 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W32" t="n">
-        <v>136.955583073971</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X32" t="n">
-        <v>128.71681180081</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y32" t="n">
-        <v>145.2236497783945</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="33">
@@ -24998,7 +24998,7 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C33" t="n">
-        <v>172.7084989883157</v>
+        <v>108.3244882493363</v>
       </c>
       <c r="D33" t="n">
         <v>147.4450655646388</v>
@@ -25019,7 +25019,7 @@
         <v>89.39663285141508</v>
       </c>
       <c r="J33" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K33" t="n">
         <v>0</v>
@@ -25043,13 +25043,13 @@
         <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S33" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T33" t="n">
-        <v>0</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U33" t="n">
         <v>0</v>
@@ -25058,13 +25058,13 @@
         <v>0</v>
       </c>
       <c r="W33" t="n">
-        <v>247.1144340662031</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X33" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y33" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="34">
@@ -25122,7 +25122,7 @@
         <v>86.16204325169439</v>
       </c>
       <c r="R34" t="n">
-        <v>177.2933913771695</v>
+        <v>44.10642379180146</v>
       </c>
       <c r="S34" t="n">
         <v>224.0165980369723</v>
@@ -25140,7 +25140,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X34" t="n">
-        <v>92.52268780366913</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y34" t="n">
         <v>218.5846533520948</v>
@@ -25153,7 +25153,7 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>141.7195527858215</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C35" t="n">
         <v>365.2728917710076</v>
@@ -25168,16 +25168,16 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G35" t="n">
-        <v>415.302737515135</v>
+        <v>174.288448637476</v>
       </c>
       <c r="H35" t="n">
-        <v>339.4748021157671</v>
+        <v>98.46051323810809</v>
       </c>
       <c r="I35" t="n">
         <v>210.4758895704059</v>
       </c>
       <c r="J35" t="n">
-        <v>11.94928935461252</v>
+        <v>0</v>
       </c>
       <c r="K35" t="n">
         <v>0</v>
@@ -25204,7 +25204,7 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>209.0200695862453</v>
+        <v>140.6346519250378</v>
       </c>
       <c r="T35" t="n">
         <v>0</v>
@@ -25213,13 +25213,13 @@
         <v>251.3456529078365</v>
       </c>
       <c r="V35" t="n">
-        <v>86.73796959247585</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W35" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X35" t="n">
-        <v>289.396393662649</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y35" t="n">
         <v>386.2379386560536</v>
@@ -25235,22 +25235,22 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C36" t="n">
-        <v>172.7084989883157</v>
+        <v>111.129257103122</v>
       </c>
       <c r="D36" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E36" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F36" t="n">
-        <v>8.205114924744777</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G36" t="n">
         <v>0</v>
       </c>
       <c r="H36" t="n">
-        <v>0</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I36" t="n">
         <v>0</v>
@@ -25280,7 +25280,7 @@
         <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S36" t="n">
         <v>171.6831711038378</v>
@@ -25289,13 +25289,13 @@
         <v>200.1647286948216</v>
       </c>
       <c r="U36" t="n">
-        <v>0</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V36" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W36" t="n">
-        <v>251.6949831609196</v>
+        <v>10.68069428326055</v>
       </c>
       <c r="X36" t="n">
         <v>205.7729852034775</v>
@@ -25368,13 +25368,13 @@
         <v>227.9455894282815</v>
       </c>
       <c r="U37" t="n">
-        <v>153.1320617711229</v>
+        <v>286.3190293564909</v>
       </c>
       <c r="V37" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W37" t="n">
-        <v>286.522998336591</v>
+        <v>153.336030751223</v>
       </c>
       <c r="X37" t="n">
         <v>225.7096553890372</v>
@@ -25390,7 +25390,7 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>382.7338416634806</v>
+        <v>141.7195527858215</v>
       </c>
       <c r="C38" t="n">
         <v>365.2728917710076</v>
@@ -25402,13 +25402,13 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F38" t="n">
-        <v>165.8617568640524</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G38" t="n">
         <v>174.288448637476</v>
       </c>
       <c r="H38" t="n">
-        <v>98.46051323810809</v>
+        <v>339.4748021157671</v>
       </c>
       <c r="I38" t="n">
         <v>210.4758895704059</v>
@@ -25435,7 +25435,7 @@
         <v>0</v>
       </c>
       <c r="Q38" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R38" t="n">
         <v>149.8691179411497</v>
@@ -25444,13 +25444,13 @@
         <v>209.0200695862453</v>
       </c>
       <c r="T38" t="n">
-        <v>223.0958495641314</v>
+        <v>0</v>
       </c>
       <c r="U38" t="n">
-        <v>251.3456529078365</v>
+        <v>31.13252716541155</v>
       </c>
       <c r="V38" t="n">
-        <v>115.4668728266929</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W38" t="n">
         <v>349.240968717413</v>
@@ -25469,10 +25469,10 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>54.23751747000904</v>
+        <v>0</v>
       </c>
       <c r="C39" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D39" t="n">
         <v>0</v>
@@ -25481,13 +25481,13 @@
         <v>0</v>
       </c>
       <c r="F39" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G39" t="n">
         <v>137.3435171632106</v>
       </c>
       <c r="H39" t="n">
-        <v>112.2354442364965</v>
+        <v>0</v>
       </c>
       <c r="I39" t="n">
         <v>89.39663285141508</v>
@@ -25517,10 +25517,10 @@
         <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S39" t="n">
-        <v>171.6831711038378</v>
+        <v>120.5362555812868</v>
       </c>
       <c r="T39" t="n">
         <v>0</v>
@@ -25596,7 +25596,7 @@
         <v>86.16204325169439</v>
       </c>
       <c r="R40" t="n">
-        <v>44.10642379180146</v>
+        <v>177.2933913771695</v>
       </c>
       <c r="S40" t="n">
         <v>224.0165980369723</v>
@@ -25608,7 +25608,7 @@
         <v>286.3190293564909</v>
       </c>
       <c r="V40" t="n">
-        <v>252.137643323828</v>
+        <v>118.95067573846</v>
       </c>
       <c r="W40" t="n">
         <v>286.522998336591</v>
@@ -25642,16 +25642,16 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G41" t="n">
-        <v>415.302737515135</v>
+        <v>174.288448637476</v>
       </c>
       <c r="H41" t="n">
         <v>339.4748021157671</v>
       </c>
       <c r="I41" t="n">
-        <v>210.4758895704059</v>
+        <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>0</v>
+        <v>11.94928935461252</v>
       </c>
       <c r="K41" t="n">
         <v>0</v>
@@ -25678,13 +25678,13 @@
         <v>149.8691179411497</v>
       </c>
       <c r="S41" t="n">
-        <v>0</v>
+        <v>209.0200695862453</v>
       </c>
       <c r="T41" t="n">
         <v>0</v>
       </c>
       <c r="U41" t="n">
-        <v>242.1111868917246</v>
+        <v>251.3456529078365</v>
       </c>
       <c r="V41" t="n">
         <v>327.7522584701349</v>
@@ -25693,10 +25693,10 @@
         <v>108.226679839754</v>
       </c>
       <c r="X41" t="n">
-        <v>128.71681180081</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y41" t="n">
-        <v>386.2379386560536</v>
+        <v>366.5100032694898</v>
       </c>
     </row>
     <row r="42">
@@ -25706,7 +25706,7 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C42" t="n">
         <v>172.7084989883157</v>
@@ -25724,13 +25724,13 @@
         <v>137.3435171632106</v>
       </c>
       <c r="H42" t="n">
-        <v>0</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I42" t="n">
-        <v>0</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J42" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K42" t="n">
         <v>0</v>
@@ -25757,25 +25757,25 @@
         <v>100.1578341526431</v>
       </c>
       <c r="S42" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T42" t="n">
-        <v>200.1647286948216</v>
+        <v>136.2759056302994</v>
       </c>
       <c r="U42" t="n">
-        <v>225.9413820809748</v>
+        <v>0</v>
       </c>
       <c r="V42" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W42" t="n">
         <v>10.68069428326055</v>
       </c>
       <c r="X42" t="n">
-        <v>86.05356964605839</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y42" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="43">
@@ -25882,7 +25882,7 @@
         <v>415.302737515135</v>
       </c>
       <c r="H44" t="n">
-        <v>339.4748021157671</v>
+        <v>98.46051323810809</v>
       </c>
       <c r="I44" t="n">
         <v>210.4758895704059</v>
@@ -25909,10 +25909,10 @@
         <v>0</v>
       </c>
       <c r="Q44" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R44" t="n">
-        <v>149.8691179411497</v>
+        <v>0</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -25921,16 +25921,16 @@
         <v>0</v>
       </c>
       <c r="U44" t="n">
-        <v>10.33136403017744</v>
+        <v>251.3456529078365</v>
       </c>
       <c r="V44" t="n">
-        <v>86.73796959247585</v>
+        <v>215.4233321629012</v>
       </c>
       <c r="W44" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X44" t="n">
-        <v>358.5380445222895</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y44" t="n">
         <v>386.2379386560536</v>
@@ -25946,19 +25946,19 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C45" t="n">
-        <v>122.6508037197626</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D45" t="n">
         <v>147.4450655646388</v>
       </c>
       <c r="E45" t="n">
-        <v>157.6450804554009</v>
+        <v>79.44885924156161</v>
       </c>
       <c r="F45" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>137.3435171632106</v>
+        <v>0</v>
       </c>
       <c r="H45" t="n">
         <v>112.2354442364965</v>
@@ -25967,7 +25967,7 @@
         <v>89.39663285141508</v>
       </c>
       <c r="J45" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K45" t="n">
         <v>0</v>
@@ -25991,7 +25991,7 @@
         <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S45" t="n">
         <v>171.6831711038378</v>
@@ -26009,10 +26009,10 @@
         <v>10.68069428326055</v>
       </c>
       <c r="X45" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y45" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="46">
@@ -26037,7 +26037,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
-        <v>34.80401177309074</v>
+        <v>167.9909793584588</v>
       </c>
       <c r="H46" t="n">
         <v>162.2271725074396</v>
@@ -26085,7 +26085,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W46" t="n">
-        <v>286.522998336591</v>
+        <v>153.336030751223</v>
       </c>
       <c r="X46" t="n">
         <v>225.7096553890372</v>
@@ -26125,7 +26125,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>358659.0160535968</v>
+        <v>498482.0175939975</v>
       </c>
     </row>
     <row r="3">
@@ -26133,7 +26133,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>358659.0160535968</v>
+        <v>498482.0175939975</v>
       </c>
     </row>
     <row r="4">
@@ -26141,7 +26141,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>358659.0160535965</v>
+        <v>498482.0175939975</v>
       </c>
     </row>
     <row r="5">
@@ -26149,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>358659.0160535966</v>
+        <v>498482.0175939975</v>
       </c>
     </row>
     <row r="6">
@@ -26157,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>358659.0160535966</v>
+        <v>498482.0175939975</v>
       </c>
     </row>
     <row r="7">
@@ -26165,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>498482.0175939973</v>
+        <v>498482.0175939975</v>
       </c>
     </row>
     <row r="8">
@@ -26181,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>498482.0175939975</v>
+        <v>498482.0175939973</v>
       </c>
     </row>
     <row r="10">
@@ -26197,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>498482.0175939976</v>
+        <v>498482.0175939975</v>
       </c>
     </row>
     <row r="12">
@@ -26205,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>498482.0175939975</v>
+        <v>498482.0175939976</v>
       </c>
     </row>
     <row r="13">
@@ -26221,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>498482.0175939975</v>
+        <v>498482.0175939976</v>
       </c>
     </row>
     <row r="15">
@@ -26229,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>498482.0175939978</v>
+        <v>498482.0175939975</v>
       </c>
     </row>
     <row r="16">
@@ -26237,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>498482.0175939975</v>
+        <v>498482.0175939974</v>
       </c>
     </row>
   </sheetData>
@@ -26313,43 +26313,43 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>59776.50267559938</v>
+        <v>83080.33626566618</v>
       </c>
       <c r="C2" t="n">
-        <v>59776.50267559939</v>
+        <v>83080.33626566624</v>
       </c>
       <c r="D2" t="n">
-        <v>59776.50267559937</v>
+        <v>83080.33626566621</v>
       </c>
       <c r="E2" t="n">
-        <v>59776.5026755994</v>
+        <v>83080.33626566618</v>
       </c>
       <c r="F2" t="n">
-        <v>59776.50267559939</v>
+        <v>83080.33626566621</v>
       </c>
       <c r="G2" t="n">
-        <v>83080.33626566621</v>
+        <v>83080.33626566615</v>
       </c>
       <c r="H2" t="n">
-        <v>83080.33626566621</v>
+        <v>83080.33626566618</v>
       </c>
       <c r="I2" t="n">
-        <v>83080.33626566618</v>
+        <v>83080.33626566615</v>
       </c>
       <c r="J2" t="n">
         <v>83080.33626566618</v>
       </c>
       <c r="K2" t="n">
+        <v>83080.33626566618</v>
+      </c>
+      <c r="L2" t="n">
         <v>83080.33626566621</v>
       </c>
-      <c r="L2" t="n">
+      <c r="M2" t="n">
         <v>83080.33626566618</v>
       </c>
-      <c r="M2" t="n">
-        <v>83080.33626566619</v>
-      </c>
       <c r="N2" t="n">
-        <v>83080.33626566615</v>
+        <v>83080.33626566621</v>
       </c>
       <c r="O2" t="n">
         <v>83080.33626566618</v>
@@ -26365,7 +26365,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>14789.70600424422</v>
+        <v>80769.43153154773</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26380,7 +26380,7 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>53962.43490047232</v>
+        <v>0</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -26389,7 +26389,7 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>11546.91810999089</v>
+        <v>63059.94259910623</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -26404,7 +26404,7 @@
         <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>47379.87821746379</v>
+        <v>0</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
@@ -26417,19 +26417,19 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>36.87052286425573</v>
+        <v>179.5324977039669</v>
       </c>
       <c r="C4" t="n">
-        <v>36.87052286425573</v>
+        <v>179.5324977039669</v>
       </c>
       <c r="D4" t="n">
-        <v>36.87052286425573</v>
+        <v>179.5324977039669</v>
       </c>
       <c r="E4" t="n">
-        <v>36.87052286425573</v>
+        <v>179.5324977039669</v>
       </c>
       <c r="F4" t="n">
-        <v>36.87052286425572</v>
+        <v>179.5324977039669</v>
       </c>
       <c r="G4" t="n">
         <v>179.5324977039669</v>
@@ -26469,19 +26469,19 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>36310.8360806571</v>
+        <v>48281.26876376167</v>
       </c>
       <c r="C5" t="n">
-        <v>36310.8360806571</v>
+        <v>48281.26876376167</v>
       </c>
       <c r="D5" t="n">
-        <v>36310.8360806571</v>
+        <v>48281.26876376167</v>
       </c>
       <c r="E5" t="n">
-        <v>2683.236080657098</v>
+        <v>14653.66876376167</v>
       </c>
       <c r="F5" t="n">
-        <v>2683.236080657098</v>
+        <v>14653.66876376167</v>
       </c>
       <c r="G5" t="n">
         <v>14653.66876376167</v>
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>8639.0900678338</v>
+        <v>-58367.90714738765</v>
       </c>
       <c r="C6" t="n">
-        <v>23428.79607207803</v>
+        <v>22401.52438416013</v>
       </c>
       <c r="D6" t="n">
-        <v>23428.79607207802</v>
+        <v>22401.5243841601</v>
       </c>
       <c r="E6" t="n">
-        <v>57056.39607207804</v>
+        <v>56029.12438416007</v>
       </c>
       <c r="F6" t="n">
-        <v>57056.39607207803</v>
+        <v>56029.1243841601</v>
       </c>
       <c r="G6" t="n">
-        <v>14284.70010372825</v>
+        <v>56029.12438416004</v>
       </c>
       <c r="H6" t="n">
-        <v>68247.13500420057</v>
+        <v>56029.12438416007</v>
       </c>
       <c r="I6" t="n">
-        <v>68247.13500420054</v>
+        <v>56029.12438416004</v>
       </c>
       <c r="J6" t="n">
-        <v>56700.21689420965</v>
+        <v>-7030.818214946155</v>
       </c>
       <c r="K6" t="n">
-        <v>68247.13500420057</v>
+        <v>56029.12438416007</v>
       </c>
       <c r="L6" t="n">
-        <v>68247.13500420054</v>
+        <v>56029.1243841601</v>
       </c>
       <c r="M6" t="n">
-        <v>68247.13500420055</v>
+        <v>56029.12438416007</v>
       </c>
       <c r="N6" t="n">
-        <v>68247.13500420051</v>
+        <v>56029.1243841601</v>
       </c>
       <c r="O6" t="n">
-        <v>20867.25678673675</v>
+        <v>56029.12438416007</v>
       </c>
       <c r="P6" t="n">
-        <v>68247.13500420054</v>
+        <v>56029.12438416007</v>
       </c>
     </row>
   </sheetData>
@@ -26789,19 +26789,19 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>44.13217237922859</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="C4" t="n">
-        <v>44.13217237922859</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="D4" t="n">
-        <v>44.13217237922859</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="E4" t="n">
-        <v>44.13217237922859</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="F4" t="n">
-        <v>44.13217237922859</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="G4" t="n">
         <v>241.0142888776591</v>
@@ -27011,7 +27011,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>44.13217237922859</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -27026,7 +27026,7 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>196.8821164984305</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -27035,7 +27035,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>44.13217237922859</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27050,7 +27050,7 @@
         <v>0</v>
       </c>
       <c r="O4" t="n">
-        <v>196.8821164984305</v>
+        <v>0</v>
       </c>
       <c r="P4" t="n">
         <v>0</v>
@@ -27257,7 +27257,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>44.13217237922859</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27272,7 +27272,7 @@
         <v>0</v>
       </c>
       <c r="O4" t="n">
-        <v>196.8821164984305</v>
+        <v>0</v>
       </c>
       <c r="P4" t="n">
         <v>0</v>
@@ -34701,22 +34701,22 @@
         <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>44.13217237922859</v>
+        <v>104.0555615261842</v>
       </c>
       <c r="L2" t="n">
-        <v>44.13217237922859</v>
+        <v>181.8947995804632</v>
       </c>
       <c r="M2" t="n">
-        <v>42.34905430330019</v>
+        <v>219.1673002655598</v>
       </c>
       <c r="N2" t="n">
-        <v>0</v>
+        <v>207.9338608153932</v>
       </c>
       <c r="O2" t="n">
-        <v>0</v>
+        <v>150.7019698410586</v>
       </c>
       <c r="P2" t="n">
-        <v>44.13217237922859</v>
+        <v>90.5657124162131</v>
       </c>
       <c r="Q2" t="n">
         <v>0</v>
@@ -34780,25 +34780,25 @@
         <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>0</v>
+        <v>126.6237980382196</v>
       </c>
       <c r="L3" t="n">
-        <v>42.34905430330018</v>
+        <v>232.285965523585</v>
       </c>
       <c r="M3" t="n">
-        <v>44.13217237922859</v>
+        <v>0</v>
       </c>
       <c r="N3" t="n">
-        <v>44.13217237922859</v>
+        <v>169.9067907798017</v>
       </c>
       <c r="O3" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="P3" t="n">
-        <v>0</v>
+        <v>184.4883612256069</v>
       </c>
       <c r="Q3" t="n">
-        <v>44.13217237922859</v>
+        <v>0</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34938,22 +34938,22 @@
         <v>0</v>
       </c>
       <c r="K5" t="n">
-        <v>44.13217237922859</v>
+        <v>104.0555615261842</v>
       </c>
       <c r="L5" t="n">
-        <v>44.13217237922859</v>
+        <v>181.8947995804632</v>
       </c>
       <c r="M5" t="n">
-        <v>42.34905430330019</v>
+        <v>219.1673002655597</v>
       </c>
       <c r="N5" t="n">
-        <v>0</v>
+        <v>207.9338608153932</v>
       </c>
       <c r="O5" t="n">
-        <v>0</v>
+        <v>150.7019698410586</v>
       </c>
       <c r="P5" t="n">
-        <v>44.13217237922859</v>
+        <v>90.5657124162131</v>
       </c>
       <c r="Q5" t="n">
         <v>0</v>
@@ -35017,25 +35017,25 @@
         <v>0</v>
       </c>
       <c r="K6" t="n">
-        <v>44.13217237922859</v>
+        <v>126.6237980382196</v>
       </c>
       <c r="L6" t="n">
         <v>0</v>
       </c>
       <c r="M6" t="n">
-        <v>44.13217237922859</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="N6" t="n">
-        <v>42.34905430330019</v>
+        <v>91.0829537758999</v>
       </c>
       <c r="O6" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="P6" t="n">
-        <v>0</v>
+        <v>184.4883612256069</v>
       </c>
       <c r="Q6" t="n">
-        <v>44.13217237922859</v>
+        <v>70.09551364982758</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35175,22 +35175,22 @@
         <v>0</v>
       </c>
       <c r="K8" t="n">
-        <v>0</v>
+        <v>104.0555615261842</v>
       </c>
       <c r="L8" t="n">
-        <v>44.13217237922859</v>
+        <v>181.8947995804632</v>
       </c>
       <c r="M8" t="n">
-        <v>44.13217237922859</v>
+        <v>219.1673002655598</v>
       </c>
       <c r="N8" t="n">
-        <v>42.34905430330019</v>
+        <v>207.9338608153932</v>
       </c>
       <c r="O8" t="n">
-        <v>0</v>
+        <v>150.7019698410587</v>
       </c>
       <c r="P8" t="n">
-        <v>44.13217237922859</v>
+        <v>90.5657124162131</v>
       </c>
       <c r="Q8" t="n">
         <v>0</v>
@@ -35260,19 +35260,19 @@
         <v>0</v>
       </c>
       <c r="M9" t="n">
-        <v>44.13217237922859</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="N9" t="n">
-        <v>44.13217237922859</v>
+        <v>217.7067518141195</v>
       </c>
       <c r="O9" t="n">
-        <v>42.34905430330019</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="P9" t="n">
-        <v>0</v>
+        <v>184.4883612256069</v>
       </c>
       <c r="Q9" t="n">
-        <v>44.13217237922859</v>
+        <v>70.09551364982758</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35412,22 +35412,22 @@
         <v>0</v>
       </c>
       <c r="K11" t="n">
-        <v>0</v>
+        <v>104.0555615261842</v>
       </c>
       <c r="L11" t="n">
-        <v>44.13217237922859</v>
+        <v>181.8947995804632</v>
       </c>
       <c r="M11" t="n">
-        <v>44.13217237922859</v>
+        <v>219.1673002655598</v>
       </c>
       <c r="N11" t="n">
-        <v>42.34905430330019</v>
+        <v>207.9338608153932</v>
       </c>
       <c r="O11" t="n">
-        <v>44.13217237922859</v>
+        <v>150.7019698410587</v>
       </c>
       <c r="P11" t="n">
-        <v>0</v>
+        <v>90.5657124162131</v>
       </c>
       <c r="Q11" t="n">
         <v>0</v>
@@ -35491,25 +35491,25 @@
         <v>0</v>
       </c>
       <c r="K12" t="n">
-        <v>0</v>
+        <v>126.6237980382196</v>
       </c>
       <c r="L12" t="n">
-        <v>44.13217237922859</v>
+        <v>91.0829537758999</v>
       </c>
       <c r="M12" t="n">
         <v>0</v>
       </c>
       <c r="N12" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="O12" t="n">
-        <v>42.34905430330018</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="P12" t="n">
-        <v>44.13217237922859</v>
+        <v>184.4883612256069</v>
       </c>
       <c r="Q12" t="n">
-        <v>44.13217237922859</v>
+        <v>70.09551364982758</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35649,22 +35649,22 @@
         <v>0</v>
       </c>
       <c r="K14" t="n">
-        <v>44.13217237922859</v>
+        <v>104.0555615261842</v>
       </c>
       <c r="L14" t="n">
-        <v>0</v>
+        <v>181.8947995804632</v>
       </c>
       <c r="M14" t="n">
-        <v>44.13217237922859</v>
+        <v>219.1673002655598</v>
       </c>
       <c r="N14" t="n">
-        <v>44.13217237922859</v>
+        <v>207.9338608153932</v>
       </c>
       <c r="O14" t="n">
-        <v>42.34905430330016</v>
+        <v>150.7019698410586</v>
       </c>
       <c r="P14" t="n">
-        <v>0</v>
+        <v>90.5657124162131</v>
       </c>
       <c r="Q14" t="n">
         <v>0</v>
@@ -35728,25 +35728,25 @@
         <v>0</v>
       </c>
       <c r="K15" t="n">
-        <v>42.34905430330018</v>
+        <v>126.6237980382196</v>
       </c>
       <c r="L15" t="n">
-        <v>0</v>
+        <v>232.285965523585</v>
       </c>
       <c r="M15" t="n">
-        <v>44.13217237922859</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="N15" t="n">
-        <v>44.13217237922859</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="O15" t="n">
-        <v>0</v>
+        <v>113.3808631277494</v>
       </c>
       <c r="P15" t="n">
         <v>0</v>
       </c>
       <c r="Q15" t="n">
-        <v>44.13217237922859</v>
+        <v>0</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35965,13 +35965,13 @@
         <v>0</v>
       </c>
       <c r="K18" t="n">
-        <v>0</v>
+        <v>126.6237980382196</v>
       </c>
       <c r="L18" t="n">
         <v>232.285965523585</v>
       </c>
       <c r="M18" t="n">
-        <v>169.9091475161415</v>
+        <v>113.3808631277495</v>
       </c>
       <c r="N18" t="n">
         <v>241.0142888776591</v>
@@ -35983,7 +35983,7 @@
         <v>0</v>
       </c>
       <c r="Q18" t="n">
-        <v>70.09551364982758</v>
+        <v>0</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36135,7 +36135,7 @@
         <v>207.9338608153932</v>
       </c>
       <c r="O20" t="n">
-        <v>150.7019698410586</v>
+        <v>150.7019698410587</v>
       </c>
       <c r="P20" t="n">
         <v>90.5657124162131</v>
@@ -36202,25 +36202,25 @@
         <v>0</v>
       </c>
       <c r="K21" t="n">
-        <v>0</v>
+        <v>126.6237980382196</v>
       </c>
       <c r="L21" t="n">
         <v>232.285965523585</v>
       </c>
       <c r="M21" t="n">
-        <v>240.0046611659691</v>
+        <v>99.81127712997396</v>
       </c>
       <c r="N21" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="O21" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="P21" t="n">
-        <v>0</v>
+        <v>184.4883612256069</v>
       </c>
       <c r="Q21" t="n">
-        <v>0</v>
+        <v>70.09551364982758</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -36445,19 +36445,19 @@
         <v>232.285965523585</v>
       </c>
       <c r="M24" t="n">
-        <v>43.28534947792188</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="N24" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="O24" t="n">
-        <v>241.0142888776591</v>
+        <v>113.3808631277494</v>
       </c>
       <c r="P24" t="n">
         <v>0</v>
       </c>
       <c r="Q24" t="n">
-        <v>70.09551364982758</v>
+        <v>0</v>
       </c>
       <c r="R24" t="n">
         <v>0</v>
@@ -36676,7 +36676,7 @@
         <v>0</v>
       </c>
       <c r="K27" t="n">
-        <v>126.6237980382196</v>
+        <v>0</v>
       </c>
       <c r="L27" t="n">
         <v>0</v>
@@ -36685,10 +36685,10 @@
         <v>241.0142888776591</v>
       </c>
       <c r="N27" t="n">
-        <v>91.0829537758999</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="O27" t="n">
-        <v>241.0142888776591</v>
+        <v>217.7067518141195</v>
       </c>
       <c r="P27" t="n">
         <v>184.4883612256069</v>
@@ -36919,10 +36919,10 @@
         <v>232.285965523585</v>
       </c>
       <c r="M30" t="n">
-        <v>226.4350751681936</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="N30" t="n">
-        <v>0</v>
+        <v>55.51629994036225</v>
       </c>
       <c r="O30" t="n">
         <v>241.0142888776591</v>
@@ -36931,7 +36931,7 @@
         <v>184.4883612256069</v>
       </c>
       <c r="Q30" t="n">
-        <v>70.09551364982758</v>
+        <v>0</v>
       </c>
       <c r="R30" t="n">
         <v>0</v>
@@ -37156,19 +37156,19 @@
         <v>232.285965523585</v>
       </c>
       <c r="M33" t="n">
-        <v>43.28534947792188</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="N33" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="O33" t="n">
-        <v>241.0142888776591</v>
+        <v>113.3808631277494</v>
       </c>
       <c r="P33" t="n">
         <v>0</v>
       </c>
       <c r="Q33" t="n">
-        <v>70.09551364982758</v>
+        <v>0</v>
       </c>
       <c r="R33" t="n">
         <v>0</v>
@@ -37387,25 +37387,25 @@
         <v>0</v>
       </c>
       <c r="K36" t="n">
-        <v>0</v>
+        <v>126.6237980382196</v>
       </c>
       <c r="L36" t="n">
-        <v>0</v>
+        <v>232.285965523585</v>
       </c>
       <c r="M36" t="n">
-        <v>217.7067518141195</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="N36" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="O36" t="n">
-        <v>241.0142888776591</v>
+        <v>113.3808631277494</v>
       </c>
       <c r="P36" t="n">
-        <v>184.4883612256069</v>
+        <v>0</v>
       </c>
       <c r="Q36" t="n">
-        <v>70.09551364982758</v>
+        <v>0</v>
       </c>
       <c r="R36" t="n">
         <v>0</v>
@@ -37630,10 +37630,10 @@
         <v>232.285965523585</v>
       </c>
       <c r="M39" t="n">
-        <v>0</v>
+        <v>169.9067907798017</v>
       </c>
       <c r="N39" t="n">
-        <v>99.81127712997396</v>
+        <v>0</v>
       </c>
       <c r="O39" t="n">
         <v>241.0142888776591</v>
@@ -37642,7 +37642,7 @@
         <v>184.4883612256069</v>
       </c>
       <c r="Q39" t="n">
-        <v>70.09551364982758</v>
+        <v>0</v>
       </c>
       <c r="R39" t="n">
         <v>0</v>
@@ -37788,7 +37788,7 @@
         <v>181.8947995804632</v>
       </c>
       <c r="M41" t="n">
-        <v>219.1673002655598</v>
+        <v>219.1673002655597</v>
       </c>
       <c r="N41" t="n">
         <v>207.9338608153932</v>
@@ -37867,19 +37867,19 @@
         <v>232.285965523585</v>
       </c>
       <c r="M42" t="n">
+        <v>113.3808631277495</v>
+      </c>
+      <c r="N42" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="N42" t="n">
-        <v>99.8112771299739</v>
-      </c>
       <c r="O42" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="P42" t="n">
-        <v>184.4883612256069</v>
+        <v>0</v>
       </c>
       <c r="Q42" t="n">
-        <v>70.09551364982758</v>
+        <v>0</v>
       </c>
       <c r="R42" t="n">
         <v>0</v>
@@ -38107,10 +38107,10 @@
         <v>241.0142888776591</v>
       </c>
       <c r="N45" t="n">
+        <v>113.3808631277494</v>
+      </c>
+      <c r="O45" t="n">
         <v>241.0142888776591</v>
-      </c>
-      <c r="O45" t="n">
-        <v>113.3808631277494</v>
       </c>
       <c r="P45" t="n">
         <v>0</v>

--- a/Outputs/1. Budget/Grid Search/Output Files/750000/Output_0_10.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/750000/Output_0_10.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.01</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>268277.9841761547</v>
+        <v>362272.9485238822</v>
       </c>
     </row>
     <row r="7">
@@ -513,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>925399.3994514375</v>
+        <v>2114249.189782366</v>
       </c>
     </row>
     <row r="8">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>18327015.93006067</v>
+        <v>19492207.60956402</v>
       </c>
     </row>
     <row r="9">
@@ -543,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>5764008.847562066</v>
+        <v>5116643.000488906</v>
       </c>
     </row>
     <row r="11">
@@ -658,7 +658,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>212.2853856434421</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
@@ -667,16 +667,16 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>28.88091821707974</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -703,7 +703,7 @@
         <v>0</v>
       </c>
       <c r="Q2" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R2" t="n">
         <v>0</v>
@@ -721,13 +721,13 @@
         <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -737,7 +737,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>38.87161743162454</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -752,7 +752,7 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -785,7 +785,7 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>100.1578341526431</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -794,16 +794,16 @@
         <v>0</v>
       </c>
       <c r="U3" t="n">
-        <v>225.9413820809748</v>
+        <v>0</v>
       </c>
       <c r="V3" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W3" t="n">
-        <v>170.6554636898984</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="X3" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y3" t="n">
         <v>0</v>
@@ -828,7 +828,7 @@
         <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>0.790450447682262</v>
       </c>
       <c r="G4" t="n">
         <v>0</v>
@@ -861,7 +861,7 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>0</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -873,13 +873,13 @@
         <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>133.186967585368</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="X4" t="n">
         <v>0</v>
@@ -895,16 +895,16 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>40.47627913313517</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
         <v>0</v>
@@ -919,7 +919,7 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>11.94928935461252</v>
+        <v>0</v>
       </c>
       <c r="K5" t="n">
         <v>0</v>
@@ -943,22 +943,22 @@
         <v>9.990699214544804</v>
       </c>
       <c r="R5" t="n">
-        <v>149.8691179411497</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>28.88091821707973</v>
       </c>
       <c r="X5" t="n">
         <v>0</v>
@@ -980,10 +980,10 @@
         <v>0</v>
       </c>
       <c r="D6" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E6" t="n">
-        <v>140.9311839358223</v>
+        <v>0</v>
       </c>
       <c r="F6" t="n">
         <v>0</v>
@@ -1022,25 +1022,25 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>0</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="S6" t="n">
         <v>0</v>
       </c>
       <c r="T6" t="n">
-        <v>200.1647286948216</v>
+        <v>0</v>
       </c>
       <c r="U6" t="n">
-        <v>0</v>
+        <v>38.87161743162455</v>
       </c>
       <c r="V6" t="n">
-        <v>0</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="W6" t="n">
-        <v>241.0142888776591</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="X6" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y6" t="n">
         <v>0</v>
@@ -1056,7 +1056,7 @@
         <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>0.790450447682262</v>
       </c>
       <c r="D7" t="n">
         <v>0</v>
@@ -1101,16 +1101,16 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="S7" t="n">
-        <v>133.186967585368</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
         <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>0</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -1122,7 +1122,7 @@
         <v>0</v>
       </c>
       <c r="Y7" t="n">
-        <v>0</v>
+        <v>44.13217237922859</v>
       </c>
     </row>
     <row r="8">
@@ -1132,7 +1132,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>241.0142888776591</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="C8" t="n">
         <v>0</v>
@@ -1177,22 +1177,22 @@
         <v>0</v>
       </c>
       <c r="Q8" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>0</v>
+        <v>38.87161743162455</v>
       </c>
       <c r="S8" t="n">
-        <v>202.2946864288972</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
         <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="W8" t="n">
         <v>0</v>
@@ -1201,7 +1201,7 @@
         <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>241.0142888776591</v>
+        <v>44.13217237922859</v>
       </c>
     </row>
     <row r="9">
@@ -1211,25 +1211,25 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>166.5331836498673</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="C9" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D9" t="n">
-        <v>0</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="E9" t="n">
         <v>0</v>
       </c>
       <c r="F9" t="n">
-        <v>145.0692123933839</v>
+        <v>38.87161743162454</v>
       </c>
       <c r="G9" t="n">
         <v>0</v>
       </c>
       <c r="H9" t="n">
-        <v>112.2354442364965</v>
+        <v>0</v>
       </c>
       <c r="I9" t="n">
         <v>0</v>
@@ -1259,7 +1259,7 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>0</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="S9" t="n">
         <v>0</v>
@@ -1271,7 +1271,7 @@
         <v>0</v>
       </c>
       <c r="V9" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W9" t="n">
         <v>0</v>
@@ -1280,7 +1280,7 @@
         <v>0</v>
       </c>
       <c r="Y9" t="n">
-        <v>105.9813258589305</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10">
@@ -1290,7 +1290,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="C10" t="n">
         <v>0</v>
@@ -1344,22 +1344,22 @@
         <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>0.7904504476822691</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>133.186967585368</v>
+        <v>0</v>
       </c>
       <c r="X10" t="n">
         <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>0</v>
+        <v>44.13217237922859</v>
       </c>
     </row>
     <row r="11">
@@ -1381,10 +1381,10 @@
         <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="H11" t="n">
         <v>0</v>
@@ -1417,13 +1417,13 @@
         <v>9.990699214544804</v>
       </c>
       <c r="R11" t="n">
-        <v>0</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
       </c>
       <c r="T11" t="n">
-        <v>202.2946864288972</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="U11" t="n">
         <v>0</v>
@@ -1435,10 +1435,10 @@
         <v>0</v>
       </c>
       <c r="X11" t="n">
-        <v>0</v>
+        <v>28.88091821707973</v>
       </c>
       <c r="Y11" t="n">
-        <v>241.0142888776591</v>
+        <v>44.13217237922859</v>
       </c>
     </row>
     <row r="12">
@@ -1451,7 +1451,7 @@
         <v>0</v>
       </c>
       <c r="C12" t="n">
-        <v>0</v>
+        <v>38.12502610536669</v>
       </c>
       <c r="D12" t="n">
         <v>0</v>
@@ -1472,7 +1472,7 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K12" t="n">
         <v>0</v>
@@ -1496,7 +1496,7 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>29.8892983910557</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -1505,19 +1505,19 @@
         <v>0</v>
       </c>
       <c r="U12" t="n">
-        <v>225.9413820809748</v>
+        <v>0</v>
       </c>
       <c r="V12" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W12" t="n">
-        <v>241.0142888776591</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="X12" t="n">
-        <v>0</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="Y12" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="13">
@@ -1539,10 +1539,10 @@
         <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="G13" t="n">
-        <v>133.186967585368</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
@@ -1572,7 +1572,7 @@
         <v>0</v>
       </c>
       <c r="Q13" t="n">
-        <v>0</v>
+        <v>0.7904504476822691</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -1581,13 +1581,13 @@
         <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="U13" t="n">
         <v>0</v>
       </c>
       <c r="V13" t="n">
-        <v>0</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="W13" t="n">
         <v>0</v>
@@ -1606,7 +1606,7 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>240.2580556792261</v>
+        <v>0</v>
       </c>
       <c r="C14" t="n">
         <v>0</v>
@@ -1618,10 +1618,10 @@
         <v>0</v>
       </c>
       <c r="F14" t="n">
-        <v>241.0142888776591</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="G14" t="n">
-        <v>0</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="H14" t="n">
         <v>0</v>
@@ -1630,7 +1630,7 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>11.94928935461252</v>
+        <v>0</v>
       </c>
       <c r="K14" t="n">
         <v>0</v>
@@ -1657,10 +1657,10 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>209.0200695862453</v>
+        <v>0</v>
       </c>
       <c r="T14" t="n">
-        <v>223.0958495641314</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="U14" t="n">
         <v>0</v>
@@ -1675,7 +1675,7 @@
         <v>0</v>
       </c>
       <c r="Y14" t="n">
-        <v>0</v>
+        <v>28.88091821707974</v>
       </c>
     </row>
     <row r="15">
@@ -1733,7 +1733,7 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>29.8892983910557</v>
+        <v>0</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -1742,19 +1742,19 @@
         <v>0</v>
       </c>
       <c r="U15" t="n">
-        <v>225.9413820809748</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="V15" t="n">
-        <v>232.8005871494253</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="W15" t="n">
-        <v>241.0142888776591</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="X15" t="n">
         <v>0</v>
       </c>
       <c r="Y15" t="n">
-        <v>205.6826957773044</v>
+        <v>38.87161743162454</v>
       </c>
     </row>
     <row r="16">
@@ -1770,16 +1770,16 @@
         <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>0.790450447682262</v>
       </c>
       <c r="H16" t="n">
         <v>0</v>
@@ -1812,7 +1812,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>133.186967585368</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
         <v>0</v>
@@ -1855,13 +1855,13 @@
         <v>0</v>
       </c>
       <c r="F17" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="G17" t="n">
         <v>0</v>
       </c>
       <c r="H17" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
@@ -1894,10 +1894,10 @@
         <v>149.8691179411497</v>
       </c>
       <c r="S17" t="n">
-        <v>80.33470701582003</v>
+        <v>209.0200695862453</v>
       </c>
       <c r="T17" t="n">
-        <v>223.0958495641314</v>
+        <v>94.41048699370604</v>
       </c>
       <c r="U17" t="n">
         <v>0</v>
@@ -1906,13 +1906,13 @@
         <v>0</v>
       </c>
       <c r="W17" t="n">
+        <v>0</v>
+      </c>
+      <c r="X17" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y17" t="n">
         <v>241.0142888776591</v>
-      </c>
-      <c r="X17" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y17" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="18">
@@ -1928,19 +1928,19 @@
         <v>0</v>
       </c>
       <c r="D18" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E18" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F18" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>104.0508854668113</v>
+        <v>0</v>
       </c>
       <c r="H18" t="n">
-        <v>112.2354442364965</v>
+        <v>0</v>
       </c>
       <c r="I18" t="n">
         <v>0</v>
@@ -1976,19 +1976,19 @@
         <v>0</v>
       </c>
       <c r="T18" t="n">
-        <v>0</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U18" t="n">
         <v>0</v>
       </c>
       <c r="V18" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W18" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="X18" t="n">
-        <v>0</v>
+        <v>88.90125453125574</v>
       </c>
       <c r="Y18" t="n">
         <v>0</v>
@@ -2095,7 +2095,7 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>241.0142888776591</v>
+        <v>220.2131257424249</v>
       </c>
       <c r="H20" t="n">
         <v>0</v>
@@ -2125,7 +2125,7 @@
         <v>0</v>
       </c>
       <c r="Q20" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R20" t="n">
         <v>0</v>
@@ -2134,7 +2134,7 @@
         <v>0</v>
       </c>
       <c r="T20" t="n">
-        <v>212.285385643442</v>
+        <v>223.0958495641314</v>
       </c>
       <c r="U20" t="n">
         <v>0</v>
@@ -2159,31 +2159,31 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>76.56695936884228</v>
+        <v>0</v>
       </c>
       <c r="C21" t="n">
         <v>0</v>
       </c>
       <c r="D21" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E21" t="n">
-        <v>0</v>
+        <v>53.45201205786118</v>
       </c>
       <c r="F21" t="n">
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>137.3435171632106</v>
+        <v>0</v>
       </c>
       <c r="H21" t="n">
-        <v>0</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I21" t="n">
-        <v>0</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J21" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K21" t="n">
         <v>0</v>
@@ -2207,7 +2207,7 @@
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -2228,7 +2228,7 @@
         <v>0</v>
       </c>
       <c r="Y21" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="22">
@@ -2298,10 +2298,10 @@
         <v>0</v>
       </c>
       <c r="V22" t="n">
+        <v>0</v>
+      </c>
+      <c r="W22" t="n">
         <v>133.186967585368</v>
-      </c>
-      <c r="W22" t="n">
-        <v>0</v>
       </c>
       <c r="X22" t="n">
         <v>0</v>
@@ -2332,13 +2332,13 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="H23" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="I23" t="n">
-        <v>0</v>
+        <v>3.26531605719669</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -2362,19 +2362,19 @@
         <v>0</v>
       </c>
       <c r="Q23" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R23" t="n">
-        <v>149.8691179411497</v>
+        <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>52.42556848774752</v>
+        <v>209.0200695862453</v>
       </c>
       <c r="T23" t="n">
         <v>0</v>
       </c>
       <c r="U23" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="V23" t="n">
         <v>241.0142888776591</v>
@@ -2383,7 +2383,7 @@
         <v>0</v>
       </c>
       <c r="X23" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="Y23" t="n">
         <v>0</v>
@@ -2420,7 +2420,7 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K24" t="n">
         <v>0</v>
@@ -2444,7 +2444,7 @@
         <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -2453,7 +2453,7 @@
         <v>0</v>
       </c>
       <c r="U24" t="n">
-        <v>225.9413820809748</v>
+        <v>50.05769526855297</v>
       </c>
       <c r="V24" t="n">
         <v>232.8005871494253</v>
@@ -2462,10 +2462,10 @@
         <v>241.0142888776591</v>
       </c>
       <c r="X24" t="n">
-        <v>134.667568689459</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y24" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="25">
@@ -2487,58 +2487,58 @@
         <v>0</v>
       </c>
       <c r="F25" t="n">
+        <v>0</v>
+      </c>
+      <c r="G25" t="n">
+        <v>0</v>
+      </c>
+      <c r="H25" t="n">
+        <v>0</v>
+      </c>
+      <c r="I25" t="n">
+        <v>0</v>
+      </c>
+      <c r="J25" t="n">
+        <v>0</v>
+      </c>
+      <c r="K25" t="n">
+        <v>0</v>
+      </c>
+      <c r="L25" t="n">
+        <v>0</v>
+      </c>
+      <c r="M25" t="n">
+        <v>0</v>
+      </c>
+      <c r="N25" t="n">
+        <v>0</v>
+      </c>
+      <c r="O25" t="n">
+        <v>0</v>
+      </c>
+      <c r="P25" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q25" t="n">
+        <v>0</v>
+      </c>
+      <c r="R25" t="n">
+        <v>0</v>
+      </c>
+      <c r="S25" t="n">
+        <v>0</v>
+      </c>
+      <c r="T25" t="n">
+        <v>0</v>
+      </c>
+      <c r="U25" t="n">
+        <v>0</v>
+      </c>
+      <c r="V25" t="n">
+        <v>0</v>
+      </c>
+      <c r="W25" t="n">
         <v>133.186967585368</v>
-      </c>
-      <c r="G25" t="n">
-        <v>0</v>
-      </c>
-      <c r="H25" t="n">
-        <v>0</v>
-      </c>
-      <c r="I25" t="n">
-        <v>0</v>
-      </c>
-      <c r="J25" t="n">
-        <v>0</v>
-      </c>
-      <c r="K25" t="n">
-        <v>0</v>
-      </c>
-      <c r="L25" t="n">
-        <v>0</v>
-      </c>
-      <c r="M25" t="n">
-        <v>0</v>
-      </c>
-      <c r="N25" t="n">
-        <v>0</v>
-      </c>
-      <c r="O25" t="n">
-        <v>0</v>
-      </c>
-      <c r="P25" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q25" t="n">
-        <v>0</v>
-      </c>
-      <c r="R25" t="n">
-        <v>0</v>
-      </c>
-      <c r="S25" t="n">
-        <v>0</v>
-      </c>
-      <c r="T25" t="n">
-        <v>0</v>
-      </c>
-      <c r="U25" t="n">
-        <v>0</v>
-      </c>
-      <c r="V25" t="n">
-        <v>0</v>
-      </c>
-      <c r="W25" t="n">
-        <v>0</v>
       </c>
       <c r="X25" t="n">
         <v>0</v>
@@ -2560,64 +2560,64 @@
         <v>0</v>
       </c>
       <c r="D26" t="n">
+        <v>0</v>
+      </c>
+      <c r="E26" t="n">
+        <v>0</v>
+      </c>
+      <c r="F26" t="n">
+        <v>0</v>
+      </c>
+      <c r="G26" t="n">
+        <v>220.2131257424249</v>
+      </c>
+      <c r="H26" t="n">
+        <v>0</v>
+      </c>
+      <c r="I26" t="n">
+        <v>0</v>
+      </c>
+      <c r="J26" t="n">
+        <v>0</v>
+      </c>
+      <c r="K26" t="n">
+        <v>0</v>
+      </c>
+      <c r="L26" t="n">
+        <v>0</v>
+      </c>
+      <c r="M26" t="n">
+        <v>0</v>
+      </c>
+      <c r="N26" t="n">
+        <v>0</v>
+      </c>
+      <c r="O26" t="n">
+        <v>0</v>
+      </c>
+      <c r="P26" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q26" t="n">
+        <v>9.990699214544804</v>
+      </c>
+      <c r="R26" t="n">
+        <v>0</v>
+      </c>
+      <c r="S26" t="n">
+        <v>0</v>
+      </c>
+      <c r="T26" t="n">
+        <v>223.0958495641314</v>
+      </c>
+      <c r="U26" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="E26" t="n">
-        <v>0</v>
-      </c>
-      <c r="F26" t="n">
-        <v>0</v>
-      </c>
-      <c r="G26" t="n">
-        <v>0</v>
-      </c>
-      <c r="H26" t="n">
-        <v>0</v>
-      </c>
-      <c r="I26" t="n">
-        <v>0</v>
-      </c>
-      <c r="J26" t="n">
-        <v>0</v>
-      </c>
-      <c r="K26" t="n">
-        <v>0</v>
-      </c>
-      <c r="L26" t="n">
-        <v>0</v>
-      </c>
-      <c r="M26" t="n">
-        <v>0</v>
-      </c>
-      <c r="N26" t="n">
-        <v>0</v>
-      </c>
-      <c r="O26" t="n">
-        <v>0</v>
-      </c>
-      <c r="P26" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q26" t="n">
-        <v>0</v>
-      </c>
-      <c r="R26" t="n">
-        <v>149.8691179411497</v>
-      </c>
-      <c r="S26" t="n">
-        <v>209.0200695862453</v>
-      </c>
-      <c r="T26" t="n">
-        <v>94.41048699370604</v>
-      </c>
-      <c r="U26" t="n">
-        <v>0</v>
-      </c>
       <c r="V26" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="W26" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="X26" t="n">
         <v>0</v>
@@ -2636,19 +2636,19 @@
         <v>0</v>
       </c>
       <c r="C27" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D27" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E27" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F27" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>137.3435171632106</v>
+        <v>0</v>
       </c>
       <c r="H27" t="n">
         <v>0</v>
@@ -2681,25 +2681,25 @@
         <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S27" t="n">
-        <v>0</v>
+        <v>29.79900896488251</v>
       </c>
       <c r="T27" t="n">
-        <v>74.95904355882617</v>
+        <v>0</v>
       </c>
       <c r="U27" t="n">
-        <v>0</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V27" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W27" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="X27" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y27" t="n">
         <v>0</v>
@@ -2721,61 +2721,61 @@
         <v>0</v>
       </c>
       <c r="E28" t="n">
+        <v>0</v>
+      </c>
+      <c r="F28" t="n">
+        <v>0</v>
+      </c>
+      <c r="G28" t="n">
+        <v>0</v>
+      </c>
+      <c r="H28" t="n">
+        <v>0</v>
+      </c>
+      <c r="I28" t="n">
+        <v>0</v>
+      </c>
+      <c r="J28" t="n">
+        <v>0</v>
+      </c>
+      <c r="K28" t="n">
+        <v>0</v>
+      </c>
+      <c r="L28" t="n">
+        <v>0</v>
+      </c>
+      <c r="M28" t="n">
+        <v>0</v>
+      </c>
+      <c r="N28" t="n">
+        <v>0</v>
+      </c>
+      <c r="O28" t="n">
+        <v>0</v>
+      </c>
+      <c r="P28" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q28" t="n">
+        <v>0</v>
+      </c>
+      <c r="R28" t="n">
+        <v>0</v>
+      </c>
+      <c r="S28" t="n">
+        <v>0</v>
+      </c>
+      <c r="T28" t="n">
+        <v>0</v>
+      </c>
+      <c r="U28" t="n">
+        <v>0</v>
+      </c>
+      <c r="V28" t="n">
+        <v>0</v>
+      </c>
+      <c r="W28" t="n">
         <v>133.186967585368</v>
-      </c>
-      <c r="F28" t="n">
-        <v>0</v>
-      </c>
-      <c r="G28" t="n">
-        <v>0</v>
-      </c>
-      <c r="H28" t="n">
-        <v>0</v>
-      </c>
-      <c r="I28" t="n">
-        <v>0</v>
-      </c>
-      <c r="J28" t="n">
-        <v>0</v>
-      </c>
-      <c r="K28" t="n">
-        <v>0</v>
-      </c>
-      <c r="L28" t="n">
-        <v>0</v>
-      </c>
-      <c r="M28" t="n">
-        <v>0</v>
-      </c>
-      <c r="N28" t="n">
-        <v>0</v>
-      </c>
-      <c r="O28" t="n">
-        <v>0</v>
-      </c>
-      <c r="P28" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q28" t="n">
-        <v>0</v>
-      </c>
-      <c r="R28" t="n">
-        <v>0</v>
-      </c>
-      <c r="S28" t="n">
-        <v>0</v>
-      </c>
-      <c r="T28" t="n">
-        <v>0</v>
-      </c>
-      <c r="U28" t="n">
-        <v>0</v>
-      </c>
-      <c r="V28" t="n">
-        <v>0</v>
-      </c>
-      <c r="W28" t="n">
-        <v>0</v>
       </c>
       <c r="X28" t="n">
         <v>0</v>
@@ -2845,16 +2845,16 @@
         <v>0</v>
       </c>
       <c r="T29" t="n">
-        <v>0</v>
+        <v>223.0958495641314</v>
       </c>
       <c r="U29" t="n">
-        <v>0</v>
+        <v>220.2131257424249</v>
       </c>
       <c r="V29" t="n">
-        <v>202.2946864288972</v>
+        <v>0</v>
       </c>
       <c r="W29" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="X29" t="n">
         <v>0</v>
@@ -2873,13 +2873,13 @@
         <v>0</v>
       </c>
       <c r="C30" t="n">
-        <v>45.28887413297245</v>
+        <v>0</v>
       </c>
       <c r="D30" t="n">
-        <v>147.4450655646388</v>
+        <v>139.3136372594269</v>
       </c>
       <c r="E30" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F30" t="n">
         <v>145.0692123933839</v>
@@ -2888,10 +2888,10 @@
         <v>137.3435171632106</v>
       </c>
       <c r="H30" t="n">
-        <v>112.2354442364965</v>
+        <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>89.39663285141508</v>
+        <v>0</v>
       </c>
       <c r="J30" t="n">
         <v>0.7465913262578567</v>
@@ -2921,7 +2921,7 @@
         <v>100.1578341526431</v>
       </c>
       <c r="S30" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T30" t="n">
         <v>0</v>
@@ -2933,7 +2933,7 @@
         <v>0</v>
       </c>
       <c r="W30" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="X30" t="n">
         <v>0</v>
@@ -3006,13 +3006,13 @@
         <v>0</v>
       </c>
       <c r="U31" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
       </c>
       <c r="W31" t="n">
-        <v>133.186967585368</v>
+        <v>0</v>
       </c>
       <c r="X31" t="n">
         <v>0</v>
@@ -3046,7 +3046,7 @@
         <v>241.0142888776591</v>
       </c>
       <c r="H32" t="n">
-        <v>102.3382270926889</v>
+        <v>220.2131257424249</v>
       </c>
       <c r="I32" t="n">
         <v>0</v>
@@ -3076,16 +3076,16 @@
         <v>9.990699214544804</v>
       </c>
       <c r="R32" t="n">
-        <v>149.8691179411497</v>
+        <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>209.0200695862453</v>
+        <v>0</v>
       </c>
       <c r="T32" t="n">
         <v>223.0958495641314</v>
       </c>
       <c r="U32" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="V32" t="n">
         <v>0</v>
@@ -3107,31 +3107,31 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C33" t="n">
-        <v>64.38401073897946</v>
+        <v>0</v>
       </c>
       <c r="D33" t="n">
-        <v>0</v>
+        <v>32.9747718031586</v>
       </c>
       <c r="E33" t="n">
         <v>0</v>
       </c>
       <c r="F33" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G33" t="n">
-        <v>0</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H33" t="n">
-        <v>0</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I33" t="n">
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K33" t="n">
         <v>0</v>
@@ -3155,7 +3155,7 @@
         <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -3164,19 +3164,19 @@
         <v>0</v>
       </c>
       <c r="U33" t="n">
-        <v>225.9413820809748</v>
+        <v>0</v>
       </c>
       <c r="V33" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W33" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="X33" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y33" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="34">
@@ -3234,13 +3234,13 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
+        <v>0</v>
+      </c>
+      <c r="S34" t="n">
+        <v>0</v>
+      </c>
+      <c r="T34" t="n">
         <v>133.186967585368</v>
-      </c>
-      <c r="S34" t="n">
-        <v>0</v>
-      </c>
-      <c r="T34" t="n">
-        <v>0</v>
       </c>
       <c r="U34" t="n">
         <v>0</v>
@@ -3280,16 +3280,16 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="H35" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="I35" t="n">
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>11.94928935461252</v>
+        <v>0</v>
       </c>
       <c r="K35" t="n">
         <v>0</v>
@@ -3310,13 +3310,13 @@
         <v>0</v>
       </c>
       <c r="Q35" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R35" t="n">
         <v>149.8691179411497</v>
       </c>
       <c r="S35" t="n">
-        <v>68.38541766120755</v>
+        <v>209.0200695862453</v>
       </c>
       <c r="T35" t="n">
         <v>223.0958495641314</v>
@@ -3328,10 +3328,10 @@
         <v>0</v>
       </c>
       <c r="W35" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="X35" t="n">
-        <v>0</v>
+        <v>102.3382270926889</v>
       </c>
       <c r="Y35" t="n">
         <v>0</v>
@@ -3347,28 +3347,28 @@
         <v>0</v>
       </c>
       <c r="C36" t="n">
-        <v>61.5792418851937</v>
+        <v>0</v>
       </c>
       <c r="D36" t="n">
         <v>147.4450655646388</v>
       </c>
       <c r="E36" t="n">
-        <v>157.6450804554009</v>
+        <v>52.0628898883872</v>
       </c>
       <c r="F36" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G36" t="n">
         <v>137.3435171632106</v>
       </c>
       <c r="H36" t="n">
-        <v>0</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I36" t="n">
-        <v>89.39663285141508</v>
+        <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K36" t="n">
         <v>0</v>
@@ -3468,10 +3468,10 @@
         <v>0</v>
       </c>
       <c r="Q37" t="n">
-        <v>0</v>
+        <v>86.16204325169439</v>
       </c>
       <c r="R37" t="n">
-        <v>0</v>
+        <v>47.02492433367365</v>
       </c>
       <c r="S37" t="n">
         <v>0</v>
@@ -3486,7 +3486,7 @@
         <v>0</v>
       </c>
       <c r="W37" t="n">
-        <v>133.186967585368</v>
+        <v>0</v>
       </c>
       <c r="X37" t="n">
         <v>0</v>
@@ -3502,26 +3502,26 @@
         </is>
       </c>
       <c r="B38" t="n">
+        <v>0</v>
+      </c>
+      <c r="C38" t="n">
+        <v>0</v>
+      </c>
+      <c r="D38" t="n">
+        <v>0</v>
+      </c>
+      <c r="E38" t="n">
+        <v>0</v>
+      </c>
+      <c r="F38" t="n">
+        <v>0</v>
+      </c>
+      <c r="G38" t="n">
+        <v>21.18375537072436</v>
+      </c>
+      <c r="H38" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="C38" t="n">
-        <v>0</v>
-      </c>
-      <c r="D38" t="n">
-        <v>0</v>
-      </c>
-      <c r="E38" t="n">
-        <v>0</v>
-      </c>
-      <c r="F38" t="n">
-        <v>0</v>
-      </c>
-      <c r="G38" t="n">
-        <v>241.0142888776591</v>
-      </c>
-      <c r="H38" t="n">
-        <v>0</v>
-      </c>
       <c r="I38" t="n">
         <v>0</v>
       </c>
@@ -3547,19 +3547,19 @@
         <v>0</v>
       </c>
       <c r="Q38" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R38" t="n">
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>0</v>
+        <v>209.0200695862453</v>
       </c>
       <c r="T38" t="n">
         <v>223.0958495641314</v>
       </c>
       <c r="U38" t="n">
-        <v>220.2131257424249</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="V38" t="n">
         <v>0</v>
@@ -3581,25 +3581,25 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C39" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D39" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E39" t="n">
         <v>157.6450804554009</v>
       </c>
       <c r="F39" t="n">
-        <v>0</v>
+        <v>0.3261858846177895</v>
       </c>
       <c r="G39" t="n">
         <v>0</v>
       </c>
       <c r="H39" t="n">
-        <v>112.2354442364965</v>
+        <v>0</v>
       </c>
       <c r="I39" t="n">
         <v>0</v>
@@ -3629,10 +3629,10 @@
         <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S39" t="n">
-        <v>51.14691552255101</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T39" t="n">
         <v>200.1647286948216</v>
@@ -3641,7 +3641,7 @@
         <v>0</v>
       </c>
       <c r="V39" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W39" t="n">
         <v>0</v>
@@ -3720,10 +3720,10 @@
         <v>0</v>
       </c>
       <c r="V40" t="n">
+        <v>0</v>
+      </c>
+      <c r="W40" t="n">
         <v>133.186967585368</v>
-      </c>
-      <c r="W40" t="n">
-        <v>0</v>
       </c>
       <c r="X40" t="n">
         <v>0</v>
@@ -3760,7 +3760,7 @@
         <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>210.4758895704059</v>
+        <v>0</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -3787,28 +3787,28 @@
         <v>0</v>
       </c>
       <c r="R41" t="n">
-        <v>0</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S41" t="n">
-        <v>0</v>
+        <v>209.0200695862453</v>
       </c>
       <c r="T41" t="n">
         <v>223.0958495641314</v>
       </c>
       <c r="U41" t="n">
-        <v>0</v>
+        <v>112.3289263072337</v>
       </c>
       <c r="V41" t="n">
         <v>0</v>
       </c>
       <c r="W41" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="X41" t="n">
         <v>0</v>
       </c>
       <c r="Y41" t="n">
-        <v>19.7279353865638</v>
+        <v>0</v>
       </c>
     </row>
     <row r="42">
@@ -3818,31 +3818,31 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C42" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D42" t="n">
         <v>0</v>
       </c>
       <c r="E42" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F42" t="n">
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>0</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H42" t="n">
-        <v>0</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I42" t="n">
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K42" t="n">
         <v>0</v>
@@ -3866,28 +3866,28 @@
         <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S42" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T42" t="n">
-        <v>63.88882306452221</v>
+        <v>0</v>
       </c>
       <c r="U42" t="n">
-        <v>225.9413820809748</v>
+        <v>0</v>
       </c>
       <c r="V42" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W42" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="X42" t="n">
         <v>0</v>
       </c>
       <c r="Y42" t="n">
-        <v>0</v>
+        <v>87.95810230422707</v>
       </c>
     </row>
     <row r="43">
@@ -3945,22 +3945,22 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
+        <v>0</v>
+      </c>
+      <c r="S43" t="n">
+        <v>0</v>
+      </c>
+      <c r="T43" t="n">
+        <v>0</v>
+      </c>
+      <c r="U43" t="n">
+        <v>0</v>
+      </c>
+      <c r="V43" t="n">
+        <v>0</v>
+      </c>
+      <c r="W43" t="n">
         <v>133.186967585368</v>
-      </c>
-      <c r="S43" t="n">
-        <v>0</v>
-      </c>
-      <c r="T43" t="n">
-        <v>0</v>
-      </c>
-      <c r="U43" t="n">
-        <v>0</v>
-      </c>
-      <c r="V43" t="n">
-        <v>0</v>
-      </c>
-      <c r="W43" t="n">
-        <v>0</v>
       </c>
       <c r="X43" t="n">
         <v>0</v>
@@ -3988,13 +3988,13 @@
         <v>0</v>
       </c>
       <c r="F44" t="n">
-        <v>0</v>
+        <v>112.3289263072337</v>
       </c>
       <c r="G44" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="H44" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="I44" t="n">
         <v>0</v>
@@ -4036,7 +4036,7 @@
         <v>0</v>
       </c>
       <c r="V44" t="n">
-        <v>112.3289263072337</v>
+        <v>0</v>
       </c>
       <c r="W44" t="n">
         <v>0</v>
@@ -4061,10 +4061,10 @@
         <v>0</v>
       </c>
       <c r="D45" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E45" t="n">
-        <v>78.19622121383934</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F45" t="n">
         <v>145.0692123933839</v>
@@ -4073,7 +4073,7 @@
         <v>137.3435171632106</v>
       </c>
       <c r="H45" t="n">
-        <v>0</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I45" t="n">
         <v>0</v>
@@ -4103,7 +4103,7 @@
         <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -4112,13 +4112,13 @@
         <v>0</v>
       </c>
       <c r="U45" t="n">
-        <v>0</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V45" t="n">
-        <v>232.8005871494253</v>
+        <v>8.901959056055929</v>
       </c>
       <c r="W45" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="X45" t="n">
         <v>0</v>
@@ -4140,7 +4140,7 @@
         <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="E46" t="n">
         <v>0</v>
@@ -4197,7 +4197,7 @@
         <v>0</v>
       </c>
       <c r="W46" t="n">
-        <v>133.186967585368</v>
+        <v>0</v>
       </c>
       <c r="X46" t="n">
         <v>0</v>
@@ -4306,76 +4306,76 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>19.28114311021272</v>
+        <v>166.4370741486873</v>
       </c>
       <c r="C2" t="n">
-        <v>19.28114311021272</v>
+        <v>166.4370741486873</v>
       </c>
       <c r="D2" t="n">
-        <v>19.28114311021272</v>
+        <v>166.4370741486873</v>
       </c>
       <c r="E2" t="n">
-        <v>19.28114311021272</v>
+        <v>137.2644294849704</v>
       </c>
       <c r="F2" t="n">
-        <v>19.28114311021272</v>
+        <v>92.68647758675968</v>
       </c>
       <c r="G2" t="n">
-        <v>19.28114311021272</v>
+        <v>48.10852568854899</v>
       </c>
       <c r="H2" t="n">
-        <v>19.28114311021272</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="I2" t="n">
-        <v>19.28114311021272</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="J2" t="n">
-        <v>19.28114311021272</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="K2" t="n">
-        <v>122.2961490211351</v>
+        <v>47.22142444577459</v>
       </c>
       <c r="L2" t="n">
-        <v>302.3720006057937</v>
+        <v>89.14698820604177</v>
       </c>
       <c r="M2" t="n">
-        <v>519.3476278686978</v>
+        <v>132.8378388614781</v>
       </c>
       <c r="N2" t="n">
-        <v>725.2021500759372</v>
+        <v>132.8378388614781</v>
       </c>
       <c r="O2" t="n">
-        <v>874.3971002185853</v>
+        <v>132.8378388614781</v>
       </c>
       <c r="P2" t="n">
-        <v>964.0571555106362</v>
+        <v>176.5286895169144</v>
       </c>
       <c r="Q2" t="n">
-        <v>964.0571555106362</v>
+        <v>166.4370741486873</v>
       </c>
       <c r="R2" t="n">
-        <v>964.0571555106362</v>
+        <v>166.4370741486873</v>
       </c>
       <c r="S2" t="n">
-        <v>964.0571555106362</v>
+        <v>166.4370741486873</v>
       </c>
       <c r="T2" t="n">
-        <v>964.0571555106362</v>
+        <v>166.4370741486873</v>
       </c>
       <c r="U2" t="n">
-        <v>964.0571555106362</v>
+        <v>166.4370741486873</v>
       </c>
       <c r="V2" t="n">
-        <v>964.0571555106362</v>
+        <v>166.4370741486873</v>
       </c>
       <c r="W2" t="n">
-        <v>720.6083788665362</v>
+        <v>166.4370741486873</v>
       </c>
       <c r="X2" t="n">
-        <v>477.1596022224361</v>
+        <v>166.4370741486873</v>
       </c>
       <c r="Y2" t="n">
-        <v>233.7108255783361</v>
+        <v>166.4370741486873</v>
       </c>
     </row>
     <row r="3">
@@ -4385,76 +4385,76 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>19.28114311021272</v>
+        <v>48.10852568854899</v>
       </c>
       <c r="C3" t="n">
-        <v>19.28114311021272</v>
+        <v>48.10852568854899</v>
       </c>
       <c r="D3" t="n">
-        <v>19.28114311021272</v>
+        <v>48.10852568854899</v>
       </c>
       <c r="E3" t="n">
-        <v>19.28114311021272</v>
+        <v>48.10852568854899</v>
       </c>
       <c r="F3" t="n">
-        <v>19.28114311021272</v>
+        <v>48.10852568854899</v>
       </c>
       <c r="G3" t="n">
-        <v>19.28114311021272</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="H3" t="n">
-        <v>19.28114311021272</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="I3" t="n">
-        <v>19.28114311021272</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="J3" t="n">
-        <v>19.28114311021272</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="K3" t="n">
-        <v>144.6387031680501</v>
+        <v>45.45613755060546</v>
       </c>
       <c r="L3" t="n">
-        <v>374.6018090363993</v>
+        <v>45.45613755060546</v>
       </c>
       <c r="M3" t="n">
-        <v>374.6018090363993</v>
+        <v>45.45613755060546</v>
       </c>
       <c r="N3" t="n">
-        <v>542.809531908403</v>
+        <v>45.45613755060546</v>
       </c>
       <c r="O3" t="n">
-        <v>781.4136778972854</v>
+        <v>89.14698820604177</v>
       </c>
       <c r="P3" t="n">
-        <v>964.0571555106362</v>
+        <v>132.8378388614781</v>
       </c>
       <c r="Q3" t="n">
-        <v>964.0571555106362</v>
+        <v>176.5286895169144</v>
       </c>
       <c r="R3" t="n">
-        <v>862.8876260635219</v>
+        <v>131.9507376187037</v>
       </c>
       <c r="S3" t="n">
-        <v>862.8876260635219</v>
+        <v>131.9507376187037</v>
       </c>
       <c r="T3" t="n">
-        <v>862.8876260635219</v>
+        <v>131.9507376187037</v>
       </c>
       <c r="U3" t="n">
-        <v>634.6640077999109</v>
+        <v>131.9507376187037</v>
       </c>
       <c r="V3" t="n">
-        <v>399.5118995681682</v>
+        <v>131.9507376187037</v>
       </c>
       <c r="W3" t="n">
-        <v>227.1326433157456</v>
+        <v>87.37278572049297</v>
       </c>
       <c r="X3" t="n">
-        <v>19.28114311021272</v>
+        <v>87.37278572049297</v>
       </c>
       <c r="Y3" t="n">
-        <v>19.28114311021272</v>
+        <v>87.37278572049297</v>
       </c>
     </row>
     <row r="4">
@@ -4464,76 +4464,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>19.28114311021272</v>
+        <v>4.329008585976936</v>
       </c>
       <c r="C4" t="n">
-        <v>19.28114311021272</v>
+        <v>4.329008585976936</v>
       </c>
       <c r="D4" t="n">
-        <v>19.28114311021272</v>
+        <v>4.329008585976936</v>
       </c>
       <c r="E4" t="n">
-        <v>19.28114311021272</v>
+        <v>4.329008585976936</v>
       </c>
       <c r="F4" t="n">
-        <v>19.28114311021272</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="G4" t="n">
-        <v>19.28114311021272</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="H4" t="n">
-        <v>19.28114311021272</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="I4" t="n">
-        <v>19.28114311021272</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="J4" t="n">
-        <v>19.28114311021272</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="K4" t="n">
-        <v>19.28114311021272</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="L4" t="n">
-        <v>46.5952681179257</v>
+        <v>30.84469879805127</v>
       </c>
       <c r="M4" t="n">
-        <v>85.78330631014788</v>
+        <v>70.03273699027345</v>
       </c>
       <c r="N4" t="n">
-        <v>129.4741569655842</v>
+        <v>113.7235876457098</v>
       </c>
       <c r="O4" t="n">
-        <v>153.8134336004835</v>
+        <v>138.062864280609</v>
       </c>
       <c r="P4" t="n">
-        <v>153.8134336004835</v>
+        <v>138.062864280609</v>
       </c>
       <c r="Q4" t="n">
-        <v>153.8134336004835</v>
+        <v>93.48491238239833</v>
       </c>
       <c r="R4" t="n">
-        <v>153.8134336004835</v>
+        <v>93.48491238239833</v>
       </c>
       <c r="S4" t="n">
-        <v>153.8134336004835</v>
+        <v>93.48491238239833</v>
       </c>
       <c r="T4" t="n">
-        <v>153.8134336004835</v>
+        <v>93.48491238239833</v>
       </c>
       <c r="U4" t="n">
-        <v>153.8134336004835</v>
+        <v>48.90696048418764</v>
       </c>
       <c r="V4" t="n">
-        <v>153.8134336004835</v>
+        <v>48.90696048418764</v>
       </c>
       <c r="W4" t="n">
-        <v>19.28114311021272</v>
+        <v>4.329008585976936</v>
       </c>
       <c r="X4" t="n">
-        <v>19.28114311021272</v>
+        <v>4.329008585976936</v>
       </c>
       <c r="Y4" t="n">
-        <v>19.28114311021272</v>
+        <v>4.329008585976936</v>
       </c>
     </row>
     <row r="5">
@@ -4543,76 +4543,76 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>761.6974622895962</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="C5" t="n">
-        <v>518.2486856454962</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="D5" t="n">
-        <v>274.7999090013961</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="E5" t="n">
-        <v>31.35113235729608</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="F5" t="n">
-        <v>31.35113235729608</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="G5" t="n">
-        <v>31.35113235729608</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="H5" t="n">
-        <v>31.35113235729608</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="I5" t="n">
-        <v>31.35113235729608</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="J5" t="n">
-        <v>19.28114311021272</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="K5" t="n">
-        <v>122.2961490211351</v>
+        <v>47.22142444577459</v>
       </c>
       <c r="L5" t="n">
-        <v>302.3720006057937</v>
+        <v>90.91227510121089</v>
       </c>
       <c r="M5" t="n">
-        <v>519.3476278686978</v>
+        <v>90.91227510121089</v>
       </c>
       <c r="N5" t="n">
-        <v>725.2021500759372</v>
+        <v>90.91227510121089</v>
       </c>
       <c r="O5" t="n">
-        <v>874.3971002185853</v>
+        <v>132.8378388614781</v>
       </c>
       <c r="P5" t="n">
-        <v>964.0571555106362</v>
+        <v>176.5286895169144</v>
       </c>
       <c r="Q5" t="n">
-        <v>953.9655401424092</v>
+        <v>166.4370741486873</v>
       </c>
       <c r="R5" t="n">
-        <v>802.5825927271064</v>
+        <v>121.8591222504766</v>
       </c>
       <c r="S5" t="n">
-        <v>802.5825927271064</v>
+        <v>121.8591222504766</v>
       </c>
       <c r="T5" t="n">
-        <v>802.5825927271064</v>
+        <v>77.28117035226589</v>
       </c>
       <c r="U5" t="n">
-        <v>802.5825927271064</v>
+        <v>32.70321845405519</v>
       </c>
       <c r="V5" t="n">
-        <v>802.5825927271064</v>
+        <v>32.70321845405519</v>
       </c>
       <c r="W5" t="n">
-        <v>802.5825927271064</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="X5" t="n">
-        <v>802.5825927271064</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="Y5" t="n">
-        <v>802.5825927271064</v>
+        <v>3.530573790338288</v>
       </c>
     </row>
     <row r="6">
@@ -4622,76 +4622,76 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>310.5702840197694</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="C6" t="n">
-        <v>310.5702840197694</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="D6" t="n">
-        <v>161.6358743585181</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="E6" t="n">
-        <v>19.28114311021272</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="F6" t="n">
-        <v>19.28114311021272</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="G6" t="n">
-        <v>19.28114311021272</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="H6" t="n">
-        <v>19.28114311021272</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="I6" t="n">
-        <v>19.28114311021272</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="J6" t="n">
-        <v>19.28114311021272</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="K6" t="n">
-        <v>144.6387031680501</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="L6" t="n">
-        <v>144.6387031680501</v>
+        <v>47.22142444577459</v>
       </c>
       <c r="M6" t="n">
-        <v>383.2428491569326</v>
+        <v>90.91227510121089</v>
       </c>
       <c r="N6" t="n">
-        <v>473.4149733950735</v>
+        <v>134.6031257566472</v>
       </c>
       <c r="O6" t="n">
-        <v>712.019119383956</v>
+        <v>176.5286895169144</v>
       </c>
       <c r="P6" t="n">
-        <v>894.6625969973069</v>
+        <v>176.5286895169144</v>
       </c>
       <c r="Q6" t="n">
-        <v>964.0571555106362</v>
+        <v>176.5286895169144</v>
       </c>
       <c r="R6" t="n">
-        <v>964.0571555106362</v>
+        <v>131.9507376187037</v>
       </c>
       <c r="S6" t="n">
-        <v>964.0571555106362</v>
+        <v>131.9507376187037</v>
       </c>
       <c r="T6" t="n">
-        <v>761.8705608694022</v>
+        <v>131.9507376187037</v>
       </c>
       <c r="U6" t="n">
-        <v>761.8705608694022</v>
+        <v>92.68647758675968</v>
       </c>
       <c r="V6" t="n">
-        <v>761.8705608694022</v>
+        <v>48.10852568854899</v>
       </c>
       <c r="W6" t="n">
-        <v>518.4217842253022</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="X6" t="n">
-        <v>310.5702840197694</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="Y6" t="n">
-        <v>310.5702840197694</v>
+        <v>3.530573790338288</v>
       </c>
     </row>
     <row r="7">
@@ -4701,76 +4701,76 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>19.28114311021272</v>
+        <v>4.329008585976936</v>
       </c>
       <c r="C7" t="n">
-        <v>19.28114311021272</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="D7" t="n">
-        <v>19.28114311021272</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="E7" t="n">
-        <v>19.28114311021272</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="F7" t="n">
-        <v>19.28114311021272</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="G7" t="n">
-        <v>19.28114311021272</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="H7" t="n">
-        <v>19.28114311021272</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="I7" t="n">
-        <v>19.28114311021272</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="J7" t="n">
-        <v>19.28114311021272</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="K7" t="n">
-        <v>19.28114311021272</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="L7" t="n">
-        <v>46.5952681179257</v>
+        <v>30.84469879805127</v>
       </c>
       <c r="M7" t="n">
-        <v>85.78330631014788</v>
+        <v>70.03273699027345</v>
       </c>
       <c r="N7" t="n">
-        <v>129.4741569655842</v>
+        <v>113.7235876457098</v>
       </c>
       <c r="O7" t="n">
-        <v>153.8134336004835</v>
+        <v>138.062864280609</v>
       </c>
       <c r="P7" t="n">
-        <v>153.8134336004835</v>
+        <v>138.062864280609</v>
       </c>
       <c r="Q7" t="n">
-        <v>153.8134336004835</v>
+        <v>138.062864280609</v>
       </c>
       <c r="R7" t="n">
-        <v>153.8134336004835</v>
+        <v>93.48491238239833</v>
       </c>
       <c r="S7" t="n">
-        <v>19.28114311021272</v>
+        <v>93.48491238239833</v>
       </c>
       <c r="T7" t="n">
-        <v>19.28114311021272</v>
+        <v>93.48491238239833</v>
       </c>
       <c r="U7" t="n">
-        <v>19.28114311021272</v>
+        <v>48.90696048418764</v>
       </c>
       <c r="V7" t="n">
-        <v>19.28114311021272</v>
+        <v>48.90696048418764</v>
       </c>
       <c r="W7" t="n">
-        <v>19.28114311021272</v>
+        <v>48.90696048418764</v>
       </c>
       <c r="X7" t="n">
-        <v>19.28114311021272</v>
+        <v>48.90696048418764</v>
       </c>
       <c r="Y7" t="n">
-        <v>19.28114311021272</v>
+        <v>4.329008585976936</v>
       </c>
     </row>
     <row r="8">
@@ -4780,76 +4780,76 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>19.28114311021272</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="C8" t="n">
-        <v>19.28114311021272</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="D8" t="n">
-        <v>19.28114311021272</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="E8" t="n">
-        <v>19.28114311021272</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="F8" t="n">
-        <v>19.28114311021272</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="G8" t="n">
-        <v>19.28114311021272</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="H8" t="n">
-        <v>19.28114311021272</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="I8" t="n">
-        <v>19.28114311021272</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="J8" t="n">
-        <v>19.28114311021272</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="K8" t="n">
-        <v>122.2961490211351</v>
+        <v>47.22142444577459</v>
       </c>
       <c r="L8" t="n">
-        <v>302.3720006057937</v>
+        <v>89.14698820604177</v>
       </c>
       <c r="M8" t="n">
-        <v>519.3476278686978</v>
+        <v>89.14698820604177</v>
       </c>
       <c r="N8" t="n">
-        <v>725.2021500759372</v>
+        <v>132.8378388614781</v>
       </c>
       <c r="O8" t="n">
-        <v>874.3971002185853</v>
+        <v>176.5286895169144</v>
       </c>
       <c r="P8" t="n">
-        <v>964.0571555106362</v>
+        <v>176.5286895169144</v>
       </c>
       <c r="Q8" t="n">
-        <v>953.9655401424092</v>
+        <v>176.5286895169144</v>
       </c>
       <c r="R8" t="n">
-        <v>953.9655401424092</v>
+        <v>137.2644294849704</v>
       </c>
       <c r="S8" t="n">
-        <v>749.627473042513</v>
+        <v>137.2644294849704</v>
       </c>
       <c r="T8" t="n">
-        <v>749.627473042513</v>
+        <v>137.2644294849704</v>
       </c>
       <c r="U8" t="n">
-        <v>506.1786963984129</v>
+        <v>137.2644294849704</v>
       </c>
       <c r="V8" t="n">
-        <v>506.1786963984129</v>
+        <v>92.68647758675968</v>
       </c>
       <c r="W8" t="n">
-        <v>506.1786963984129</v>
+        <v>92.68647758675968</v>
       </c>
       <c r="X8" t="n">
-        <v>506.1786963984129</v>
+        <v>92.68647758675968</v>
       </c>
       <c r="Y8" t="n">
-        <v>262.7299197543128</v>
+        <v>48.10852568854899</v>
       </c>
     </row>
     <row r="9">
@@ -4859,76 +4859,76 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>453.6378659568754</v>
+        <v>87.37278572049297</v>
       </c>
       <c r="C9" t="n">
-        <v>279.1848366757484</v>
+        <v>87.37278572049297</v>
       </c>
       <c r="D9" t="n">
-        <v>279.1848366757484</v>
+        <v>42.79483382228227</v>
       </c>
       <c r="E9" t="n">
-        <v>279.1848366757484</v>
+        <v>42.79483382228227</v>
       </c>
       <c r="F9" t="n">
-        <v>132.6502787026334</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="G9" t="n">
-        <v>132.6502787026334</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="H9" t="n">
-        <v>19.28114311021272</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="I9" t="n">
-        <v>19.28114311021272</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="J9" t="n">
-        <v>19.28114311021272</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="K9" t="n">
-        <v>19.28114311021272</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="L9" t="n">
-        <v>19.28114311021272</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="M9" t="n">
-        <v>257.8852890990952</v>
+        <v>47.22142444577459</v>
       </c>
       <c r="N9" t="n">
-        <v>473.4149733950735</v>
+        <v>47.22142444577459</v>
       </c>
       <c r="O9" t="n">
-        <v>712.019119383956</v>
+        <v>89.14698820604177</v>
       </c>
       <c r="P9" t="n">
-        <v>894.6625969973069</v>
+        <v>132.8378388614781</v>
       </c>
       <c r="Q9" t="n">
-        <v>964.0571555106362</v>
+        <v>176.5286895169144</v>
       </c>
       <c r="R9" t="n">
-        <v>964.0571555106362</v>
+        <v>131.9507376187037</v>
       </c>
       <c r="S9" t="n">
-        <v>964.0571555106362</v>
+        <v>131.9507376187037</v>
       </c>
       <c r="T9" t="n">
-        <v>964.0571555106362</v>
+        <v>131.9507376187037</v>
       </c>
       <c r="U9" t="n">
-        <v>964.0571555106362</v>
+        <v>131.9507376187037</v>
       </c>
       <c r="V9" t="n">
-        <v>728.9050472788936</v>
+        <v>131.9507376187037</v>
       </c>
       <c r="W9" t="n">
-        <v>728.9050472788936</v>
+        <v>131.9507376187037</v>
       </c>
       <c r="X9" t="n">
-        <v>728.9050472788936</v>
+        <v>131.9507376187037</v>
       </c>
       <c r="Y9" t="n">
-        <v>621.8532029769435</v>
+        <v>131.9507376187037</v>
       </c>
     </row>
     <row r="10">
@@ -4938,76 +4938,76 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>19.28114311021272</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="C10" t="n">
-        <v>19.28114311021272</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="D10" t="n">
-        <v>19.28114311021272</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="E10" t="n">
-        <v>19.28114311021272</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="F10" t="n">
-        <v>19.28114311021272</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="G10" t="n">
-        <v>19.28114311021272</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="H10" t="n">
-        <v>19.28114311021272</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="I10" t="n">
-        <v>19.28114311021272</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="J10" t="n">
-        <v>19.28114311021272</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="K10" t="n">
-        <v>19.28114311021272</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="L10" t="n">
-        <v>46.5952681179257</v>
+        <v>30.84469879805127</v>
       </c>
       <c r="M10" t="n">
-        <v>85.78330631014788</v>
+        <v>70.03273699027345</v>
       </c>
       <c r="N10" t="n">
-        <v>129.4741569655842</v>
+        <v>113.7235876457098</v>
       </c>
       <c r="O10" t="n">
-        <v>153.8134336004835</v>
+        <v>138.062864280609</v>
       </c>
       <c r="P10" t="n">
-        <v>153.8134336004835</v>
+        <v>138.062864280609</v>
       </c>
       <c r="Q10" t="n">
-        <v>153.8134336004835</v>
+        <v>138.062864280609</v>
       </c>
       <c r="R10" t="n">
-        <v>153.8134336004835</v>
+        <v>138.062864280609</v>
       </c>
       <c r="S10" t="n">
-        <v>153.8134336004835</v>
+        <v>138.062864280609</v>
       </c>
       <c r="T10" t="n">
-        <v>153.8134336004835</v>
+        <v>137.2644294849704</v>
       </c>
       <c r="U10" t="n">
-        <v>153.8134336004835</v>
+        <v>92.68647758675968</v>
       </c>
       <c r="V10" t="n">
-        <v>153.8134336004835</v>
+        <v>92.68647758675968</v>
       </c>
       <c r="W10" t="n">
-        <v>19.28114311021272</v>
+        <v>92.68647758675968</v>
       </c>
       <c r="X10" t="n">
-        <v>19.28114311021272</v>
+        <v>92.68647758675968</v>
       </c>
       <c r="Y10" t="n">
-        <v>19.28114311021272</v>
+        <v>48.10852568854899</v>
       </c>
     </row>
     <row r="11">
@@ -5017,76 +5017,76 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>506.1786963984129</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="C11" t="n">
-        <v>506.1786963984129</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="D11" t="n">
-        <v>506.1786963984129</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="E11" t="n">
-        <v>506.1786963984129</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="F11" t="n">
-        <v>262.7299197543128</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="G11" t="n">
-        <v>19.28114311021272</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="H11" t="n">
-        <v>19.28114311021272</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="I11" t="n">
-        <v>19.28114311021272</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="J11" t="n">
-        <v>19.28114311021272</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="K11" t="n">
-        <v>122.2961490211351</v>
+        <v>47.22142444577459</v>
       </c>
       <c r="L11" t="n">
-        <v>302.3720006057937</v>
+        <v>90.91227510121089</v>
       </c>
       <c r="M11" t="n">
-        <v>519.3476278686978</v>
+        <v>134.6031257566472</v>
       </c>
       <c r="N11" t="n">
-        <v>725.2021500759372</v>
+        <v>176.5286895169144</v>
       </c>
       <c r="O11" t="n">
-        <v>874.3971002185853</v>
+        <v>176.5286895169144</v>
       </c>
       <c r="P11" t="n">
-        <v>964.0571555106362</v>
+        <v>176.5286895169144</v>
       </c>
       <c r="Q11" t="n">
-        <v>953.9655401424092</v>
+        <v>166.4370741486873</v>
       </c>
       <c r="R11" t="n">
-        <v>953.9655401424092</v>
+        <v>121.8591222504766</v>
       </c>
       <c r="S11" t="n">
-        <v>953.9655401424092</v>
+        <v>121.8591222504766</v>
       </c>
       <c r="T11" t="n">
-        <v>749.627473042513</v>
+        <v>77.28117035226589</v>
       </c>
       <c r="U11" t="n">
-        <v>749.627473042513</v>
+        <v>77.28117035226589</v>
       </c>
       <c r="V11" t="n">
-        <v>749.627473042513</v>
+        <v>77.28117035226589</v>
       </c>
       <c r="W11" t="n">
-        <v>749.627473042513</v>
+        <v>77.28117035226589</v>
       </c>
       <c r="X11" t="n">
-        <v>749.627473042513</v>
+        <v>48.10852568854899</v>
       </c>
       <c r="Y11" t="n">
-        <v>506.1786963984129</v>
+        <v>3.530573790338288</v>
       </c>
     </row>
     <row r="12">
@@ -5096,76 +5096,76 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>19.28114311021272</v>
+        <v>42.79483382228227</v>
       </c>
       <c r="C12" t="n">
-        <v>19.28114311021272</v>
+        <v>4.284706443124001</v>
       </c>
       <c r="D12" t="n">
-        <v>19.28114311021272</v>
+        <v>4.284706443124001</v>
       </c>
       <c r="E12" t="n">
-        <v>19.28114311021272</v>
+        <v>4.284706443124001</v>
       </c>
       <c r="F12" t="n">
-        <v>19.28114311021272</v>
+        <v>4.284706443124001</v>
       </c>
       <c r="G12" t="n">
-        <v>19.28114311021272</v>
+        <v>4.284706443124001</v>
       </c>
       <c r="H12" t="n">
-        <v>19.28114311021272</v>
+        <v>4.284706443124001</v>
       </c>
       <c r="I12" t="n">
-        <v>19.28114311021272</v>
+        <v>4.284706443124001</v>
       </c>
       <c r="J12" t="n">
-        <v>19.28114311021272</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="K12" t="n">
-        <v>144.6387031680501</v>
+        <v>47.22142444577459</v>
       </c>
       <c r="L12" t="n">
-        <v>234.810827406191</v>
+        <v>90.91227510121089</v>
       </c>
       <c r="M12" t="n">
-        <v>234.810827406191</v>
+        <v>134.6031257566472</v>
       </c>
       <c r="N12" t="n">
-        <v>473.4149733950735</v>
+        <v>176.5286895169144</v>
       </c>
       <c r="O12" t="n">
-        <v>712.019119383956</v>
+        <v>176.5286895169144</v>
       </c>
       <c r="P12" t="n">
-        <v>894.6625969973069</v>
+        <v>176.5286895169144</v>
       </c>
       <c r="Q12" t="n">
-        <v>964.0571555106362</v>
+        <v>176.5286895169144</v>
       </c>
       <c r="R12" t="n">
-        <v>933.8659450146204</v>
+        <v>131.9507376187037</v>
       </c>
       <c r="S12" t="n">
-        <v>933.8659450146204</v>
+        <v>131.9507376187037</v>
       </c>
       <c r="T12" t="n">
-        <v>933.8659450146204</v>
+        <v>131.9507376187037</v>
       </c>
       <c r="U12" t="n">
-        <v>705.6423267510095</v>
+        <v>131.9507376187037</v>
       </c>
       <c r="V12" t="n">
-        <v>470.4902185192667</v>
+        <v>131.9507376187037</v>
       </c>
       <c r="W12" t="n">
-        <v>227.0414418751666</v>
+        <v>87.37278572049297</v>
       </c>
       <c r="X12" t="n">
-        <v>227.0414418751666</v>
+        <v>42.79483382228227</v>
       </c>
       <c r="Y12" t="n">
-        <v>19.28114311021272</v>
+        <v>42.79483382228227</v>
       </c>
     </row>
     <row r="13">
@@ -5175,76 +5175,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>153.8134336004835</v>
+        <v>48.10852568854899</v>
       </c>
       <c r="C13" t="n">
-        <v>153.8134336004835</v>
+        <v>48.10852568854899</v>
       </c>
       <c r="D13" t="n">
-        <v>153.8134336004835</v>
+        <v>48.10852568854899</v>
       </c>
       <c r="E13" t="n">
-        <v>153.8134336004835</v>
+        <v>48.10852568854899</v>
       </c>
       <c r="F13" t="n">
-        <v>153.8134336004835</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="G13" t="n">
-        <v>19.28114311021272</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="H13" t="n">
-        <v>19.28114311021272</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="I13" t="n">
-        <v>19.28114311021272</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="J13" t="n">
-        <v>19.28114311021272</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="K13" t="n">
-        <v>19.28114311021272</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="L13" t="n">
-        <v>46.5952681179257</v>
+        <v>30.84469879805127</v>
       </c>
       <c r="M13" t="n">
-        <v>85.78330631014788</v>
+        <v>70.03273699027345</v>
       </c>
       <c r="N13" t="n">
-        <v>129.4741569655842</v>
+        <v>113.7235876457098</v>
       </c>
       <c r="O13" t="n">
-        <v>153.8134336004835</v>
+        <v>138.062864280609</v>
       </c>
       <c r="P13" t="n">
-        <v>153.8134336004835</v>
+        <v>138.062864280609</v>
       </c>
       <c r="Q13" t="n">
-        <v>153.8134336004835</v>
+        <v>137.2644294849704</v>
       </c>
       <c r="R13" t="n">
-        <v>153.8134336004835</v>
+        <v>137.2644294849704</v>
       </c>
       <c r="S13" t="n">
-        <v>153.8134336004835</v>
+        <v>137.2644294849704</v>
       </c>
       <c r="T13" t="n">
-        <v>153.8134336004835</v>
+        <v>92.68647758675968</v>
       </c>
       <c r="U13" t="n">
-        <v>153.8134336004835</v>
+        <v>92.68647758675968</v>
       </c>
       <c r="V13" t="n">
-        <v>153.8134336004835</v>
+        <v>48.10852568854899</v>
       </c>
       <c r="W13" t="n">
-        <v>153.8134336004835</v>
+        <v>48.10852568854899</v>
       </c>
       <c r="X13" t="n">
-        <v>153.8134336004835</v>
+        <v>48.10852568854899</v>
       </c>
       <c r="Y13" t="n">
-        <v>153.8134336004835</v>
+        <v>48.10852568854899</v>
       </c>
     </row>
     <row r="14">
@@ -5254,76 +5254,76 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>274.7999090013961</v>
+        <v>92.68647758675968</v>
       </c>
       <c r="C14" t="n">
-        <v>274.7999090013961</v>
+        <v>92.68647758675968</v>
       </c>
       <c r="D14" t="n">
-        <v>274.7999090013961</v>
+        <v>92.68647758675968</v>
       </c>
       <c r="E14" t="n">
-        <v>274.7999090013961</v>
+        <v>92.68647758675968</v>
       </c>
       <c r="F14" t="n">
-        <v>31.35113235729608</v>
+        <v>48.10852568854899</v>
       </c>
       <c r="G14" t="n">
-        <v>31.35113235729608</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="H14" t="n">
-        <v>31.35113235729608</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="I14" t="n">
-        <v>31.35113235729608</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="J14" t="n">
-        <v>19.28114311021272</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="K14" t="n">
-        <v>122.2961490211351</v>
+        <v>47.22142444577459</v>
       </c>
       <c r="L14" t="n">
-        <v>302.3720006057937</v>
+        <v>90.91227510121089</v>
       </c>
       <c r="M14" t="n">
-        <v>519.3476278686978</v>
+        <v>90.91227510121089</v>
       </c>
       <c r="N14" t="n">
-        <v>725.2021500759372</v>
+        <v>90.91227510121089</v>
       </c>
       <c r="O14" t="n">
-        <v>874.3971002185853</v>
+        <v>132.8378388614781</v>
       </c>
       <c r="P14" t="n">
-        <v>964.0571555106362</v>
+        <v>176.5286895169144</v>
       </c>
       <c r="Q14" t="n">
-        <v>953.9655401424092</v>
+        <v>166.4370741486873</v>
       </c>
       <c r="R14" t="n">
-        <v>953.9655401424092</v>
+        <v>166.4370741486873</v>
       </c>
       <c r="S14" t="n">
-        <v>742.8341567219593</v>
+        <v>166.4370741486873</v>
       </c>
       <c r="T14" t="n">
-        <v>517.4848137278872</v>
+        <v>121.8591222504766</v>
       </c>
       <c r="U14" t="n">
-        <v>517.4848137278872</v>
+        <v>121.8591222504766</v>
       </c>
       <c r="V14" t="n">
-        <v>517.4848137278872</v>
+        <v>121.8591222504766</v>
       </c>
       <c r="W14" t="n">
-        <v>517.4848137278872</v>
+        <v>121.8591222504766</v>
       </c>
       <c r="X14" t="n">
-        <v>517.4848137278872</v>
+        <v>121.8591222504766</v>
       </c>
       <c r="Y14" t="n">
-        <v>517.4848137278872</v>
+        <v>92.68647758675968</v>
       </c>
     </row>
     <row r="15">
@@ -5333,76 +5333,76 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>19.28114311021272</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="C15" t="n">
-        <v>19.28114311021272</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="D15" t="n">
-        <v>19.28114311021272</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="E15" t="n">
-        <v>19.28114311021272</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="F15" t="n">
-        <v>19.28114311021272</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="G15" t="n">
-        <v>19.28114311021272</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="H15" t="n">
-        <v>19.28114311021272</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="I15" t="n">
-        <v>19.28114311021272</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="J15" t="n">
-        <v>19.28114311021272</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="K15" t="n">
-        <v>144.6387031680501</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="L15" t="n">
-        <v>374.6018090363993</v>
+        <v>47.22142444577459</v>
       </c>
       <c r="M15" t="n">
-        <v>613.2059550252818</v>
+        <v>47.22142444577459</v>
       </c>
       <c r="N15" t="n">
-        <v>851.8101010141643</v>
+        <v>47.22142444577459</v>
       </c>
       <c r="O15" t="n">
-        <v>964.0571555106362</v>
+        <v>90.91227510121089</v>
       </c>
       <c r="P15" t="n">
-        <v>964.0571555106362</v>
+        <v>134.6031257566472</v>
       </c>
       <c r="Q15" t="n">
-        <v>964.0571555106362</v>
+        <v>176.5286895169144</v>
       </c>
       <c r="R15" t="n">
-        <v>933.8659450146204</v>
+        <v>176.5286895169144</v>
       </c>
       <c r="S15" t="n">
-        <v>933.8659450146204</v>
+        <v>176.5286895169144</v>
       </c>
       <c r="T15" t="n">
-        <v>933.8659450146204</v>
+        <v>176.5286895169144</v>
       </c>
       <c r="U15" t="n">
-        <v>705.6423267510095</v>
+        <v>131.9507376187037</v>
       </c>
       <c r="V15" t="n">
-        <v>470.4902185192667</v>
+        <v>87.37278572049297</v>
       </c>
       <c r="W15" t="n">
-        <v>227.0414418751666</v>
+        <v>42.79483382228227</v>
       </c>
       <c r="X15" t="n">
-        <v>227.0414418751666</v>
+        <v>42.79483382228227</v>
       </c>
       <c r="Y15" t="n">
-        <v>19.28114311021272</v>
+        <v>3.530573790338288</v>
       </c>
     </row>
     <row r="16">
@@ -5412,76 +5412,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>19.28114311021272</v>
+        <v>138.062864280609</v>
       </c>
       <c r="C16" t="n">
-        <v>19.28114311021272</v>
+        <v>138.062864280609</v>
       </c>
       <c r="D16" t="n">
-        <v>19.28114311021272</v>
+        <v>93.48491238239833</v>
       </c>
       <c r="E16" t="n">
-        <v>19.28114311021272</v>
+        <v>48.90696048418764</v>
       </c>
       <c r="F16" t="n">
-        <v>19.28114311021272</v>
+        <v>4.329008585976936</v>
       </c>
       <c r="G16" t="n">
-        <v>19.28114311021272</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="H16" t="n">
-        <v>19.28114311021272</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="I16" t="n">
-        <v>19.28114311021272</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="J16" t="n">
-        <v>19.28114311021272</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="K16" t="n">
-        <v>19.28114311021272</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="L16" t="n">
-        <v>46.5952681179257</v>
+        <v>30.84469879805127</v>
       </c>
       <c r="M16" t="n">
-        <v>85.78330631014788</v>
+        <v>70.03273699027345</v>
       </c>
       <c r="N16" t="n">
-        <v>129.4741569655842</v>
+        <v>113.7235876457098</v>
       </c>
       <c r="O16" t="n">
-        <v>153.8134336004835</v>
+        <v>138.062864280609</v>
       </c>
       <c r="P16" t="n">
-        <v>153.8134336004835</v>
+        <v>138.062864280609</v>
       </c>
       <c r="Q16" t="n">
-        <v>153.8134336004835</v>
+        <v>138.062864280609</v>
       </c>
       <c r="R16" t="n">
-        <v>19.28114311021272</v>
+        <v>138.062864280609</v>
       </c>
       <c r="S16" t="n">
-        <v>19.28114311021272</v>
+        <v>138.062864280609</v>
       </c>
       <c r="T16" t="n">
-        <v>19.28114311021272</v>
+        <v>138.062864280609</v>
       </c>
       <c r="U16" t="n">
-        <v>19.28114311021272</v>
+        <v>138.062864280609</v>
       </c>
       <c r="V16" t="n">
-        <v>19.28114311021272</v>
+        <v>138.062864280609</v>
       </c>
       <c r="W16" t="n">
-        <v>19.28114311021272</v>
+        <v>138.062864280609</v>
       </c>
       <c r="X16" t="n">
-        <v>19.28114311021272</v>
+        <v>138.062864280609</v>
       </c>
       <c r="Y16" t="n">
-        <v>19.28114311021272</v>
+        <v>138.062864280609</v>
       </c>
     </row>
     <row r="17">
@@ -5503,10 +5503,10 @@
         <v>262.7299197543128</v>
       </c>
       <c r="F17" t="n">
-        <v>262.7299197543128</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G17" t="n">
-        <v>262.7299197543128</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H17" t="n">
         <v>19.28114311021272</v>
@@ -5542,7 +5542,7 @@
         <v>812.6742080953335</v>
       </c>
       <c r="S17" t="n">
-        <v>731.528039392485</v>
+        <v>601.5428246748836</v>
       </c>
       <c r="T17" t="n">
         <v>506.1786963984129</v>
@@ -5554,10 +5554,10 @@
         <v>506.1786963984129</v>
       </c>
       <c r="W17" t="n">
-        <v>262.7299197543128</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="X17" t="n">
-        <v>262.7299197543128</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="Y17" t="n">
         <v>262.7299197543128</v>
@@ -5570,22 +5570,22 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>384.2867411876791</v>
+        <v>327.4530077769195</v>
       </c>
       <c r="C18" t="n">
-        <v>384.2867411876791</v>
+        <v>327.4530077769195</v>
       </c>
       <c r="D18" t="n">
-        <v>384.2867411876791</v>
+        <v>178.5185981156682</v>
       </c>
       <c r="E18" t="n">
-        <v>384.2867411876791</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F18" t="n">
-        <v>237.752183214564</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G18" t="n">
-        <v>132.6502787026334</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H18" t="n">
         <v>19.28114311021272</v>
@@ -5603,10 +5603,10 @@
         <v>374.6018090363993</v>
       </c>
       <c r="M18" t="n">
-        <v>486.8488635328713</v>
+        <v>613.2059550252818</v>
       </c>
       <c r="N18" t="n">
-        <v>725.4530095217538</v>
+        <v>851.8101010141643</v>
       </c>
       <c r="O18" t="n">
         <v>964.0571555106362</v>
@@ -5624,22 +5624,22 @@
         <v>862.8876260635219</v>
       </c>
       <c r="T18" t="n">
-        <v>862.8876260635219</v>
+        <v>660.701031422288</v>
       </c>
       <c r="U18" t="n">
-        <v>862.8876260635219</v>
+        <v>660.701031422288</v>
       </c>
       <c r="V18" t="n">
-        <v>627.7355178317791</v>
+        <v>660.701031422288</v>
       </c>
       <c r="W18" t="n">
-        <v>384.2867411876791</v>
+        <v>417.2522547781879</v>
       </c>
       <c r="X18" t="n">
-        <v>384.2867411876791</v>
+        <v>327.4530077769195</v>
       </c>
       <c r="Y18" t="n">
-        <v>384.2867411876791</v>
+        <v>327.4530077769195</v>
       </c>
     </row>
     <row r="19">
@@ -5728,19 +5728,19 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>262.7299197543128</v>
+        <v>241.7186438601369</v>
       </c>
       <c r="C20" t="n">
-        <v>262.7299197543128</v>
+        <v>241.7186438601369</v>
       </c>
       <c r="D20" t="n">
-        <v>262.7299197543128</v>
+        <v>241.7186438601369</v>
       </c>
       <c r="E20" t="n">
-        <v>262.7299197543128</v>
+        <v>241.7186438601369</v>
       </c>
       <c r="F20" t="n">
-        <v>262.7299197543128</v>
+        <v>241.7186438601369</v>
       </c>
       <c r="G20" t="n">
         <v>19.28114311021272</v>
@@ -5773,31 +5773,31 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Q20" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="R20" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="S20" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="T20" t="n">
-        <v>749.627473042513</v>
+        <v>728.6161971483371</v>
       </c>
       <c r="U20" t="n">
-        <v>749.627473042513</v>
+        <v>728.6161971483371</v>
       </c>
       <c r="V20" t="n">
-        <v>749.627473042513</v>
+        <v>728.6161971483371</v>
       </c>
       <c r="W20" t="n">
-        <v>749.627473042513</v>
+        <v>728.6161971483371</v>
       </c>
       <c r="X20" t="n">
-        <v>749.627473042513</v>
+        <v>728.6161971483371</v>
       </c>
       <c r="Y20" t="n">
-        <v>506.1786963984129</v>
+        <v>485.167420504237</v>
       </c>
     </row>
     <row r="21">
@@ -5807,76 +5807,76 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>306.9463781888485</v>
+        <v>277.6959718698396</v>
       </c>
       <c r="C21" t="n">
-        <v>306.9463781888485</v>
+        <v>277.6959718698396</v>
       </c>
       <c r="D21" t="n">
-        <v>158.0119685275972</v>
+        <v>277.6959718698396</v>
       </c>
       <c r="E21" t="n">
-        <v>158.0119685275972</v>
+        <v>223.7040404982626</v>
       </c>
       <c r="F21" t="n">
-        <v>158.0119685275972</v>
+        <v>223.7040404982626</v>
       </c>
       <c r="G21" t="n">
-        <v>19.28114311021272</v>
+        <v>223.7040404982626</v>
       </c>
       <c r="H21" t="n">
-        <v>19.28114311021272</v>
+        <v>110.334904905842</v>
       </c>
       <c r="I21" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="J21" t="n">
         <v>19.28114311021272</v>
       </c>
       <c r="K21" t="n">
-        <v>144.6387031680501</v>
+        <v>65.60123993063803</v>
       </c>
       <c r="L21" t="n">
-        <v>374.6018090363993</v>
+        <v>65.60123993063803</v>
       </c>
       <c r="M21" t="n">
-        <v>473.4149733950735</v>
+        <v>304.2053859195205</v>
       </c>
       <c r="N21" t="n">
-        <v>712.019119383956</v>
+        <v>542.809531908403</v>
       </c>
       <c r="O21" t="n">
-        <v>712.019119383956</v>
+        <v>781.4136778972854</v>
       </c>
       <c r="P21" t="n">
-        <v>894.6625969973069</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Q21" t="n">
         <v>964.0571555106362</v>
       </c>
       <c r="R21" t="n">
-        <v>862.8876260635219</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S21" t="n">
-        <v>862.8876260635219</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T21" t="n">
-        <v>862.8876260635219</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U21" t="n">
-        <v>862.8876260635219</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="V21" t="n">
-        <v>627.7355178317791</v>
+        <v>728.9050472788936</v>
       </c>
       <c r="W21" t="n">
-        <v>384.2867411876791</v>
+        <v>485.4562706347935</v>
       </c>
       <c r="X21" t="n">
-        <v>384.2867411876791</v>
+        <v>485.4562706347935</v>
       </c>
       <c r="Y21" t="n">
-        <v>384.2867411876791</v>
+        <v>277.6959718698396</v>
       </c>
     </row>
     <row r="22">
@@ -5946,7 +5946,7 @@
         <v>153.8134336004835</v>
       </c>
       <c r="V22" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="W22" t="n">
         <v>19.28114311021272</v>
@@ -5965,25 +5965,25 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>19.28114311021272</v>
+        <v>509.4769954460863</v>
       </c>
       <c r="C23" t="n">
-        <v>19.28114311021272</v>
+        <v>509.4769954460863</v>
       </c>
       <c r="D23" t="n">
-        <v>19.28114311021272</v>
+        <v>509.4769954460863</v>
       </c>
       <c r="E23" t="n">
-        <v>19.28114311021272</v>
+        <v>509.4769954460863</v>
       </c>
       <c r="F23" t="n">
-        <v>19.28114311021272</v>
+        <v>509.4769954460863</v>
       </c>
       <c r="G23" t="n">
-        <v>19.28114311021272</v>
+        <v>266.0282188019862</v>
       </c>
       <c r="H23" t="n">
-        <v>19.28114311021272</v>
+        <v>22.57944215788615</v>
       </c>
       <c r="I23" t="n">
         <v>19.28114311021272</v>
@@ -6010,31 +6010,31 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Q23" t="n">
-        <v>953.9655401424092</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="R23" t="n">
-        <v>802.5825927271064</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S23" t="n">
-        <v>749.627473042513</v>
+        <v>752.9257720901863</v>
       </c>
       <c r="T23" t="n">
-        <v>749.627473042513</v>
+        <v>752.9257720901863</v>
       </c>
       <c r="U23" t="n">
-        <v>506.1786963984129</v>
+        <v>752.9257720901863</v>
       </c>
       <c r="V23" t="n">
-        <v>262.7299197543128</v>
+        <v>509.4769954460863</v>
       </c>
       <c r="W23" t="n">
-        <v>262.7299197543128</v>
+        <v>509.4769954460863</v>
       </c>
       <c r="X23" t="n">
-        <v>19.28114311021272</v>
+        <v>509.4769954460863</v>
       </c>
       <c r="Y23" t="n">
-        <v>19.28114311021272</v>
+        <v>509.4769954460863</v>
       </c>
     </row>
     <row r="24">
@@ -6044,76 +6044,76 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C24" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D24" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E24" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F24" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G24" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H24" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I24" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J24" t="n">
         <v>19.28114311021272</v>
       </c>
       <c r="K24" t="n">
-        <v>144.6387031680501</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L24" t="n">
-        <v>374.6018090363993</v>
+        <v>249.2442489785619</v>
       </c>
       <c r="M24" t="n">
-        <v>613.2059550252818</v>
+        <v>487.8483949674443</v>
       </c>
       <c r="N24" t="n">
-        <v>851.8101010141643</v>
+        <v>726.4525409563269</v>
       </c>
       <c r="O24" t="n">
-        <v>964.0571555106362</v>
+        <v>894.6625969973069</v>
       </c>
       <c r="P24" t="n">
-        <v>964.0571555106362</v>
+        <v>894.6625969973069</v>
       </c>
       <c r="Q24" t="n">
         <v>964.0571555106362</v>
       </c>
       <c r="R24" t="n">
-        <v>862.8876260635219</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S24" t="n">
-        <v>862.8876260635219</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T24" t="n">
-        <v>862.8876260635219</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U24" t="n">
-        <v>634.6640077999109</v>
+        <v>913.4938269565423</v>
       </c>
       <c r="V24" t="n">
-        <v>399.5118995681682</v>
+        <v>678.3417187247995</v>
       </c>
       <c r="W24" t="n">
-        <v>156.0631229240681</v>
+        <v>434.8929420806995</v>
       </c>
       <c r="X24" t="n">
-        <v>20.03527576299844</v>
+        <v>227.0414418751666</v>
       </c>
       <c r="Y24" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="25">
@@ -6123,16 +6123,16 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C25" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D25" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E25" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F25" t="n">
         <v>19.28114311021272</v>
@@ -6186,13 +6186,13 @@
         <v>153.8134336004835</v>
       </c>
       <c r="W25" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="X25" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="Y25" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="26">
@@ -6202,19 +6202,19 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>262.7299197543128</v>
+        <v>241.7186438601369</v>
       </c>
       <c r="C26" t="n">
-        <v>262.7299197543128</v>
+        <v>241.7186438601369</v>
       </c>
       <c r="D26" t="n">
-        <v>19.28114311021272</v>
+        <v>241.7186438601369</v>
       </c>
       <c r="E26" t="n">
-        <v>19.28114311021272</v>
+        <v>241.7186438601369</v>
       </c>
       <c r="F26" t="n">
-        <v>19.28114311021272</v>
+        <v>241.7186438601369</v>
       </c>
       <c r="G26" t="n">
         <v>19.28114311021272</v>
@@ -6247,31 +6247,31 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Q26" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="R26" t="n">
-        <v>812.6742080953335</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="S26" t="n">
-        <v>601.5428246748836</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="T26" t="n">
-        <v>506.1786963984129</v>
+        <v>728.6161971483371</v>
       </c>
       <c r="U26" t="n">
-        <v>506.1786963984129</v>
+        <v>485.167420504237</v>
       </c>
       <c r="V26" t="n">
-        <v>506.1786963984129</v>
+        <v>241.7186438601369</v>
       </c>
       <c r="W26" t="n">
-        <v>262.7299197543128</v>
+        <v>241.7186438601369</v>
       </c>
       <c r="X26" t="n">
-        <v>262.7299197543128</v>
+        <v>241.7186438601369</v>
       </c>
       <c r="Y26" t="n">
-        <v>262.7299197543128</v>
+        <v>241.7186438601369</v>
       </c>
     </row>
     <row r="27">
@@ -6281,19 +6281,19 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>787.171420448546</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C27" t="n">
-        <v>612.718391167419</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D27" t="n">
-        <v>463.7839815061678</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E27" t="n">
-        <v>304.5465265007123</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F27" t="n">
-        <v>158.0119685275972</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G27" t="n">
         <v>19.28114311021272</v>
@@ -6308,49 +6308,49 @@
         <v>19.28114311021272</v>
       </c>
       <c r="K27" t="n">
-        <v>19.28114311021272</v>
+        <v>144.6387031680501</v>
       </c>
       <c r="L27" t="n">
-        <v>19.28114311021272</v>
+        <v>374.6018090363993</v>
       </c>
       <c r="M27" t="n">
-        <v>257.8852890990952</v>
+        <v>374.6018090363993</v>
       </c>
       <c r="N27" t="n">
-        <v>496.4894350879777</v>
+        <v>542.809531908403</v>
       </c>
       <c r="O27" t="n">
-        <v>712.019119383956</v>
+        <v>781.4136778972854</v>
       </c>
       <c r="P27" t="n">
-        <v>894.6625969973069</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Q27" t="n">
         <v>964.0571555106362</v>
       </c>
       <c r="R27" t="n">
-        <v>862.8876260635219</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S27" t="n">
-        <v>862.8876260635219</v>
+        <v>933.9571464551993</v>
       </c>
       <c r="T27" t="n">
-        <v>787.171420448546</v>
+        <v>933.9571464551993</v>
       </c>
       <c r="U27" t="n">
-        <v>787.171420448546</v>
+        <v>705.7335281915883</v>
       </c>
       <c r="V27" t="n">
-        <v>787.171420448546</v>
+        <v>470.5814199598456</v>
       </c>
       <c r="W27" t="n">
-        <v>787.171420448546</v>
+        <v>227.1326433157456</v>
       </c>
       <c r="X27" t="n">
-        <v>787.171420448546</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="Y27" t="n">
-        <v>787.171420448546</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="28">
@@ -6360,13 +6360,13 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C28" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D28" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E28" t="n">
         <v>19.28114311021272</v>
@@ -6423,13 +6423,13 @@
         <v>153.8134336004835</v>
       </c>
       <c r="W28" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="X28" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="Y28" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="29">
@@ -6493,13 +6493,13 @@
         <v>953.9655401424092</v>
       </c>
       <c r="T29" t="n">
-        <v>953.9655401424092</v>
+        <v>728.6161971483371</v>
       </c>
       <c r="U29" t="n">
-        <v>953.9655401424092</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="V29" t="n">
-        <v>749.627473042513</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="W29" t="n">
         <v>506.1786963984129</v>
@@ -6518,25 +6518,25 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>862.8876260635219</v>
+        <v>446.0215048700907</v>
       </c>
       <c r="C30" t="n">
-        <v>817.1412885554689</v>
+        <v>446.0215048700907</v>
       </c>
       <c r="D30" t="n">
-        <v>668.2068788942177</v>
+        <v>305.3006591534979</v>
       </c>
       <c r="E30" t="n">
-        <v>508.9694238887622</v>
+        <v>305.3006591534979</v>
       </c>
       <c r="F30" t="n">
-        <v>362.4348659156472</v>
+        <v>158.7661011803829</v>
       </c>
       <c r="G30" t="n">
-        <v>223.7040404982626</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="H30" t="n">
-        <v>110.334904905842</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="I30" t="n">
         <v>20.03527576299844</v>
@@ -6551,16 +6551,16 @@
         <v>249.2442489785619</v>
       </c>
       <c r="M30" t="n">
-        <v>487.8483949674443</v>
+        <v>473.4149733950735</v>
       </c>
       <c r="N30" t="n">
-        <v>542.809531908403</v>
+        <v>473.4149733950735</v>
       </c>
       <c r="O30" t="n">
-        <v>781.4136778972854</v>
+        <v>712.019119383956</v>
       </c>
       <c r="P30" t="n">
-        <v>964.0571555106362</v>
+        <v>894.6625969973069</v>
       </c>
       <c r="Q30" t="n">
         <v>964.0571555106362</v>
@@ -6569,25 +6569,25 @@
         <v>862.8876260635219</v>
       </c>
       <c r="S30" t="n">
-        <v>862.8876260635219</v>
+        <v>689.4702815141908</v>
       </c>
       <c r="T30" t="n">
-        <v>862.8876260635219</v>
+        <v>689.4702815141908</v>
       </c>
       <c r="U30" t="n">
-        <v>862.8876260635219</v>
+        <v>689.4702815141908</v>
       </c>
       <c r="V30" t="n">
-        <v>862.8876260635219</v>
+        <v>689.4702815141908</v>
       </c>
       <c r="W30" t="n">
-        <v>862.8876260635219</v>
+        <v>446.0215048700907</v>
       </c>
       <c r="X30" t="n">
-        <v>862.8876260635219</v>
+        <v>446.0215048700907</v>
       </c>
       <c r="Y30" t="n">
-        <v>862.8876260635219</v>
+        <v>446.0215048700907</v>
       </c>
     </row>
     <row r="31">
@@ -6654,10 +6654,10 @@
         <v>153.8134336004835</v>
       </c>
       <c r="U31" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="V31" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="W31" t="n">
         <v>19.28114311021272</v>
@@ -6676,22 +6676,22 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>366.1018663125844</v>
+        <v>485.167420504237</v>
       </c>
       <c r="C32" t="n">
-        <v>366.1018663125844</v>
+        <v>485.167420504237</v>
       </c>
       <c r="D32" t="n">
-        <v>366.1018663125844</v>
+        <v>485.167420504237</v>
       </c>
       <c r="E32" t="n">
-        <v>366.1018663125844</v>
+        <v>485.167420504237</v>
       </c>
       <c r="F32" t="n">
-        <v>366.1018663125844</v>
+        <v>485.167420504237</v>
       </c>
       <c r="G32" t="n">
-        <v>122.6530896684844</v>
+        <v>241.7186438601369</v>
       </c>
       <c r="H32" t="n">
         <v>19.28114311021272</v>
@@ -6724,28 +6724,28 @@
         <v>953.9655401424092</v>
       </c>
       <c r="R32" t="n">
-        <v>802.5825927271064</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="S32" t="n">
-        <v>591.4512093066566</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="T32" t="n">
-        <v>366.1018663125844</v>
+        <v>728.6161971483371</v>
       </c>
       <c r="U32" t="n">
-        <v>366.1018663125844</v>
+        <v>485.167420504237</v>
       </c>
       <c r="V32" t="n">
-        <v>366.1018663125844</v>
+        <v>485.167420504237</v>
       </c>
       <c r="W32" t="n">
-        <v>366.1018663125844</v>
+        <v>485.167420504237</v>
       </c>
       <c r="X32" t="n">
-        <v>366.1018663125844</v>
+        <v>485.167420504237</v>
       </c>
       <c r="Y32" t="n">
-        <v>366.1018663125844</v>
+        <v>485.167420504237</v>
       </c>
     </row>
     <row r="33">
@@ -6755,28 +6755,28 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>85.06963004479587</v>
+        <v>451.2235123993538</v>
       </c>
       <c r="C33" t="n">
-        <v>20.03527576299844</v>
+        <v>451.2235123993538</v>
       </c>
       <c r="D33" t="n">
-        <v>20.03527576299844</v>
+        <v>417.9156620931329</v>
       </c>
       <c r="E33" t="n">
-        <v>20.03527576299844</v>
+        <v>417.9156620931329</v>
       </c>
       <c r="F33" t="n">
-        <v>20.03527576299844</v>
+        <v>271.3811041200179</v>
       </c>
       <c r="G33" t="n">
-        <v>20.03527576299844</v>
+        <v>132.6502787026334</v>
       </c>
       <c r="H33" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I33" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J33" t="n">
         <v>19.28114311021272</v>
@@ -6788,13 +6788,13 @@
         <v>374.6018090363993</v>
       </c>
       <c r="M33" t="n">
-        <v>613.2059550252818</v>
+        <v>542.809531908403</v>
       </c>
       <c r="N33" t="n">
-        <v>851.8101010141643</v>
+        <v>542.809531908403</v>
       </c>
       <c r="O33" t="n">
-        <v>964.0571555106362</v>
+        <v>781.4136778972854</v>
       </c>
       <c r="P33" t="n">
         <v>964.0571555106362</v>
@@ -6803,28 +6803,28 @@
         <v>964.0571555106362</v>
       </c>
       <c r="R33" t="n">
-        <v>964.0571555106362</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="S33" t="n">
-        <v>964.0571555106362</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="T33" t="n">
-        <v>964.0571555106362</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="U33" t="n">
-        <v>735.8335372470253</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="V33" t="n">
-        <v>500.6814290152826</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="W33" t="n">
-        <v>500.6814290152826</v>
+        <v>619.4388494194218</v>
       </c>
       <c r="X33" t="n">
-        <v>292.8299288097498</v>
+        <v>619.4388494194218</v>
       </c>
       <c r="Y33" t="n">
-        <v>85.06963004479587</v>
+        <v>619.4388494194218</v>
       </c>
     </row>
     <row r="34">
@@ -6882,10 +6882,10 @@
         <v>153.8134336004835</v>
       </c>
       <c r="R34" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="S34" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="T34" t="n">
         <v>19.28114311021272</v>
@@ -6913,28 +6913,28 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>518.2486856454962</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C35" t="n">
-        <v>518.2486856454962</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D35" t="n">
-        <v>518.2486856454962</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E35" t="n">
-        <v>518.2486856454962</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F35" t="n">
-        <v>518.2486856454962</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G35" t="n">
-        <v>274.7999090013961</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H35" t="n">
-        <v>31.35113235729608</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I35" t="n">
-        <v>31.35113235729608</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J35" t="n">
         <v>19.28114311021272</v>
@@ -6958,31 +6958,31 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Q35" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="R35" t="n">
-        <v>812.6742080953335</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="S35" t="n">
-        <v>743.5980286395683</v>
+        <v>591.4512093066566</v>
       </c>
       <c r="T35" t="n">
-        <v>518.2486856454962</v>
+        <v>366.1018663125844</v>
       </c>
       <c r="U35" t="n">
-        <v>518.2486856454962</v>
+        <v>366.1018663125844</v>
       </c>
       <c r="V35" t="n">
-        <v>518.2486856454962</v>
+        <v>366.1018663125844</v>
       </c>
       <c r="W35" t="n">
-        <v>518.2486856454962</v>
+        <v>122.6530896684844</v>
       </c>
       <c r="X35" t="n">
-        <v>518.2486856454962</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="Y35" t="n">
-        <v>518.2486856454962</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="36">
@@ -6995,25 +6995,25 @@
         <v>619.4388494194218</v>
       </c>
       <c r="C36" t="n">
-        <v>557.2375949899332</v>
+        <v>619.4388494194218</v>
       </c>
       <c r="D36" t="n">
-        <v>408.3031853286819</v>
+        <v>470.5044397581705</v>
       </c>
       <c r="E36" t="n">
-        <v>249.0657303232264</v>
+        <v>417.9156620931329</v>
       </c>
       <c r="F36" t="n">
-        <v>249.0657303232264</v>
+        <v>271.3811041200179</v>
       </c>
       <c r="G36" t="n">
-        <v>110.334904905842</v>
+        <v>132.6502787026334</v>
       </c>
       <c r="H36" t="n">
-        <v>110.334904905842</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I36" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J36" t="n">
         <v>19.28114311021272</v>
@@ -7022,19 +7022,19 @@
         <v>144.6387031680501</v>
       </c>
       <c r="L36" t="n">
-        <v>374.6018090363993</v>
+        <v>144.6387031680501</v>
       </c>
       <c r="M36" t="n">
-        <v>613.2059550252818</v>
+        <v>383.2428491569326</v>
       </c>
       <c r="N36" t="n">
-        <v>851.8101010141643</v>
+        <v>621.8469951458151</v>
       </c>
       <c r="O36" t="n">
-        <v>964.0571555106362</v>
+        <v>712.019119383956</v>
       </c>
       <c r="P36" t="n">
-        <v>964.0571555106362</v>
+        <v>894.6625969973069</v>
       </c>
       <c r="Q36" t="n">
         <v>964.0571555106362</v>
@@ -7116,22 +7116,22 @@
         <v>153.8134336004835</v>
       </c>
       <c r="Q37" t="n">
-        <v>153.8134336004835</v>
+        <v>66.78106667958005</v>
       </c>
       <c r="R37" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="S37" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="T37" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="U37" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="V37" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="W37" t="n">
         <v>19.28114311021272</v>
@@ -7150,22 +7150,22 @@
         </is>
       </c>
       <c r="B38" t="n">
+        <v>284.1276524520142</v>
+      </c>
+      <c r="C38" t="n">
+        <v>284.1276524520142</v>
+      </c>
+      <c r="D38" t="n">
+        <v>284.1276524520142</v>
+      </c>
+      <c r="E38" t="n">
+        <v>284.1276524520142</v>
+      </c>
+      <c r="F38" t="n">
+        <v>284.1276524520142</v>
+      </c>
+      <c r="G38" t="n">
         <v>262.7299197543128</v>
-      </c>
-      <c r="C38" t="n">
-        <v>262.7299197543128</v>
-      </c>
-      <c r="D38" t="n">
-        <v>262.7299197543128</v>
-      </c>
-      <c r="E38" t="n">
-        <v>262.7299197543128</v>
-      </c>
-      <c r="F38" t="n">
-        <v>262.7299197543128</v>
-      </c>
-      <c r="G38" t="n">
-        <v>19.28114311021272</v>
       </c>
       <c r="H38" t="n">
         <v>19.28114311021272</v>
@@ -7195,31 +7195,31 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Q38" t="n">
-        <v>953.9655401424092</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="R38" t="n">
-        <v>953.9655401424092</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S38" t="n">
-        <v>953.9655401424092</v>
+        <v>752.9257720901863</v>
       </c>
       <c r="T38" t="n">
-        <v>728.6161971483371</v>
+        <v>527.5764290961142</v>
       </c>
       <c r="U38" t="n">
-        <v>506.1786963984129</v>
+        <v>284.1276524520142</v>
       </c>
       <c r="V38" t="n">
-        <v>506.1786963984129</v>
+        <v>284.1276524520142</v>
       </c>
       <c r="W38" t="n">
-        <v>506.1786963984129</v>
+        <v>284.1276524520142</v>
       </c>
       <c r="X38" t="n">
-        <v>506.1786963984129</v>
+        <v>284.1276524520142</v>
       </c>
       <c r="Y38" t="n">
-        <v>506.1786963984129</v>
+        <v>284.1276524520142</v>
       </c>
     </row>
     <row r="39">
@@ -7229,22 +7229,22 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>440.8221433693402</v>
+        <v>353.3011080883284</v>
       </c>
       <c r="C39" t="n">
-        <v>440.8221433693402</v>
+        <v>178.8480788072013</v>
       </c>
       <c r="D39" t="n">
-        <v>291.8877337080889</v>
+        <v>178.8480788072013</v>
       </c>
       <c r="E39" t="n">
-        <v>132.6502787026334</v>
+        <v>19.61062380174585</v>
       </c>
       <c r="F39" t="n">
-        <v>132.6502787026334</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G39" t="n">
-        <v>132.6502787026334</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H39" t="n">
         <v>19.28114311021272</v>
@@ -7262,43 +7262,43 @@
         <v>374.6018090363993</v>
       </c>
       <c r="M39" t="n">
-        <v>542.809531908403</v>
+        <v>613.2059550252818</v>
       </c>
       <c r="N39" t="n">
-        <v>542.809531908403</v>
+        <v>851.8101010141643</v>
       </c>
       <c r="O39" t="n">
-        <v>781.4136778972854</v>
+        <v>894.6625969973069</v>
       </c>
       <c r="P39" t="n">
-        <v>964.0571555106362</v>
+        <v>894.6625969973069</v>
       </c>
       <c r="Q39" t="n">
         <v>964.0571555106362</v>
       </c>
       <c r="R39" t="n">
-        <v>862.8876260635219</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S39" t="n">
-        <v>811.2240750306421</v>
+        <v>790.6398109613051</v>
       </c>
       <c r="T39" t="n">
-        <v>609.0374803894082</v>
+        <v>588.4532163200711</v>
       </c>
       <c r="U39" t="n">
-        <v>609.0374803894082</v>
+        <v>588.4532163200711</v>
       </c>
       <c r="V39" t="n">
-        <v>609.0374803894082</v>
+        <v>353.3011080883284</v>
       </c>
       <c r="W39" t="n">
-        <v>609.0374803894082</v>
+        <v>353.3011080883284</v>
       </c>
       <c r="X39" t="n">
-        <v>609.0374803894082</v>
+        <v>353.3011080883284</v>
       </c>
       <c r="Y39" t="n">
-        <v>609.0374803894082</v>
+        <v>353.3011080883284</v>
       </c>
     </row>
     <row r="40">
@@ -7368,7 +7368,7 @@
         <v>153.8134336004835</v>
       </c>
       <c r="V40" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="W40" t="n">
         <v>19.28114311021272</v>
@@ -7387,25 +7387,25 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>475.3318284112885</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="C41" t="n">
-        <v>475.3318284112885</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="D41" t="n">
-        <v>475.3318284112885</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="E41" t="n">
-        <v>475.3318284112885</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="F41" t="n">
-        <v>475.3318284112885</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="G41" t="n">
-        <v>231.8830517671884</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H41" t="n">
-        <v>231.8830517671884</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I41" t="n">
         <v>19.28114311021272</v>
@@ -7435,28 +7435,28 @@
         <v>964.0571555106362</v>
       </c>
       <c r="R41" t="n">
-        <v>964.0571555106362</v>
+        <v>812.6742080953335</v>
       </c>
       <c r="S41" t="n">
-        <v>964.0571555106362</v>
+        <v>601.5428246748836</v>
       </c>
       <c r="T41" t="n">
-        <v>738.7078125165641</v>
+        <v>376.1934816808115</v>
       </c>
       <c r="U41" t="n">
-        <v>738.7078125165641</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="V41" t="n">
-        <v>738.7078125165641</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="W41" t="n">
-        <v>495.259035872464</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="X41" t="n">
-        <v>495.259035872464</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="Y41" t="n">
-        <v>475.3318284112885</v>
+        <v>262.7299197543128</v>
       </c>
     </row>
     <row r="42">
@@ -7466,28 +7466,28 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>19.28114311021272</v>
+        <v>605.8257210593862</v>
       </c>
       <c r="C42" t="n">
-        <v>19.28114311021272</v>
+        <v>431.3726917782591</v>
       </c>
       <c r="D42" t="n">
-        <v>19.28114311021272</v>
+        <v>431.3726917782591</v>
       </c>
       <c r="E42" t="n">
-        <v>19.28114311021272</v>
+        <v>272.1352367728036</v>
       </c>
       <c r="F42" t="n">
-        <v>19.28114311021272</v>
+        <v>272.1352367728036</v>
       </c>
       <c r="G42" t="n">
-        <v>19.28114311021272</v>
+        <v>133.4044113554191</v>
       </c>
       <c r="H42" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="I42" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="J42" t="n">
         <v>19.28114311021272</v>
@@ -7499,10 +7499,10 @@
         <v>374.6018090363993</v>
       </c>
       <c r="M42" t="n">
-        <v>486.8488635328713</v>
+        <v>613.2059550252818</v>
       </c>
       <c r="N42" t="n">
-        <v>725.4530095217538</v>
+        <v>851.8101010141643</v>
       </c>
       <c r="O42" t="n">
         <v>964.0571555106362</v>
@@ -7514,28 +7514,28 @@
         <v>964.0571555106362</v>
       </c>
       <c r="R42" t="n">
-        <v>964.0571555106362</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="S42" t="n">
-        <v>790.6398109613051</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="T42" t="n">
-        <v>726.1056462496665</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="U42" t="n">
-        <v>497.8820279860555</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="V42" t="n">
-        <v>262.7299197543128</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="W42" t="n">
-        <v>19.28114311021272</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="X42" t="n">
-        <v>19.28114311021272</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="Y42" t="n">
-        <v>19.28114311021272</v>
+        <v>774.0410580794542</v>
       </c>
     </row>
     <row r="43">
@@ -7593,19 +7593,19 @@
         <v>153.8134336004835</v>
       </c>
       <c r="R43" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="S43" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="T43" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="U43" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="V43" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="W43" t="n">
         <v>19.28114311021272</v>
@@ -7624,22 +7624,22 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>262.7299197543128</v>
+        <v>376.1934816808115</v>
       </c>
       <c r="C44" t="n">
-        <v>262.7299197543128</v>
+        <v>376.1934816808115</v>
       </c>
       <c r="D44" t="n">
-        <v>262.7299197543128</v>
+        <v>376.1934816808115</v>
       </c>
       <c r="E44" t="n">
-        <v>262.7299197543128</v>
+        <v>376.1934816808115</v>
       </c>
       <c r="F44" t="n">
         <v>262.7299197543128</v>
       </c>
       <c r="G44" t="n">
-        <v>262.7299197543128</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H44" t="n">
         <v>19.28114311021272</v>
@@ -7684,16 +7684,16 @@
         <v>376.1934816808115</v>
       </c>
       <c r="V44" t="n">
-        <v>262.7299197543128</v>
+        <v>376.1934816808115</v>
       </c>
       <c r="W44" t="n">
-        <v>262.7299197543128</v>
+        <v>376.1934816808115</v>
       </c>
       <c r="X44" t="n">
-        <v>262.7299197543128</v>
+        <v>376.1934816808115</v>
       </c>
       <c r="Y44" t="n">
-        <v>262.7299197543128</v>
+        <v>376.1934816808115</v>
       </c>
     </row>
     <row r="45">
@@ -7703,22 +7703,22 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>384.2867411876791</v>
+        <v>726.8416594126254</v>
       </c>
       <c r="C45" t="n">
-        <v>384.2867411876791</v>
+        <v>726.8416594126254</v>
       </c>
       <c r="D45" t="n">
-        <v>384.2867411876791</v>
+        <v>577.9072497513741</v>
       </c>
       <c r="E45" t="n">
-        <v>305.3006591534979</v>
+        <v>418.6697947459187</v>
       </c>
       <c r="F45" t="n">
-        <v>158.7661011803829</v>
+        <v>272.1352367728036</v>
       </c>
       <c r="G45" t="n">
-        <v>20.03527576299844</v>
+        <v>133.4044113554191</v>
       </c>
       <c r="H45" t="n">
         <v>20.03527576299844</v>
@@ -7739,7 +7739,7 @@
         <v>613.2059550252818</v>
       </c>
       <c r="N45" t="n">
-        <v>725.4530095217538</v>
+        <v>851.8101010141643</v>
       </c>
       <c r="O45" t="n">
         <v>964.0571555106362</v>
@@ -7751,28 +7751,28 @@
         <v>964.0571555106362</v>
       </c>
       <c r="R45" t="n">
-        <v>862.8876260635219</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S45" t="n">
-        <v>862.8876260635219</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T45" t="n">
-        <v>862.8876260635219</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U45" t="n">
-        <v>862.8876260635219</v>
+        <v>735.8335372470253</v>
       </c>
       <c r="V45" t="n">
-        <v>627.7355178317791</v>
+        <v>726.8416594126254</v>
       </c>
       <c r="W45" t="n">
-        <v>384.2867411876791</v>
+        <v>726.8416594126254</v>
       </c>
       <c r="X45" t="n">
-        <v>384.2867411876791</v>
+        <v>726.8416594126254</v>
       </c>
       <c r="Y45" t="n">
-        <v>384.2867411876791</v>
+        <v>726.8416594126254</v>
       </c>
     </row>
     <row r="46">
@@ -7782,10 +7782,10 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="C46" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="D46" t="n">
         <v>19.28114311021272</v>
@@ -7845,13 +7845,13 @@
         <v>153.8134336004835</v>
       </c>
       <c r="W46" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="X46" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="Y46" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
     </row>
   </sheetData>
@@ -7981,22 +7981,22 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K2" t="n">
-        <v>324.1454125711647</v>
+        <v>264.2220234242092</v>
       </c>
       <c r="L2" t="n">
-        <v>417.6612145504504</v>
+        <v>278.1154692732874</v>
       </c>
       <c r="M2" t="n">
-        <v>449.5135334928325</v>
+        <v>274.4784056065013</v>
       </c>
       <c r="N2" t="n">
-        <v>437.3469244119842</v>
+        <v>229.4130635965909</v>
       </c>
       <c r="O2" t="n">
-        <v>380.8001812627454</v>
+        <v>230.0982114216867</v>
       </c>
       <c r="P2" t="n">
-        <v>321.7987081714826</v>
+        <v>275.3651681344982</v>
       </c>
       <c r="Q2" t="n">
         <v>212.3149906599047</v>
@@ -8060,25 +8060,25 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K3" t="n">
-        <v>264.4652370125786</v>
+        <v>180.1904932776592</v>
       </c>
       <c r="L3" t="n">
-        <v>370.8403453034592</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M3" t="n">
         <v>142.1340339220183</v>
       </c>
       <c r="N3" t="n">
-        <v>301.248502863135</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O3" t="n">
-        <v>383.6105333221035</v>
+        <v>186.728416823673</v>
       </c>
       <c r="P3" t="n">
-        <v>318.4627686399372</v>
+        <v>178.1065797935588</v>
       </c>
       <c r="Q3" t="n">
-        <v>139.9817740860215</v>
+        <v>184.1139464652501</v>
       </c>
       <c r="R3" t="n">
         <v>45.52166981132082</v>
@@ -8218,22 +8218,22 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K5" t="n">
-        <v>324.1454125711647</v>
+        <v>264.2220234242092</v>
       </c>
       <c r="L5" t="n">
-        <v>417.6612145504504</v>
+        <v>279.8985873492159</v>
       </c>
       <c r="M5" t="n">
-        <v>449.5135334928325</v>
+        <v>230.3462332272727</v>
       </c>
       <c r="N5" t="n">
-        <v>437.3469244119842</v>
+        <v>229.4130635965909</v>
       </c>
       <c r="O5" t="n">
-        <v>380.8001812627454</v>
+        <v>272.4472657249869</v>
       </c>
       <c r="P5" t="n">
-        <v>321.7987081714826</v>
+        <v>275.3651681344982</v>
       </c>
       <c r="Q5" t="n">
         <v>212.3149906599047</v>
@@ -8297,25 +8297,25 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K6" t="n">
-        <v>264.4652370125786</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L6" t="n">
-        <v>138.5543797798742</v>
+        <v>182.6865521591028</v>
       </c>
       <c r="M6" t="n">
-        <v>383.1483227996774</v>
+        <v>186.2662063012469</v>
       </c>
       <c r="N6" t="n">
-        <v>222.4246658592332</v>
+        <v>175.4738844625619</v>
       </c>
       <c r="O6" t="n">
-        <v>383.6105333221035</v>
+        <v>184.9452987477446</v>
       </c>
       <c r="P6" t="n">
-        <v>318.4627686399372</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q6" t="n">
-        <v>210.0772877358491</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R6" t="n">
         <v>45.52166981132082</v>
@@ -8455,22 +8455,22 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K8" t="n">
-        <v>324.1454125711647</v>
+        <v>264.2220234242092</v>
       </c>
       <c r="L8" t="n">
-        <v>417.6612145504504</v>
+        <v>278.1154692732874</v>
       </c>
       <c r="M8" t="n">
-        <v>449.5135334928325</v>
+        <v>230.3462332272727</v>
       </c>
       <c r="N8" t="n">
-        <v>437.3469244119842</v>
+        <v>273.5452359758195</v>
       </c>
       <c r="O8" t="n">
-        <v>380.8001812627454</v>
+        <v>274.2303838009153</v>
       </c>
       <c r="P8" t="n">
-        <v>321.7987081714826</v>
+        <v>231.2329957552695</v>
       </c>
       <c r="Q8" t="n">
         <v>212.3149906599047</v>
@@ -8540,19 +8540,19 @@
         <v>138.5543797798742</v>
       </c>
       <c r="M9" t="n">
-        <v>383.1483227996774</v>
+        <v>186.2662063012469</v>
       </c>
       <c r="N9" t="n">
-        <v>349.0484638974528</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O9" t="n">
-        <v>383.6105333221035</v>
+        <v>184.9452987477446</v>
       </c>
       <c r="P9" t="n">
-        <v>318.4627686399372</v>
+        <v>178.1065797935588</v>
       </c>
       <c r="Q9" t="n">
-        <v>210.0772877358491</v>
+        <v>184.1139464652501</v>
       </c>
       <c r="R9" t="n">
         <v>45.52166981132082</v>
@@ -8692,22 +8692,22 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K11" t="n">
-        <v>324.1454125711647</v>
+        <v>264.2220234242092</v>
       </c>
       <c r="L11" t="n">
-        <v>417.6612145504504</v>
+        <v>279.8985873492159</v>
       </c>
       <c r="M11" t="n">
-        <v>449.5135334928325</v>
+        <v>274.4784056065013</v>
       </c>
       <c r="N11" t="n">
-        <v>437.3469244119842</v>
+        <v>271.7621178998911</v>
       </c>
       <c r="O11" t="n">
-        <v>380.8001812627454</v>
+        <v>230.0982114216867</v>
       </c>
       <c r="P11" t="n">
-        <v>321.7987081714826</v>
+        <v>231.2329957552695</v>
       </c>
       <c r="Q11" t="n">
         <v>212.3149906599047</v>
@@ -8771,25 +8771,25 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K12" t="n">
-        <v>264.4652370125786</v>
+        <v>181.9736113535876</v>
       </c>
       <c r="L12" t="n">
-        <v>229.6373335557741</v>
+        <v>182.6865521591028</v>
       </c>
       <c r="M12" t="n">
-        <v>142.1340339220183</v>
+        <v>186.2662063012469</v>
       </c>
       <c r="N12" t="n">
-        <v>372.3560009609923</v>
+        <v>173.6907663866335</v>
       </c>
       <c r="O12" t="n">
-        <v>383.6105333221035</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P12" t="n">
-        <v>318.4627686399372</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q12" t="n">
-        <v>210.0772877358491</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R12" t="n">
         <v>45.52166981132082</v>
@@ -8929,22 +8929,22 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K14" t="n">
-        <v>324.1454125711647</v>
+        <v>264.2220234242092</v>
       </c>
       <c r="L14" t="n">
-        <v>417.6612145504504</v>
+        <v>279.8985873492159</v>
       </c>
       <c r="M14" t="n">
-        <v>449.5135334928325</v>
+        <v>230.3462332272727</v>
       </c>
       <c r="N14" t="n">
-        <v>437.3469244119842</v>
+        <v>229.4130635965909</v>
       </c>
       <c r="O14" t="n">
-        <v>380.8001812627454</v>
+        <v>272.4472657249869</v>
       </c>
       <c r="P14" t="n">
-        <v>321.7987081714826</v>
+        <v>275.3651681344982</v>
       </c>
       <c r="Q14" t="n">
         <v>212.3149906599047</v>
@@ -9008,25 +9008,25 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K15" t="n">
-        <v>264.4652370125786</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L15" t="n">
-        <v>370.8403453034592</v>
+        <v>182.6865521591028</v>
       </c>
       <c r="M15" t="n">
-        <v>383.1483227996774</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N15" t="n">
-        <v>372.3560009609923</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O15" t="n">
-        <v>255.9771075721939</v>
+        <v>186.728416823673</v>
       </c>
       <c r="P15" t="n">
-        <v>133.9744074143302</v>
+        <v>178.1065797935588</v>
       </c>
       <c r="Q15" t="n">
-        <v>139.9817740860215</v>
+        <v>182.3308283893217</v>
       </c>
       <c r="R15" t="n">
         <v>45.52166981132082</v>
@@ -9251,13 +9251,13 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M18" t="n">
-        <v>255.5148970497678</v>
+        <v>383.1483227996774</v>
       </c>
       <c r="N18" t="n">
         <v>372.3560009609923</v>
       </c>
       <c r="O18" t="n">
-        <v>383.6105333221035</v>
+        <v>255.9771075721939</v>
       </c>
       <c r="P18" t="n">
         <v>133.9744074143302</v>
@@ -9482,25 +9482,25 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K21" t="n">
-        <v>264.4652370125786</v>
+        <v>184.6294155606472</v>
       </c>
       <c r="L21" t="n">
-        <v>370.8403453034592</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M21" t="n">
-        <v>241.9453110519923</v>
+        <v>383.1483227996774</v>
       </c>
       <c r="N21" t="n">
         <v>372.3560009609923</v>
       </c>
       <c r="O21" t="n">
-        <v>142.5962444444444</v>
+        <v>383.6105333221035</v>
       </c>
       <c r="P21" t="n">
         <v>318.4627686399372</v>
       </c>
       <c r="Q21" t="n">
-        <v>210.0772877358491</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R21" t="n">
         <v>45.52166981132082</v>
@@ -9719,7 +9719,7 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K24" t="n">
-        <v>264.4652370125786</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L24" t="n">
         <v>370.8403453034592</v>
@@ -9731,13 +9731,13 @@
         <v>372.3560009609923</v>
       </c>
       <c r="O24" t="n">
-        <v>255.9771075721939</v>
+        <v>312.5053919605859</v>
       </c>
       <c r="P24" t="n">
         <v>133.9744074143302</v>
       </c>
       <c r="Q24" t="n">
-        <v>139.9817740860215</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R24" t="n">
         <v>45.52166981132082</v>
@@ -9956,25 +9956,25 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K27" t="n">
-        <v>137.841438974359</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L27" t="n">
-        <v>138.5543797798742</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M27" t="n">
-        <v>383.1483227996774</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N27" t="n">
-        <v>372.3560009609923</v>
+        <v>301.248502863135</v>
       </c>
       <c r="O27" t="n">
-        <v>360.302996258564</v>
+        <v>383.6105333221035</v>
       </c>
       <c r="P27" t="n">
         <v>318.4627686399372</v>
       </c>
       <c r="Q27" t="n">
-        <v>210.0772877358491</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R27" t="n">
         <v>45.52166981132082</v>
@@ -10199,10 +10199,10 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M30" t="n">
-        <v>383.1483227996774</v>
+        <v>368.5691090902119</v>
       </c>
       <c r="N30" t="n">
-        <v>186.8580120236956</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O30" t="n">
         <v>383.6105333221035</v>
@@ -10211,7 +10211,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q30" t="n">
-        <v>139.9817740860215</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R30" t="n">
         <v>45.52166981132082</v>
@@ -10436,16 +10436,16 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M33" t="n">
-        <v>383.1483227996774</v>
+        <v>312.04082470182</v>
       </c>
       <c r="N33" t="n">
-        <v>372.3560009609923</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O33" t="n">
-        <v>255.9771075721939</v>
+        <v>383.6105333221035</v>
       </c>
       <c r="P33" t="n">
-        <v>133.9744074143302</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q33" t="n">
         <v>139.9817740860215</v>
@@ -10670,7 +10670,7 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L36" t="n">
-        <v>370.8403453034592</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M36" t="n">
         <v>383.1483227996774</v>
@@ -10679,13 +10679,13 @@
         <v>372.3560009609923</v>
       </c>
       <c r="O36" t="n">
-        <v>255.9771075721939</v>
+        <v>233.6791982203443</v>
       </c>
       <c r="P36" t="n">
-        <v>133.9744074143302</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q36" t="n">
-        <v>139.9817740860215</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R36" t="n">
         <v>45.52166981132082</v>
@@ -10825,7 +10825,7 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K38" t="n">
-        <v>324.1454125711648</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L38" t="n">
         <v>417.6612145504504</v>
@@ -10910,19 +10910,19 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M39" t="n">
-        <v>312.04082470182</v>
+        <v>383.1483227996774</v>
       </c>
       <c r="N39" t="n">
-        <v>131.3417120833333</v>
+        <v>372.3560009609923</v>
       </c>
       <c r="O39" t="n">
-        <v>383.6105333221035</v>
+        <v>185.8815939223662</v>
       </c>
       <c r="P39" t="n">
-        <v>318.4627686399372</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q39" t="n">
-        <v>139.9817740860215</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R39" t="n">
         <v>45.52166981132082</v>
@@ -11062,7 +11062,7 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K41" t="n">
-        <v>324.1454125711647</v>
+        <v>324.1454125711648</v>
       </c>
       <c r="L41" t="n">
         <v>417.6612145504504</v>
@@ -11147,13 +11147,13 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M42" t="n">
-        <v>255.5148970497678</v>
+        <v>383.1483227996774</v>
       </c>
       <c r="N42" t="n">
         <v>372.3560009609923</v>
       </c>
       <c r="O42" t="n">
-        <v>383.6105333221035</v>
+        <v>255.9771075721939</v>
       </c>
       <c r="P42" t="n">
         <v>133.9744074143302</v>
@@ -11387,10 +11387,10 @@
         <v>383.1483227996774</v>
       </c>
       <c r="N45" t="n">
-        <v>244.7225752110828</v>
+        <v>372.3560009609923</v>
       </c>
       <c r="O45" t="n">
-        <v>383.6105333221035</v>
+        <v>255.9771075721939</v>
       </c>
       <c r="P45" t="n">
         <v>133.9744074143302</v>
@@ -22546,7 +22546,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>170.4484560200385</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
         <v>365.2728917710076</v>
@@ -22555,16 +22555,16 @@
         <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
-        <v>381.9303700722618</v>
+        <v>353.049451855182</v>
       </c>
       <c r="F2" t="n">
-        <v>406.8760457417114</v>
+        <v>362.7438733624829</v>
       </c>
       <c r="G2" t="n">
-        <v>415.302737515135</v>
+        <v>371.1705651359065</v>
       </c>
       <c r="H2" t="n">
-        <v>339.4748021157671</v>
+        <v>295.3426297365386</v>
       </c>
       <c r="I2" t="n">
         <v>210.4758895704059</v>
@@ -22591,7 +22591,7 @@
         <v>0</v>
       </c>
       <c r="Q2" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R2" t="n">
         <v>149.8691179411497</v>
@@ -22609,13 +22609,13 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
-        <v>108.226679839754</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
-        <v>128.71681180081</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
-        <v>145.2236497783945</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="3">
@@ -22625,7 +22625,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>166.5331836498673</v>
+        <v>127.6615662182428</v>
       </c>
       <c r="C3" t="n">
         <v>172.7084989883157</v>
@@ -22640,7 +22640,7 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G3" t="n">
-        <v>137.3435171632106</v>
+        <v>93.21134478398204</v>
       </c>
       <c r="H3" t="n">
         <v>112.2354442364965</v>
@@ -22673,7 +22673,7 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>0</v>
+        <v>56.02566177341454</v>
       </c>
       <c r="S3" t="n">
         <v>171.6831711038378</v>
@@ -22682,16 +22682,16 @@
         <v>200.1647286948216</v>
       </c>
       <c r="U3" t="n">
-        <v>0</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V3" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W3" t="n">
-        <v>81.03951947102121</v>
+        <v>207.562810781691</v>
       </c>
       <c r="X3" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y3" t="n">
         <v>205.6826957773044</v>
@@ -22716,7 +22716,7 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
-        <v>145.4210480229312</v>
+        <v>144.630597575249</v>
       </c>
       <c r="G4" t="n">
         <v>167.9909793584588</v>
@@ -22749,7 +22749,7 @@
         <v>2.721440735106512</v>
       </c>
       <c r="Q4" t="n">
-        <v>86.16204325169439</v>
+        <v>42.02987087246579</v>
       </c>
       <c r="R4" t="n">
         <v>177.2933913771695</v>
@@ -22761,13 +22761,13 @@
         <v>227.9455894282815</v>
       </c>
       <c r="U4" t="n">
-        <v>286.3190293564909</v>
+        <v>242.1868569772623</v>
       </c>
       <c r="V4" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
-        <v>153.336030751223</v>
+        <v>242.3908259573624</v>
       </c>
       <c r="X4" t="n">
         <v>225.7096553890372</v>
@@ -22783,16 +22783,16 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>342.2575625303454</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
-        <v>124.2586028933485</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
-        <v>113.6687527430239</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>140.9160811946027</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
         <v>406.8760457417114</v>
@@ -22807,7 +22807,7 @@
         <v>210.4758895704059</v>
       </c>
       <c r="J5" t="n">
-        <v>0</v>
+        <v>11.94928935461252</v>
       </c>
       <c r="K5" t="n">
         <v>0</v>
@@ -22831,22 +22831,22 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>0</v>
+        <v>105.7369455619211</v>
       </c>
       <c r="S5" t="n">
         <v>209.0200695862453</v>
       </c>
       <c r="T5" t="n">
-        <v>223.0958495641314</v>
+        <v>178.9636771849028</v>
       </c>
       <c r="U5" t="n">
-        <v>251.3456529078365</v>
+        <v>207.2134805286079</v>
       </c>
       <c r="V5" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
-        <v>349.240968717413</v>
+        <v>320.3600505003333</v>
       </c>
       <c r="X5" t="n">
         <v>369.731100678469</v>
@@ -22868,10 +22868,10 @@
         <v>172.7084989883157</v>
       </c>
       <c r="D6" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E6" t="n">
-        <v>16.71389651957864</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F6" t="n">
         <v>145.0692123933839</v>
@@ -22910,25 +22910,25 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>100.1578341526431</v>
+        <v>56.02566177341454</v>
       </c>
       <c r="S6" t="n">
         <v>171.6831711038378</v>
       </c>
       <c r="T6" t="n">
-        <v>0</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U6" t="n">
-        <v>225.9413820809748</v>
+        <v>187.0697646493503</v>
       </c>
       <c r="V6" t="n">
-        <v>232.8005871494253</v>
+        <v>188.6684147701967</v>
       </c>
       <c r="W6" t="n">
-        <v>10.68069428326055</v>
+        <v>207.562810781691</v>
       </c>
       <c r="X6" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y6" t="n">
         <v>205.6826957773044</v>
@@ -22944,7 +22944,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
-        <v>167.2468210986278</v>
+        <v>166.4563706509456</v>
       </c>
       <c r="D7" t="n">
         <v>148.6154730182124</v>
@@ -22989,16 +22989,16 @@
         <v>86.16204325169439</v>
       </c>
       <c r="R7" t="n">
-        <v>177.2933913771695</v>
+        <v>133.1612189979409</v>
       </c>
       <c r="S7" t="n">
-        <v>90.82963045160423</v>
+        <v>224.0165980369723</v>
       </c>
       <c r="T7" t="n">
         <v>227.9455894282815</v>
       </c>
       <c r="U7" t="n">
-        <v>286.3190293564909</v>
+        <v>242.1868569772623</v>
       </c>
       <c r="V7" t="n">
         <v>252.137643323828</v>
@@ -23010,7 +23010,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
-        <v>218.5846533520948</v>
+        <v>174.4524809728662</v>
       </c>
     </row>
     <row r="8">
@@ -23020,7 +23020,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>141.7195527858215</v>
+        <v>338.601669284252</v>
       </c>
       <c r="C8" t="n">
         <v>365.2728917710076</v>
@@ -23065,22 +23065,22 @@
         <v>0</v>
       </c>
       <c r="Q8" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R8" t="n">
-        <v>149.8691179411497</v>
+        <v>110.9975005095251</v>
       </c>
       <c r="S8" t="n">
-        <v>6.725383157348119</v>
+        <v>209.0200695862453</v>
       </c>
       <c r="T8" t="n">
         <v>223.0958495641314</v>
       </c>
       <c r="U8" t="n">
-        <v>10.33136403017744</v>
+        <v>251.3456529078365</v>
       </c>
       <c r="V8" t="n">
-        <v>327.7522584701349</v>
+        <v>283.6200860909063</v>
       </c>
       <c r="W8" t="n">
         <v>349.240968717413</v>
@@ -23089,7 +23089,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
-        <v>145.2236497783945</v>
+        <v>342.105766276825</v>
       </c>
     </row>
     <row r="9">
@@ -23099,25 +23099,25 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0</v>
+        <v>122.4010112706387</v>
       </c>
       <c r="C9" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D9" t="n">
-        <v>147.4450655646388</v>
+        <v>103.3128931854102</v>
       </c>
       <c r="E9" t="n">
         <v>157.6450804554009</v>
       </c>
       <c r="F9" t="n">
-        <v>0</v>
+        <v>106.1975949617593</v>
       </c>
       <c r="G9" t="n">
         <v>137.3435171632106</v>
       </c>
       <c r="H9" t="n">
-        <v>0</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I9" t="n">
         <v>89.39663285141508</v>
@@ -23147,7 +23147,7 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>100.1578341526431</v>
+        <v>56.02566177341454</v>
       </c>
       <c r="S9" t="n">
         <v>171.6831711038378</v>
@@ -23159,7 +23159,7 @@
         <v>225.9413820809748</v>
       </c>
       <c r="V9" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W9" t="n">
         <v>251.6949831609196</v>
@@ -23168,7 +23168,7 @@
         <v>205.7729852034775</v>
       </c>
       <c r="Y9" t="n">
-        <v>99.70136991837383</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="10">
@@ -23178,7 +23178,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>179.8319801819373</v>
+        <v>135.6998078027087</v>
       </c>
       <c r="C10" t="n">
         <v>167.2468210986278</v>
@@ -23232,22 +23232,22 @@
         <v>224.0165980369723</v>
       </c>
       <c r="T10" t="n">
-        <v>227.9455894282815</v>
+        <v>227.1551389805992</v>
       </c>
       <c r="U10" t="n">
-        <v>286.3190293564909</v>
+        <v>242.1868569772623</v>
       </c>
       <c r="V10" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
-        <v>153.336030751223</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
-        <v>218.5846533520948</v>
+        <v>174.4524809728662</v>
       </c>
     </row>
     <row r="11">
@@ -23269,10 +23269,10 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F11" t="n">
-        <v>165.8617568640524</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G11" t="n">
-        <v>174.288448637476</v>
+        <v>415.302737515135</v>
       </c>
       <c r="H11" t="n">
         <v>339.4748021157671</v>
@@ -23305,13 +23305,13 @@
         <v>0</v>
       </c>
       <c r="R11" t="n">
-        <v>149.8691179411497</v>
+        <v>105.7369455619211</v>
       </c>
       <c r="S11" t="n">
         <v>209.0200695862453</v>
       </c>
       <c r="T11" t="n">
-        <v>20.80116313523413</v>
+        <v>178.9636771849028</v>
       </c>
       <c r="U11" t="n">
         <v>251.3456529078365</v>
@@ -23323,10 +23323,10 @@
         <v>349.240968717413</v>
       </c>
       <c r="X11" t="n">
-        <v>369.731100678469</v>
+        <v>340.8501824613893</v>
       </c>
       <c r="Y11" t="n">
-        <v>145.2236497783945</v>
+        <v>342.105766276825</v>
       </c>
     </row>
     <row r="12">
@@ -23339,7 +23339,7 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C12" t="n">
-        <v>172.7084989883157</v>
+        <v>134.5834728829491</v>
       </c>
       <c r="D12" t="n">
         <v>147.4450655646388</v>
@@ -23360,7 +23360,7 @@
         <v>89.39663285141508</v>
       </c>
       <c r="J12" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K12" t="n">
         <v>0</v>
@@ -23384,7 +23384,7 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>70.26853576158743</v>
+        <v>56.02566177341454</v>
       </c>
       <c r="S12" t="n">
         <v>171.6831711038378</v>
@@ -23393,19 +23393,19 @@
         <v>200.1647286948216</v>
       </c>
       <c r="U12" t="n">
-        <v>0</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V12" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W12" t="n">
-        <v>10.68069428326055</v>
+        <v>207.562810781691</v>
       </c>
       <c r="X12" t="n">
-        <v>205.7729852034775</v>
+        <v>161.6408128242489</v>
       </c>
       <c r="Y12" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="13">
@@ -23427,10 +23427,10 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
-        <v>145.4210480229312</v>
+        <v>101.2888756437027</v>
       </c>
       <c r="G13" t="n">
-        <v>34.80401177309074</v>
+        <v>167.9909793584588</v>
       </c>
       <c r="H13" t="n">
         <v>162.2271725074396</v>
@@ -23460,7 +23460,7 @@
         <v>2.721440735106512</v>
       </c>
       <c r="Q13" t="n">
-        <v>86.16204325169439</v>
+        <v>85.37159280401211</v>
       </c>
       <c r="R13" t="n">
         <v>177.2933913771695</v>
@@ -23469,13 +23469,13 @@
         <v>224.0165980369723</v>
       </c>
       <c r="T13" t="n">
-        <v>227.9455894282815</v>
+        <v>183.8134170490529</v>
       </c>
       <c r="U13" t="n">
         <v>286.3190293564909</v>
       </c>
       <c r="V13" t="n">
-        <v>252.137643323828</v>
+        <v>208.0054709445994</v>
       </c>
       <c r="W13" t="n">
         <v>286.522998336591</v>
@@ -23494,7 +23494,7 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>142.4757859842545</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C14" t="n">
         <v>365.2728917710076</v>
@@ -23506,10 +23506,10 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F14" t="n">
-        <v>165.8617568640524</v>
+        <v>362.7438733624829</v>
       </c>
       <c r="G14" t="n">
-        <v>415.302737515135</v>
+        <v>371.1705651359065</v>
       </c>
       <c r="H14" t="n">
         <v>339.4748021157671</v>
@@ -23518,7 +23518,7 @@
         <v>210.4758895704059</v>
       </c>
       <c r="J14" t="n">
-        <v>0</v>
+        <v>11.94928935461252</v>
       </c>
       <c r="K14" t="n">
         <v>0</v>
@@ -23545,10 +23545,10 @@
         <v>149.8691179411497</v>
       </c>
       <c r="S14" t="n">
-        <v>0</v>
+        <v>209.0200695862453</v>
       </c>
       <c r="T14" t="n">
-        <v>0</v>
+        <v>178.9636771849028</v>
       </c>
       <c r="U14" t="n">
         <v>251.3456529078365</v>
@@ -23563,7 +23563,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y14" t="n">
-        <v>386.2379386560536</v>
+        <v>357.3570204389738</v>
       </c>
     </row>
     <row r="15">
@@ -23621,7 +23621,7 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>70.26853576158743</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S15" t="n">
         <v>171.6831711038378</v>
@@ -23630,19 +23630,19 @@
         <v>200.1647286948216</v>
       </c>
       <c r="U15" t="n">
-        <v>0</v>
+        <v>181.8092097017462</v>
       </c>
       <c r="V15" t="n">
-        <v>0</v>
+        <v>188.6684147701967</v>
       </c>
       <c r="W15" t="n">
-        <v>10.68069428326055</v>
+        <v>207.562810781691</v>
       </c>
       <c r="X15" t="n">
         <v>205.7729852034775</v>
       </c>
       <c r="Y15" t="n">
-        <v>0</v>
+        <v>166.8110783456798</v>
       </c>
     </row>
     <row r="16">
@@ -23658,16 +23658,16 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
-        <v>148.6154730182124</v>
+        <v>104.4833006389838</v>
       </c>
       <c r="E16" t="n">
-        <v>146.4339626465692</v>
+        <v>102.3017902673406</v>
       </c>
       <c r="F16" t="n">
-        <v>145.4210480229312</v>
+        <v>101.2888756437027</v>
       </c>
       <c r="G16" t="n">
-        <v>167.9909793584588</v>
+        <v>167.2005289107765</v>
       </c>
       <c r="H16" t="n">
         <v>162.2271725074396</v>
@@ -23700,7 +23700,7 @@
         <v>86.16204325169439</v>
       </c>
       <c r="R16" t="n">
-        <v>44.10642379180146</v>
+        <v>177.2933913771695</v>
       </c>
       <c r="S16" t="n">
         <v>224.0165980369723</v>
@@ -23743,13 +23743,13 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F17" t="n">
-        <v>406.8760457417114</v>
+        <v>165.8617568640524</v>
       </c>
       <c r="G17" t="n">
         <v>415.302737515135</v>
       </c>
       <c r="H17" t="n">
-        <v>98.46051323810809</v>
+        <v>339.4748021157671</v>
       </c>
       <c r="I17" t="n">
         <v>210.4758895704059</v>
@@ -23782,10 +23782,10 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
+        <v>0</v>
+      </c>
+      <c r="T17" t="n">
         <v>128.6853625704253</v>
-      </c>
-      <c r="T17" t="n">
-        <v>0</v>
       </c>
       <c r="U17" t="n">
         <v>251.3456529078365</v>
@@ -23794,13 +23794,13 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W17" t="n">
-        <v>108.226679839754</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X17" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y17" t="n">
-        <v>386.2379386560536</v>
+        <v>145.2236497783945</v>
       </c>
     </row>
     <row r="18">
@@ -23816,19 +23816,19 @@
         <v>172.7084989883157</v>
       </c>
       <c r="D18" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E18" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F18" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G18" t="n">
-        <v>33.2926316963993</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H18" t="n">
-        <v>0</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I18" t="n">
         <v>89.39663285141508</v>
@@ -23864,19 +23864,19 @@
         <v>171.6831711038378</v>
       </c>
       <c r="T18" t="n">
-        <v>200.1647286948216</v>
+        <v>0</v>
       </c>
       <c r="U18" t="n">
         <v>225.9413820809748</v>
       </c>
       <c r="V18" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W18" t="n">
         <v>10.68069428326055</v>
       </c>
       <c r="X18" t="n">
-        <v>205.7729852034775</v>
+        <v>116.8717306722217</v>
       </c>
       <c r="Y18" t="n">
         <v>205.6826957773044</v>
@@ -23983,7 +23983,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G20" t="n">
-        <v>174.288448637476</v>
+        <v>195.0896117727101</v>
       </c>
       <c r="H20" t="n">
         <v>339.4748021157671</v>
@@ -24013,7 +24013,7 @@
         <v>0</v>
       </c>
       <c r="Q20" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R20" t="n">
         <v>149.8691179411497</v>
@@ -24022,7 +24022,7 @@
         <v>209.0200695862453</v>
       </c>
       <c r="T20" t="n">
-        <v>10.81046392068936</v>
+        <v>0</v>
       </c>
       <c r="U20" t="n">
         <v>251.3456529078365</v>
@@ -24047,31 +24047,31 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>89.96622428102506</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C21" t="n">
         <v>172.7084989883157</v>
       </c>
       <c r="D21" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E21" t="n">
-        <v>157.6450804554009</v>
+        <v>104.1930683975398</v>
       </c>
       <c r="F21" t="n">
         <v>145.0692123933839</v>
       </c>
       <c r="G21" t="n">
-        <v>0</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H21" t="n">
-        <v>112.2354442364965</v>
+        <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>89.39663285141508</v>
+        <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K21" t="n">
         <v>0</v>
@@ -24095,7 +24095,7 @@
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S21" t="n">
         <v>171.6831711038378</v>
@@ -24116,7 +24116,7 @@
         <v>205.7729852034775</v>
       </c>
       <c r="Y21" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="22">
@@ -24186,10 +24186,10 @@
         <v>286.3190293564909</v>
       </c>
       <c r="V22" t="n">
-        <v>118.95067573846</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W22" t="n">
-        <v>286.522998336591</v>
+        <v>153.336030751223</v>
       </c>
       <c r="X22" t="n">
         <v>225.7096553890372</v>
@@ -24220,13 +24220,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G23" t="n">
-        <v>415.302737515135</v>
+        <v>174.288448637476</v>
       </c>
       <c r="H23" t="n">
-        <v>339.4748021157671</v>
+        <v>98.46051323810809</v>
       </c>
       <c r="I23" t="n">
-        <v>210.4758895704059</v>
+        <v>207.2105735132092</v>
       </c>
       <c r="J23" t="n">
         <v>11.94928935461252</v>
@@ -24250,19 +24250,19 @@
         <v>0</v>
       </c>
       <c r="Q23" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R23" t="n">
-        <v>0</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S23" t="n">
-        <v>156.5945010984978</v>
+        <v>0</v>
       </c>
       <c r="T23" t="n">
         <v>223.0958495641314</v>
       </c>
       <c r="U23" t="n">
-        <v>10.33136403017744</v>
+        <v>251.3456529078365</v>
       </c>
       <c r="V23" t="n">
         <v>86.73796959247585</v>
@@ -24271,7 +24271,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X23" t="n">
-        <v>128.71681180081</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y23" t="n">
         <v>386.2379386560536</v>
@@ -24308,7 +24308,7 @@
         <v>89.39663285141508</v>
       </c>
       <c r="J24" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K24" t="n">
         <v>0</v>
@@ -24332,7 +24332,7 @@
         <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S24" t="n">
         <v>171.6831711038378</v>
@@ -24341,7 +24341,7 @@
         <v>200.1647286948216</v>
       </c>
       <c r="U24" t="n">
-        <v>0</v>
+        <v>175.8836868124218</v>
       </c>
       <c r="V24" t="n">
         <v>0</v>
@@ -24350,10 +24350,10 @@
         <v>10.68069428326055</v>
       </c>
       <c r="X24" t="n">
-        <v>71.10541651401849</v>
+        <v>0</v>
       </c>
       <c r="Y24" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="25">
@@ -24375,7 +24375,7 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
-        <v>12.23408043756322</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
         <v>167.9909793584588</v>
@@ -24426,7 +24426,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W25" t="n">
-        <v>286.522998336591</v>
+        <v>153.336030751223</v>
       </c>
       <c r="X25" t="n">
         <v>225.7096553890372</v>
@@ -24448,7 +24448,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D26" t="n">
-        <v>113.6687527430239</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E26" t="n">
         <v>381.9303700722618</v>
@@ -24457,7 +24457,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G26" t="n">
-        <v>415.302737515135</v>
+        <v>195.0896117727101</v>
       </c>
       <c r="H26" t="n">
         <v>339.4748021157671</v>
@@ -24487,25 +24487,25 @@
         <v>0</v>
       </c>
       <c r="Q26" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R26" t="n">
-        <v>0</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S26" t="n">
-        <v>0</v>
+        <v>209.0200695862453</v>
       </c>
       <c r="T26" t="n">
-        <v>128.6853625704253</v>
+        <v>0</v>
       </c>
       <c r="U26" t="n">
-        <v>251.3456529078365</v>
+        <v>10.33136403017744</v>
       </c>
       <c r="V26" t="n">
-        <v>327.7522584701349</v>
+        <v>86.73796959247585</v>
       </c>
       <c r="W26" t="n">
-        <v>108.226679839754</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X26" t="n">
         <v>369.731100678469</v>
@@ -24524,19 +24524,19 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C27" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D27" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E27" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F27" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G27" t="n">
-        <v>0</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H27" t="n">
         <v>112.2354442364965</v>
@@ -24569,25 +24569,25 @@
         <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S27" t="n">
-        <v>171.6831711038378</v>
+        <v>141.8841621389553</v>
       </c>
       <c r="T27" t="n">
-        <v>125.2056851359954</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U27" t="n">
-        <v>225.9413820809748</v>
+        <v>0</v>
       </c>
       <c r="V27" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W27" t="n">
-        <v>251.6949831609196</v>
+        <v>10.68069428326055</v>
       </c>
       <c r="X27" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y27" t="n">
         <v>205.6826957773044</v>
@@ -24609,7 +24609,7 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
-        <v>13.24699506120115</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
         <v>145.4210480229312</v>
@@ -24663,7 +24663,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W28" t="n">
-        <v>286.522998336591</v>
+        <v>153.336030751223</v>
       </c>
       <c r="X28" t="n">
         <v>225.7096553890372</v>
@@ -24733,16 +24733,16 @@
         <v>209.0200695862453</v>
       </c>
       <c r="T29" t="n">
-        <v>223.0958495641314</v>
+        <v>0</v>
       </c>
       <c r="U29" t="n">
-        <v>251.3456529078365</v>
+        <v>31.13252716541155</v>
       </c>
       <c r="V29" t="n">
-        <v>125.4575720412377</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W29" t="n">
-        <v>108.226679839754</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X29" t="n">
         <v>369.731100678469</v>
@@ -24761,13 +24761,13 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C30" t="n">
-        <v>127.4196248553433</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D30" t="n">
-        <v>0</v>
+        <v>8.131428305211898</v>
       </c>
       <c r="E30" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F30" t="n">
         <v>0</v>
@@ -24776,10 +24776,10 @@
         <v>0</v>
       </c>
       <c r="H30" t="n">
-        <v>0</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I30" t="n">
-        <v>0</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J30" t="n">
         <v>0</v>
@@ -24809,7 +24809,7 @@
         <v>0</v>
       </c>
       <c r="S30" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T30" t="n">
         <v>200.1647286948216</v>
@@ -24821,7 +24821,7 @@
         <v>232.8005871494253</v>
       </c>
       <c r="W30" t="n">
-        <v>251.6949831609196</v>
+        <v>10.68069428326055</v>
       </c>
       <c r="X30" t="n">
         <v>205.7729852034775</v>
@@ -24894,13 +24894,13 @@
         <v>227.9455894282815</v>
       </c>
       <c r="U31" t="n">
-        <v>286.3190293564909</v>
+        <v>153.1320617711229</v>
       </c>
       <c r="V31" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W31" t="n">
-        <v>153.336030751223</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X31" t="n">
         <v>225.7096553890372</v>
@@ -24934,7 +24934,7 @@
         <v>174.288448637476</v>
       </c>
       <c r="H32" t="n">
-        <v>237.1365750230782</v>
+        <v>119.2616763733422</v>
       </c>
       <c r="I32" t="n">
         <v>210.4758895704059</v>
@@ -24964,16 +24964,16 @@
         <v>0</v>
       </c>
       <c r="R32" t="n">
-        <v>0</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S32" t="n">
-        <v>0</v>
+        <v>209.0200695862453</v>
       </c>
       <c r="T32" t="n">
         <v>0</v>
       </c>
       <c r="U32" t="n">
-        <v>251.3456529078365</v>
+        <v>10.33136403017744</v>
       </c>
       <c r="V32" t="n">
         <v>327.7522584701349</v>
@@ -24995,31 +24995,31 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C33" t="n">
-        <v>108.3244882493363</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D33" t="n">
-        <v>147.4450655646388</v>
+        <v>114.4702937614801</v>
       </c>
       <c r="E33" t="n">
         <v>157.6450804554009</v>
       </c>
       <c r="F33" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>137.3435171632106</v>
+        <v>0</v>
       </c>
       <c r="H33" t="n">
-        <v>112.2354442364965</v>
+        <v>0</v>
       </c>
       <c r="I33" t="n">
         <v>89.39663285141508</v>
       </c>
       <c r="J33" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K33" t="n">
         <v>0</v>
@@ -25043,7 +25043,7 @@
         <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S33" t="n">
         <v>171.6831711038378</v>
@@ -25052,19 +25052,19 @@
         <v>200.1647286948216</v>
       </c>
       <c r="U33" t="n">
-        <v>0</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V33" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W33" t="n">
-        <v>251.6949831609196</v>
+        <v>10.68069428326055</v>
       </c>
       <c r="X33" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y33" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="34">
@@ -25122,13 +25122,13 @@
         <v>86.16204325169439</v>
       </c>
       <c r="R34" t="n">
-        <v>44.10642379180146</v>
+        <v>177.2933913771695</v>
       </c>
       <c r="S34" t="n">
         <v>224.0165980369723</v>
       </c>
       <c r="T34" t="n">
-        <v>227.9455894282815</v>
+        <v>94.75862184291347</v>
       </c>
       <c r="U34" t="n">
         <v>286.3190293564909</v>
@@ -25168,16 +25168,16 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G35" t="n">
-        <v>174.288448637476</v>
+        <v>415.302737515135</v>
       </c>
       <c r="H35" t="n">
-        <v>98.46051323810809</v>
+        <v>339.4748021157671</v>
       </c>
       <c r="I35" t="n">
         <v>210.4758895704059</v>
       </c>
       <c r="J35" t="n">
-        <v>0</v>
+        <v>11.94928935461252</v>
       </c>
       <c r="K35" t="n">
         <v>0</v>
@@ -25198,13 +25198,13 @@
         <v>0</v>
       </c>
       <c r="Q35" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R35" t="n">
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>140.6346519250378</v>
+        <v>0</v>
       </c>
       <c r="T35" t="n">
         <v>0</v>
@@ -25216,10 +25216,10 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W35" t="n">
-        <v>349.240968717413</v>
+        <v>108.226679839754</v>
       </c>
       <c r="X35" t="n">
-        <v>369.731100678469</v>
+        <v>267.3928735857801</v>
       </c>
       <c r="Y35" t="n">
         <v>386.2379386560536</v>
@@ -25235,28 +25235,28 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C36" t="n">
-        <v>111.129257103122</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D36" t="n">
         <v>0</v>
       </c>
       <c r="E36" t="n">
-        <v>0</v>
+        <v>105.5821905670137</v>
       </c>
       <c r="F36" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G36" t="n">
         <v>0</v>
       </c>
       <c r="H36" t="n">
-        <v>112.2354442364965</v>
+        <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>0</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J36" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K36" t="n">
         <v>0</v>
@@ -25356,10 +25356,10 @@
         <v>2.721440735106512</v>
       </c>
       <c r="Q37" t="n">
-        <v>86.16204325169439</v>
+        <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>177.2933913771695</v>
+        <v>130.2684670434958</v>
       </c>
       <c r="S37" t="n">
         <v>224.0165980369723</v>
@@ -25374,7 +25374,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W37" t="n">
-        <v>153.336030751223</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X37" t="n">
         <v>225.7096553890372</v>
@@ -25390,7 +25390,7 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>141.7195527858215</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C38" t="n">
         <v>365.2728917710076</v>
@@ -25405,10 +25405,10 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G38" t="n">
-        <v>174.288448637476</v>
+        <v>394.1189821444107</v>
       </c>
       <c r="H38" t="n">
-        <v>339.4748021157671</v>
+        <v>98.46051323810809</v>
       </c>
       <c r="I38" t="n">
         <v>210.4758895704059</v>
@@ -25435,19 +25435,19 @@
         <v>0</v>
       </c>
       <c r="Q38" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R38" t="n">
         <v>149.8691179411497</v>
       </c>
       <c r="S38" t="n">
-        <v>209.0200695862453</v>
+        <v>0</v>
       </c>
       <c r="T38" t="n">
         <v>0</v>
       </c>
       <c r="U38" t="n">
-        <v>31.13252716541155</v>
+        <v>10.33136403017744</v>
       </c>
       <c r="V38" t="n">
         <v>327.7522584701349</v>
@@ -25469,25 +25469,25 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C39" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D39" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E39" t="n">
         <v>0</v>
       </c>
       <c r="F39" t="n">
-        <v>145.0692123933839</v>
+        <v>144.7430265087661</v>
       </c>
       <c r="G39" t="n">
         <v>137.3435171632106</v>
       </c>
       <c r="H39" t="n">
-        <v>0</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I39" t="n">
         <v>89.39663285141508</v>
@@ -25517,10 +25517,10 @@
         <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S39" t="n">
-        <v>120.5362555812868</v>
+        <v>0</v>
       </c>
       <c r="T39" t="n">
         <v>0</v>
@@ -25529,7 +25529,7 @@
         <v>225.9413820809748</v>
       </c>
       <c r="V39" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W39" t="n">
         <v>251.6949831609196</v>
@@ -25608,10 +25608,10 @@
         <v>286.3190293564909</v>
       </c>
       <c r="V40" t="n">
-        <v>118.95067573846</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W40" t="n">
-        <v>286.522998336591</v>
+        <v>153.336030751223</v>
       </c>
       <c r="X40" t="n">
         <v>225.7096553890372</v>
@@ -25648,7 +25648,7 @@
         <v>339.4748021157671</v>
       </c>
       <c r="I41" t="n">
-        <v>0</v>
+        <v>210.4758895704059</v>
       </c>
       <c r="J41" t="n">
         <v>11.94928935461252</v>
@@ -25675,28 +25675,28 @@
         <v>9.990699214544804</v>
       </c>
       <c r="R41" t="n">
-        <v>149.8691179411497</v>
+        <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>209.0200695862453</v>
+        <v>0</v>
       </c>
       <c r="T41" t="n">
         <v>0</v>
       </c>
       <c r="U41" t="n">
-        <v>251.3456529078365</v>
+        <v>139.0167266006028</v>
       </c>
       <c r="V41" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W41" t="n">
-        <v>108.226679839754</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X41" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y41" t="n">
-        <v>366.5100032694898</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="42">
@@ -25706,31 +25706,31 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C42" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D42" t="n">
         <v>147.4450655646388</v>
       </c>
       <c r="E42" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F42" t="n">
         <v>145.0692123933839</v>
       </c>
       <c r="G42" t="n">
-        <v>137.3435171632106</v>
+        <v>0</v>
       </c>
       <c r="H42" t="n">
-        <v>112.2354442364965</v>
+        <v>0</v>
       </c>
       <c r="I42" t="n">
         <v>89.39663285141508</v>
       </c>
       <c r="J42" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K42" t="n">
         <v>0</v>
@@ -25754,28 +25754,28 @@
         <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S42" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T42" t="n">
-        <v>136.2759056302994</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U42" t="n">
-        <v>0</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V42" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W42" t="n">
-        <v>10.68069428326055</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X42" t="n">
         <v>205.7729852034775</v>
       </c>
       <c r="Y42" t="n">
-        <v>205.6826957773044</v>
+        <v>117.7245934730773</v>
       </c>
     </row>
     <row r="43">
@@ -25833,7 +25833,7 @@
         <v>86.16204325169439</v>
       </c>
       <c r="R43" t="n">
-        <v>44.10642379180146</v>
+        <v>177.2933913771695</v>
       </c>
       <c r="S43" t="n">
         <v>224.0165980369723</v>
@@ -25848,7 +25848,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W43" t="n">
-        <v>286.522998336591</v>
+        <v>153.336030751223</v>
       </c>
       <c r="X43" t="n">
         <v>225.7096553890372</v>
@@ -25876,13 +25876,13 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F44" t="n">
-        <v>406.8760457417114</v>
+        <v>294.5471194344777</v>
       </c>
       <c r="G44" t="n">
-        <v>415.302737515135</v>
+        <v>174.288448637476</v>
       </c>
       <c r="H44" t="n">
-        <v>98.46051323810809</v>
+        <v>339.4748021157671</v>
       </c>
       <c r="I44" t="n">
         <v>210.4758895704059</v>
@@ -25924,7 +25924,7 @@
         <v>251.3456529078365</v>
       </c>
       <c r="V44" t="n">
-        <v>215.4233321629012</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W44" t="n">
         <v>349.240968717413</v>
@@ -25949,10 +25949,10 @@
         <v>172.7084989883157</v>
       </c>
       <c r="D45" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E45" t="n">
-        <v>79.44885924156161</v>
+        <v>0</v>
       </c>
       <c r="F45" t="n">
         <v>0</v>
@@ -25961,7 +25961,7 @@
         <v>0</v>
       </c>
       <c r="H45" t="n">
-        <v>112.2354442364965</v>
+        <v>0</v>
       </c>
       <c r="I45" t="n">
         <v>89.39663285141508</v>
@@ -25991,7 +25991,7 @@
         <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S45" t="n">
         <v>171.6831711038378</v>
@@ -26000,13 +26000,13 @@
         <v>200.1647286948216</v>
       </c>
       <c r="U45" t="n">
-        <v>225.9413820809748</v>
+        <v>0</v>
       </c>
       <c r="V45" t="n">
-        <v>0</v>
+        <v>223.8986280933693</v>
       </c>
       <c r="W45" t="n">
-        <v>10.68069428326055</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X45" t="n">
         <v>205.7729852034775</v>
@@ -26028,7 +26028,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D46" t="n">
-        <v>148.6154730182124</v>
+        <v>15.42850543284433</v>
       </c>
       <c r="E46" t="n">
         <v>146.4339626465692</v>
@@ -26085,7 +26085,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W46" t="n">
-        <v>153.336030751223</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X46" t="n">
         <v>225.7096553890372</v>
@@ -26125,7 +26125,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>498482.0175939975</v>
+        <v>358659.0160535966</v>
       </c>
     </row>
     <row r="3">
@@ -26133,7 +26133,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>498482.0175939975</v>
+        <v>358659.0160535965</v>
       </c>
     </row>
     <row r="4">
@@ -26141,7 +26141,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>498482.0175939975</v>
+        <v>358659.0160535965</v>
       </c>
     </row>
     <row r="5">
@@ -26149,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>498482.0175939975</v>
+        <v>358659.0160535965</v>
       </c>
     </row>
     <row r="6">
@@ -26157,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>498482.0175939975</v>
+        <v>358659.0160535966</v>
       </c>
     </row>
     <row r="7">
@@ -26173,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>498482.0175939975</v>
+        <v>498482.0175939976</v>
       </c>
     </row>
     <row r="9">
@@ -26181,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>498482.0175939973</v>
+        <v>498482.0175939974</v>
       </c>
     </row>
     <row r="10">
@@ -26189,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>498482.0175939975</v>
+        <v>498482.0175939974</v>
       </c>
     </row>
     <row r="11">
@@ -26205,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>498482.0175939976</v>
+        <v>498482.0175939975</v>
       </c>
     </row>
     <row r="13">
@@ -26221,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>498482.0175939976</v>
+        <v>498482.0175939975</v>
       </c>
     </row>
     <row r="15">
@@ -26237,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>498482.0175939974</v>
+        <v>498482.0175939973</v>
       </c>
     </row>
   </sheetData>
@@ -26313,49 +26313,49 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>83080.33626566618</v>
+        <v>59776.50267559938</v>
       </c>
       <c r="C2" t="n">
-        <v>83080.33626566624</v>
+        <v>59776.50267559938</v>
       </c>
       <c r="D2" t="n">
+        <v>59776.50267559938</v>
+      </c>
+      <c r="E2" t="n">
+        <v>59776.50267559939</v>
+      </c>
+      <c r="F2" t="n">
+        <v>59776.50267559939</v>
+      </c>
+      <c r="G2" t="n">
         <v>83080.33626566621</v>
       </c>
-      <c r="E2" t="n">
-        <v>83080.33626566618</v>
-      </c>
-      <c r="F2" t="n">
+      <c r="H2" t="n">
         <v>83080.33626566621</v>
       </c>
-      <c r="G2" t="n">
-        <v>83080.33626566615</v>
-      </c>
-      <c r="H2" t="n">
-        <v>83080.33626566618</v>
-      </c>
       <c r="I2" t="n">
-        <v>83080.33626566615</v>
+        <v>83080.33626566621</v>
       </c>
       <c r="J2" t="n">
         <v>83080.33626566618</v>
       </c>
       <c r="K2" t="n">
+        <v>83080.33626566624</v>
+      </c>
+      <c r="L2" t="n">
         <v>83080.33626566618</v>
-      </c>
-      <c r="L2" t="n">
-        <v>83080.33626566621</v>
       </c>
       <c r="M2" t="n">
         <v>83080.33626566618</v>
       </c>
       <c r="N2" t="n">
-        <v>83080.33626566621</v>
+        <v>83080.33626566618</v>
       </c>
       <c r="O2" t="n">
         <v>83080.33626566618</v>
       </c>
       <c r="P2" t="n">
-        <v>83080.33626566618</v>
+        <v>83080.33626566615</v>
       </c>
     </row>
     <row r="3">
@@ -26365,7 +26365,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>80769.43153154773</v>
+        <v>14789.70600424422</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26380,7 +26380,7 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>53962.43490047232</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -26389,7 +26389,7 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>63059.94259910623</v>
+        <v>11546.91810999089</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -26404,7 +26404,7 @@
         <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>0</v>
+        <v>47379.87821746379</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
@@ -26417,19 +26417,19 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>179.5324977039669</v>
+        <v>36.87052286425573</v>
       </c>
       <c r="C4" t="n">
-        <v>179.5324977039669</v>
+        <v>36.87052286425572</v>
       </c>
       <c r="D4" t="n">
-        <v>179.5324977039669</v>
+        <v>36.87052286425573</v>
       </c>
       <c r="E4" t="n">
-        <v>179.5324977039669</v>
+        <v>36.87052286425572</v>
       </c>
       <c r="F4" t="n">
-        <v>179.5324977039669</v>
+        <v>36.87052286425572</v>
       </c>
       <c r="G4" t="n">
         <v>179.5324977039669</v>
@@ -26469,19 +26469,19 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>48281.26876376167</v>
+        <v>36310.8360806571</v>
       </c>
       <c r="C5" t="n">
-        <v>48281.26876376167</v>
+        <v>36310.8360806571</v>
       </c>
       <c r="D5" t="n">
-        <v>48281.26876376167</v>
+        <v>36310.8360806571</v>
       </c>
       <c r="E5" t="n">
-        <v>14653.66876376167</v>
+        <v>2683.236080657098</v>
       </c>
       <c r="F5" t="n">
-        <v>14653.66876376167</v>
+        <v>2683.236080657098</v>
       </c>
       <c r="G5" t="n">
         <v>14653.66876376167</v>
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-58367.90714738765</v>
+        <v>7184.250669929085</v>
       </c>
       <c r="C6" t="n">
-        <v>22401.52438416013</v>
+        <v>21973.95667417331</v>
       </c>
       <c r="D6" t="n">
-        <v>22401.5243841601</v>
+        <v>21973.95667417331</v>
       </c>
       <c r="E6" t="n">
-        <v>56029.12438416007</v>
+        <v>55601.55667417331</v>
       </c>
       <c r="F6" t="n">
-        <v>56029.1243841601</v>
+        <v>55601.55667417331</v>
       </c>
       <c r="G6" t="n">
-        <v>56029.12438416004</v>
+        <v>13062.8990417242</v>
       </c>
       <c r="H6" t="n">
-        <v>56029.12438416007</v>
+        <v>67025.33394219652</v>
       </c>
       <c r="I6" t="n">
-        <v>56029.12438416004</v>
+        <v>67025.33394219652</v>
       </c>
       <c r="J6" t="n">
-        <v>-7030.818214946155</v>
+        <v>55478.4158322056</v>
       </c>
       <c r="K6" t="n">
-        <v>56029.12438416007</v>
+        <v>67025.33394219655</v>
       </c>
       <c r="L6" t="n">
-        <v>56029.1243841601</v>
+        <v>67025.33394219649</v>
       </c>
       <c r="M6" t="n">
-        <v>56029.12438416007</v>
+        <v>67025.33394219649</v>
       </c>
       <c r="N6" t="n">
-        <v>56029.1243841601</v>
+        <v>67025.33394219649</v>
       </c>
       <c r="O6" t="n">
-        <v>56029.12438416007</v>
+        <v>19645.45572473271</v>
       </c>
       <c r="P6" t="n">
-        <v>56029.12438416007</v>
+        <v>67025.33394219646</v>
       </c>
     </row>
   </sheetData>
@@ -26789,19 +26789,19 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>241.0142888776591</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="C4" t="n">
-        <v>241.0142888776591</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="D4" t="n">
-        <v>241.0142888776591</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="E4" t="n">
-        <v>241.0142888776591</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="F4" t="n">
-        <v>241.0142888776591</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="G4" t="n">
         <v>241.0142888776591</v>
@@ -27011,7 +27011,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>241.0142888776591</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -27026,7 +27026,7 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>196.8821164984305</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -27035,7 +27035,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>241.0142888776591</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27050,7 +27050,7 @@
         <v>0</v>
       </c>
       <c r="O4" t="n">
-        <v>0</v>
+        <v>196.8821164984305</v>
       </c>
       <c r="P4" t="n">
         <v>0</v>
@@ -27257,7 +27257,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>241.0142888776591</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27272,7 +27272,7 @@
         <v>0</v>
       </c>
       <c r="O4" t="n">
-        <v>0</v>
+        <v>196.8821164984305</v>
       </c>
       <c r="P4" t="n">
         <v>0</v>
@@ -34701,22 +34701,22 @@
         <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>104.0555615261842</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="L2" t="n">
-        <v>181.8947995804632</v>
+        <v>42.34905430330018</v>
       </c>
       <c r="M2" t="n">
-        <v>219.1673002655598</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="N2" t="n">
-        <v>207.9338608153932</v>
+        <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>150.7019698410586</v>
+        <v>0</v>
       </c>
       <c r="P2" t="n">
-        <v>90.5657124162131</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="Q2" t="n">
         <v>0</v>
@@ -34780,25 +34780,25 @@
         <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>126.6237980382196</v>
+        <v>42.34905430330018</v>
       </c>
       <c r="L3" t="n">
-        <v>232.285965523585</v>
+        <v>0</v>
       </c>
       <c r="M3" t="n">
         <v>0</v>
       </c>
       <c r="N3" t="n">
-        <v>169.9067907798017</v>
+        <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>241.0142888776591</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="P3" t="n">
-        <v>184.4883612256069</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="Q3" t="n">
-        <v>0</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34938,22 +34938,22 @@
         <v>0</v>
       </c>
       <c r="K5" t="n">
-        <v>104.0555615261842</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="L5" t="n">
-        <v>181.8947995804632</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="M5" t="n">
-        <v>219.1673002655597</v>
+        <v>0</v>
       </c>
       <c r="N5" t="n">
-        <v>207.9338608153932</v>
+        <v>0</v>
       </c>
       <c r="O5" t="n">
-        <v>150.7019698410586</v>
+        <v>42.34905430330019</v>
       </c>
       <c r="P5" t="n">
-        <v>90.5657124162131</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="Q5" t="n">
         <v>0</v>
@@ -35017,25 +35017,25 @@
         <v>0</v>
       </c>
       <c r="K6" t="n">
-        <v>126.6237980382196</v>
+        <v>0</v>
       </c>
       <c r="L6" t="n">
-        <v>0</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="M6" t="n">
-        <v>241.0142888776591</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="N6" t="n">
-        <v>91.0829537758999</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="O6" t="n">
-        <v>241.0142888776591</v>
+        <v>42.34905430330016</v>
       </c>
       <c r="P6" t="n">
-        <v>184.4883612256069</v>
+        <v>0</v>
       </c>
       <c r="Q6" t="n">
-        <v>70.09551364982758</v>
+        <v>0</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35175,22 +35175,22 @@
         <v>0</v>
       </c>
       <c r="K8" t="n">
-        <v>104.0555615261842</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="L8" t="n">
-        <v>181.8947995804632</v>
+        <v>42.34905430330018</v>
       </c>
       <c r="M8" t="n">
-        <v>219.1673002655598</v>
+        <v>0</v>
       </c>
       <c r="N8" t="n">
-        <v>207.9338608153932</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="O8" t="n">
-        <v>150.7019698410587</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="P8" t="n">
-        <v>90.5657124162131</v>
+        <v>0</v>
       </c>
       <c r="Q8" t="n">
         <v>0</v>
@@ -35260,19 +35260,19 @@
         <v>0</v>
       </c>
       <c r="M9" t="n">
-        <v>241.0142888776591</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="N9" t="n">
-        <v>217.7067518141195</v>
+        <v>0</v>
       </c>
       <c r="O9" t="n">
-        <v>241.0142888776591</v>
+        <v>42.34905430330018</v>
       </c>
       <c r="P9" t="n">
-        <v>184.4883612256069</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="Q9" t="n">
-        <v>70.09551364982758</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35412,22 +35412,22 @@
         <v>0</v>
       </c>
       <c r="K11" t="n">
-        <v>104.0555615261842</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="L11" t="n">
-        <v>181.8947995804632</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="M11" t="n">
-        <v>219.1673002655598</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="N11" t="n">
-        <v>207.9338608153932</v>
+        <v>42.34905430330016</v>
       </c>
       <c r="O11" t="n">
-        <v>150.7019698410587</v>
+        <v>0</v>
       </c>
       <c r="P11" t="n">
-        <v>90.5657124162131</v>
+        <v>0</v>
       </c>
       <c r="Q11" t="n">
         <v>0</v>
@@ -35491,25 +35491,25 @@
         <v>0</v>
       </c>
       <c r="K12" t="n">
-        <v>126.6237980382196</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="L12" t="n">
-        <v>91.0829537758999</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="M12" t="n">
-        <v>0</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="N12" t="n">
-        <v>241.0142888776591</v>
+        <v>42.34905430330016</v>
       </c>
       <c r="O12" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="P12" t="n">
-        <v>184.4883612256069</v>
+        <v>0</v>
       </c>
       <c r="Q12" t="n">
-        <v>70.09551364982758</v>
+        <v>0</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35649,22 +35649,22 @@
         <v>0</v>
       </c>
       <c r="K14" t="n">
-        <v>104.0555615261842</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="L14" t="n">
-        <v>181.8947995804632</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="M14" t="n">
-        <v>219.1673002655598</v>
+        <v>0</v>
       </c>
       <c r="N14" t="n">
-        <v>207.9338608153932</v>
+        <v>0</v>
       </c>
       <c r="O14" t="n">
-        <v>150.7019698410586</v>
+        <v>42.34905430330019</v>
       </c>
       <c r="P14" t="n">
-        <v>90.5657124162131</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="Q14" t="n">
         <v>0</v>
@@ -35728,25 +35728,25 @@
         <v>0</v>
       </c>
       <c r="K15" t="n">
-        <v>126.6237980382196</v>
+        <v>0</v>
       </c>
       <c r="L15" t="n">
-        <v>232.285965523585</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="M15" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="N15" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="O15" t="n">
-        <v>113.3808631277494</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="P15" t="n">
-        <v>0</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="Q15" t="n">
-        <v>0</v>
+        <v>42.34905430330016</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35892,7 +35892,7 @@
         <v>181.8947995804632</v>
       </c>
       <c r="M17" t="n">
-        <v>219.1673002655598</v>
+        <v>219.1673002655597</v>
       </c>
       <c r="N17" t="n">
         <v>207.9338608153932</v>
@@ -35971,13 +35971,13 @@
         <v>232.285965523585</v>
       </c>
       <c r="M18" t="n">
-        <v>113.3808631277495</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="N18" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="O18" t="n">
-        <v>241.0142888776591</v>
+        <v>113.3808631277494</v>
       </c>
       <c r="P18" t="n">
         <v>0</v>
@@ -36135,7 +36135,7 @@
         <v>207.9338608153932</v>
       </c>
       <c r="O20" t="n">
-        <v>150.7019698410587</v>
+        <v>150.7019698410586</v>
       </c>
       <c r="P20" t="n">
         <v>90.5657124162131</v>
@@ -36202,25 +36202,25 @@
         <v>0</v>
       </c>
       <c r="K21" t="n">
-        <v>126.6237980382196</v>
+        <v>46.78797658628819</v>
       </c>
       <c r="L21" t="n">
-        <v>232.285965523585</v>
+        <v>0</v>
       </c>
       <c r="M21" t="n">
-        <v>99.81127712997396</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="N21" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="O21" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="P21" t="n">
         <v>184.4883612256069</v>
       </c>
       <c r="Q21" t="n">
-        <v>70.09551364982758</v>
+        <v>0</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -36439,7 +36439,7 @@
         <v>0</v>
       </c>
       <c r="K24" t="n">
-        <v>126.6237980382196</v>
+        <v>0</v>
       </c>
       <c r="L24" t="n">
         <v>232.285965523585</v>
@@ -36451,13 +36451,13 @@
         <v>241.0142888776591</v>
       </c>
       <c r="O24" t="n">
-        <v>113.3808631277494</v>
+        <v>169.9091475161414</v>
       </c>
       <c r="P24" t="n">
         <v>0</v>
       </c>
       <c r="Q24" t="n">
-        <v>0</v>
+        <v>70.09551364982758</v>
       </c>
       <c r="R24" t="n">
         <v>0</v>
@@ -36676,25 +36676,25 @@
         <v>0</v>
       </c>
       <c r="K27" t="n">
-        <v>0</v>
+        <v>126.6237980382196</v>
       </c>
       <c r="L27" t="n">
-        <v>0</v>
+        <v>232.285965523585</v>
       </c>
       <c r="M27" t="n">
+        <v>0</v>
+      </c>
+      <c r="N27" t="n">
+        <v>169.9067907798017</v>
+      </c>
+      <c r="O27" t="n">
         <v>241.0142888776591</v>
-      </c>
-      <c r="N27" t="n">
-        <v>241.0142888776591</v>
-      </c>
-      <c r="O27" t="n">
-        <v>217.7067518141195</v>
       </c>
       <c r="P27" t="n">
         <v>184.4883612256069</v>
       </c>
       <c r="Q27" t="n">
-        <v>70.09551364982758</v>
+        <v>0</v>
       </c>
       <c r="R27" t="n">
         <v>0</v>
@@ -36919,10 +36919,10 @@
         <v>232.285965523585</v>
       </c>
       <c r="M30" t="n">
-        <v>241.0142888776591</v>
+        <v>226.4350751681936</v>
       </c>
       <c r="N30" t="n">
-        <v>55.51629994036225</v>
+        <v>0</v>
       </c>
       <c r="O30" t="n">
         <v>241.0142888776591</v>
@@ -36931,7 +36931,7 @@
         <v>184.4883612256069</v>
       </c>
       <c r="Q30" t="n">
-        <v>0</v>
+        <v>70.09551364982758</v>
       </c>
       <c r="R30" t="n">
         <v>0</v>
@@ -37156,16 +37156,16 @@
         <v>232.285965523585</v>
       </c>
       <c r="M33" t="n">
+        <v>169.9067907798017</v>
+      </c>
+      <c r="N33" t="n">
+        <v>0</v>
+      </c>
+      <c r="O33" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="N33" t="n">
-        <v>241.0142888776591</v>
-      </c>
-      <c r="O33" t="n">
-        <v>113.3808631277494</v>
-      </c>
       <c r="P33" t="n">
-        <v>0</v>
+        <v>184.4883612256069</v>
       </c>
       <c r="Q33" t="n">
         <v>0</v>
@@ -37390,7 +37390,7 @@
         <v>126.6237980382196</v>
       </c>
       <c r="L36" t="n">
-        <v>232.285965523585</v>
+        <v>0</v>
       </c>
       <c r="M36" t="n">
         <v>241.0142888776591</v>
@@ -37399,13 +37399,13 @@
         <v>241.0142888776591</v>
       </c>
       <c r="O36" t="n">
-        <v>113.3808631277494</v>
+        <v>91.0829537758999</v>
       </c>
       <c r="P36" t="n">
-        <v>0</v>
+        <v>184.4883612256069</v>
       </c>
       <c r="Q36" t="n">
-        <v>0</v>
+        <v>70.09551364982758</v>
       </c>
       <c r="R36" t="n">
         <v>0</v>
@@ -37630,19 +37630,19 @@
         <v>232.285965523585</v>
       </c>
       <c r="M39" t="n">
-        <v>169.9067907798017</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="N39" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="O39" t="n">
-        <v>241.0142888776591</v>
+        <v>43.28534947792182</v>
       </c>
       <c r="P39" t="n">
-        <v>184.4883612256069</v>
+        <v>0</v>
       </c>
       <c r="Q39" t="n">
-        <v>0</v>
+        <v>70.09551364982758</v>
       </c>
       <c r="R39" t="n">
         <v>0</v>
@@ -37788,7 +37788,7 @@
         <v>181.8947995804632</v>
       </c>
       <c r="M41" t="n">
-        <v>219.1673002655597</v>
+        <v>219.1673002655598</v>
       </c>
       <c r="N41" t="n">
         <v>207.9338608153932</v>
@@ -37867,13 +37867,13 @@
         <v>232.285965523585</v>
       </c>
       <c r="M42" t="n">
-        <v>113.3808631277495</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="N42" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="O42" t="n">
-        <v>241.0142888776591</v>
+        <v>113.3808631277494</v>
       </c>
       <c r="P42" t="n">
         <v>0</v>
@@ -38107,10 +38107,10 @@
         <v>241.0142888776591</v>
       </c>
       <c r="N45" t="n">
+        <v>241.0142888776591</v>
+      </c>
+      <c r="O45" t="n">
         <v>113.3808631277494</v>
-      </c>
-      <c r="O45" t="n">
-        <v>241.0142888776591</v>
       </c>
       <c r="P45" t="n">
         <v>0</v>
